--- a/regression/testcase_ConverLab_all.xlsx
+++ b/regression/testcase_ConverLab_all.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13,9 +13,10 @@
     <sheet name="Marketing" sheetId="4" r:id="rId4"/>
     <sheet name="Analysis" sheetId="5" r:id="rId5"/>
     <sheet name="Task" sheetId="6" r:id="rId6"/>
-    <sheet name="Setting" sheetId="7" r:id="rId7"/>
-    <sheet name="TMS" sheetId="8" r:id="rId8"/>
-    <sheet name="快捷版" sheetId="9" r:id="rId9"/>
+    <sheet name="MarketPlace" sheetId="10" r:id="rId7"/>
+    <sheet name="Setting" sheetId="7" r:id="rId8"/>
+    <sheet name="TMS" sheetId="8" r:id="rId9"/>
+    <sheet name="快捷版" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -2005,7 +2006,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A58" authorId="0">
+    <comment ref="A59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2051,7 +2052,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H65" authorId="0">
+    <comment ref="H66" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2094,7 +2095,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A75" authorId="0">
+    <comment ref="A76" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2151,7 +2152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A80" authorId="0">
+    <comment ref="A81" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2208,7 +2209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A84" authorId="0">
+    <comment ref="A85" authorId="0">
       <text>
         <r>
           <rPr>
@@ -5240,7 +5241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4354" uniqueCount="1817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4428" uniqueCount="1861">
   <si>
     <t>编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -13398,12 +13399,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>智能群组筛选002</t>
-  </si>
-  <si>
-    <t>智能群组筛选003</t>
-  </si>
-  <si>
     <t>智能群组筛选004</t>
   </si>
   <si>
@@ -13434,6 +13429,194 @@
   </si>
   <si>
     <t>静态/智能群组取消筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例简单描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预置条件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行步骤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否自动化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConvertLab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用市场_我的微应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看微应用详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测我的微应用中app详情显示准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到Convert Lab系统
+2 我的微应用列表中存在：大转盘app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 点击“大转盘”的“详情”按钮，查看app"大转盘"详情信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功查看该app的详情页面，页面信息显示准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张庆云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看微应用活动列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测查看微应用活动列表功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 点击“大转盘”的“微应用列表”按钮，查看“微应用列表”信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功查看微应用列表信息，列表信息显示准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除微应用app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测删除微应用app功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 点击“大转盘”的“删除”按钮，删除该app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功删除“大转盘”app，该“大转盘”在我的微应用不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加微应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测添加微应用功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到Convert Lab系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 点击“添加更多微应用”，在应用市场中，“立即安装”新应用，自定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功进入“应用市场”页面
+2 成功安装新app，在我的微应用页面中显示准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用市场_应用市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看应用市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测应用市场信息显示准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 查看应用市场中app信息
+2 点击查看应用市场中任意app的详情信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 应用市场中app信息显示准确
+2 任意app的详情信息显示准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能群组筛选_阅读带标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能群组筛选_客户属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能群组筛选_是否在群组中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证智能群组对“是否在群组中”筛选功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到Convert Lab系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13714,6 +13897,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -13732,6 +13923,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -13740,23 +13940,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14272,7 +14455,7 @@
       <c r="B5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="30" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -14314,7 +14497,7 @@
       <c r="B6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="6" t="s">
         <v>45</v>
       </c>
@@ -14354,7 +14537,7 @@
       <c r="B7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6" t="s">
         <v>50</v>
       </c>
@@ -14394,7 +14577,7 @@
       <c r="B8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="6" t="s">
         <v>54</v>
       </c>
@@ -14434,7 +14617,7 @@
       <c r="B9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="28"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="6" t="s">
         <v>63</v>
       </c>
@@ -14954,30 +15137,831 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFCCFFFF"/>
+  </sheetPr>
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="26.375" customWidth="1"/>
+    <col min="7" max="7" width="51" customWidth="1"/>
+    <col min="8" max="8" width="37.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="29.25" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>1664</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>1665</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>1666</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>1667</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>1668</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>1669</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>1670</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>1671</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="192.75" customHeight="1">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>1591</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>1592</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>1593</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="18">
+        <v>2</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>1594</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="17"/>
+    </row>
+    <row r="3" spans="1:14" ht="90.75" customHeight="1">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>1599</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="18">
+        <v>2</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>1594</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="17"/>
+    </row>
+    <row r="4" spans="1:14" ht="87.75" customHeight="1">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>1603</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>1604</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="18">
+        <v>3</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>1594</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="17"/>
+    </row>
+    <row r="5" spans="1:14" ht="70.5" customHeight="1">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1607</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>1608</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="18">
+        <v>3</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>1594</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="17"/>
+    </row>
+    <row r="6" spans="1:14" ht="75" customHeight="1">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>1611</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>1612</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>1613</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="18">
+        <v>3</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>1594</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="17"/>
+    </row>
+    <row r="7" spans="1:14" ht="83.25" customHeight="1">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>1617</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="18">
+        <v>3</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>1594</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="17"/>
+    </row>
+    <row r="8" spans="1:14" ht="74.25" customHeight="1">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>1621</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>1623</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="18">
+        <v>3</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>1594</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="17"/>
+    </row>
+    <row r="9" spans="1:14" ht="78" customHeight="1">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>1625</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>1626</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>1627</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="18">
+        <v>3</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>1594</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="17"/>
+    </row>
+    <row r="10" spans="1:14" ht="105.75" customHeight="1">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>1630</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="18">
+        <v>3</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>1594</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="17"/>
+    </row>
+    <row r="11" spans="1:14" ht="84.75" customHeight="1">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>1634</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="18">
+        <v>2</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>1594</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="17"/>
+    </row>
+    <row r="12" spans="1:14" ht="75.75" customHeight="1">
+      <c r="A12" s="18">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>1637</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="18">
+        <v>2</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>1594</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" s="17"/>
+    </row>
+    <row r="13" spans="1:14" ht="72.75" customHeight="1">
+      <c r="A13" s="18">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>1640</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="18">
+        <v>3</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>1594</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="17"/>
+    </row>
+    <row r="14" spans="1:14" ht="73.5" customHeight="1">
+      <c r="A14" s="18">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>1643</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="18">
+        <v>2</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>1594</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" s="17"/>
+    </row>
+    <row r="15" spans="1:14" ht="66.75" customHeight="1">
+      <c r="A15" s="18">
+        <v>14</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>1647</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>1648</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="18">
+        <v>2</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>1594</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" s="17"/>
+    </row>
+    <row r="16" spans="1:14" ht="63" customHeight="1">
+      <c r="A16" s="18">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>1650</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>1651</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="18">
+        <v>2</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>1594</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="17"/>
+    </row>
+    <row r="17" spans="1:14" ht="78" customHeight="1">
+      <c r="A17" s="18">
+        <v>16</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>1656</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1657</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="18">
+        <v>2</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>1594</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="17"/>
+    </row>
+    <row r="18" spans="1:14" ht="78" customHeight="1">
+      <c r="A18" s="18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>1681</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="18">
+        <v>2</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>1364</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J18">
+      <formula1>"None,Pass,Fail"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M18">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K18">
+      <formula1>"1,2,3,4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I18">
+      <formula1>"功能,异常,性能,安全"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="25.5" style="35" customWidth="1"/>
-    <col min="6" max="6" width="50.25" style="35" customWidth="1"/>
-    <col min="7" max="7" width="43.625" style="35" customWidth="1"/>
-    <col min="8" max="8" width="59.375" style="35" customWidth="1"/>
-    <col min="9" max="12" width="9" style="35" customWidth="1"/>
-    <col min="13" max="13" width="11.625" style="35" customWidth="1"/>
-    <col min="14" max="14" width="20" style="35" customWidth="1"/>
-    <col min="15" max="16384" width="8.875" style="35"/>
+    <col min="1" max="1" width="5.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="25.5" style="26" customWidth="1"/>
+    <col min="6" max="6" width="50.25" style="26" customWidth="1"/>
+    <col min="7" max="7" width="43.625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="59.375" style="26" customWidth="1"/>
+    <col min="9" max="12" width="9" style="26" customWidth="1"/>
+    <col min="13" max="13" width="11.625" style="26" customWidth="1"/>
+    <col min="14" max="14" width="20" style="26" customWidth="1"/>
+    <col min="15" max="16384" width="8.875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -15150,7 +16134,7 @@
       </c>
       <c r="N4" s="18"/>
     </row>
-    <row r="5" spans="1:14" s="36" customFormat="1" ht="127.5" customHeight="1">
+    <row r="5" spans="1:14" s="27" customFormat="1" ht="127.5" customHeight="1">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -15192,7 +16176,7 @@
       </c>
       <c r="N5" s="19"/>
     </row>
-    <row r="6" spans="1:14" s="36" customFormat="1" ht="131.25" customHeight="1">
+    <row r="6" spans="1:14" s="27" customFormat="1" ht="131.25" customHeight="1">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -15234,7 +16218,7 @@
       </c>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="1:14" s="36" customFormat="1" ht="131.25" customHeight="1">
+    <row r="7" spans="1:14" s="27" customFormat="1" ht="131.25" customHeight="1">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -15276,14 +16260,14 @@
       </c>
       <c r="N7" s="18"/>
     </row>
-    <row r="8" spans="1:14" s="36" customFormat="1" ht="124.5" customHeight="1">
+    <row r="8" spans="1:14" s="27" customFormat="1" ht="124.5" customHeight="1">
       <c r="A8" s="19">
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="33" t="s">
         <v>111</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -15320,14 +16304,14 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="36" customFormat="1" ht="124.5" customHeight="1">
+    <row r="9" spans="1:14" s="27" customFormat="1" ht="124.5" customHeight="1">
       <c r="A9" s="19">
         <v>8</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="19" t="s">
         <v>146</v>
       </c>
@@ -15360,14 +16344,14 @@
       </c>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" spans="1:14" s="36" customFormat="1" ht="124.5" customHeight="1">
+    <row r="10" spans="1:14" s="27" customFormat="1" ht="124.5" customHeight="1">
       <c r="A10" s="19">
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="19" t="s">
         <v>151</v>
       </c>
@@ -15400,14 +16384,14 @@
       </c>
       <c r="N10" s="18"/>
     </row>
-    <row r="11" spans="1:14" s="36" customFormat="1" ht="186.75" customHeight="1">
+    <row r="11" spans="1:14" s="27" customFormat="1" ht="186.75" customHeight="1">
       <c r="A11" s="19">
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="30"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="19" t="s">
         <v>156</v>
       </c>
@@ -15440,14 +16424,14 @@
       </c>
       <c r="N11" s="18"/>
     </row>
-    <row r="12" spans="1:14" s="36" customFormat="1" ht="133.5" customHeight="1">
+    <row r="12" spans="1:14" s="27" customFormat="1" ht="133.5" customHeight="1">
       <c r="A12" s="19">
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="31"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="19" t="s">
         <v>161</v>
       </c>
@@ -15482,7 +16466,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="36" customFormat="1" ht="409.5" customHeight="1">
+    <row r="13" spans="1:14" s="27" customFormat="1" ht="409.5" customHeight="1">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -15524,7 +16508,7 @@
       </c>
       <c r="N13" s="19"/>
     </row>
-    <row r="14" spans="1:14" s="36" customFormat="1" ht="105" customHeight="1">
+    <row r="14" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1">
       <c r="A14" s="19">
         <v>13</v>
       </c>
@@ -15566,7 +16550,7 @@
       </c>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" spans="1:14" s="36" customFormat="1" ht="105" customHeight="1">
+    <row r="15" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -15699,7 +16683,7 @@
       <c r="B18" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="33" t="s">
         <v>111</v>
       </c>
       <c r="D18" s="19" t="s">
@@ -15741,7 +16725,7 @@
       <c r="B19" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="30"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="19" t="s">
         <v>191</v>
       </c>
@@ -15781,7 +16765,7 @@
       <c r="B20" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="30"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="19" t="s">
         <v>196</v>
       </c>
@@ -15821,7 +16805,7 @@
       <c r="B21" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="30"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="19" t="s">
         <v>200</v>
       </c>
@@ -15861,7 +16845,7 @@
       <c r="B22" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="30"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="19" t="s">
         <v>205</v>
       </c>
@@ -15901,7 +16885,7 @@
       <c r="B23" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="31"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="19" t="s">
         <v>210</v>
       </c>
@@ -16533,7 +17517,7 @@
         <v>1700</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>1805</v>
+        <v>1857</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>1706</v>
@@ -16564,7 +17548,7 @@
       </c>
       <c r="N38" s="19"/>
     </row>
-    <row r="39" spans="1:14" s="37" customFormat="1" ht="66.75" customHeight="1">
+    <row r="39" spans="1:14" s="28" customFormat="1" ht="66.75" customHeight="1">
       <c r="A39" s="19">
         <v>38</v>
       </c>
@@ -16617,7 +17601,7 @@
         <v>1700</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>1806</v>
+        <v>1856</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>1709</v>
@@ -16659,7 +17643,7 @@
         <v>1700</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>1711</v>
@@ -16701,7 +17685,7 @@
         <v>1700</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>1713</v>
@@ -16743,7 +17727,7 @@
         <v>1700</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>1715</v>
@@ -16785,7 +17769,7 @@
         <v>1700</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>1717</v>
@@ -16827,7 +17811,7 @@
         <v>1700</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>1719</v>
@@ -16869,7 +17853,7 @@
         <v>1700</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>1721</v>
@@ -16911,7 +17895,7 @@
         <v>1700</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>1723</v>
@@ -16942,9 +17926,9 @@
       </c>
       <c r="N47" s="19"/>
     </row>
-    <row r="48" spans="1:14" ht="119.25" customHeight="1">
+    <row r="48" spans="1:14" ht="180.75" customHeight="1">
       <c r="A48" s="19">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>110</v>
@@ -16953,40 +17937,26 @@
         <v>1700</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>1769</v>
+        <v>1858</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>1770</v>
+        <v>1859</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>1725</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>1726</v>
-      </c>
-      <c r="H48" s="19" t="s">
-        <v>1727</v>
-      </c>
-      <c r="I48" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="J48" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K48" s="19">
-        <v>1</v>
-      </c>
-      <c r="L48" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M48" s="19" t="s">
-        <v>24</v>
-      </c>
+        <v>1860</v>
+      </c>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
       <c r="N48" s="19"/>
     </row>
-    <row r="49" spans="1:14" ht="107.25" customHeight="1">
+    <row r="49" spans="1:14" ht="119.25" customHeight="1">
       <c r="A49" s="19">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="19" t="s">
         <v>110</v>
@@ -16995,19 +17965,19 @@
         <v>1700</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>1786</v>
+        <v>1769</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>1791</v>
+        <v>1770</v>
       </c>
       <c r="F49" s="19" t="s">
         <v>1725</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>1777</v>
+        <v>1726</v>
       </c>
       <c r="H49" s="19" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="I49" s="19" t="s">
         <v>42</v>
@@ -17028,7 +17998,7 @@
     </row>
     <row r="50" spans="1:14" ht="107.25" customHeight="1">
       <c r="A50" s="19">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="19" t="s">
         <v>110</v>
@@ -17037,19 +18007,19 @@
         <v>1700</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="F50" s="19" t="s">
         <v>1725</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>1730</v>
+        <v>1777</v>
       </c>
       <c r="H50" s="19" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="I50" s="19" t="s">
         <v>42</v>
@@ -17070,7 +18040,7 @@
     </row>
     <row r="51" spans="1:14" ht="107.25" customHeight="1">
       <c r="A51" s="19">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>110</v>
@@ -17079,19 +18049,19 @@
         <v>1700</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>1802</v>
+        <v>1787</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="F51" s="19" t="s">
         <v>1725</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>1775</v>
+        <v>1730</v>
       </c>
       <c r="H51" s="19" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="I51" s="19" t="s">
         <v>42</v>
@@ -17110,51 +18080,51 @@
       </c>
       <c r="N51" s="19"/>
     </row>
-    <row r="52" spans="1:14" s="36" customFormat="1" ht="84" customHeight="1">
+    <row r="52" spans="1:14" ht="107.25" customHeight="1">
       <c r="A52" s="19">
-        <v>51</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>36</v>
+        <v>50</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>1700</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>1741</v>
+        <v>1802</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>1742</v>
+        <v>1793</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>235</v>
+        <v>1725</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H52" s="19" t="s">
-        <v>1743</v>
-      </c>
-      <c r="I52" s="18" t="s">
+        <v>1732</v>
+      </c>
+      <c r="I52" s="19" t="s">
         <v>42</v>
       </c>
       <c r="J52" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K52" s="18">
-        <v>2</v>
-      </c>
-      <c r="L52" s="18" t="s">
-        <v>43</v>
+      <c r="K52" s="19">
+        <v>1</v>
+      </c>
+      <c r="L52" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="M52" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="N52" s="18"/>
-    </row>
-    <row r="53" spans="1:14" s="37" customFormat="1" ht="124.5" customHeight="1">
+      <c r="N52" s="19"/>
+    </row>
+    <row r="53" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1">
       <c r="A53" s="19">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="18" t="s">
         <v>36</v>
@@ -17163,19 +18133,19 @@
         <v>1700</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>1746</v>
+        <v>235</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>1747</v>
+        <v>1776</v>
       </c>
       <c r="H53" s="19" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="I53" s="18" t="s">
         <v>42</v>
@@ -17189,14 +18159,14 @@
       <c r="L53" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="M53" s="18" t="s">
-        <v>1580</v>
-      </c>
-      <c r="N53" s="17"/>
-    </row>
-    <row r="54" spans="1:14" s="37" customFormat="1" ht="84" customHeight="1">
+      <c r="M53" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N53" s="18"/>
+    </row>
+    <row r="54" spans="1:14" s="28" customFormat="1" ht="124.5" customHeight="1">
       <c r="A54" s="19">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="18" t="s">
         <v>36</v>
@@ -17205,19 +18175,19 @@
         <v>1700</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>1816</v>
+        <v>1744</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>1581</v>
+        <v>1748</v>
       </c>
       <c r="I54" s="18" t="s">
         <v>42</v>
@@ -17236,9 +18206,9 @@
       </c>
       <c r="N54" s="17"/>
     </row>
-    <row r="55" spans="1:14" s="37" customFormat="1" ht="84" customHeight="1">
+    <row r="55" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1">
       <c r="A55" s="19">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="18" t="s">
         <v>36</v>
@@ -17247,19 +18217,19 @@
         <v>1700</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="I55" s="18" t="s">
         <v>42</v>
@@ -17274,13 +18244,13 @@
         <v>43</v>
       </c>
       <c r="M55" s="18" t="s">
-        <v>44</v>
+        <v>1580</v>
       </c>
       <c r="N55" s="17"/>
     </row>
-    <row r="56" spans="1:14" s="37" customFormat="1" ht="84" customHeight="1">
+    <row r="56" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1">
       <c r="A56" s="19">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="18" t="s">
         <v>36</v>
@@ -17289,19 +18259,19 @@
         <v>1700</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="I56" s="18" t="s">
         <v>42</v>
@@ -17313,37 +18283,37 @@
         <v>2</v>
       </c>
       <c r="L56" s="18" t="s">
-        <v>1584</v>
+        <v>43</v>
       </c>
       <c r="M56" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N56" s="17"/>
     </row>
-    <row r="57" spans="1:14" s="37" customFormat="1" ht="82.5" customHeight="1">
+    <row r="57" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1">
       <c r="A57" s="19">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>1498</v>
+        <v>1700</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>1759</v>
+        <v>1812</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>1760</v>
+        <v>1755</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>1761</v>
+        <v>1756</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>1762</v>
+        <v>1757</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>1763</v>
+        <v>1583</v>
       </c>
       <c r="I57" s="18" t="s">
         <v>42</v>
@@ -17355,37 +18325,37 @@
         <v>2</v>
       </c>
       <c r="L57" s="18" t="s">
-        <v>43</v>
+        <v>1584</v>
       </c>
       <c r="M57" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N57" s="17"/>
     </row>
-    <row r="58" spans="1:14" s="36" customFormat="1" ht="84" customHeight="1">
+    <row r="58" spans="1:14" s="28" customFormat="1" ht="82.5" customHeight="1">
       <c r="A58" s="19">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>236</v>
+        <v>1498</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>237</v>
+        <v>1759</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>238</v>
+        <v>1760</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>79</v>
+        <v>1761</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>239</v>
+        <v>1762</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>240</v>
+        <v>1763</v>
       </c>
       <c r="I58" s="18" t="s">
         <v>42</v>
@@ -17399,98 +18369,98 @@
       <c r="L58" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="M58" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N58" s="18"/>
-    </row>
-    <row r="59" spans="1:14" ht="96" customHeight="1">
+      <c r="M58" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N58" s="17"/>
+    </row>
+    <row r="59" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1">
       <c r="A59" s="19">
-        <v>58</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>110</v>
+        <v>57</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>236</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H59" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="I59" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="I59" s="18" t="s">
         <v>42</v>
       </c>
       <c r="J59" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K59" s="19">
+      <c r="K59" s="18">
         <v>2</v>
       </c>
-      <c r="L59" s="19" t="s">
-        <v>82</v>
+      <c r="L59" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="M59" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="N59" s="19"/>
-    </row>
-    <row r="60" spans="1:14" s="36" customFormat="1" ht="84" customHeight="1">
+      <c r="N59" s="18"/>
+    </row>
+    <row r="60" spans="1:14" ht="96" customHeight="1">
       <c r="A60" s="19">
-        <v>59</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>36</v>
+        <v>58</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="C60" s="19" t="s">
         <v>236</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="I60" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I60" s="19" t="s">
         <v>42</v>
       </c>
       <c r="J60" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K60" s="18">
+      <c r="K60" s="19">
         <v>2</v>
       </c>
-      <c r="L60" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="M60" s="18" t="s">
+      <c r="L60" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="M60" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="N60" s="18"/>
-    </row>
-    <row r="61" spans="1:14" s="36" customFormat="1" ht="84" customHeight="1">
+      <c r="N60" s="19"/>
+    </row>
+    <row r="61" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1">
       <c r="A61" s="19">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="18" t="s">
         <v>36</v>
@@ -17499,7 +18469,7 @@
         <v>236</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E61" s="19" t="s">
         <v>246</v>
@@ -17508,7 +18478,7 @@
         <v>79</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H61" s="19" t="s">
         <v>248</v>
@@ -17530,9 +18500,9 @@
       </c>
       <c r="N61" s="18"/>
     </row>
-    <row r="62" spans="1:14" s="36" customFormat="1" ht="84" customHeight="1">
+    <row r="62" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1">
       <c r="A62" s="19">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="18" t="s">
         <v>36</v>
@@ -17541,7 +18511,7 @@
         <v>236</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>246</v>
@@ -17550,7 +18520,7 @@
         <v>79</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H62" s="19" t="s">
         <v>248</v>
@@ -17572,51 +18542,51 @@
       </c>
       <c r="N62" s="18"/>
     </row>
-    <row r="63" spans="1:14" ht="94.5" customHeight="1">
+    <row r="63" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1">
       <c r="A63" s="19">
-        <v>62</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>110</v>
+        <v>61</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="C63" s="19" t="s">
         <v>236</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H63" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="I63" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="I63" s="18" t="s">
         <v>42</v>
       </c>
       <c r="J63" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K63" s="19">
+      <c r="K63" s="18">
         <v>2</v>
       </c>
-      <c r="L63" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="M63" s="19" t="s">
+      <c r="L63" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M63" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="N63" s="19"/>
+      <c r="N63" s="18"/>
     </row>
     <row r="64" spans="1:14" ht="94.5" customHeight="1">
       <c r="A64" s="19">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="19" t="s">
         <v>110</v>
@@ -17625,19 +18595,19 @@
         <v>236</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G64" s="19" t="s">
         <v>256</v>
       </c>
       <c r="H64" s="19" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I64" s="19" t="s">
         <v>42</v>
@@ -17646,40 +18616,40 @@
         <v>30</v>
       </c>
       <c r="K64" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L64" s="19" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="M64" s="19" t="s">
         <v>24</v>
       </c>
       <c r="N64" s="19"/>
     </row>
-    <row r="65" spans="1:14" ht="162" customHeight="1">
+    <row r="65" spans="1:14" ht="94.5" customHeight="1">
       <c r="A65" s="19">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="19" t="s">
         <v>110</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="H65" s="19" t="s">
-        <v>1758</v>
+        <v>261</v>
       </c>
       <c r="I65" s="19" t="s">
         <v>42</v>
@@ -17698,9 +18668,9 @@
       </c>
       <c r="N65" s="19"/>
     </row>
-    <row r="66" spans="1:14" ht="170.25" customHeight="1">
+    <row r="66" spans="1:14" ht="162" customHeight="1">
       <c r="A66" s="19">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="19" t="s">
         <v>110</v>
@@ -17709,19 +18679,19 @@
         <v>262</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H66" s="19" t="s">
-        <v>270</v>
+        <v>1758</v>
       </c>
       <c r="I66" s="19" t="s">
         <v>42</v>
@@ -17733,37 +18703,37 @@
         <v>1</v>
       </c>
       <c r="L66" s="19" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="M66" s="19" t="s">
         <v>24</v>
       </c>
       <c r="N66" s="19"/>
     </row>
-    <row r="67" spans="1:14" ht="90" customHeight="1">
+    <row r="67" spans="1:14" ht="170.25" customHeight="1">
       <c r="A67" s="19">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="19" t="s">
         <v>110</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H67" s="19" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="I67" s="19" t="s">
         <v>42</v>
@@ -17775,7 +18745,7 @@
         <v>1</v>
       </c>
       <c r="L67" s="19" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="M67" s="19" t="s">
         <v>24</v>
@@ -17784,7 +18754,7 @@
     </row>
     <row r="68" spans="1:14" ht="90" customHeight="1">
       <c r="A68" s="19">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="19" t="s">
         <v>110</v>
@@ -17793,19 +18763,19 @@
         <v>271</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F68" s="19" t="s">
         <v>273</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H68" s="19" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I68" s="19" t="s">
         <v>42</v>
@@ -17826,7 +18796,7 @@
     </row>
     <row r="69" spans="1:14" ht="90" customHeight="1">
       <c r="A69" s="19">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="19" t="s">
         <v>110</v>
@@ -17835,19 +18805,19 @@
         <v>271</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F69" s="19" t="s">
         <v>273</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H69" s="19" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I69" s="19" t="s">
         <v>42</v>
@@ -17868,28 +18838,28 @@
     </row>
     <row r="70" spans="1:14" ht="90" customHeight="1">
       <c r="A70" s="19">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="19" t="s">
         <v>110</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>79</v>
+        <v>273</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I70" s="19" t="s">
         <v>42</v>
@@ -17910,7 +18880,7 @@
     </row>
     <row r="71" spans="1:14" ht="90" customHeight="1">
       <c r="A71" s="19">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>110</v>
@@ -17919,19 +18889,19 @@
         <v>282</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H71" s="19" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I71" s="19" t="s">
         <v>42</v>
@@ -17952,7 +18922,7 @@
     </row>
     <row r="72" spans="1:14" ht="90" customHeight="1">
       <c r="A72" s="19">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="19" t="s">
         <v>110</v>
@@ -17961,28 +18931,28 @@
         <v>282</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H72" s="19" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="I72" s="19" t="s">
-        <v>294</v>
+        <v>42</v>
       </c>
       <c r="J72" s="19" t="s">
         <v>30</v>
       </c>
       <c r="K72" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L72" s="19" t="s">
         <v>23</v>
@@ -17990,43 +18960,41 @@
       <c r="M72" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="N72" s="19" t="s">
-        <v>295</v>
-      </c>
+      <c r="N72" s="19"/>
     </row>
     <row r="73" spans="1:14" ht="90" customHeight="1">
       <c r="A73" s="19">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="19" t="s">
         <v>110</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F73" s="19" t="s">
         <v>79</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="H73" s="19" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="I73" s="19" t="s">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="J73" s="19" t="s">
         <v>30</v>
       </c>
       <c r="K73" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L73" s="19" t="s">
         <v>23</v>
@@ -18034,11 +19002,13 @@
       <c r="M73" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="N73" s="19"/>
+      <c r="N73" s="19" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="74" spans="1:14" ht="90" customHeight="1">
       <c r="A74" s="19">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="19" t="s">
         <v>110</v>
@@ -18047,7 +19017,7 @@
         <v>296</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>298</v>
@@ -18056,10 +19026,10 @@
         <v>79</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H74" s="19" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I74" s="19" t="s">
         <v>42</v>
@@ -18078,51 +19048,51 @@
       </c>
       <c r="N74" s="19"/>
     </row>
-    <row r="75" spans="1:14" s="36" customFormat="1" ht="84" customHeight="1">
+    <row r="75" spans="1:14" ht="90" customHeight="1">
       <c r="A75" s="19">
-        <v>74</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>36</v>
+        <v>73</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="I75" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="I75" s="19" t="s">
         <v>42</v>
       </c>
       <c r="J75" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K75" s="18">
+      <c r="K75" s="19">
         <v>2</v>
       </c>
-      <c r="L75" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="M75" s="18" t="s">
+      <c r="L75" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M75" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="N75" s="18"/>
-    </row>
-    <row r="76" spans="1:14" s="36" customFormat="1" ht="84" customHeight="1">
+      <c r="N75" s="19"/>
+    </row>
+    <row r="76" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1">
       <c r="A76" s="19">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="18" t="s">
         <v>36</v>
@@ -18131,19 +19101,19 @@
         <v>304</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F76" s="19" t="s">
         <v>307</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H76" s="19" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I76" s="18" t="s">
         <v>42</v>
@@ -18162,9 +19132,9 @@
       </c>
       <c r="N76" s="18"/>
     </row>
-    <row r="77" spans="1:14" s="36" customFormat="1" ht="135.75" customHeight="1">
+    <row r="77" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1">
       <c r="A77" s="19">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="18" t="s">
         <v>36</v>
@@ -18173,19 +19143,19 @@
         <v>304</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F77" s="19" t="s">
         <v>307</v>
       </c>
       <c r="G77" s="19" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H77" s="19" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I77" s="18" t="s">
         <v>42</v>
@@ -18194,7 +19164,7 @@
         <v>30</v>
       </c>
       <c r="K77" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L77" s="18" t="s">
         <v>43</v>
@@ -18204,9 +19174,9 @@
       </c>
       <c r="N77" s="18"/>
     </row>
-    <row r="78" spans="1:14" s="36" customFormat="1" ht="105" customHeight="1">
+    <row r="78" spans="1:14" s="27" customFormat="1" ht="135.75" customHeight="1">
       <c r="A78" s="19">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="18" t="s">
         <v>36</v>
@@ -18215,19 +19185,19 @@
         <v>304</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I78" s="18" t="s">
         <v>42</v>
@@ -18236,7 +19206,7 @@
         <v>30</v>
       </c>
       <c r="K78" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L78" s="18" t="s">
         <v>43</v>
@@ -18246,9 +19216,9 @@
       </c>
       <c r="N78" s="18"/>
     </row>
-    <row r="79" spans="1:14" s="36" customFormat="1" ht="105" customHeight="1">
+    <row r="79" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1">
       <c r="A79" s="19">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="18" t="s">
         <v>36</v>
@@ -18257,19 +19227,19 @@
         <v>304</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H79" s="19" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="I79" s="18" t="s">
         <v>42</v>
@@ -18288,9 +19258,9 @@
       </c>
       <c r="N79" s="18"/>
     </row>
-    <row r="80" spans="1:14" s="36" customFormat="1" ht="105" customHeight="1">
+    <row r="80" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1">
       <c r="A80" s="19">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="18" t="s">
         <v>36</v>
@@ -18299,19 +19269,19 @@
         <v>304</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F80" s="19" t="s">
         <v>325</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H80" s="19" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I80" s="18" t="s">
         <v>42</v>
@@ -18330,9 +19300,9 @@
       </c>
       <c r="N80" s="18"/>
     </row>
-    <row r="81" spans="1:14" s="36" customFormat="1" ht="105" customHeight="1">
+    <row r="81" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1">
       <c r="A81" s="19">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="18" t="s">
         <v>36</v>
@@ -18341,19 +19311,19 @@
         <v>304</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="I81" s="18" t="s">
         <v>42</v>
@@ -18372,9 +19342,9 @@
       </c>
       <c r="N81" s="18"/>
     </row>
-    <row r="82" spans="1:14" s="36" customFormat="1" ht="105" customHeight="1">
+    <row r="82" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1">
       <c r="A82" s="19">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="18" t="s">
         <v>36</v>
@@ -18383,13 +19353,13 @@
         <v>304</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G82" s="19" t="s">
         <v>335</v>
@@ -18414,9 +19384,9 @@
       </c>
       <c r="N82" s="18"/>
     </row>
-    <row r="83" spans="1:14" s="36" customFormat="1" ht="105" customHeight="1">
+    <row r="83" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1">
       <c r="A83" s="19">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="18" t="s">
         <v>36</v>
@@ -18425,13 +19395,13 @@
         <v>304</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G83" s="19" t="s">
         <v>335</v>
@@ -18456,30 +19426,30 @@
       </c>
       <c r="N83" s="18"/>
     </row>
-    <row r="84" spans="1:14" s="36" customFormat="1" ht="84" customHeight="1">
+    <row r="84" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1">
       <c r="A84" s="19">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="H84" s="19" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="I84" s="18" t="s">
         <v>42</v>
@@ -18488,7 +19458,7 @@
         <v>30</v>
       </c>
       <c r="K84" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L84" s="18" t="s">
         <v>43</v>
@@ -18498,9 +19468,9 @@
       </c>
       <c r="N84" s="18"/>
     </row>
-    <row r="85" spans="1:14" s="36" customFormat="1" ht="84" customHeight="1">
+    <row r="85" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1">
       <c r="A85" s="19">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="18" t="s">
         <v>36</v>
@@ -18509,19 +19479,19 @@
         <v>343</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H85" s="19" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="I85" s="18" t="s">
         <v>42</v>
@@ -18530,7 +19500,7 @@
         <v>30</v>
       </c>
       <c r="K85" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L85" s="18" t="s">
         <v>43</v>
@@ -18540,9 +19510,9 @@
       </c>
       <c r="N85" s="18"/>
     </row>
-    <row r="86" spans="1:14" s="36" customFormat="1" ht="84" customHeight="1">
+    <row r="86" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1">
       <c r="A86" s="19">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="18" t="s">
         <v>36</v>
@@ -18551,19 +19521,19 @@
         <v>343</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G86" s="19" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H86" s="19" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="I86" s="18" t="s">
         <v>42</v>
@@ -18582,30 +19552,30 @@
       </c>
       <c r="N86" s="18"/>
     </row>
-    <row r="87" spans="1:14" s="37" customFormat="1" ht="84" customHeight="1">
+    <row r="87" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1">
       <c r="A87" s="19">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>1341</v>
+        <v>36</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>1351</v>
+        <v>343</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>1356</v>
+        <v>353</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>1355</v>
+        <v>354</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>1354</v>
+        <v>355</v>
       </c>
       <c r="G87" s="19" t="s">
-        <v>1353</v>
+        <v>356</v>
       </c>
       <c r="H87" s="19" t="s">
-        <v>1352</v>
+        <v>357</v>
       </c>
       <c r="I87" s="18" t="s">
         <v>42</v>
@@ -18614,40 +19584,40 @@
         <v>30</v>
       </c>
       <c r="K87" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L87" s="18" t="s">
-        <v>1336</v>
+        <v>43</v>
       </c>
       <c r="M87" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N87" s="17"/>
-    </row>
-    <row r="88" spans="1:14" s="37" customFormat="1" ht="84" customHeight="1">
+        <v>24</v>
+      </c>
+      <c r="N87" s="18"/>
+    </row>
+    <row r="88" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1">
       <c r="A88" s="19">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="18" t="s">
         <v>1341</v>
       </c>
-      <c r="C88" s="29" t="s">
+      <c r="C88" s="19" t="s">
         <v>1351</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>1350</v>
+        <v>1356</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>1349</v>
-      </c>
-      <c r="F88" s="29" t="s">
-        <v>1348</v>
+        <v>1355</v>
+      </c>
+      <c r="F88" s="19" t="s">
+        <v>1354</v>
       </c>
       <c r="G88" s="19" t="s">
-        <v>1347</v>
+        <v>1353</v>
       </c>
       <c r="H88" s="19" t="s">
-        <v>1346</v>
+        <v>1352</v>
       </c>
       <c r="I88" s="18" t="s">
         <v>42</v>
@@ -18656,7 +19626,7 @@
         <v>30</v>
       </c>
       <c r="K88" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L88" s="18" t="s">
         <v>1336</v>
@@ -18666,26 +19636,30 @@
       </c>
       <c r="N88" s="17"/>
     </row>
-    <row r="89" spans="1:14" s="37" customFormat="1" ht="84" customHeight="1">
+    <row r="89" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1">
       <c r="A89" s="19">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="18" t="s">
         <v>1341</v>
       </c>
-      <c r="C89" s="30"/>
+      <c r="C89" s="33" t="s">
+        <v>1351</v>
+      </c>
       <c r="D89" s="19" t="s">
-        <v>1345</v>
+        <v>1350</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>1344</v>
-      </c>
-      <c r="F89" s="30"/>
+        <v>1349</v>
+      </c>
+      <c r="F89" s="33" t="s">
+        <v>1348</v>
+      </c>
       <c r="G89" s="19" t="s">
-        <v>1343</v>
+        <v>1347</v>
       </c>
       <c r="H89" s="19" t="s">
-        <v>1342</v>
+        <v>1346</v>
       </c>
       <c r="I89" s="18" t="s">
         <v>42</v>
@@ -18704,26 +19678,26 @@
       </c>
       <c r="N89" s="17"/>
     </row>
-    <row r="90" spans="1:14" s="37" customFormat="1" ht="84" customHeight="1">
+    <row r="90" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1">
       <c r="A90" s="19">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="18" t="s">
         <v>1341</v>
       </c>
-      <c r="C90" s="30"/>
+      <c r="C90" s="34"/>
       <c r="D90" s="19" t="s">
-        <v>1340</v>
+        <v>1345</v>
       </c>
       <c r="E90" s="19" t="s">
-        <v>1339</v>
-      </c>
-      <c r="F90" s="30"/>
+        <v>1344</v>
+      </c>
+      <c r="F90" s="34"/>
       <c r="G90" s="19" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="H90" s="19" t="s">
-        <v>1337</v>
+        <v>1342</v>
       </c>
       <c r="I90" s="18" t="s">
         <v>42</v>
@@ -18742,30 +19716,26 @@
       </c>
       <c r="N90" s="17"/>
     </row>
-    <row r="91" spans="1:14" s="37" customFormat="1" ht="55.5" customHeight="1">
+    <row r="91" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1">
       <c r="A91" s="19">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C91" s="19" t="s">
-        <v>1498</v>
-      </c>
+        <v>1341</v>
+      </c>
+      <c r="C91" s="34"/>
       <c r="D91" s="19" t="s">
-        <v>1546</v>
+        <v>1340</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>1540</v>
-      </c>
-      <c r="F91" s="19" t="s">
-        <v>388</v>
-      </c>
+        <v>1339</v>
+      </c>
+      <c r="F91" s="34"/>
       <c r="G91" s="19" t="s">
-        <v>1539</v>
+        <v>1338</v>
       </c>
       <c r="H91" s="19" t="s">
-        <v>1538</v>
+        <v>1337</v>
       </c>
       <c r="I91" s="18" t="s">
         <v>42</v>
@@ -18777,16 +19747,16 @@
         <v>2</v>
       </c>
       <c r="L91" s="18" t="s">
-        <v>43</v>
+        <v>1336</v>
       </c>
       <c r="M91" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N91" s="17"/>
     </row>
-    <row r="92" spans="1:14" s="37" customFormat="1" ht="72.75" customHeight="1">
+    <row r="92" spans="1:14" s="28" customFormat="1" ht="55.5" customHeight="1">
       <c r="A92" s="19">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="18" t="s">
         <v>36</v>
@@ -18795,19 +19765,19 @@
         <v>1498</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="F92" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G92" s="19" t="s">
-        <v>1536</v>
+        <v>1539</v>
       </c>
       <c r="H92" s="19" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
       <c r="I92" s="18" t="s">
         <v>42</v>
@@ -18826,9 +19796,9 @@
       </c>
       <c r="N92" s="17"/>
     </row>
-    <row r="93" spans="1:14" s="37" customFormat="1" ht="82.5" customHeight="1">
+    <row r="93" spans="1:14" s="28" customFormat="1" ht="72.75" customHeight="1">
       <c r="A93" s="19">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="18" t="s">
         <v>36</v>
@@ -18837,19 +19807,19 @@
         <v>1498</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="F93" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G93" s="19" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="H93" s="19" t="s">
-        <v>1541</v>
+        <v>1544</v>
       </c>
       <c r="I93" s="18" t="s">
         <v>42</v>
@@ -18868,9 +19838,9 @@
       </c>
       <c r="N93" s="17"/>
     </row>
-    <row r="94" spans="1:14" s="37" customFormat="1" ht="63" customHeight="1">
+    <row r="94" spans="1:14" s="28" customFormat="1" ht="82.5" customHeight="1">
       <c r="A94" s="19">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="18" t="s">
         <v>36</v>
@@ -18879,19 +19849,19 @@
         <v>1498</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>1534</v>
+        <v>1543</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>1533</v>
+        <v>1542</v>
       </c>
       <c r="F94" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G94" s="19" t="s">
-        <v>1767</v>
+        <v>1535</v>
       </c>
       <c r="H94" s="19" t="s">
-        <v>1768</v>
+        <v>1541</v>
       </c>
       <c r="I94" s="18" t="s">
         <v>42</v>
@@ -18900,7 +19870,7 @@
         <v>30</v>
       </c>
       <c r="K94" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L94" s="18" t="s">
         <v>43</v>
@@ -18910,9 +19880,9 @@
       </c>
       <c r="N94" s="17"/>
     </row>
-    <row r="95" spans="1:14" s="37" customFormat="1" ht="75.75" customHeight="1">
+    <row r="95" spans="1:14" s="28" customFormat="1" ht="63" customHeight="1">
       <c r="A95" s="19">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="18" t="s">
         <v>36</v>
@@ -18921,19 +19891,19 @@
         <v>1498</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="F95" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G95" s="19" t="s">
-        <v>1530</v>
+        <v>1767</v>
       </c>
       <c r="H95" s="19" t="s">
-        <v>1529</v>
+        <v>1768</v>
       </c>
       <c r="I95" s="18" t="s">
         <v>42</v>
@@ -18942,7 +19912,7 @@
         <v>30</v>
       </c>
       <c r="K95" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L95" s="18" t="s">
         <v>43</v>
@@ -18952,9 +19922,9 @@
       </c>
       <c r="N95" s="17"/>
     </row>
-    <row r="96" spans="1:14" s="37" customFormat="1" ht="76.5" customHeight="1">
+    <row r="96" spans="1:14" s="28" customFormat="1" ht="75.75" customHeight="1">
       <c r="A96" s="19">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="18" t="s">
         <v>36</v>
@@ -18963,19 +19933,19 @@
         <v>1498</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>1528</v>
+        <v>1532</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>1527</v>
+        <v>1531</v>
       </c>
       <c r="F96" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G96" s="19" t="s">
-        <v>1526</v>
+        <v>1530</v>
       </c>
       <c r="H96" s="19" t="s">
-        <v>1525</v>
+        <v>1529</v>
       </c>
       <c r="I96" s="18" t="s">
         <v>42</v>
@@ -18984,7 +19954,7 @@
         <v>30</v>
       </c>
       <c r="K96" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L96" s="18" t="s">
         <v>43</v>
@@ -18994,9 +19964,9 @@
       </c>
       <c r="N96" s="17"/>
     </row>
-    <row r="97" spans="1:14" s="37" customFormat="1" ht="74.25" customHeight="1">
+    <row r="97" spans="1:14" s="28" customFormat="1" ht="76.5" customHeight="1">
       <c r="A97" s="19">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="18" t="s">
         <v>36</v>
@@ -19005,19 +19975,19 @@
         <v>1498</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>1524</v>
+        <v>1528</v>
       </c>
       <c r="E97" s="19" t="s">
-        <v>1523</v>
+        <v>1527</v>
       </c>
       <c r="F97" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G97" s="19" t="s">
-        <v>1522</v>
+        <v>1526</v>
       </c>
       <c r="H97" s="19" t="s">
-        <v>1521</v>
+        <v>1525</v>
       </c>
       <c r="I97" s="18" t="s">
         <v>42</v>
@@ -19036,9 +20006,9 @@
       </c>
       <c r="N97" s="17"/>
     </row>
-    <row r="98" spans="1:14" s="37" customFormat="1" ht="76.5" customHeight="1">
+    <row r="98" spans="1:14" s="28" customFormat="1" ht="74.25" customHeight="1">
       <c r="A98" s="19">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="18" t="s">
         <v>36</v>
@@ -19047,19 +20017,19 @@
         <v>1498</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>1520</v>
+        <v>1524</v>
       </c>
       <c r="E98" s="19" t="s">
-        <v>1515</v>
+        <v>1523</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>1519</v>
+        <v>388</v>
       </c>
       <c r="G98" s="19" t="s">
-        <v>1518</v>
+        <v>1522</v>
       </c>
       <c r="H98" s="19" t="s">
-        <v>1517</v>
+        <v>1521</v>
       </c>
       <c r="I98" s="18" t="s">
         <v>42</v>
@@ -19078,9 +20048,9 @@
       </c>
       <c r="N98" s="17"/>
     </row>
-    <row r="99" spans="1:14" s="37" customFormat="1" ht="80.25" customHeight="1">
+    <row r="99" spans="1:14" s="28" customFormat="1" ht="76.5" customHeight="1">
       <c r="A99" s="19">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="18" t="s">
         <v>36</v>
@@ -19089,19 +20059,19 @@
         <v>1498</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>1516</v>
+        <v>1520</v>
       </c>
       <c r="E99" s="19" t="s">
         <v>1515</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>1514</v>
+        <v>1519</v>
       </c>
       <c r="G99" s="19" t="s">
-        <v>1513</v>
+        <v>1518</v>
       </c>
       <c r="H99" s="19" t="s">
-        <v>1512</v>
+        <v>1517</v>
       </c>
       <c r="I99" s="18" t="s">
         <v>42</v>
@@ -19120,9 +20090,9 @@
       </c>
       <c r="N99" s="17"/>
     </row>
-    <row r="100" spans="1:14" s="37" customFormat="1" ht="48" customHeight="1">
+    <row r="100" spans="1:14" s="28" customFormat="1" ht="80.25" customHeight="1">
       <c r="A100" s="19">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="18" t="s">
         <v>36</v>
@@ -19131,19 +20101,19 @@
         <v>1498</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>1511</v>
+        <v>1516</v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>1510</v>
+        <v>1515</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>1509</v>
+        <v>1514</v>
       </c>
       <c r="G100" s="19" t="s">
-        <v>1508</v>
+        <v>1513</v>
       </c>
       <c r="H100" s="19" t="s">
-        <v>1507</v>
+        <v>1512</v>
       </c>
       <c r="I100" s="18" t="s">
         <v>42</v>
@@ -19162,9 +20132,9 @@
       </c>
       <c r="N100" s="17"/>
     </row>
-    <row r="101" spans="1:14" s="37" customFormat="1" ht="66" customHeight="1">
+    <row r="101" spans="1:14" s="28" customFormat="1" ht="48" customHeight="1">
       <c r="A101" s="19">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="18" t="s">
         <v>36</v>
@@ -19173,19 +20143,19 @@
         <v>1498</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>1506</v>
+        <v>1511</v>
       </c>
       <c r="E101" s="19" t="s">
-        <v>1505</v>
+        <v>1510</v>
       </c>
       <c r="F101" s="19" t="s">
-        <v>388</v>
+        <v>1509</v>
       </c>
       <c r="G101" s="19" t="s">
-        <v>1504</v>
+        <v>1508</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>1503</v>
+        <v>1507</v>
       </c>
       <c r="I101" s="18" t="s">
         <v>42</v>
@@ -19204,9 +20174,9 @@
       </c>
       <c r="N101" s="17"/>
     </row>
-    <row r="102" spans="1:14" s="37" customFormat="1" ht="44.25" customHeight="1">
+    <row r="102" spans="1:14" s="28" customFormat="1" ht="66" customHeight="1">
       <c r="A102" s="19">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="18" t="s">
         <v>36</v>
@@ -19215,19 +20185,19 @@
         <v>1498</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>1502</v>
+        <v>1506</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>1501</v>
+        <v>1505</v>
       </c>
       <c r="F102" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G102" s="19" t="s">
-        <v>1500</v>
+        <v>1504</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>1499</v>
+        <v>1503</v>
       </c>
       <c r="I102" s="18" t="s">
         <v>42</v>
@@ -19246,9 +20216,9 @@
       </c>
       <c r="N102" s="17"/>
     </row>
-    <row r="103" spans="1:14" s="37" customFormat="1" ht="78" customHeight="1">
+    <row r="103" spans="1:14" s="28" customFormat="1" ht="44.25" customHeight="1">
       <c r="A103" s="19">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="18" t="s">
         <v>36</v>
@@ -19257,19 +20227,19 @@
         <v>1498</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>1497</v>
+        <v>1502</v>
       </c>
       <c r="E103" s="19" t="s">
-        <v>1496</v>
+        <v>1501</v>
       </c>
       <c r="F103" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G103" s="19" t="s">
-        <v>1495</v>
+        <v>1500</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>1494</v>
+        <v>1499</v>
       </c>
       <c r="I103" s="18" t="s">
         <v>42</v>
@@ -19287,26 +20257,68 @@
         <v>44</v>
       </c>
       <c r="N103" s="17"/>
+    </row>
+    <row r="104" spans="1:14" s="28" customFormat="1" ht="78" customHeight="1">
+      <c r="A104" s="19">
+        <v>102</v>
+      </c>
+      <c r="B104" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D104" s="19" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E104" s="19" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F104" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="G104" s="19" t="s">
+        <v>1495</v>
+      </c>
+      <c r="H104" s="19" t="s">
+        <v>1494</v>
+      </c>
+      <c r="I104" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J104" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K104" s="18">
+        <v>2</v>
+      </c>
+      <c r="L104" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M104" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N104" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="C18:C23"/>
-    <mergeCell ref="F88:F90"/>
-    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="F89:F91"/>
+    <mergeCell ref="C89:C91"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I104">
       <formula1>"功能,异常,性能,安全"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K104">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M104">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J104">
       <formula1>"None,Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19329,19 +20341,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="37"/>
-    <col min="2" max="2" width="17.875" style="37" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="37" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="37" customWidth="1"/>
-    <col min="5" max="5" width="39.125" style="37" customWidth="1"/>
-    <col min="6" max="6" width="48.5" style="37" customWidth="1"/>
-    <col min="7" max="7" width="65.625" style="37" customWidth="1"/>
-    <col min="8" max="8" width="56.625" style="37" customWidth="1"/>
-    <col min="9" max="9" width="10.625" style="37" customWidth="1"/>
-    <col min="10" max="12" width="8.875" style="37"/>
-    <col min="13" max="13" width="14" style="37" customWidth="1"/>
-    <col min="14" max="14" width="28.625" style="37" customWidth="1"/>
-    <col min="15" max="16384" width="8.875" style="37"/>
+    <col min="1" max="1" width="8.875" style="28"/>
+    <col min="2" max="2" width="17.875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="39.125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="48.5" style="28" customWidth="1"/>
+    <col min="7" max="7" width="65.625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="56.625" style="28" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="28" customWidth="1"/>
+    <col min="10" max="12" width="8.875" style="28"/>
+    <col min="13" max="13" width="14" style="28" customWidth="1"/>
+    <col min="14" max="14" width="28.625" style="28" customWidth="1"/>
+    <col min="15" max="16384" width="8.875" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -19440,7 +20452,7 @@
       <c r="C3" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="29" t="s">
         <v>364</v>
       </c>
       <c r="E3" s="19" t="s">
@@ -19482,7 +20494,7 @@
       <c r="C4" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="29" t="s">
         <v>369</v>
       </c>
       <c r="E4" s="19" t="s">
@@ -19524,7 +20536,7 @@
       <c r="C5" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="29" t="s">
         <v>373</v>
       </c>
       <c r="E5" s="19" t="s">
@@ -19566,7 +20578,7 @@
       <c r="C6" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="29" t="s">
         <v>1682</v>
       </c>
       <c r="E6" s="19" t="s">
@@ -19608,7 +20620,7 @@
       <c r="C7" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="29" t="s">
         <v>377</v>
       </c>
       <c r="E7" s="19" t="s">
@@ -19650,7 +20662,7 @@
       <c r="C8" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="29" t="s">
         <v>382</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -19692,7 +20704,7 @@
       <c r="C9" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="29" t="s">
         <v>386</v>
       </c>
       <c r="E9" s="19" t="s">
@@ -19734,7 +20746,7 @@
       <c r="C10" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="29" t="s">
         <v>391</v>
       </c>
       <c r="E10" s="19" t="s">
@@ -20526,10 +21538,10 @@
       <c r="A29" s="18">
         <v>27</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="33" t="s">
         <v>463</v>
       </c>
       <c r="D29" s="19" t="s">
@@ -20568,8 +21580,8 @@
       <c r="A30" s="18">
         <v>28</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="30"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="19" t="s">
         <v>488</v>
       </c>
@@ -20606,8 +21618,8 @@
       <c r="A31" s="18">
         <v>29</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="30"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="19" t="s">
         <v>493</v>
       </c>
@@ -20644,8 +21656,8 @@
       <c r="A32" s="18">
         <v>30</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="30"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="19" t="s">
         <v>497</v>
       </c>
@@ -20682,15 +21694,15 @@
       <c r="A33" s="18">
         <v>31</v>
       </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="30"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="E33" s="33" t="s">
         <v>501</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="33" t="s">
         <v>502</v>
       </c>
       <c r="G33" s="19" t="s">
@@ -20720,13 +21732,13 @@
       <c r="A34" s="18">
         <v>32</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="31"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
       <c r="G34" s="19" t="s">
         <v>506</v>
       </c>
@@ -21050,10 +22062,10 @@
       <c r="C42" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="26" t="s">
         <v>527</v>
       </c>
-      <c r="E42" s="38" t="s">
+      <c r="E42" s="29" t="s">
         <v>528</v>
       </c>
       <c r="F42" s="19" t="s">
@@ -21095,10 +22107,10 @@
       <c r="D43" s="19" t="s">
         <v>532</v>
       </c>
-      <c r="E43" s="38" t="s">
+      <c r="E43" s="29" t="s">
         <v>533</v>
       </c>
-      <c r="F43" s="35" t="s">
+      <c r="F43" s="26" t="s">
         <v>534</v>
       </c>
       <c r="G43" s="19" t="s">
@@ -21254,10 +22266,10 @@
       <c r="A47" s="18">
         <v>45</v>
       </c>
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="33" t="s">
         <v>463</v>
       </c>
       <c r="D47" s="19" t="s">
@@ -21296,8 +22308,8 @@
       <c r="A48" s="18">
         <v>46</v>
       </c>
-      <c r="B48" s="40"/>
-      <c r="C48" s="30"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="34"/>
       <c r="D48" s="19" t="s">
         <v>554</v>
       </c>
@@ -21334,8 +22346,8 @@
       <c r="A49" s="18">
         <v>47</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="31"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="35"/>
       <c r="D49" s="19" t="s">
         <v>558</v>
       </c>
@@ -22138,7 +23150,7 @@
       <c r="C68" s="19" t="s">
         <v>640</v>
       </c>
-      <c r="D68" s="38" t="s">
+      <c r="D68" s="29" t="s">
         <v>641</v>
       </c>
       <c r="E68" s="19" t="s">
@@ -22941,7 +23953,7 @@
       <c r="B87" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C87" s="29" t="s">
+      <c r="C87" s="33" t="s">
         <v>1472</v>
       </c>
       <c r="D87" s="19" t="s">
@@ -22983,7 +23995,7 @@
       <c r="B88" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C88" s="30"/>
+      <c r="C88" s="34"/>
       <c r="D88" s="19" t="s">
         <v>1489</v>
       </c>
@@ -23023,7 +24035,7 @@
       <c r="B89" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C89" s="30"/>
+      <c r="C89" s="34"/>
       <c r="D89" s="19" t="s">
         <v>1485</v>
       </c>
@@ -23063,7 +24075,7 @@
       <c r="B90" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C90" s="30"/>
+      <c r="C90" s="34"/>
       <c r="D90" s="19" t="s">
         <v>1481</v>
       </c>
@@ -23103,7 +24115,7 @@
       <c r="B91" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C91" s="31"/>
+      <c r="C91" s="35"/>
       <c r="D91" s="19" t="s">
         <v>1476</v>
       </c>
@@ -23143,7 +24155,7 @@
       <c r="B92" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C92" s="29" t="s">
+      <c r="C92" s="33" t="s">
         <v>1472</v>
       </c>
       <c r="D92" s="19" t="s">
@@ -23185,7 +24197,7 @@
       <c r="B93" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C93" s="30"/>
+      <c r="C93" s="34"/>
       <c r="D93" s="19" t="s">
         <v>1467</v>
       </c>
@@ -23225,7 +24237,7 @@
       <c r="B94" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C94" s="30"/>
+      <c r="C94" s="34"/>
       <c r="D94" s="19" t="s">
         <v>1463</v>
       </c>
@@ -23265,7 +24277,7 @@
       <c r="B95" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C95" s="30"/>
+      <c r="C95" s="34"/>
       <c r="D95" s="19" t="s">
         <v>1458</v>
       </c>
@@ -23305,7 +24317,7 @@
       <c r="B96" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C96" s="30"/>
+      <c r="C96" s="34"/>
       <c r="D96" s="19" t="s">
         <v>1454</v>
       </c>
@@ -23345,7 +24357,7 @@
       <c r="B97" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C97" s="31"/>
+      <c r="C97" s="35"/>
       <c r="D97" s="19" t="s">
         <v>1450</v>
       </c>
@@ -24536,7 +25548,7 @@
       <c r="B7" s="18" t="s">
         <v>1357</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="33" t="s">
         <v>1358</v>
       </c>
       <c r="D7" s="20" t="s">
@@ -24545,7 +25557,7 @@
       <c r="E7" s="19" t="s">
         <v>1371</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="33" t="s">
         <v>1367</v>
       </c>
       <c r="G7" s="19" t="s">
@@ -24578,14 +25590,14 @@
       <c r="B8" s="18" t="s">
         <v>1357</v>
       </c>
-      <c r="C8" s="31"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="20" t="s">
         <v>1374</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>1375</v>
       </c>
-      <c r="F8" s="31"/>
+      <c r="F8" s="35"/>
       <c r="G8" s="19" t="s">
         <v>1376</v>
       </c>
@@ -24906,7 +25918,7 @@
       <c r="B17" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="39" t="s">
         <v>827</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -24948,7 +25960,7 @@
       <c r="B18" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="33"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="6" t="s">
         <v>856</v>
       </c>
@@ -24988,7 +26000,7 @@
       <c r="B19" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="33"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="6" t="s">
         <v>859</v>
       </c>
@@ -25028,7 +26040,7 @@
       <c r="B20" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="33"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="6" t="s">
         <v>862</v>
       </c>
@@ -25068,7 +26080,7 @@
       <c r="B21" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="33"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="6" t="s">
         <v>865</v>
       </c>
@@ -25108,7 +26120,7 @@
       <c r="B22" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="33"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="6" t="s">
         <v>868</v>
       </c>
@@ -25148,7 +26160,7 @@
       <c r="B23" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="33"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="6" t="s">
         <v>871</v>
       </c>
@@ -25188,7 +26200,7 @@
       <c r="B24" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="33"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="6" t="s">
         <v>874</v>
       </c>
@@ -25228,7 +26240,7 @@
       <c r="B25" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="34"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="6" t="s">
         <v>877</v>
       </c>
@@ -25268,7 +26280,7 @@
       <c r="B26" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="39" t="s">
         <v>827</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -25310,7 +26322,7 @@
       <c r="B27" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="33"/>
+      <c r="C27" s="40"/>
       <c r="D27" s="6" t="s">
         <v>885</v>
       </c>
@@ -25350,7 +26362,7 @@
       <c r="B28" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="33"/>
+      <c r="C28" s="40"/>
       <c r="D28" s="6" t="s">
         <v>888</v>
       </c>
@@ -25390,7 +26402,7 @@
       <c r="B29" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="33"/>
+      <c r="C29" s="40"/>
       <c r="D29" s="6" t="s">
         <v>891</v>
       </c>
@@ -25430,7 +26442,7 @@
       <c r="B30" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="33"/>
+      <c r="C30" s="40"/>
       <c r="D30" s="6" t="s">
         <v>894</v>
       </c>
@@ -25470,7 +26482,7 @@
       <c r="B31" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="33"/>
+      <c r="C31" s="40"/>
       <c r="D31" s="6" t="s">
         <v>897</v>
       </c>
@@ -25510,7 +26522,7 @@
       <c r="B32" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="33"/>
+      <c r="C32" s="40"/>
       <c r="D32" s="6" t="s">
         <v>900</v>
       </c>
@@ -25550,7 +26562,7 @@
       <c r="B33" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="34"/>
+      <c r="C33" s="41"/>
       <c r="D33" s="6" t="s">
         <v>903</v>
       </c>
@@ -25758,13 +26770,13 @@
       <c r="B38" s="18" t="s">
         <v>1318</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="33" t="s">
         <v>1317</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>1335</v>
       </c>
-      <c r="E38" s="29" t="s">
+      <c r="E38" s="33" t="s">
         <v>1334</v>
       </c>
       <c r="F38" s="19" t="s">
@@ -25800,11 +26812,11 @@
       <c r="B39" s="18" t="s">
         <v>1318</v>
       </c>
-      <c r="C39" s="31"/>
+      <c r="C39" s="35"/>
       <c r="D39" s="19" t="s">
         <v>1331</v>
       </c>
-      <c r="E39" s="31"/>
+      <c r="E39" s="35"/>
       <c r="F39" s="19" t="s">
         <v>1330</v>
       </c>
@@ -25964,7 +26976,7 @@
       <c r="B43" s="18" t="s">
         <v>1310</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="33" t="s">
         <v>1309</v>
       </c>
       <c r="D43" s="20" t="s">
@@ -26006,7 +27018,7 @@
       <c r="B44" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="31"/>
+      <c r="C44" s="35"/>
       <c r="D44" s="20" t="s">
         <v>1305</v>
       </c>
@@ -26044,7 +27056,7 @@
       <c r="B45" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="33" t="s">
         <v>1274</v>
       </c>
       <c r="D45" s="19" t="s">
@@ -26086,7 +27098,7 @@
       <c r="B46" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="31"/>
+      <c r="C46" s="35"/>
       <c r="D46" s="19" t="s">
         <v>1297</v>
       </c>
@@ -29153,6 +30165,302 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
+    <col min="6" max="6" width="30.5" customWidth="1"/>
+    <col min="7" max="7" width="31.625" customWidth="1"/>
+    <col min="8" max="8" width="37.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="14.25">
+      <c r="A1" s="17" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>1820</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>1821</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>1822</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>1823</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>1824</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>1825</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>1826</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>1827</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="84.75" customHeight="1">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>1831</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>1832</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>1833</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>1834</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>1835</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="18">
+        <v>1</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>1836</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="17"/>
+    </row>
+    <row r="3" spans="1:14" ht="90" customHeight="1">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>1838</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>1833</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>1839</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>1840</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="18">
+        <v>1</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>1836</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="17"/>
+    </row>
+    <row r="4" spans="1:14" ht="96.75" customHeight="1">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>1841</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>1842</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>1833</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>1843</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>1844</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="18">
+        <v>1</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>1836</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="17"/>
+    </row>
+    <row r="5" spans="1:14" ht="81" customHeight="1">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>1845</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>1846</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>1847</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1848</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>1849</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="18">
+        <v>1</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>1836</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="17"/>
+    </row>
+    <row r="6" spans="1:14" ht="103.5" customHeight="1">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>1851</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>1852</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>1853</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>1854</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>1855</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="18">
+        <v>1</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>1836</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6">
+      <formula1>"None,Pass,Fail"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M6">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K6">
+      <formula1>"1,2,3,4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6">
+      <formula1>"功能,异常,性能,安全"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:N23"/>
@@ -29266,7 +30574,7 @@
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="31" t="s">
         <v>1407</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -29308,7 +30616,7 @@
       <c r="B4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="6" t="s">
         <v>1204</v>
       </c>
@@ -29396,7 +30704,7 @@
       <c r="D6" s="19" t="s">
         <v>1383</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="33" t="s">
         <v>1384</v>
       </c>
       <c r="F6" s="19" t="s">
@@ -29438,7 +30746,7 @@
       <c r="D7" s="19" t="s">
         <v>1388</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="19" t="s">
         <v>1385</v>
       </c>
@@ -29478,7 +30786,7 @@
       <c r="D8" s="19" t="s">
         <v>1391</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="19" t="s">
         <v>1385</v>
       </c>
@@ -29518,7 +30826,7 @@
       <c r="D9" s="19" t="s">
         <v>1394</v>
       </c>
-      <c r="E9" s="31"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="19" t="s">
         <v>1385</v>
       </c>
@@ -30162,7 +31470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFCCFF"/>
@@ -30372,805 +31680,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFCCFFFF"/>
-  </sheetPr>
-  <dimension ref="A1:N18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="18.375" customWidth="1"/>
-    <col min="5" max="5" width="21.125" customWidth="1"/>
-    <col min="6" max="6" width="26.375" customWidth="1"/>
-    <col min="7" max="7" width="51" customWidth="1"/>
-    <col min="8" max="8" width="37.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="14.25">
-      <c r="A1" s="17" t="s">
-        <v>1659</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>1660</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>1661</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>1662</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>1663</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>1664</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>1665</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>1666</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>1667</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>1668</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>1669</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>1670</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>1671</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="192.75" customHeight="1">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>1589</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>1590</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>1591</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>1592</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>1593</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>1585</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="18">
-        <v>2</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>1594</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="17"/>
-    </row>
-    <row r="3" spans="1:14" ht="90.75" customHeight="1">
-      <c r="A3" s="18">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>1595</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>1597</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>1295</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>1598</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>1599</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="18">
-        <v>2</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>1594</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="17"/>
-    </row>
-    <row r="4" spans="1:14" ht="87.75" customHeight="1">
-      <c r="A4" s="18">
-        <v>3</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>1600</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>1601</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>1602</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>1295</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>1603</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>1604</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="18">
-        <v>3</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>1594</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="17"/>
-    </row>
-    <row r="5" spans="1:14" ht="70.5" customHeight="1">
-      <c r="A5" s="18">
-        <v>4</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>1600</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>1605</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>1606</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>1295</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>1607</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>1608</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="18">
-        <v>3</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>1594</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="17"/>
-    </row>
-    <row r="6" spans="1:14" ht="75" customHeight="1">
-      <c r="A6" s="18">
-        <v>5</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>1600</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>1609</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>1610</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>1611</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>1612</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>1613</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="18">
-        <v>3</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>1594</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="17"/>
-    </row>
-    <row r="7" spans="1:14" ht="83.25" customHeight="1">
-      <c r="A7" s="18">
-        <v>6</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>1600</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>1614</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>1615</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>1295</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>1616</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>1617</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="18">
-        <v>3</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>1594</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="17"/>
-    </row>
-    <row r="8" spans="1:14" ht="74.25" customHeight="1">
-      <c r="A8" s="18">
-        <v>7</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>1618</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>1619</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>1620</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>1621</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>1622</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>1623</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="18">
-        <v>3</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>1594</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N8" s="17"/>
-    </row>
-    <row r="9" spans="1:14" ht="78" customHeight="1">
-      <c r="A9" s="18">
-        <v>8</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>1618</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>1624</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>1625</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>1295</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>1626</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>1627</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="18">
-        <v>3</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>1594</v>
-      </c>
-      <c r="M9" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" s="17"/>
-    </row>
-    <row r="10" spans="1:14" ht="105.75" customHeight="1">
-      <c r="A10" s="18">
-        <v>9</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>1595</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>1614</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>1628</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>1295</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>1629</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>1630</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="18">
-        <v>3</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>1594</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="17"/>
-    </row>
-    <row r="11" spans="1:14" ht="84.75" customHeight="1">
-      <c r="A11" s="18">
-        <v>10</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>1595</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>1631</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>1632</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>1295</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>1633</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>1634</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="18">
-        <v>2</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>1594</v>
-      </c>
-      <c r="M11" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="17"/>
-    </row>
-    <row r="12" spans="1:14" ht="75.75" customHeight="1">
-      <c r="A12" s="18">
-        <v>11</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>1595</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>1635</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>1636</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>1295</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>1637</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>1638</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="18">
-        <v>2</v>
-      </c>
-      <c r="L12" s="18" t="s">
-        <v>1594</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N12" s="17"/>
-    </row>
-    <row r="13" spans="1:14" ht="72.75" customHeight="1">
-      <c r="A13" s="18">
-        <v>12</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>1595</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>1586</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>1639</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>1295</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>1640</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>1641</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="18">
-        <v>3</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>1594</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" s="17"/>
-    </row>
-    <row r="14" spans="1:14" ht="73.5" customHeight="1">
-      <c r="A14" s="18">
-        <v>13</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>1595</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>1587</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>1642</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>1295</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>1643</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>1644</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="18">
-        <v>2</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>1594</v>
-      </c>
-      <c r="M14" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N14" s="17"/>
-    </row>
-    <row r="15" spans="1:14" ht="66.75" customHeight="1">
-      <c r="A15" s="18">
-        <v>14</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>1595</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>1645</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>1646</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>1295</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>1647</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>1648</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="18">
-        <v>2</v>
-      </c>
-      <c r="L15" s="18" t="s">
-        <v>1594</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N15" s="17"/>
-    </row>
-    <row r="16" spans="1:14" ht="63" customHeight="1">
-      <c r="A16" s="18">
-        <v>15</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>1595</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>1649</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>1650</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>1295</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>1651</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>1652</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="18">
-        <v>2</v>
-      </c>
-      <c r="L16" s="18" t="s">
-        <v>1594</v>
-      </c>
-      <c r="M16" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N16" s="17"/>
-    </row>
-    <row r="17" spans="1:14" ht="78" customHeight="1">
-      <c r="A17" s="18">
-        <v>16</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>1654</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>1655</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>1656</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>1657</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>1658</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="18">
-        <v>2</v>
-      </c>
-      <c r="L17" s="18" t="s">
-        <v>1594</v>
-      </c>
-      <c r="M17" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N17" s="17"/>
-    </row>
-    <row r="18" spans="1:14" ht="78" customHeight="1">
-      <c r="A18" s="18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>1357</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>1676</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>1677</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>1678</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>1679</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>1680</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>1681</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="18">
-        <v>2</v>
-      </c>
-      <c r="L18" s="18" t="s">
-        <v>1364</v>
-      </c>
-      <c r="M18" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N18" s="17"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J18">
-      <formula1>"None,Pass,Fail"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M18">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K18">
-      <formula1>"1,2,3,4"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I18">
-      <formula1>"功能,异常,性能,安全"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/regression/testcase_ConverLab_all.xlsx
+++ b/regression/testcase_ConverLab_all.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2718,7 +2718,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A71" authorId="0">
+    <comment ref="A74" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2781,7 +2781,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A78" authorId="0">
+    <comment ref="A81" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2995,7 +2995,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A79" authorId="0">
+    <comment ref="A82" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3052,7 +3052,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A80" authorId="0">
+    <comment ref="A83" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3172,7 +3172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G96" authorId="0">
+    <comment ref="G99" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3281,7 +3281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H112" authorId="0">
+    <comment ref="H115" authorId="0">
       <text>
         <r>
           <rPr>
@@ -5241,7 +5241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4780" uniqueCount="1992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4815" uniqueCount="2007">
   <si>
     <t>编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -10422,10 +10422,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击链接事件查询不出数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>漏斗分析004</t>
   </si>
   <si>
@@ -13976,29 +13972,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>微页面转发统计值导出数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检测微页面中转发者导出数据功能可用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用测试账户登录到Convert Lab系统
-2 待测页面存在：转发者数据（转发者三人以上，数据相异）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 进入待测页面详情，在转发者数据列表中，点击“导出”按钮，并选择“客户字段”（自定义）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 成功导出转发者数据的excel表格
-2 表格数据显示与转发者列表中的数据保持一致
-3 添加的“客户字段”信息显示准确，与客户实际字段信息一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>检测微页面可追踪URL（包含来源参数）加入unicode，时间轴中来源不会显示乱码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -14193,6 +14166,106 @@
   </si>
   <si>
     <t>Sprint 0.34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConvertLab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容_微页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微页面转发统计值导出数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测微页面中转发者导出数据功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到Convert Lab系统
+2 待测页面存在：转发者数据（转发者三人以上，数据相异）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 进入待测页面详情，在转发者数据列表中，点击“导出”按钮，并选择“客户字段”（自定义）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功导出转发者数据的excel表格
+2 表格数据显示与转发者列表中的数据保持一致
+3 添加的“客户字段”信息显示准确，与客户实际字段信息一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张庆云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint 0.34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微页面访问量来源分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测微页面访问量来源分析中按人数查询数据准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到Convert Lab系统
+2 待测页面存在：访问量、提交量（不同客户来源）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 访问该页面，并提交表单
+2 进入该待测页面详情，点击”人数“，查看”页面访问量来源分析“数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 访问人数信息统计准确，客户来源数据与实际来源显示一致
+2 客户时间轴中访问页面、提交表单事件记录准确，活跃度数据统计准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微页面访问量按日统计数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测微页面中访问量按日统计数据准确（人数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到Convert Lab系统
+2 待测页面存在：访问量、提交量（不同时间段）
+3 待测客户未访问过该页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 访问该页面，并提交表单
+2 进入待测页面详情，查看“访问量按日统计”数据：
+   （1）选择7天，点击【人数】，查看数据
+   （2）选择30天，点击【人数】，查看数据
+   （3）选择90天，点击【人数】，查看数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 该页面访问量，按日统计查看，访问该页面的人次数据统计准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测微页面中访问量按日统计数据准确（人次）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 访问该页面，并提交表单
+2 进入待测页面详情，查看“访问量按日统计”数据：
+   （1）选择7天，点击【人次】，查看数据
+   （2）选择30天，点击【人次】，查看数据
+   （3）选择90天，点击【人次】，查看数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14837,7 +14910,7 @@
   </sheetPr>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="F2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
@@ -15696,25 +15769,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>1949</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>1950</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>1951</v>
+      </c>
+      <c r="H21" s="19" t="s">
         <v>1952</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>1953</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>1954</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>1955</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>1956</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>1957</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>1958</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>42</v>
@@ -15726,13 +15799,13 @@
         <v>2</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>1959</v>
+        <v>1953</v>
       </c>
       <c r="M21" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>1960</v>
+        <v>1954</v>
       </c>
     </row>
   </sheetData>
@@ -15784,46 +15857,46 @@
   <sheetData>
     <row r="1" spans="1:14" ht="29.25" customHeight="1">
       <c r="A1" s="17" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>1651</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>1652</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>1653</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>1654</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>1655</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>1656</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>1657</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="17" t="s">
         <v>1658</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>1659</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>1660</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>1661</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>1662</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>1663</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>1664</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="192.75" customHeight="1">
@@ -15831,25 +15904,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>1580</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>1581</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>1582</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="19" t="s">
         <v>1583</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="19" t="s">
         <v>1584</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>1585</v>
-      </c>
       <c r="H2" s="19" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>42</v>
@@ -15861,7 +15934,7 @@
         <v>2</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="M2" s="18" t="s">
         <v>44</v>
@@ -15873,25 +15946,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C3" s="19" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>1587</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="E3" s="19" t="s">
         <v>1588</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="F3" s="19" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>1589</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>1289</v>
-      </c>
-      <c r="G3" s="19" t="s">
+      <c r="H3" s="19" t="s">
         <v>1590</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>1591</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>42</v>
@@ -15903,7 +15976,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="M3" s="18" t="s">
         <v>44</v>
@@ -15915,25 +15988,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C4" s="19" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>1592</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="E4" s="19" t="s">
         <v>1593</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="F4" s="19" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>1594</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>1289</v>
-      </c>
-      <c r="G4" s="19" t="s">
+      <c r="H4" s="19" t="s">
         <v>1595</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>1596</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>42</v>
@@ -15945,7 +16018,7 @@
         <v>3</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="M4" s="18" t="s">
         <v>44</v>
@@ -15957,25 +16030,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="D5" s="19" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>1597</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="F5" s="19" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>1598</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>1289</v>
-      </c>
-      <c r="G5" s="19" t="s">
+      <c r="H5" s="19" t="s">
         <v>1599</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>1600</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>42</v>
@@ -15987,7 +16060,7 @@
         <v>3</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="M5" s="18" t="s">
         <v>44</v>
@@ -15999,25 +16072,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="D6" s="19" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>1601</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="F6" s="19" t="s">
         <v>1602</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="G6" s="19" t="s">
         <v>1603</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="H6" s="19" t="s">
         <v>1604</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>1605</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>42</v>
@@ -16029,7 +16102,7 @@
         <v>3</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="M6" s="18" t="s">
         <v>44</v>
@@ -16041,25 +16114,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="D7" s="19" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>1606</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="F7" s="19" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>1607</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>1289</v>
-      </c>
-      <c r="G7" s="19" t="s">
+      <c r="H7" s="19" t="s">
         <v>1608</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>1609</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>42</v>
@@ -16071,7 +16144,7 @@
         <v>3</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="M7" s="18" t="s">
         <v>44</v>
@@ -16083,25 +16156,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C8" s="19" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>1610</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="E8" s="19" t="s">
         <v>1611</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="F8" s="19" t="s">
         <v>1612</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="G8" s="19" t="s">
         <v>1613</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="H8" s="19" t="s">
         <v>1614</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>1615</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>42</v>
@@ -16113,7 +16186,7 @@
         <v>3</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="M8" s="18" t="s">
         <v>44</v>
@@ -16125,25 +16198,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D9" s="19" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>1616</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="F9" s="19" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>1617</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>1289</v>
-      </c>
-      <c r="G9" s="19" t="s">
+      <c r="H9" s="19" t="s">
         <v>1618</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>1619</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>42</v>
@@ -16155,7 +16228,7 @@
         <v>3</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="M9" s="18" t="s">
         <v>44</v>
@@ -16167,25 +16240,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="E10" s="19" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>1620</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>1289</v>
-      </c>
-      <c r="G10" s="19" t="s">
+      <c r="H10" s="19" t="s">
         <v>1621</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>1622</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>42</v>
@@ -16197,7 +16270,7 @@
         <v>3</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="M10" s="18" t="s">
         <v>44</v>
@@ -16209,25 +16282,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D11" s="19" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>1623</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="F11" s="19" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>1624</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>1289</v>
-      </c>
-      <c r="G11" s="19" t="s">
+      <c r="H11" s="19" t="s">
         <v>1625</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>1626</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>42</v>
@@ -16239,7 +16312,7 @@
         <v>2</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="M11" s="18" t="s">
         <v>44</v>
@@ -16251,25 +16324,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D12" s="19" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>1627</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="F12" s="19" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>1628</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>1289</v>
-      </c>
-      <c r="G12" s="19" t="s">
+      <c r="H12" s="19" t="s">
         <v>1629</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>1630</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>42</v>
@@ -16281,7 +16354,7 @@
         <v>2</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="M12" s="18" t="s">
         <v>44</v>
@@ -16293,25 +16366,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E13" s="19" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>1631</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>1289</v>
-      </c>
-      <c r="G13" s="19" t="s">
+      <c r="H13" s="19" t="s">
         <v>1632</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>1633</v>
       </c>
       <c r="I13" s="18" t="s">
         <v>42</v>
@@ -16323,7 +16396,7 @@
         <v>3</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="M13" s="18" t="s">
         <v>44</v>
@@ -16335,25 +16408,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="E14" s="19" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G14" s="19" t="s">
         <v>1634</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>1289</v>
-      </c>
-      <c r="G14" s="19" t="s">
+      <c r="H14" s="19" t="s">
         <v>1635</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>1636</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>42</v>
@@ -16365,7 +16438,7 @@
         <v>2</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="M14" s="18" t="s">
         <v>44</v>
@@ -16377,25 +16450,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D15" s="19" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>1637</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="F15" s="19" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>1638</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>1289</v>
-      </c>
-      <c r="G15" s="19" t="s">
+      <c r="H15" s="19" t="s">
         <v>1639</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>1640</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>42</v>
@@ -16407,7 +16480,7 @@
         <v>2</v>
       </c>
       <c r="L15" s="18" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="M15" s="18" t="s">
         <v>44</v>
@@ -16419,25 +16492,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D16" s="19" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>1641</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="F16" s="19" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>1642</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>1289</v>
-      </c>
-      <c r="G16" s="19" t="s">
+      <c r="H16" s="19" t="s">
         <v>1643</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>1644</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>42</v>
@@ -16449,7 +16522,7 @@
         <v>2</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="M16" s="18" t="s">
         <v>44</v>
@@ -16461,25 +16534,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C17" s="19" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>1645</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="E17" s="19" t="s">
         <v>1646</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="F17" s="19" t="s">
         <v>1647</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="G17" s="19" t="s">
         <v>1648</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="H17" s="19" t="s">
         <v>1649</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>1650</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>42</v>
@@ -16491,7 +16564,7 @@
         <v>2</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="M17" s="18" t="s">
         <v>44</v>
@@ -16503,25 +16576,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C18" s="19" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>1668</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="E18" s="19" t="s">
         <v>1669</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="F18" s="19" t="s">
         <v>1670</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="G18" s="19" t="s">
         <v>1671</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="H18" s="19" t="s">
         <v>1672</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>1673</v>
       </c>
       <c r="I18" s="18" t="s">
         <v>42</v>
@@ -16533,7 +16606,7 @@
         <v>2</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="M18" s="18" t="s">
         <v>44</v>
@@ -16568,7 +16641,7 @@
   </sheetPr>
   <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView topLeftCell="G116" workbookViewId="0">
+    <sheetView topLeftCell="A116" workbookViewId="0">
       <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
@@ -16693,10 +16766,10 @@
         <v>114</v>
       </c>
       <c r="G3" s="19" t="s">
+        <v>1679</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>1680</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>1681</v>
       </c>
       <c r="I3" s="19" t="s">
         <v>42</v>
@@ -17068,7 +17141,7 @@
         <v>164</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>42</v>
@@ -17106,13 +17179,13 @@
         <v>167</v>
       </c>
       <c r="F13" s="19" t="s">
+        <v>1682</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>1683</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="H13" s="19" t="s">
         <v>1684</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>1685</v>
       </c>
       <c r="I13" s="18" t="s">
         <v>42</v>
@@ -17151,10 +17224,10 @@
         <v>170</v>
       </c>
       <c r="G14" s="19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="H14" s="19" t="s">
         <v>1686</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>1687</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>42</v>
@@ -17678,19 +17751,19 @@
         <v>111</v>
       </c>
       <c r="D27" s="19" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E27" s="19" t="s">
         <v>1688</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>1689</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>224</v>
       </c>
       <c r="G27" s="19" t="s">
+        <v>1689</v>
+      </c>
+      <c r="H27" s="19" t="s">
         <v>1690</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>1691</v>
       </c>
       <c r="I27" s="19" t="s">
         <v>42</v>
@@ -17759,22 +17832,22 @@
         <v>110</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D29" s="19" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E29" s="19" t="s">
         <v>1725</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="F29" s="19" t="s">
+        <v>1716</v>
+      </c>
+      <c r="G29" s="19" t="s">
         <v>1726</v>
       </c>
-      <c r="F29" s="19" t="s">
-        <v>1717</v>
-      </c>
-      <c r="G29" s="19" t="s">
+      <c r="H29" s="19" t="s">
         <v>1727</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>1728</v>
       </c>
       <c r="I29" s="19" t="s">
         <v>42</v>
@@ -17801,22 +17874,22 @@
         <v>110</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D30" s="19" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E30" s="19" t="s">
         <v>1729</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>1730</v>
       </c>
       <c r="F30" s="19" t="s">
         <v>234</v>
       </c>
       <c r="G30" s="19" t="s">
+        <v>1730</v>
+      </c>
+      <c r="H30" s="19" t="s">
         <v>1731</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>1732</v>
       </c>
       <c r="I30" s="19" t="s">
         <v>42</v>
@@ -17843,22 +17916,22 @@
         <v>110</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="F31" s="19" t="s">
         <v>79</v>
       </c>
       <c r="G31" s="19" t="s">
+        <v>1692</v>
+      </c>
+      <c r="H31" s="19" t="s">
         <v>1693</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>1694</v>
       </c>
       <c r="I31" s="19" t="s">
         <v>42</v>
@@ -17885,22 +17958,22 @@
         <v>110</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D32" s="19" t="s">
+        <v>1762</v>
+      </c>
+      <c r="E32" s="19" t="s">
         <v>1763</v>
       </c>
-      <c r="E32" s="19" t="s">
-        <v>1764</v>
-      </c>
       <c r="F32" s="19" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G32" s="19" t="s">
         <v>1772</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="H32" s="19" t="s">
         <v>1773</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>1774</v>
       </c>
       <c r="I32" s="19" t="s">
         <v>42</v>
@@ -17927,22 +18000,22 @@
         <v>110</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="I33" s="19" t="s">
         <v>42</v>
@@ -17969,22 +18042,22 @@
         <v>110</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D34" s="19" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E34" s="19" t="s">
         <v>1770</v>
       </c>
-      <c r="E34" s="19" t="s">
-        <v>1771</v>
-      </c>
       <c r="F34" s="19" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I34" s="19" t="s">
         <v>42</v>
@@ -18011,22 +18084,22 @@
         <v>110</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="E35" s="19" t="s">
+        <v>1785</v>
+      </c>
+      <c r="F35" s="19" t="s">
         <v>1786</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="G35" s="19" t="s">
         <v>1787</v>
       </c>
-      <c r="G35" s="19" t="s">
+      <c r="H35" s="19" t="s">
         <v>1788</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>1789</v>
       </c>
       <c r="I35" s="19" t="s">
         <v>42</v>
@@ -18053,22 +18126,22 @@
         <v>110</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D36" s="19" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F36" s="19" t="s">
         <v>1765</v>
       </c>
-      <c r="E36" s="19" t="s">
-        <v>1780</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>1766</v>
-      </c>
       <c r="G36" s="19" t="s">
+        <v>1791</v>
+      </c>
+      <c r="H36" s="19" t="s">
         <v>1792</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>1793</v>
       </c>
       <c r="I36" s="19" t="s">
         <v>294</v>
@@ -18095,22 +18168,22 @@
         <v>110</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="F37" s="19" t="s">
         <v>79</v>
       </c>
       <c r="G37" s="19" t="s">
+        <v>1695</v>
+      </c>
+      <c r="H37" s="19" t="s">
         <v>1696</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>1697</v>
       </c>
       <c r="I37" s="19" t="s">
         <v>42</v>
@@ -18137,22 +18210,22 @@
         <v>110</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="F38" s="19" t="s">
         <v>231</v>
       </c>
       <c r="G38" s="19" t="s">
+        <v>1698</v>
+      </c>
+      <c r="H38" s="19" t="s">
         <v>1699</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>1700</v>
       </c>
       <c r="I38" s="19" t="s">
         <v>42</v>
@@ -18179,22 +18252,22 @@
         <v>36</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="E39" s="19" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>1540</v>
+      </c>
+      <c r="G39" s="19" t="s">
         <v>1756</v>
       </c>
-      <c r="F39" s="19" t="s">
-        <v>1541</v>
-      </c>
-      <c r="G39" s="19" t="s">
+      <c r="H39" s="19" t="s">
         <v>1757</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>1758</v>
       </c>
       <c r="I39" s="18" t="s">
         <v>42</v>
@@ -18221,22 +18294,22 @@
         <v>110</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="F40" s="19" t="s">
         <v>232</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="I40" s="19" t="s">
         <v>42</v>
@@ -18263,22 +18336,22 @@
         <v>110</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="F41" s="19" t="s">
         <v>233</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="I41" s="19" t="s">
         <v>42</v>
@@ -18305,22 +18378,22 @@
         <v>110</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="F42" s="19" t="s">
         <v>233</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="I42" s="19" t="s">
         <v>42</v>
@@ -18347,22 +18420,22 @@
         <v>110</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="F43" s="19" t="s">
         <v>233</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="I43" s="19" t="s">
         <v>42</v>
@@ -18389,22 +18462,22 @@
         <v>110</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F44" s="19" t="s">
         <v>233</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="I44" s="19" t="s">
         <v>42</v>
@@ -18431,22 +18504,22 @@
         <v>110</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="F45" s="19" t="s">
         <v>233</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="H45" s="19" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="I45" s="19" t="s">
         <v>42</v>
@@ -18473,22 +18546,22 @@
         <v>110</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="F46" s="19" t="s">
         <v>233</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="I46" s="19" t="s">
         <v>42</v>
@@ -18515,22 +18588,22 @@
         <v>110</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="F47" s="19" t="s">
         <v>233</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="I47" s="19" t="s">
         <v>42</v>
@@ -18557,16 +18630,16 @@
         <v>110</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D48" s="19" t="s">
+        <v>1849</v>
+      </c>
+      <c r="E48" s="19" t="s">
         <v>1850</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="F48" s="19" t="s">
         <v>1851</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>1852</v>
       </c>
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
@@ -18585,22 +18658,22 @@
         <v>110</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D49" s="19" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E49" s="19" t="s">
         <v>1761</v>
       </c>
-      <c r="E49" s="19" t="s">
-        <v>1762</v>
-      </c>
       <c r="F49" s="19" t="s">
+        <v>1716</v>
+      </c>
+      <c r="G49" s="19" t="s">
         <v>1717</v>
       </c>
-      <c r="G49" s="19" t="s">
+      <c r="H49" s="19" t="s">
         <v>1718</v>
-      </c>
-      <c r="H49" s="19" t="s">
-        <v>1719</v>
       </c>
       <c r="I49" s="19" t="s">
         <v>42</v>
@@ -18627,22 +18700,22 @@
         <v>110</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="H50" s="19" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I50" s="19" t="s">
         <v>42</v>
@@ -18669,22 +18742,22 @@
         <v>110</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="G51" s="19" t="s">
+        <v>1721</v>
+      </c>
+      <c r="H51" s="19" t="s">
         <v>1722</v>
-      </c>
-      <c r="H51" s="19" t="s">
-        <v>1723</v>
       </c>
       <c r="I51" s="19" t="s">
         <v>42</v>
@@ -18711,22 +18784,22 @@
         <v>110</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="H52" s="19" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="I52" s="19" t="s">
         <v>42</v>
@@ -18753,22 +18826,22 @@
         <v>36</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D53" s="19" t="s">
+        <v>1732</v>
+      </c>
+      <c r="E53" s="19" t="s">
         <v>1733</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>1734</v>
       </c>
       <c r="F53" s="19" t="s">
         <v>235</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="H53" s="19" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="I53" s="18" t="s">
         <v>42</v>
@@ -18795,22 +18868,22 @@
         <v>36</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D54" s="19" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E54" s="19" t="s">
         <v>1736</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="F54" s="19" t="s">
         <v>1737</v>
       </c>
-      <c r="F54" s="19" t="s">
+      <c r="G54" s="19" t="s">
         <v>1738</v>
       </c>
-      <c r="G54" s="19" t="s">
+      <c r="H54" s="19" t="s">
         <v>1739</v>
-      </c>
-      <c r="H54" s="19" t="s">
-        <v>1740</v>
       </c>
       <c r="I54" s="18" t="s">
         <v>42</v>
@@ -18825,7 +18898,7 @@
         <v>43</v>
       </c>
       <c r="M54" s="18" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="N54" s="17"/>
     </row>
@@ -18837,22 +18910,22 @@
         <v>36</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="E55" s="19" t="s">
+        <v>1740</v>
+      </c>
+      <c r="F55" s="19" t="s">
         <v>1741</v>
       </c>
-      <c r="F55" s="19" t="s">
+      <c r="G55" s="19" t="s">
         <v>1742</v>
       </c>
-      <c r="G55" s="19" t="s">
-        <v>1743</v>
-      </c>
       <c r="H55" s="19" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="I55" s="18" t="s">
         <v>42</v>
@@ -18867,7 +18940,7 @@
         <v>43</v>
       </c>
       <c r="M55" s="18" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="N55" s="17"/>
     </row>
@@ -18879,22 +18952,22 @@
         <v>36</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="E56" s="19" t="s">
+        <v>1743</v>
+      </c>
+      <c r="F56" s="19" t="s">
         <v>1744</v>
       </c>
-      <c r="F56" s="19" t="s">
+      <c r="G56" s="19" t="s">
         <v>1745</v>
       </c>
-      <c r="G56" s="19" t="s">
-        <v>1746</v>
-      </c>
       <c r="H56" s="19" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="I56" s="18" t="s">
         <v>42</v>
@@ -18921,22 +18994,22 @@
         <v>36</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="E57" s="19" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F57" s="19" t="s">
         <v>1747</v>
       </c>
-      <c r="F57" s="19" t="s">
+      <c r="G57" s="19" t="s">
         <v>1748</v>
       </c>
-      <c r="G57" s="19" t="s">
-        <v>1749</v>
-      </c>
       <c r="H57" s="19" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="I57" s="18" t="s">
         <v>42</v>
@@ -18948,7 +19021,7 @@
         <v>2</v>
       </c>
       <c r="L57" s="18" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="M57" s="18" t="s">
         <v>44</v>
@@ -18960,25 +19033,25 @@
         <v>57</v>
       </c>
       <c r="B58" s="18" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C58" s="19" t="s">
         <v>1862</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="D58" s="19" t="s">
         <v>1863</v>
       </c>
-      <c r="D58" s="19" t="s">
+      <c r="E58" s="19" t="s">
         <v>1864</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="F58" s="30" t="s">
         <v>1865</v>
       </c>
-      <c r="F58" s="30" t="s">
+      <c r="G58" s="19" t="s">
         <v>1866</v>
       </c>
-      <c r="G58" s="19" t="s">
+      <c r="H58" s="19" t="s">
         <v>1867</v>
-      </c>
-      <c r="H58" s="19" t="s">
-        <v>1868</v>
       </c>
       <c r="I58" s="18" t="s">
         <v>42</v>
@@ -18990,13 +19063,13 @@
         <v>2</v>
       </c>
       <c r="L58" s="18" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="M58" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N58" s="17" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="59" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
@@ -19004,25 +19077,25 @@
         <v>58</v>
       </c>
       <c r="B59" s="18" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C59" s="19" t="s">
         <v>1862</v>
       </c>
-      <c r="C59" s="19" t="s">
-        <v>1863</v>
-      </c>
       <c r="D59" s="19" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E59" s="19" t="s">
+        <v>1870</v>
+      </c>
+      <c r="F59" s="30" t="s">
         <v>1871</v>
       </c>
-      <c r="F59" s="30" t="s">
+      <c r="G59" s="19" t="s">
         <v>1872</v>
       </c>
-      <c r="G59" s="19" t="s">
-        <v>1873</v>
-      </c>
       <c r="H59" s="19" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="I59" s="18" t="s">
         <v>42</v>
@@ -19034,13 +19107,13 @@
         <v>2</v>
       </c>
       <c r="L59" s="18" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="M59" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N59" s="17" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="60" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
@@ -19048,25 +19121,25 @@
         <v>59</v>
       </c>
       <c r="B60" s="18" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C60" s="19" t="s">
         <v>1862</v>
       </c>
-      <c r="C60" s="19" t="s">
-        <v>1863</v>
-      </c>
       <c r="D60" s="19" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E60" s="19" t="s">
         <v>1874</v>
       </c>
-      <c r="E60" s="19" t="s">
+      <c r="F60" s="30" t="s">
         <v>1875</v>
       </c>
-      <c r="F60" s="30" t="s">
+      <c r="G60" s="19" t="s">
         <v>1876</v>
       </c>
-      <c r="G60" s="19" t="s">
-        <v>1877</v>
-      </c>
       <c r="H60" s="19" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="I60" s="18" t="s">
         <v>294</v>
@@ -19078,13 +19151,13 @@
         <v>3</v>
       </c>
       <c r="L60" s="18" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="M60" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N60" s="17" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="61" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
@@ -19092,25 +19165,25 @@
         <v>60</v>
       </c>
       <c r="B61" s="18" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C61" s="19" t="s">
         <v>1862</v>
       </c>
-      <c r="C61" s="19" t="s">
-        <v>1863</v>
-      </c>
       <c r="D61" s="19" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="E61" s="19" t="s">
+        <v>1877</v>
+      </c>
+      <c r="F61" s="30" t="s">
+        <v>1875</v>
+      </c>
+      <c r="G61" s="19" t="s">
         <v>1878</v>
       </c>
-      <c r="F61" s="30" t="s">
-        <v>1876</v>
-      </c>
-      <c r="G61" s="19" t="s">
-        <v>1879</v>
-      </c>
       <c r="H61" s="19" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="I61" s="18" t="s">
         <v>294</v>
@@ -19122,13 +19195,13 @@
         <v>3</v>
       </c>
       <c r="L61" s="18" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="M61" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N61" s="17" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="62" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
@@ -19136,25 +19209,25 @@
         <v>61</v>
       </c>
       <c r="B62" s="18" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C62" s="19" t="s">
         <v>1862</v>
       </c>
-      <c r="C62" s="19" t="s">
-        <v>1863</v>
-      </c>
       <c r="D62" s="19" t="s">
+        <v>1879</v>
+      </c>
+      <c r="E62" s="19" t="s">
         <v>1880</v>
       </c>
-      <c r="E62" s="19" t="s">
+      <c r="F62" s="30" t="s">
         <v>1881</v>
       </c>
-      <c r="F62" s="30" t="s">
+      <c r="G62" s="19" t="s">
         <v>1882</v>
       </c>
-      <c r="G62" s="19" t="s">
-        <v>1883</v>
-      </c>
       <c r="H62" s="19" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="I62" s="18" t="s">
         <v>294</v>
@@ -19166,13 +19239,13 @@
         <v>3</v>
       </c>
       <c r="L62" s="18" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="M62" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N62" s="17" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="63" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
@@ -19180,25 +19253,25 @@
         <v>62</v>
       </c>
       <c r="B63" s="18" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C63" s="19" t="s">
         <v>1862</v>
       </c>
-      <c r="C63" s="19" t="s">
-        <v>1863</v>
-      </c>
       <c r="D63" s="19" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="E63" s="19" t="s">
+        <v>1883</v>
+      </c>
+      <c r="F63" s="30" t="s">
+        <v>1881</v>
+      </c>
+      <c r="G63" s="19" t="s">
         <v>1884</v>
       </c>
-      <c r="F63" s="30" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G63" s="19" t="s">
-        <v>1885</v>
-      </c>
       <c r="H63" s="19" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="I63" s="18" t="s">
         <v>294</v>
@@ -19210,13 +19283,13 @@
         <v>3</v>
       </c>
       <c r="L63" s="18" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="M63" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N63" s="17" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="64" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
@@ -19224,25 +19297,25 @@
         <v>63</v>
       </c>
       <c r="B64" s="18" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C64" s="19" t="s">
         <v>1862</v>
       </c>
-      <c r="C64" s="19" t="s">
-        <v>1863</v>
-      </c>
       <c r="D64" s="19" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E64" s="19" t="s">
         <v>1886</v>
       </c>
-      <c r="E64" s="19" t="s">
+      <c r="F64" s="30" t="s">
+        <v>1865</v>
+      </c>
+      <c r="G64" s="19" t="s">
         <v>1887</v>
       </c>
-      <c r="F64" s="30" t="s">
-        <v>1866</v>
-      </c>
-      <c r="G64" s="19" t="s">
+      <c r="H64" s="19" t="s">
         <v>1888</v>
-      </c>
-      <c r="H64" s="19" t="s">
-        <v>1889</v>
       </c>
       <c r="I64" s="18" t="s">
         <v>42</v>
@@ -19254,13 +19327,13 @@
         <v>2</v>
       </c>
       <c r="L64" s="18" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="M64" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N64" s="17" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="65" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
@@ -19268,25 +19341,25 @@
         <v>64</v>
       </c>
       <c r="B65" s="18" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C65" s="19" t="s">
         <v>1862</v>
       </c>
-      <c r="C65" s="19" t="s">
-        <v>1863</v>
-      </c>
       <c r="D65" s="19" t="s">
+        <v>1889</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>1886</v>
+      </c>
+      <c r="F65" s="30" t="s">
         <v>1890</v>
       </c>
-      <c r="E65" s="19" t="s">
-        <v>1887</v>
-      </c>
-      <c r="F65" s="30" t="s">
+      <c r="G65" s="19" t="s">
         <v>1891</v>
       </c>
-      <c r="G65" s="19" t="s">
-        <v>1892</v>
-      </c>
       <c r="H65" s="19" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="I65" s="18" t="s">
         <v>42</v>
@@ -19298,13 +19371,13 @@
         <v>2</v>
       </c>
       <c r="L65" s="18" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="M65" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N65" s="17" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="66" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
@@ -19312,25 +19385,25 @@
         <v>65</v>
       </c>
       <c r="B66" s="18" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C66" s="19" t="s">
         <v>1862</v>
       </c>
-      <c r="C66" s="19" t="s">
-        <v>1863</v>
-      </c>
       <c r="D66" s="19" t="s">
+        <v>1892</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>1886</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>1881</v>
+      </c>
+      <c r="G66" s="19" t="s">
         <v>1893</v>
       </c>
-      <c r="E66" s="19" t="s">
-        <v>1887</v>
-      </c>
-      <c r="F66" s="30" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G66" s="19" t="s">
-        <v>1894</v>
-      </c>
       <c r="H66" s="19" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="I66" s="18" t="s">
         <v>294</v>
@@ -19342,13 +19415,13 @@
         <v>3</v>
       </c>
       <c r="L66" s="18" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="M66" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N66" s="17" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="67" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
@@ -19356,25 +19429,25 @@
         <v>66</v>
       </c>
       <c r="B67" s="18" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C67" s="19" t="s">
         <v>1862</v>
       </c>
-      <c r="C67" s="19" t="s">
-        <v>1863</v>
-      </c>
       <c r="D67" s="19" t="s">
+        <v>1894</v>
+      </c>
+      <c r="E67" s="19" t="s">
         <v>1895</v>
       </c>
-      <c r="E67" s="19" t="s">
+      <c r="F67" s="19" t="s">
         <v>1896</v>
       </c>
-      <c r="F67" s="19" t="s">
+      <c r="G67" s="19" t="s">
         <v>1897</v>
       </c>
-      <c r="G67" s="19" t="s">
+      <c r="H67" s="19" t="s">
         <v>1898</v>
-      </c>
-      <c r="H67" s="19" t="s">
-        <v>1899</v>
       </c>
       <c r="I67" s="18" t="s">
         <v>42</v>
@@ -19386,13 +19459,13 @@
         <v>2</v>
       </c>
       <c r="L67" s="18" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="M67" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N67" s="17" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="68" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
@@ -19400,25 +19473,25 @@
         <v>67</v>
       </c>
       <c r="B68" s="18" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C68" s="19" t="s">
         <v>1862</v>
       </c>
-      <c r="C68" s="19" t="s">
-        <v>1863</v>
-      </c>
       <c r="D68" s="19" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="F68" s="19" t="s">
+        <v>1899</v>
+      </c>
+      <c r="G68" s="19" t="s">
+        <v>1897</v>
+      </c>
+      <c r="H68" s="19" t="s">
         <v>1900</v>
-      </c>
-      <c r="G68" s="19" t="s">
-        <v>1898</v>
-      </c>
-      <c r="H68" s="19" t="s">
-        <v>1901</v>
       </c>
       <c r="I68" s="18" t="s">
         <v>42</v>
@@ -19430,13 +19503,13 @@
         <v>2</v>
       </c>
       <c r="L68" s="18" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="M68" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N68" s="17" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="69" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
@@ -19444,25 +19517,25 @@
         <v>68</v>
       </c>
       <c r="B69" s="18" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C69" s="19" t="s">
         <v>1862</v>
       </c>
-      <c r="C69" s="19" t="s">
-        <v>1863</v>
-      </c>
       <c r="D69" s="19" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="G69" s="19" t="s">
+        <v>1897</v>
+      </c>
+      <c r="H69" s="19" t="s">
         <v>1898</v>
-      </c>
-      <c r="H69" s="19" t="s">
-        <v>1899</v>
       </c>
       <c r="I69" s="18" t="s">
         <v>294</v>
@@ -19474,13 +19547,13 @@
         <v>3</v>
       </c>
       <c r="L69" s="18" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="M69" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N69" s="17" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="70" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
@@ -19488,25 +19561,25 @@
         <v>69</v>
       </c>
       <c r="B70" s="18" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C70" s="19" t="s">
         <v>1862</v>
       </c>
-      <c r="C70" s="19" t="s">
-        <v>1863</v>
-      </c>
       <c r="D70" s="19" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="G70" s="19" t="s">
+        <v>1897</v>
+      </c>
+      <c r="H70" s="19" t="s">
         <v>1898</v>
-      </c>
-      <c r="H70" s="19" t="s">
-        <v>1899</v>
       </c>
       <c r="I70" s="18" t="s">
         <v>294</v>
@@ -19518,13 +19591,13 @@
         <v>3</v>
       </c>
       <c r="L70" s="18" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="M70" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N70" s="17" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="71" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
@@ -19532,25 +19605,25 @@
         <v>70</v>
       </c>
       <c r="B71" s="18" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C71" s="19" t="s">
         <v>1862</v>
       </c>
-      <c r="C71" s="19" t="s">
-        <v>1863</v>
-      </c>
       <c r="D71" s="19" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E71" s="19" t="s">
         <v>1904</v>
       </c>
-      <c r="E71" s="19" t="s">
+      <c r="F71" s="19" t="s">
         <v>1905</v>
       </c>
-      <c r="F71" s="19" t="s">
+      <c r="G71" s="19" t="s">
         <v>1906</v>
       </c>
-      <c r="G71" s="19" t="s">
+      <c r="H71" s="19" t="s">
         <v>1907</v>
-      </c>
-      <c r="H71" s="19" t="s">
-        <v>1908</v>
       </c>
       <c r="I71" s="18" t="s">
         <v>42</v>
@@ -19562,13 +19635,13 @@
         <v>2</v>
       </c>
       <c r="L71" s="18" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="M71" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N71" s="17" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="72" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
@@ -19576,25 +19649,25 @@
         <v>71</v>
       </c>
       <c r="B72" s="18" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C72" s="19" t="s">
         <v>1862</v>
       </c>
-      <c r="C72" s="19" t="s">
-        <v>1863</v>
-      </c>
       <c r="D72" s="19" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="F72" s="19" t="s">
+        <v>1908</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>1906</v>
+      </c>
+      <c r="H72" s="19" t="s">
         <v>1909</v>
-      </c>
-      <c r="G72" s="19" t="s">
-        <v>1907</v>
-      </c>
-      <c r="H72" s="19" t="s">
-        <v>1910</v>
       </c>
       <c r="I72" s="18" t="s">
         <v>42</v>
@@ -19606,13 +19679,13 @@
         <v>2</v>
       </c>
       <c r="L72" s="18" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="M72" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N72" s="17" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="73" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
@@ -19620,25 +19693,25 @@
         <v>72</v>
       </c>
       <c r="B73" s="18" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C73" s="19" t="s">
         <v>1862</v>
       </c>
-      <c r="C73" s="19" t="s">
-        <v>1863</v>
-      </c>
       <c r="D73" s="19" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="F73" s="19" t="s">
+        <v>1910</v>
+      </c>
+      <c r="G73" s="19" t="s">
+        <v>1906</v>
+      </c>
+      <c r="H73" s="19" t="s">
         <v>1911</v>
-      </c>
-      <c r="G73" s="19" t="s">
-        <v>1907</v>
-      </c>
-      <c r="H73" s="19" t="s">
-        <v>1912</v>
       </c>
       <c r="I73" s="18" t="s">
         <v>294</v>
@@ -19650,13 +19723,13 @@
         <v>3</v>
       </c>
       <c r="L73" s="18" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="M73" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N73" s="17" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="74" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
@@ -19664,25 +19737,25 @@
         <v>73</v>
       </c>
       <c r="B74" s="18" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C74" s="19" t="s">
         <v>1862</v>
       </c>
-      <c r="C74" s="19" t="s">
-        <v>1863</v>
-      </c>
       <c r="D74" s="19" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E74" s="19" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="H74" s="19" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="I74" s="18" t="s">
         <v>294</v>
@@ -19694,13 +19767,13 @@
         <v>3</v>
       </c>
       <c r="L74" s="18" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="M74" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N74" s="17" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="75" spans="1:14" s="28" customFormat="1" ht="78.75" customHeight="1">
@@ -19711,22 +19784,22 @@
         <v>36</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="D75" s="19" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E75" s="19" t="s">
         <v>1751</v>
       </c>
-      <c r="E75" s="19" t="s">
+      <c r="F75" s="19" t="s">
         <v>1752</v>
       </c>
-      <c r="F75" s="19" t="s">
+      <c r="G75" s="19" t="s">
         <v>1753</v>
       </c>
-      <c r="G75" s="19" t="s">
+      <c r="H75" s="19" t="s">
         <v>1754</v>
-      </c>
-      <c r="H75" s="19" t="s">
-        <v>1755</v>
       </c>
       <c r="I75" s="18" t="s">
         <v>42</v>
@@ -20062,7 +20135,7 @@
         <v>266</v>
       </c>
       <c r="H83" s="19" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="I83" s="19" t="s">
         <v>42</v>
@@ -20970,25 +21043,25 @@
         <v>104</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C105" s="19" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D105" s="19" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E105" s="19" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F105" s="19" t="s">
+        <v>1347</v>
+      </c>
+      <c r="G105" s="19" t="s">
+        <v>1346</v>
+      </c>
+      <c r="H105" s="19" t="s">
         <v>1345</v>
-      </c>
-      <c r="D105" s="19" t="s">
-        <v>1350</v>
-      </c>
-      <c r="E105" s="19" t="s">
-        <v>1349</v>
-      </c>
-      <c r="F105" s="19" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G105" s="19" t="s">
-        <v>1347</v>
-      </c>
-      <c r="H105" s="19" t="s">
-        <v>1346</v>
       </c>
       <c r="I105" s="18" t="s">
         <v>42</v>
@@ -21000,7 +21073,7 @@
         <v>1</v>
       </c>
       <c r="L105" s="18" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="M105" s="18" t="s">
         <v>44</v>
@@ -21012,25 +21085,25 @@
         <v>105</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C106" s="34" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E106" s="19" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="F106" s="34" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G106" s="19" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="H106" s="19" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="I106" s="18" t="s">
         <v>42</v>
@@ -21042,7 +21115,7 @@
         <v>2</v>
       </c>
       <c r="L106" s="18" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="M106" s="18" t="s">
         <v>44</v>
@@ -21054,21 +21127,21 @@
         <v>106</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C107" s="35"/>
       <c r="D107" s="19" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E107" s="19" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="F107" s="35"/>
       <c r="G107" s="19" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="I107" s="18" t="s">
         <v>42</v>
@@ -21080,7 +21153,7 @@
         <v>2</v>
       </c>
       <c r="L107" s="18" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="M107" s="18" t="s">
         <v>44</v>
@@ -21092,21 +21165,21 @@
         <v>107</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C108" s="35"/>
       <c r="D108" s="19" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="E108" s="19" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="F108" s="35"/>
       <c r="G108" s="19" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H108" s="19" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="I108" s="18" t="s">
         <v>42</v>
@@ -21118,7 +21191,7 @@
         <v>2</v>
       </c>
       <c r="L108" s="18" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="M108" s="18" t="s">
         <v>44</v>
@@ -21133,22 +21206,22 @@
         <v>36</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="E109" s="19" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="F109" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G109" s="19" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H109" s="19" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="I109" s="18" t="s">
         <v>42</v>
@@ -21175,22 +21248,22 @@
         <v>36</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="E110" s="19" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F110" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G110" s="19" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H110" s="19" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="I110" s="18" t="s">
         <v>42</v>
@@ -21217,22 +21290,22 @@
         <v>36</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E111" s="19" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="F111" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G111" s="19" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H111" s="19" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="I111" s="18" t="s">
         <v>42</v>
@@ -21259,22 +21332,22 @@
         <v>36</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="E112" s="19" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="F112" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G112" s="19" t="s">
+        <v>1758</v>
+      </c>
+      <c r="H112" s="19" t="s">
         <v>1759</v>
-      </c>
-      <c r="H112" s="19" t="s">
-        <v>1760</v>
       </c>
       <c r="I112" s="18" t="s">
         <v>42</v>
@@ -21301,22 +21374,22 @@
         <v>36</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E113" s="19" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="F113" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G113" s="19" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H113" s="19" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="I113" s="18" t="s">
         <v>42</v>
@@ -21343,22 +21416,22 @@
         <v>36</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="E114" s="19" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="F114" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G114" s="19" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="H114" s="19" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="I114" s="18" t="s">
         <v>42</v>
@@ -21385,22 +21458,22 @@
         <v>36</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="F115" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G115" s="19" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H115" s="19" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="I115" s="18" t="s">
         <v>42</v>
@@ -21427,22 +21500,22 @@
         <v>36</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E116" s="19" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G116" s="19" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H116" s="19" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="I116" s="18" t="s">
         <v>42</v>
@@ -21469,22 +21542,22 @@
         <v>36</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E117" s="19" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="G117" s="19" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H117" s="19" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="I117" s="18" t="s">
         <v>42</v>
@@ -21511,22 +21584,22 @@
         <v>36</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E118" s="19" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="G118" s="19" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H118" s="19" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="I118" s="18" t="s">
         <v>42</v>
@@ -21553,22 +21626,22 @@
         <v>36</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="E119" s="19" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F119" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G119" s="19" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H119" s="19" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="I119" s="18" t="s">
         <v>42</v>
@@ -21595,22 +21668,22 @@
         <v>36</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="E120" s="19" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="F120" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G120" s="19" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="H120" s="19" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="I120" s="18" t="s">
         <v>42</v>
@@ -21637,22 +21710,22 @@
         <v>36</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="E121" s="19" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="F121" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G121" s="19" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="H121" s="19" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="I121" s="18" t="s">
         <v>42</v>
@@ -21704,10 +21777,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:N128"/>
+  <dimension ref="A1:N131"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -21950,19 +22023,19 @@
         <v>358</v>
       </c>
       <c r="D6" s="29" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>1674</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="F6" s="19" t="s">
         <v>1675</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="G6" s="19" t="s">
         <v>1676</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="H6" s="19" t="s">
         <v>1677</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>1678</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>42</v>
@@ -23344,25 +23417,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>463</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="E40" s="19" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F40" s="19" t="s">
         <v>1563</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="G40" s="19" t="s">
         <v>1564</v>
       </c>
-      <c r="G40" s="19" t="s">
+      <c r="H40" s="19" t="s">
         <v>1565</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>1566</v>
       </c>
       <c r="I40" s="18" t="s">
         <v>42</v>
@@ -23374,7 +23447,7 @@
         <v>2</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="M40" s="18" t="s">
         <v>44</v>
@@ -23386,25 +23459,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>463</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="F41" s="19" t="s">
+        <v>1566</v>
+      </c>
+      <c r="G41" s="19" t="s">
         <v>1567</v>
       </c>
-      <c r="G41" s="19" t="s">
+      <c r="H41" s="19" t="s">
         <v>1568</v>
-      </c>
-      <c r="H41" s="19" t="s">
-        <v>1569</v>
       </c>
       <c r="I41" s="18" t="s">
         <v>42</v>
@@ -23416,7 +23489,7 @@
         <v>2</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="M41" s="18" t="s">
         <v>44</v>
@@ -23428,25 +23501,25 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>1967</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>1968</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>1969</v>
+      </c>
+      <c r="H42" s="19" t="s">
         <v>1970</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>1971</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>1972</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>1973</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>1974</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>1975</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>1976</v>
       </c>
       <c r="I42" s="18" t="s">
         <v>42</v>
@@ -23458,13 +23531,13 @@
         <v>1</v>
       </c>
       <c r="L42" s="18" t="s">
-        <v>1977</v>
+        <v>1971</v>
       </c>
       <c r="M42" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N42" s="17" t="s">
-        <v>1978</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="43" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
@@ -23472,25 +23545,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>1974</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>1975</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>1976</v>
+      </c>
+      <c r="H43" s="19" t="s">
         <v>1970</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>1971</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>1979</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>1980</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>1981</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>1982</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>1976</v>
       </c>
       <c r="I43" s="18" t="s">
         <v>294</v>
@@ -23502,13 +23575,13 @@
         <v>2</v>
       </c>
       <c r="L43" s="18" t="s">
-        <v>1977</v>
+        <v>1971</v>
       </c>
       <c r="M43" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N43" s="17" t="s">
-        <v>1978</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="100.5" customHeight="1">
@@ -24264,25 +24337,25 @@
         <v>61</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>463</v>
       </c>
       <c r="D62" s="19" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E62" s="19" t="s">
         <v>1553</v>
       </c>
-      <c r="E62" s="19" t="s">
+      <c r="F62" s="19" t="s">
         <v>1554</v>
       </c>
-      <c r="F62" s="19" t="s">
+      <c r="G62" s="19" t="s">
         <v>1555</v>
       </c>
-      <c r="G62" s="19" t="s">
+      <c r="H62" s="19" t="s">
         <v>1556</v>
-      </c>
-      <c r="H62" s="19" t="s">
-        <v>1557</v>
       </c>
       <c r="I62" s="18" t="s">
         <v>42</v>
@@ -24294,7 +24367,7 @@
         <v>3</v>
       </c>
       <c r="L62" s="18" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="M62" s="18" t="s">
         <v>44</v>
@@ -24306,25 +24379,25 @@
         <v>62</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="C63" s="19" t="s">
         <v>463</v>
       </c>
       <c r="D63" s="19" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E63" s="19" t="s">
         <v>1559</v>
       </c>
-      <c r="E63" s="19" t="s">
+      <c r="F63" s="19" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G63" s="19" t="s">
         <v>1560</v>
       </c>
-      <c r="F63" s="19" t="s">
-        <v>1555</v>
-      </c>
-      <c r="G63" s="19" t="s">
+      <c r="H63" s="19" t="s">
         <v>1561</v>
-      </c>
-      <c r="H63" s="19" t="s">
-        <v>1562</v>
       </c>
       <c r="I63" s="18" t="s">
         <v>42</v>
@@ -24336,7 +24409,7 @@
         <v>3</v>
       </c>
       <c r="L63" s="18" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="M63" s="18" t="s">
         <v>44</v>
@@ -24348,25 +24421,25 @@
         <v>63</v>
       </c>
       <c r="B64" s="18" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C64" s="19" t="s">
         <v>1914</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="D64" s="19" t="s">
         <v>1915</v>
       </c>
-      <c r="D64" s="19" t="s">
+      <c r="E64" s="19" t="s">
         <v>1916</v>
       </c>
-      <c r="E64" s="19" t="s">
+      <c r="F64" s="19" t="s">
         <v>1917</v>
       </c>
-      <c r="F64" s="19" t="s">
+      <c r="G64" s="19" t="s">
         <v>1918</v>
       </c>
-      <c r="G64" s="19" t="s">
+      <c r="H64" s="19" t="s">
         <v>1919</v>
-      </c>
-      <c r="H64" s="19" t="s">
-        <v>1920</v>
       </c>
       <c r="I64" s="18" t="s">
         <v>42</v>
@@ -24378,13 +24451,13 @@
         <v>1</v>
       </c>
       <c r="L64" s="18" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="M64" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N64" s="17" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="65" spans="1:14" customFormat="1" ht="104.25" customHeight="1">
@@ -24392,25 +24465,25 @@
         <v>64</v>
       </c>
       <c r="B65" s="18" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C65" s="19" t="s">
         <v>1914</v>
       </c>
-      <c r="C65" s="19" t="s">
-        <v>1915</v>
-      </c>
       <c r="D65" s="19" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E65" s="19" t="s">
         <v>1923</v>
       </c>
-      <c r="E65" s="19" t="s">
+      <c r="F65" s="19" t="s">
         <v>1924</v>
       </c>
-      <c r="F65" s="19" t="s">
+      <c r="G65" s="19" t="s">
+        <v>1918</v>
+      </c>
+      <c r="H65" s="19" t="s">
         <v>1925</v>
-      </c>
-      <c r="G65" s="19" t="s">
-        <v>1919</v>
-      </c>
-      <c r="H65" s="19" t="s">
-        <v>1926</v>
       </c>
       <c r="I65" s="18" t="s">
         <v>294</v>
@@ -24422,13 +24495,13 @@
         <v>3</v>
       </c>
       <c r="L65" s="18" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="M65" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N65" s="17" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="66" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
@@ -24436,25 +24509,25 @@
         <v>65</v>
       </c>
       <c r="B66" s="18" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C66" s="19" t="s">
         <v>1914</v>
       </c>
-      <c r="C66" s="19" t="s">
-        <v>1915</v>
-      </c>
       <c r="D66" s="19" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E66" s="19" t="s">
         <v>1927</v>
       </c>
-      <c r="E66" s="19" t="s">
+      <c r="F66" s="19" t="s">
         <v>1928</v>
       </c>
-      <c r="F66" s="19" t="s">
+      <c r="G66" s="19" t="s">
         <v>1929</v>
       </c>
-      <c r="G66" s="19" t="s">
+      <c r="H66" s="19" t="s">
         <v>1930</v>
-      </c>
-      <c r="H66" s="19" t="s">
-        <v>1931</v>
       </c>
       <c r="I66" s="18" t="s">
         <v>42</v>
@@ -24466,13 +24539,13 @@
         <v>1</v>
       </c>
       <c r="L66" s="18" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="M66" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N66" s="17" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="67" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
@@ -24480,25 +24553,25 @@
         <v>66</v>
       </c>
       <c r="B67" s="18" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C67" s="19" t="s">
         <v>1914</v>
       </c>
-      <c r="C67" s="19" t="s">
-        <v>1915</v>
-      </c>
       <c r="D67" s="19" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G67" s="19" t="s">
         <v>1932</v>
       </c>
-      <c r="E67" s="19" t="s">
-        <v>1928</v>
-      </c>
-      <c r="F67" s="19" t="s">
-        <v>1929</v>
-      </c>
-      <c r="G67" s="19" t="s">
-        <v>1933</v>
-      </c>
       <c r="H67" s="19" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="I67" s="18" t="s">
         <v>42</v>
@@ -24510,13 +24583,13 @@
         <v>2</v>
       </c>
       <c r="L67" s="18" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="M67" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N67" s="17" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="68" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
@@ -24524,25 +24597,25 @@
         <v>67</v>
       </c>
       <c r="B68" s="18" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C68" s="19" t="s">
         <v>1914</v>
       </c>
-      <c r="C68" s="19" t="s">
-        <v>1915</v>
-      </c>
       <c r="D68" s="19" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E68" s="19" t="s">
         <v>1934</v>
       </c>
-      <c r="E68" s="19" t="s">
+      <c r="F68" s="19" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G68" s="19" t="s">
         <v>1935</v>
       </c>
-      <c r="F68" s="19" t="s">
-        <v>1929</v>
-      </c>
-      <c r="G68" s="19" t="s">
+      <c r="H68" s="19" t="s">
         <v>1936</v>
-      </c>
-      <c r="H68" s="19" t="s">
-        <v>1937</v>
       </c>
       <c r="I68" s="18" t="s">
         <v>42</v>
@@ -24554,13 +24627,13 @@
         <v>2</v>
       </c>
       <c r="L68" s="18" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="M68" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N68" s="17" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="69" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
@@ -24568,25 +24641,25 @@
         <v>68</v>
       </c>
       <c r="B69" s="18" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C69" s="19" t="s">
         <v>1914</v>
       </c>
-      <c r="C69" s="19" t="s">
-        <v>1915</v>
-      </c>
       <c r="D69" s="19" t="s">
+        <v>1937</v>
+      </c>
+      <c r="E69" s="19" t="s">
         <v>1938</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="F69" s="19" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G69" s="19" t="s">
         <v>1939</v>
       </c>
-      <c r="F69" s="19" t="s">
-        <v>1929</v>
-      </c>
-      <c r="G69" s="19" t="s">
+      <c r="H69" s="19" t="s">
         <v>1940</v>
-      </c>
-      <c r="H69" s="19" t="s">
-        <v>1941</v>
       </c>
       <c r="I69" s="18" t="s">
         <v>42</v>
@@ -24598,39 +24671,39 @@
         <v>2</v>
       </c>
       <c r="L69" s="18" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="M69" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N69" s="17" t="s">
-        <v>1922</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" customFormat="1" ht="137.25" customHeight="1">
       <c r="A70" s="18">
         <v>69</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>1914</v>
+        <v>1986</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>1915</v>
+        <v>1987</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>1942</v>
+        <v>1988</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>1943</v>
+        <v>1989</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>1944</v>
+        <v>1990</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>1945</v>
+        <v>1991</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>1946</v>
+        <v>1992</v>
       </c>
       <c r="I70" s="18" t="s">
         <v>42</v>
@@ -24639,40 +24712,42 @@
         <v>30</v>
       </c>
       <c r="K70" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L70" s="18" t="s">
-        <v>1921</v>
-      </c>
-      <c r="M70" s="18"/>
+        <v>1993</v>
+      </c>
+      <c r="M70" s="18" t="s">
+        <v>44</v>
+      </c>
       <c r="N70" s="17" t="s">
-        <v>1922</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="98.25" customHeight="1">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" customFormat="1" ht="137.25" customHeight="1">
       <c r="A71" s="18">
         <v>70</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>110</v>
+        <v>1986</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>608</v>
+        <v>1987</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>609</v>
+        <v>1995</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>610</v>
+        <v>1996</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>611</v>
+        <v>1997</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>612</v>
+        <v>1998</v>
       </c>
       <c r="H71" s="19" t="s">
-        <v>613</v>
+        <v>1999</v>
       </c>
       <c r="I71" s="18" t="s">
         <v>42</v>
@@ -24681,40 +24756,42 @@
         <v>30</v>
       </c>
       <c r="K71" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L71" s="18" t="s">
-        <v>43</v>
+        <v>1993</v>
       </c>
       <c r="M71" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N71" s="18"/>
-    </row>
-    <row r="72" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
+        <v>44</v>
+      </c>
+      <c r="N71" s="17" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" customFormat="1" ht="137.25" customHeight="1">
       <c r="A72" s="18">
         <v>71</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>1914</v>
+        <v>1986</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>608</v>
+        <v>1987</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>1951</v>
+        <v>2000</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>1947</v>
+        <v>2001</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>1948</v>
+        <v>2002</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>1949</v>
+        <v>2003</v>
       </c>
       <c r="H72" s="19" t="s">
-        <v>1950</v>
+        <v>2004</v>
       </c>
       <c r="I72" s="18" t="s">
         <v>42</v>
@@ -24726,39 +24803,39 @@
         <v>2</v>
       </c>
       <c r="L72" s="18" t="s">
-        <v>1921</v>
+        <v>1993</v>
       </c>
       <c r="M72" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N72" s="17" t="s">
-        <v>1922</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="104.25" customHeight="1">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" customFormat="1" ht="137.25" customHeight="1">
       <c r="A73" s="18">
         <v>72</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>110</v>
+        <v>1986</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>614</v>
+        <v>1987</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>615</v>
+        <v>2000</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>616</v>
+        <v>2005</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>617</v>
+        <v>2002</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>618</v>
+        <v>2006</v>
       </c>
       <c r="H73" s="19" t="s">
-        <v>619</v>
+        <v>2004</v>
       </c>
       <c r="I73" s="18" t="s">
         <v>42</v>
@@ -24770,14 +24847,16 @@
         <v>2</v>
       </c>
       <c r="L73" s="18" t="s">
-        <v>43</v>
+        <v>1993</v>
       </c>
       <c r="M73" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N73" s="18"/>
-    </row>
-    <row r="74" spans="1:14" ht="78.75" customHeight="1">
+        <v>44</v>
+      </c>
+      <c r="N73" s="17" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="98.25" customHeight="1">
       <c r="A74" s="18">
         <v>73</v>
       </c>
@@ -24785,22 +24864,22 @@
         <v>110</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="E74" s="19" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>388</v>
+        <v>611</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="H74" s="19" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="I74" s="18" t="s">
         <v>42</v>
@@ -24809,7 +24888,7 @@
         <v>30</v>
       </c>
       <c r="K74" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L74" s="18" t="s">
         <v>43</v>
@@ -24819,30 +24898,30 @@
       </c>
       <c r="N74" s="18"/>
     </row>
-    <row r="75" spans="1:14" ht="78.75" customHeight="1">
+    <row r="75" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A75" s="18">
         <v>74</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>110</v>
+        <v>1913</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>625</v>
+        <v>1945</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>626</v>
+        <v>1941</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>388</v>
+        <v>1942</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>627</v>
+        <v>1943</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>628</v>
+        <v>1944</v>
       </c>
       <c r="I75" s="18" t="s">
         <v>42</v>
@@ -24854,14 +24933,16 @@
         <v>2</v>
       </c>
       <c r="L75" s="18" t="s">
-        <v>43</v>
+        <v>1920</v>
       </c>
       <c r="M75" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N75" s="18"/>
-    </row>
-    <row r="76" spans="1:14" ht="78.75" customHeight="1">
+        <v>44</v>
+      </c>
+      <c r="N75" s="17" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="104.25" customHeight="1">
       <c r="A76" s="18">
         <v>75</v>
       </c>
@@ -24869,22 +24950,22 @@
         <v>110</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="H76" s="19" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="I76" s="18" t="s">
         <v>42</v>
@@ -24893,7 +24974,7 @@
         <v>30</v>
       </c>
       <c r="K76" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L76" s="18" t="s">
         <v>43</v>
@@ -24911,22 +24992,22 @@
         <v>110</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>632</v>
+        <v>388</v>
       </c>
       <c r="G77" s="19" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="H77" s="19" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="I77" s="18" t="s">
         <v>42</v>
@@ -24935,7 +25016,7 @@
         <v>30</v>
       </c>
       <c r="K77" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L77" s="18" t="s">
         <v>43</v>
@@ -24953,22 +25034,22 @@
         <v>110</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>638</v>
-      </c>
-      <c r="D78" s="29" t="s">
-        <v>639</v>
+        <v>624</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>625</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>641</v>
+        <v>388</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="I78" s="18" t="s">
         <v>42</v>
@@ -24977,7 +25058,7 @@
         <v>30</v>
       </c>
       <c r="K78" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L78" s="18" t="s">
         <v>43</v>
@@ -24995,22 +25076,22 @@
         <v>110</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>388</v>
+        <v>632</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="H79" s="19" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="I79" s="18" t="s">
         <v>42</v>
@@ -25029,7 +25110,7 @@
       </c>
       <c r="N79" s="18"/>
     </row>
-    <row r="80" spans="1:14" ht="95.25" customHeight="1">
+    <row r="80" spans="1:14" ht="78.75" customHeight="1">
       <c r="A80" s="18">
         <v>79</v>
       </c>
@@ -25037,22 +25118,22 @@
         <v>110</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>651</v>
+        <v>632</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="H80" s="19" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="I80" s="18" t="s">
         <v>42</v>
@@ -25061,7 +25142,7 @@
         <v>30</v>
       </c>
       <c r="K80" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L80" s="18" t="s">
         <v>43</v>
@@ -25071,7 +25152,7 @@
       </c>
       <c r="N80" s="18"/>
     </row>
-    <row r="81" spans="1:14" ht="93" customHeight="1">
+    <row r="81" spans="1:14" ht="78.75" customHeight="1">
       <c r="A81" s="18">
         <v>80</v>
       </c>
@@ -25079,22 +25160,22 @@
         <v>110</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>644</v>
-      </c>
-      <c r="D81" s="19" t="s">
-        <v>654</v>
+        <v>638</v>
+      </c>
+      <c r="D81" s="29" t="s">
+        <v>639</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
       <c r="I81" s="18" t="s">
         <v>42</v>
@@ -25103,7 +25184,7 @@
         <v>30</v>
       </c>
       <c r="K81" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L81" s="18" t="s">
         <v>43</v>
@@ -25113,7 +25194,7 @@
       </c>
       <c r="N81" s="18"/>
     </row>
-    <row r="82" spans="1:14" ht="90" customHeight="1">
+    <row r="82" spans="1:14" ht="78.75" customHeight="1">
       <c r="A82" s="18">
         <v>81</v>
       </c>
@@ -25124,19 +25205,19 @@
         <v>644</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>651</v>
+        <v>388</v>
       </c>
       <c r="G82" s="19" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="H82" s="19" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="I82" s="18" t="s">
         <v>42</v>
@@ -25145,7 +25226,7 @@
         <v>30</v>
       </c>
       <c r="K82" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L82" s="18" t="s">
         <v>43</v>
@@ -25155,7 +25236,7 @@
       </c>
       <c r="N82" s="18"/>
     </row>
-    <row r="83" spans="1:14" ht="90" customHeight="1">
+    <row r="83" spans="1:14" ht="95.25" customHeight="1">
       <c r="A83" s="18">
         <v>82</v>
       </c>
@@ -25166,19 +25247,19 @@
         <v>644</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>388</v>
+        <v>651</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="H83" s="19" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="I83" s="18" t="s">
         <v>42</v>
@@ -25197,7 +25278,7 @@
       </c>
       <c r="N83" s="18"/>
     </row>
-    <row r="84" spans="1:14" ht="90" customHeight="1">
+    <row r="84" spans="1:14" ht="93" customHeight="1">
       <c r="A84" s="18">
         <v>83</v>
       </c>
@@ -25208,19 +25289,19 @@
         <v>644</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="H84" s="19" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="I84" s="18" t="s">
         <v>42</v>
@@ -25239,7 +25320,7 @@
       </c>
       <c r="N84" s="18"/>
     </row>
-    <row r="85" spans="1:14" ht="183.75" customHeight="1">
+    <row r="85" spans="1:14" ht="90" customHeight="1">
       <c r="A85" s="18">
         <v>84</v>
       </c>
@@ -25250,19 +25331,19 @@
         <v>644</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>674</v>
+        <v>651</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="H85" s="19" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="I85" s="18" t="s">
         <v>42</v>
@@ -25271,7 +25352,7 @@
         <v>30</v>
       </c>
       <c r="K85" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L85" s="18" t="s">
         <v>43</v>
@@ -25281,7 +25362,7 @@
       </c>
       <c r="N85" s="18"/>
     </row>
-    <row r="86" spans="1:14" ht="194.25" customHeight="1">
+    <row r="86" spans="1:14" ht="90" customHeight="1">
       <c r="A86" s="18">
         <v>85</v>
       </c>
@@ -25292,19 +25373,19 @@
         <v>644</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>674</v>
+        <v>388</v>
       </c>
       <c r="G86" s="19" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="H86" s="19" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="I86" s="18" t="s">
         <v>42</v>
@@ -25323,7 +25404,7 @@
       </c>
       <c r="N86" s="18"/>
     </row>
-    <row r="87" spans="1:14" ht="63.75" customHeight="1">
+    <row r="87" spans="1:14" ht="90" customHeight="1">
       <c r="A87" s="18">
         <v>86</v>
       </c>
@@ -25334,19 +25415,19 @@
         <v>644</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>388</v>
+        <v>669</v>
       </c>
       <c r="G87" s="19" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="H87" s="19" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="I87" s="18" t="s">
         <v>42</v>
@@ -25365,7 +25446,7 @@
       </c>
       <c r="N87" s="18"/>
     </row>
-    <row r="88" spans="1:14" ht="71.25">
+    <row r="88" spans="1:14" ht="183.75" customHeight="1">
       <c r="A88" s="18">
         <v>87</v>
       </c>
@@ -25376,19 +25457,19 @@
         <v>644</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="G88" s="19" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="H88" s="19" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="I88" s="18" t="s">
         <v>42</v>
@@ -25397,7 +25478,7 @@
         <v>30</v>
       </c>
       <c r="K88" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L88" s="18" t="s">
         <v>43</v>
@@ -25407,30 +25488,30 @@
       </c>
       <c r="N88" s="18"/>
     </row>
-    <row r="89" spans="1:14" ht="87" customHeight="1">
+    <row r="89" spans="1:14" ht="194.25" customHeight="1">
       <c r="A89" s="18">
         <v>88</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>1351</v>
+        <v>110</v>
       </c>
       <c r="C89" s="19" t="s">
         <v>644</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>1546</v>
+        <v>677</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>1545</v>
+        <v>678</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>1544</v>
+        <v>674</v>
       </c>
       <c r="G89" s="19" t="s">
-        <v>1543</v>
+        <v>679</v>
       </c>
       <c r="H89" s="19" t="s">
-        <v>1542</v>
+        <v>680</v>
       </c>
       <c r="I89" s="18" t="s">
         <v>42</v>
@@ -25439,40 +25520,40 @@
         <v>30</v>
       </c>
       <c r="K89" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L89" s="18" t="s">
-        <v>1358</v>
+        <v>43</v>
       </c>
       <c r="M89" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N89" s="17"/>
-    </row>
-    <row r="90" spans="1:14" customFormat="1" ht="118.5" customHeight="1">
+        <v>24</v>
+      </c>
+      <c r="N89" s="18"/>
+    </row>
+    <row r="90" spans="1:14" ht="63.75" customHeight="1">
       <c r="A90" s="18">
         <v>89</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>1983</v>
+        <v>110</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>1984</v>
+        <v>644</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>1985</v>
+        <v>681</v>
       </c>
       <c r="E90" s="19" t="s">
-        <v>1986</v>
+        <v>682</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>1987</v>
+        <v>388</v>
       </c>
       <c r="G90" s="19" t="s">
-        <v>1988</v>
+        <v>683</v>
       </c>
       <c r="H90" s="19" t="s">
-        <v>1989</v>
+        <v>684</v>
       </c>
       <c r="I90" s="18" t="s">
         <v>42</v>
@@ -25484,16 +25565,14 @@
         <v>2</v>
       </c>
       <c r="L90" s="18" t="s">
-        <v>1990</v>
+        <v>43</v>
       </c>
       <c r="M90" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N90" s="17" t="s">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" ht="80.25" customHeight="1">
+        <v>24</v>
+      </c>
+      <c r="N90" s="18"/>
+    </row>
+    <row r="91" spans="1:14" ht="71.25">
       <c r="A91" s="18">
         <v>90</v>
       </c>
@@ -25501,22 +25580,22 @@
         <v>110</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>690</v>
+        <v>644</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="G91" s="19" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="H91" s="19" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="I91" s="18" t="s">
         <v>42</v>
@@ -25535,30 +25614,30 @@
       </c>
       <c r="N91" s="18"/>
     </row>
-    <row r="92" spans="1:14" ht="161.25" customHeight="1">
+    <row r="92" spans="1:14" ht="87" customHeight="1">
       <c r="A92" s="18">
         <v>91</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>110</v>
+        <v>1350</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>690</v>
+        <v>644</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>696</v>
+        <v>1545</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>697</v>
+        <v>1544</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>698</v>
+        <v>1543</v>
       </c>
       <c r="G92" s="19" t="s">
-        <v>699</v>
+        <v>1542</v>
       </c>
       <c r="H92" s="19" t="s">
-        <v>700</v>
+        <v>1541</v>
       </c>
       <c r="I92" s="18" t="s">
         <v>42</v>
@@ -25567,40 +25646,40 @@
         <v>30</v>
       </c>
       <c r="K92" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L92" s="18" t="s">
-        <v>43</v>
+        <v>1357</v>
       </c>
       <c r="M92" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N92" s="19"/>
-    </row>
-    <row r="93" spans="1:14" ht="192.75" customHeight="1">
+        <v>44</v>
+      </c>
+      <c r="N92" s="17"/>
+    </row>
+    <row r="93" spans="1:14" customFormat="1" ht="118.5" customHeight="1">
       <c r="A93" s="18">
         <v>92</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>110</v>
+        <v>1977</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>690</v>
+        <v>1978</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>701</v>
+        <v>1979</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>702</v>
+        <v>1980</v>
       </c>
       <c r="F93" s="19" t="s">
-        <v>698</v>
+        <v>1981</v>
       </c>
       <c r="G93" s="19" t="s">
-        <v>703</v>
+        <v>1982</v>
       </c>
       <c r="H93" s="19" t="s">
-        <v>704</v>
+        <v>1983</v>
       </c>
       <c r="I93" s="18" t="s">
         <v>42</v>
@@ -25612,14 +25691,16 @@
         <v>2</v>
       </c>
       <c r="L93" s="18" t="s">
-        <v>43</v>
+        <v>1984</v>
       </c>
       <c r="M93" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N93" s="18"/>
-    </row>
-    <row r="94" spans="1:14" ht="57.75" customHeight="1">
+        <v>44</v>
+      </c>
+      <c r="N93" s="17" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="80.25" customHeight="1">
       <c r="A94" s="18">
         <v>93</v>
       </c>
@@ -25630,19 +25711,19 @@
         <v>690</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="G94" s="19" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="H94" s="19" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="I94" s="18" t="s">
         <v>42</v>
@@ -25661,7 +25742,7 @@
       </c>
       <c r="N94" s="18"/>
     </row>
-    <row r="95" spans="1:14" ht="57">
+    <row r="95" spans="1:14" ht="161.25" customHeight="1">
       <c r="A95" s="18">
         <v>94</v>
       </c>
@@ -25672,19 +25753,19 @@
         <v>690</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="F95" s="19" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="G95" s="19" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="H95" s="19" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="I95" s="18" t="s">
         <v>42</v>
@@ -25693,7 +25774,7 @@
         <v>30</v>
       </c>
       <c r="K95" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L95" s="18" t="s">
         <v>43</v>
@@ -25701,9 +25782,9 @@
       <c r="M95" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="N95" s="18"/>
-    </row>
-    <row r="96" spans="1:14" ht="54.75" customHeight="1">
+      <c r="N95" s="19"/>
+    </row>
+    <row r="96" spans="1:14" ht="192.75" customHeight="1">
       <c r="A96" s="18">
         <v>95</v>
       </c>
@@ -25714,19 +25795,19 @@
         <v>690</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>388</v>
+        <v>698</v>
       </c>
       <c r="G96" s="19" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="H96" s="19" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="I96" s="18" t="s">
         <v>42</v>
@@ -25745,30 +25826,30 @@
       </c>
       <c r="N96" s="18"/>
     </row>
-    <row r="97" spans="1:14" ht="42.75">
+    <row r="97" spans="1:14" ht="57.75" customHeight="1">
       <c r="A97" s="18">
         <v>96</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>1549</v>
+        <v>690</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>1549</v>
+        <v>705</v>
       </c>
       <c r="E97" s="19" t="s">
-        <v>1548</v>
+        <v>706</v>
       </c>
       <c r="F97" s="19" t="s">
-        <v>1547</v>
+        <v>707</v>
       </c>
       <c r="G97" s="19" t="s">
-        <v>1551</v>
+        <v>708</v>
       </c>
       <c r="H97" s="19" t="s">
-        <v>1550</v>
+        <v>709</v>
       </c>
       <c r="I97" s="18" t="s">
         <v>42</v>
@@ -25777,40 +25858,40 @@
         <v>30</v>
       </c>
       <c r="K97" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L97" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M97" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N97" s="17"/>
-    </row>
-    <row r="98" spans="1:14" ht="54.75" customHeight="1">
+        <v>24</v>
+      </c>
+      <c r="N97" s="18"/>
+    </row>
+    <row r="98" spans="1:14" ht="57">
       <c r="A98" s="18">
         <v>97</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C98" s="34" t="s">
-        <v>1466</v>
+        <v>110</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>690</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>1487</v>
+        <v>710</v>
       </c>
       <c r="E98" s="19" t="s">
-        <v>1486</v>
+        <v>711</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>388</v>
+        <v>712</v>
       </c>
       <c r="G98" s="19" t="s">
-        <v>1485</v>
+        <v>713</v>
       </c>
       <c r="H98" s="19" t="s">
-        <v>1484</v>
+        <v>714</v>
       </c>
       <c r="I98" s="18" t="s">
         <v>42</v>
@@ -25819,38 +25900,40 @@
         <v>30</v>
       </c>
       <c r="K98" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L98" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M98" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N98" s="17"/>
+        <v>24</v>
+      </c>
+      <c r="N98" s="18"/>
     </row>
     <row r="99" spans="1:14" ht="54.75" customHeight="1">
       <c r="A99" s="18">
         <v>98</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C99" s="35"/>
+        <v>110</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>690</v>
+      </c>
       <c r="D99" s="19" t="s">
-        <v>1483</v>
+        <v>715</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>1482</v>
+        <v>716</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>1473</v>
+        <v>388</v>
       </c>
       <c r="G99" s="19" t="s">
-        <v>1481</v>
+        <v>717</v>
       </c>
       <c r="H99" s="19" t="s">
-        <v>1480</v>
+        <v>718</v>
       </c>
       <c r="I99" s="18" t="s">
         <v>42</v>
@@ -25859,38 +25942,40 @@
         <v>30</v>
       </c>
       <c r="K99" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L99" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M99" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N99" s="17"/>
-    </row>
-    <row r="100" spans="1:14" ht="54.75" customHeight="1">
+        <v>24</v>
+      </c>
+      <c r="N99" s="18"/>
+    </row>
+    <row r="100" spans="1:14" ht="42.75">
       <c r="A100" s="18">
         <v>99</v>
       </c>
       <c r="B100" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C100" s="35"/>
+      <c r="C100" s="19" t="s">
+        <v>1548</v>
+      </c>
       <c r="D100" s="19" t="s">
-        <v>1479</v>
+        <v>1548</v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>1478</v>
+        <v>1547</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>1473</v>
+        <v>1546</v>
       </c>
       <c r="G100" s="19" t="s">
-        <v>1477</v>
+        <v>1550</v>
       </c>
       <c r="H100" s="19" t="s">
-        <v>1476</v>
+        <v>1549</v>
       </c>
       <c r="I100" s="18" t="s">
         <v>42</v>
@@ -25899,7 +25984,7 @@
         <v>30</v>
       </c>
       <c r="K100" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L100" s="18" t="s">
         <v>43</v>
@@ -25916,21 +26001,23 @@
       <c r="B101" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C101" s="35"/>
+      <c r="C101" s="34" t="s">
+        <v>1465</v>
+      </c>
       <c r="D101" s="19" t="s">
-        <v>1475</v>
+        <v>1486</v>
       </c>
       <c r="E101" s="19" t="s">
-        <v>1474</v>
+        <v>1485</v>
       </c>
       <c r="F101" s="19" t="s">
-        <v>1473</v>
+        <v>388</v>
       </c>
       <c r="G101" s="19" t="s">
-        <v>1472</v>
+        <v>1484</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>1471</v>
+        <v>1483</v>
       </c>
       <c r="I101" s="18" t="s">
         <v>42</v>
@@ -25939,7 +26026,7 @@
         <v>30</v>
       </c>
       <c r="K101" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L101" s="18" t="s">
         <v>43</v>
@@ -25956,21 +26043,21 @@
       <c r="B102" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C102" s="36"/>
+      <c r="C102" s="35"/>
       <c r="D102" s="19" t="s">
-        <v>1470</v>
+        <v>1482</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>1469</v>
+        <v>1481</v>
       </c>
       <c r="F102" s="19" t="s">
-        <v>1455</v>
+        <v>1472</v>
       </c>
       <c r="G102" s="19" t="s">
-        <v>1468</v>
+        <v>1480</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>1467</v>
+        <v>1479</v>
       </c>
       <c r="I102" s="18" t="s">
         <v>42</v>
@@ -25979,7 +26066,7 @@
         <v>30</v>
       </c>
       <c r="K102" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L102" s="18" t="s">
         <v>43</v>
@@ -25996,23 +26083,21 @@
       <c r="B103" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C103" s="34" t="s">
-        <v>1466</v>
-      </c>
+      <c r="C103" s="35"/>
       <c r="D103" s="19" t="s">
-        <v>1465</v>
+        <v>1478</v>
       </c>
       <c r="E103" s="19" t="s">
-        <v>1464</v>
+        <v>1477</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>1455</v>
+        <v>1472</v>
       </c>
       <c r="G103" s="19" t="s">
-        <v>1463</v>
+        <v>1476</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>1462</v>
+        <v>1475</v>
       </c>
       <c r="I103" s="18" t="s">
         <v>42</v>
@@ -26040,19 +26125,19 @@
       </c>
       <c r="C104" s="35"/>
       <c r="D104" s="19" t="s">
-        <v>1461</v>
+        <v>1474</v>
       </c>
       <c r="E104" s="19" t="s">
-        <v>1460</v>
+        <v>1473</v>
       </c>
       <c r="F104" s="19" t="s">
-        <v>1455</v>
+        <v>1472</v>
       </c>
       <c r="G104" s="19" t="s">
-        <v>1459</v>
+        <v>1471</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>1458</v>
+        <v>1470</v>
       </c>
       <c r="I104" s="18" t="s">
         <v>42</v>
@@ -26078,21 +26163,21 @@
       <c r="B105" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C105" s="35"/>
+      <c r="C105" s="36"/>
       <c r="D105" s="19" t="s">
-        <v>1457</v>
+        <v>1469</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>1456</v>
+        <v>1468</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="G105" s="19" t="s">
-        <v>1454</v>
+        <v>1467</v>
       </c>
       <c r="H105" s="19" t="s">
-        <v>1453</v>
+        <v>1466</v>
       </c>
       <c r="I105" s="18" t="s">
         <v>42</v>
@@ -26118,21 +26203,23 @@
       <c r="B106" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C106" s="35"/>
+      <c r="C106" s="34" t="s">
+        <v>1465</v>
+      </c>
       <c r="D106" s="19" t="s">
-        <v>1452</v>
+        <v>1464</v>
       </c>
       <c r="E106" s="19" t="s">
-        <v>1447</v>
+        <v>1463</v>
       </c>
       <c r="F106" s="19" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="G106" s="19" t="s">
-        <v>1450</v>
+        <v>1462</v>
       </c>
       <c r="H106" s="19" t="s">
-        <v>1449</v>
+        <v>1461</v>
       </c>
       <c r="I106" s="18" t="s">
         <v>42</v>
@@ -26160,19 +26247,19 @@
       </c>
       <c r="C107" s="35"/>
       <c r="D107" s="19" t="s">
-        <v>1448</v>
+        <v>1460</v>
       </c>
       <c r="E107" s="19" t="s">
-        <v>1447</v>
+        <v>1459</v>
       </c>
       <c r="F107" s="19" t="s">
-        <v>388</v>
+        <v>1454</v>
       </c>
       <c r="G107" s="19" t="s">
-        <v>1446</v>
+        <v>1458</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>1445</v>
+        <v>1457</v>
       </c>
       <c r="I107" s="18" t="s">
         <v>42</v>
@@ -26198,21 +26285,21 @@
       <c r="B108" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C108" s="36"/>
+      <c r="C108" s="35"/>
       <c r="D108" s="19" t="s">
-        <v>1444</v>
+        <v>1456</v>
       </c>
       <c r="E108" s="19" t="s">
-        <v>1443</v>
+        <v>1455</v>
       </c>
       <c r="F108" s="19" t="s">
-        <v>388</v>
+        <v>1454</v>
       </c>
       <c r="G108" s="19" t="s">
-        <v>1442</v>
+        <v>1453</v>
       </c>
       <c r="H108" s="19" t="s">
-        <v>1441</v>
+        <v>1452</v>
       </c>
       <c r="I108" s="18" t="s">
         <v>42</v>
@@ -26238,23 +26325,21 @@
       <c r="B109" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C109" s="25" t="s">
-        <v>1435</v>
-      </c>
+      <c r="C109" s="35"/>
       <c r="D109" s="19" t="s">
-        <v>1440</v>
+        <v>1451</v>
       </c>
       <c r="E109" s="19" t="s">
-        <v>1439</v>
+        <v>1446</v>
       </c>
       <c r="F109" s="19" t="s">
-        <v>1438</v>
+        <v>1450</v>
       </c>
       <c r="G109" s="19" t="s">
-        <v>1437</v>
+        <v>1449</v>
       </c>
       <c r="H109" s="19" t="s">
-        <v>1436</v>
+        <v>1448</v>
       </c>
       <c r="I109" s="18" t="s">
         <v>42</v>
@@ -26280,23 +26365,21 @@
       <c r="B110" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C110" s="25" t="s">
-        <v>1435</v>
-      </c>
+      <c r="C110" s="35"/>
       <c r="D110" s="19" t="s">
-        <v>1434</v>
+        <v>1447</v>
       </c>
       <c r="E110" s="19" t="s">
-        <v>1433</v>
+        <v>1446</v>
       </c>
       <c r="F110" s="19" t="s">
-        <v>1432</v>
+        <v>388</v>
       </c>
       <c r="G110" s="19" t="s">
-        <v>1431</v>
+        <v>1445</v>
       </c>
       <c r="H110" s="19" t="s">
-        <v>1430</v>
+        <v>1444</v>
       </c>
       <c r="I110" s="18" t="s">
         <v>42</v>
@@ -26315,30 +26398,28 @@
       </c>
       <c r="N110" s="17"/>
     </row>
-    <row r="111" spans="1:14" ht="79.5" customHeight="1">
+    <row r="111" spans="1:14" ht="54.75" customHeight="1">
       <c r="A111" s="18">
         <v>110</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C111" s="19" t="s">
-        <v>719</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C111" s="36"/>
       <c r="D111" s="19" t="s">
-        <v>720</v>
+        <v>1443</v>
       </c>
       <c r="E111" s="19" t="s">
-        <v>721</v>
+        <v>1442</v>
       </c>
       <c r="F111" s="19" t="s">
-        <v>722</v>
+        <v>388</v>
       </c>
       <c r="G111" s="19" t="s">
-        <v>723</v>
+        <v>1441</v>
       </c>
       <c r="H111" s="19" t="s">
-        <v>724</v>
+        <v>1440</v>
       </c>
       <c r="I111" s="18" t="s">
         <v>42</v>
@@ -26347,40 +26428,40 @@
         <v>30</v>
       </c>
       <c r="K111" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L111" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M111" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N111" s="18"/>
-    </row>
-    <row r="112" spans="1:14" ht="77.25" customHeight="1">
+        <v>44</v>
+      </c>
+      <c r="N111" s="17"/>
+    </row>
+    <row r="112" spans="1:14" ht="54.75" customHeight="1">
       <c r="A112" s="18">
         <v>111</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C112" s="19" t="s">
-        <v>719</v>
+        <v>36</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>1434</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>725</v>
+        <v>1439</v>
       </c>
       <c r="E112" s="19" t="s">
-        <v>726</v>
+        <v>1438</v>
       </c>
       <c r="F112" s="19" t="s">
-        <v>727</v>
+        <v>1437</v>
       </c>
       <c r="G112" s="19" t="s">
-        <v>728</v>
+        <v>1436</v>
       </c>
       <c r="H112" s="19" t="s">
-        <v>729</v>
+        <v>1435</v>
       </c>
       <c r="I112" s="18" t="s">
         <v>42</v>
@@ -26395,34 +26476,34 @@
         <v>43</v>
       </c>
       <c r="M112" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N112" s="18"/>
-    </row>
-    <row r="113" spans="1:14" ht="77.25" customHeight="1">
+        <v>44</v>
+      </c>
+      <c r="N112" s="17"/>
+    </row>
+    <row r="113" spans="1:14" ht="54.75" customHeight="1">
       <c r="A113" s="18">
         <v>112</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C113" s="19" t="s">
-        <v>719</v>
+        <v>36</v>
+      </c>
+      <c r="C113" s="25" t="s">
+        <v>1434</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>730</v>
+        <v>1433</v>
       </c>
       <c r="E113" s="19" t="s">
-        <v>731</v>
+        <v>1432</v>
       </c>
       <c r="F113" s="19" t="s">
-        <v>732</v>
+        <v>1431</v>
       </c>
       <c r="G113" s="19" t="s">
-        <v>733</v>
+        <v>1430</v>
       </c>
       <c r="H113" s="19" t="s">
-        <v>734</v>
+        <v>1429</v>
       </c>
       <c r="I113" s="18" t="s">
         <v>42</v>
@@ -26437,11 +26518,11 @@
         <v>43</v>
       </c>
       <c r="M113" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N113" s="18"/>
-    </row>
-    <row r="114" spans="1:14" ht="179.25" customHeight="1">
+        <v>44</v>
+      </c>
+      <c r="N113" s="17"/>
+    </row>
+    <row r="114" spans="1:14" ht="79.5" customHeight="1">
       <c r="A114" s="18">
         <v>113</v>
       </c>
@@ -26449,22 +26530,22 @@
         <v>110</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="E114" s="19" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="F114" s="19" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="G114" s="19" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="H114" s="19" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="I114" s="18" t="s">
         <v>42</v>
@@ -26491,22 +26572,22 @@
         <v>110</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="G115" s="19" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="H115" s="19" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="I115" s="18" t="s">
         <v>42</v>
@@ -26525,7 +26606,7 @@
       </c>
       <c r="N115" s="18"/>
     </row>
-    <row r="116" spans="1:14" ht="179.25" customHeight="1">
+    <row r="116" spans="1:14" ht="77.25" customHeight="1">
       <c r="A116" s="18">
         <v>115</v>
       </c>
@@ -26533,22 +26614,22 @@
         <v>110</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>746</v>
+        <v>719</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>747</v>
+        <v>730</v>
       </c>
       <c r="E116" s="19" t="s">
-        <v>748</v>
+        <v>731</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="G116" s="19" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="H116" s="19" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="I116" s="18" t="s">
         <v>42</v>
@@ -26567,7 +26648,7 @@
       </c>
       <c r="N116" s="18"/>
     </row>
-    <row r="117" spans="1:14" ht="77.25" customHeight="1">
+    <row r="117" spans="1:14" ht="179.25" customHeight="1">
       <c r="A117" s="18">
         <v>116</v>
       </c>
@@ -26578,19 +26659,19 @@
         <v>735</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="E117" s="19" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
       <c r="G117" s="19" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
       <c r="H117" s="19" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="I117" s="18" t="s">
         <v>42</v>
@@ -26609,7 +26690,7 @@
       </c>
       <c r="N117" s="18"/>
     </row>
-    <row r="118" spans="1:14" ht="234.75" customHeight="1">
+    <row r="118" spans="1:14" ht="77.25" customHeight="1">
       <c r="A118" s="18">
         <v>117</v>
       </c>
@@ -26620,19 +26701,19 @@
         <v>735</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>756</v>
+        <v>741</v>
       </c>
       <c r="E118" s="19" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
       <c r="G118" s="19" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
       <c r="H118" s="19" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
       <c r="I118" s="18" t="s">
         <v>42</v>
@@ -26641,7 +26722,7 @@
         <v>30</v>
       </c>
       <c r="K118" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L118" s="18" t="s">
         <v>43</v>
@@ -26651,7 +26732,7 @@
       </c>
       <c r="N118" s="18"/>
     </row>
-    <row r="119" spans="1:14" ht="98.25" customHeight="1">
+    <row r="119" spans="1:14" ht="179.25" customHeight="1">
       <c r="A119" s="18">
         <v>118</v>
       </c>
@@ -26659,22 +26740,22 @@
         <v>110</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="E119" s="19" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>763</v>
+        <v>743</v>
       </c>
       <c r="G119" s="19" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
       <c r="H119" s="19" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="I119" s="18" t="s">
         <v>42</v>
@@ -26693,7 +26774,7 @@
       </c>
       <c r="N119" s="18"/>
     </row>
-    <row r="120" spans="1:14" ht="117" customHeight="1">
+    <row r="120" spans="1:14" ht="77.25" customHeight="1">
       <c r="A120" s="18">
         <v>119</v>
       </c>
@@ -26704,19 +26785,19 @@
         <v>735</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="E120" s="19" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="F120" s="19" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="G120" s="19" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="H120" s="19" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="I120" s="18" t="s">
         <v>42</v>
@@ -26725,7 +26806,7 @@
         <v>30</v>
       </c>
       <c r="K120" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L120" s="18" t="s">
         <v>43</v>
@@ -26735,7 +26816,7 @@
       </c>
       <c r="N120" s="18"/>
     </row>
-    <row r="121" spans="1:14" ht="98.25" customHeight="1">
+    <row r="121" spans="1:14" ht="234.75" customHeight="1">
       <c r="A121" s="18">
         <v>120</v>
       </c>
@@ -26746,19 +26827,19 @@
         <v>735</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="E121" s="19" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="F121" s="19" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="G121" s="19" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="H121" s="19" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="I121" s="18" t="s">
         <v>42</v>
@@ -26788,19 +26869,19 @@
         <v>735</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="F122" s="19" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="G122" s="19" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="H122" s="19" t="s">
-        <v>778</v>
+        <v>745</v>
       </c>
       <c r="I122" s="18" t="s">
         <v>42</v>
@@ -26809,7 +26890,7 @@
         <v>30</v>
       </c>
       <c r="K122" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L122" s="18" t="s">
         <v>43</v>
@@ -26819,7 +26900,7 @@
       </c>
       <c r="N122" s="18"/>
     </row>
-    <row r="123" spans="1:14" ht="98.25" customHeight="1">
+    <row r="123" spans="1:14" ht="117" customHeight="1">
       <c r="A123" s="18">
         <v>122</v>
       </c>
@@ -26830,19 +26911,19 @@
         <v>735</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="E123" s="19" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="F123" s="19" t="s">
         <v>763</v>
       </c>
       <c r="G123" s="19" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="H123" s="19" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="I123" s="18" t="s">
         <v>42</v>
@@ -26851,7 +26932,7 @@
         <v>30</v>
       </c>
       <c r="K123" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L123" s="18" t="s">
         <v>43</v>
@@ -26861,30 +26942,30 @@
       </c>
       <c r="N123" s="18"/>
     </row>
-    <row r="124" spans="1:14" ht="117.75" customHeight="1">
+    <row r="124" spans="1:14" ht="98.25" customHeight="1">
       <c r="A124" s="18">
         <v>123</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="C124" s="19" t="s">
         <v>735</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="E124" s="19" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="F124" s="19" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="G124" s="19" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="H124" s="19" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="I124" s="18" t="s">
         <v>42</v>
@@ -26893,15 +26974,15 @@
         <v>30</v>
       </c>
       <c r="K124" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L124" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M124" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N124" s="17"/>
+        <v>24</v>
+      </c>
+      <c r="N124" s="18"/>
     </row>
     <row r="125" spans="1:14" ht="98.25" customHeight="1">
       <c r="A125" s="18">
@@ -26911,22 +26992,22 @@
         <v>110</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>358</v>
+        <v>735</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="E125" s="19" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="F125" s="19" t="s">
-        <v>388</v>
+        <v>776</v>
       </c>
       <c r="G125" s="19" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="H125" s="19" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="I125" s="18" t="s">
         <v>42</v>
@@ -26935,7 +27016,7 @@
         <v>30</v>
       </c>
       <c r="K125" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L125" s="18" t="s">
         <v>43</v>
@@ -26953,22 +27034,22 @@
         <v>110</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>463</v>
+        <v>735</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="E126" s="19" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="F126" s="19" t="s">
-        <v>388</v>
+        <v>763</v>
       </c>
       <c r="G126" s="19" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="H126" s="19" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="I126" s="18" t="s">
         <v>42</v>
@@ -26977,7 +27058,7 @@
         <v>30</v>
       </c>
       <c r="K126" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L126" s="18" t="s">
         <v>43</v>
@@ -26987,30 +27068,30 @@
       </c>
       <c r="N126" s="18"/>
     </row>
-    <row r="127" spans="1:14" ht="98.25" customHeight="1">
+    <row r="127" spans="1:14" ht="117.75" customHeight="1">
       <c r="A127" s="18">
         <v>126</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>796</v>
+        <v>735</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="E127" s="19" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="F127" s="19" t="s">
-        <v>141</v>
+        <v>785</v>
       </c>
       <c r="G127" s="19" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="H127" s="19" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="I127" s="18" t="s">
         <v>42</v>
@@ -27019,15 +27100,15 @@
         <v>30</v>
       </c>
       <c r="K127" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L127" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M127" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N127" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="N127" s="17"/>
     </row>
     <row r="128" spans="1:14" ht="98.25" customHeight="1">
       <c r="A128" s="18">
@@ -27037,22 +27118,22 @@
         <v>110</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>800</v>
+        <v>358</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>801</v>
+        <v>788</v>
       </c>
       <c r="E128" s="19" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="F128" s="19" t="s">
-        <v>480</v>
+        <v>388</v>
       </c>
       <c r="G128" s="19" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="H128" s="19" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="I128" s="18" t="s">
         <v>42</v>
@@ -27061,7 +27142,7 @@
         <v>30</v>
       </c>
       <c r="K128" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L128" s="18" t="s">
         <v>43</v>
@@ -27070,30 +27151,156 @@
         <v>24</v>
       </c>
       <c r="N128" s="18"/>
+    </row>
+    <row r="129" spans="1:14" ht="98.25" customHeight="1">
+      <c r="A129" s="18">
+        <v>128</v>
+      </c>
+      <c r="B129" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="D129" s="19" t="s">
+        <v>792</v>
+      </c>
+      <c r="E129" s="19" t="s">
+        <v>793</v>
+      </c>
+      <c r="F129" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="G129" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="H129" s="19" t="s">
+        <v>795</v>
+      </c>
+      <c r="I129" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J129" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K129" s="18">
+        <v>4</v>
+      </c>
+      <c r="L129" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M129" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N129" s="18"/>
+    </row>
+    <row r="130" spans="1:14" ht="98.25" customHeight="1">
+      <c r="A130" s="18">
+        <v>129</v>
+      </c>
+      <c r="B130" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>796</v>
+      </c>
+      <c r="D130" s="19" t="s">
+        <v>796</v>
+      </c>
+      <c r="E130" s="19" t="s">
+        <v>797</v>
+      </c>
+      <c r="F130" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G130" s="19" t="s">
+        <v>798</v>
+      </c>
+      <c r="H130" s="19" t="s">
+        <v>799</v>
+      </c>
+      <c r="I130" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J130" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K130" s="18">
+        <v>4</v>
+      </c>
+      <c r="L130" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M130" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N130" s="18"/>
+    </row>
+    <row r="131" spans="1:14" ht="98.25" customHeight="1">
+      <c r="A131" s="18">
+        <v>130</v>
+      </c>
+      <c r="B131" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>800</v>
+      </c>
+      <c r="D131" s="19" t="s">
+        <v>801</v>
+      </c>
+      <c r="E131" s="19" t="s">
+        <v>802</v>
+      </c>
+      <c r="F131" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="G131" s="19" t="s">
+        <v>803</v>
+      </c>
+      <c r="H131" s="19" t="s">
+        <v>804</v>
+      </c>
+      <c r="I131" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J131" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K131" s="18">
+        <v>4</v>
+      </c>
+      <c r="L131" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M131" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N131" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C103:C108"/>
-    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="C106:C111"/>
+    <mergeCell ref="C101:C105"/>
     <mergeCell ref="B29:B34"/>
     <mergeCell ref="C29:C34"/>
     <mergeCell ref="E33:E34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I128">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I131">
       <formula1>"功能,异常,性能,安全"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J128">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J131">
       <formula1>"None,Pass,Fail"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K128">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K131">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M128">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M131">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -27109,8 +27316,8 @@
   </sheetPr>
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A75"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -27301,25 +27508,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>1351</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="D5" s="19" t="s">
         <v>1352</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="19" t="s">
         <v>1353</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="F5" s="19" t="s">
         <v>1354</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="G5" s="19" t="s">
         <v>1355</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="H5" s="19" t="s">
         <v>1356</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>1357</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>42</v>
@@ -27331,7 +27538,7 @@
         <v>2</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="M5" s="18" t="s">
         <v>44</v>
@@ -27343,25 +27550,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>1351</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>1352</v>
-      </c>
       <c r="D6" s="19" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>1359</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="F6" s="19" t="s">
         <v>1360</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="G6" s="19" t="s">
         <v>1361</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="H6" s="19" t="s">
         <v>1362</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>1363</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>42</v>
@@ -27373,7 +27580,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="M6" s="18" t="s">
         <v>44</v>
@@ -27385,25 +27592,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C7" s="34" t="s">
         <v>1351</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>1352</v>
-      </c>
       <c r="D7" s="20" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>1364</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="F7" s="34" t="s">
+        <v>1360</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>1365</v>
       </c>
-      <c r="F7" s="34" t="s">
-        <v>1361</v>
-      </c>
-      <c r="G7" s="19" t="s">
+      <c r="H7" s="19" t="s">
         <v>1366</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>1367</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>42</v>
@@ -27415,7 +27622,7 @@
         <v>2</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="M7" s="18" t="s">
         <v>44</v>
@@ -27427,21 +27634,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C8" s="36"/>
       <c r="D8" s="20" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>1368</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>1369</v>
       </c>
       <c r="F8" s="36"/>
       <c r="G8" s="19" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>42</v>
@@ -27453,7 +27660,7 @@
         <v>2</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="M8" s="18" t="s">
         <v>44</v>
@@ -27465,13 +27672,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C9" s="24" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>1665</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>1666</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="24"/>
@@ -27489,13 +27696,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="24"/>
@@ -27513,25 +27720,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>1957</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>1959</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>1960</v>
+      </c>
+      <c r="H11" s="19" t="s">
         <v>1961</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>1962</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>1963</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>1964</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>1965</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>1966</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>1967</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>42</v>
@@ -27543,13 +27750,13 @@
         <v>2</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>1968</v>
+        <v>1962</v>
       </c>
       <c r="M11" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>1969</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="78.75" customHeight="1">
@@ -28651,25 +28858,25 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I39" s="18" t="s">
         <v>42</v>
@@ -28681,7 +28888,7 @@
         <v>2</v>
       </c>
       <c r="L39" s="18" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="M39" s="18" t="s">
         <v>44</v>
@@ -28693,21 +28900,21 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C40" s="36"/>
       <c r="D40" s="19" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E40" s="36"/>
       <c r="F40" s="19" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I40" s="18" t="s">
         <v>42</v>
@@ -28719,7 +28926,7 @@
         <v>2</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="M40" s="18" t="s">
         <v>44</v>
@@ -28731,25 +28938,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I41" s="18" t="s">
         <v>42</v>
@@ -28761,7 +28968,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="M41" s="18" t="s">
         <v>44</v>
@@ -28773,25 +28980,25 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>1314</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H42" s="19" t="s">
         <v>1312</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>1311</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>1317</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>1316</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>1315</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>1314</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>1313</v>
       </c>
       <c r="I42" s="18" t="s">
         <v>42</v>
@@ -28803,7 +29010,7 @@
         <v>2</v>
       </c>
       <c r="L42" s="18" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="M42" s="18" t="s">
         <v>44</v>
@@ -28815,25 +29022,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I43" s="18" t="s">
         <v>42</v>
@@ -28845,7 +29052,7 @@
         <v>2</v>
       </c>
       <c r="L43" s="18" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="M43" s="18" t="s">
         <v>44</v>
@@ -28857,25 +29064,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I44" s="18" t="s">
         <v>42</v>
@@ -28903,19 +29110,19 @@
       </c>
       <c r="C45" s="36"/>
       <c r="D45" s="20" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H45" s="19" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I45" s="18"/>
       <c r="J45" s="18" t="s">
@@ -28940,22 +29147,22 @@
         <v>36</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="F46" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="I46" s="18" t="s">
         <v>42</v>
@@ -28983,19 +29190,19 @@
       </c>
       <c r="C47" s="36"/>
       <c r="D47" s="19" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="F47" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="I47" s="18" t="s">
         <v>42</v>
@@ -29022,22 +29229,22 @@
         <v>36</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="I48" s="18" t="s">
         <v>42</v>
@@ -29064,22 +29271,22 @@
         <v>36</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H49" s="19" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="I49" s="18" t="s">
         <v>42</v>
@@ -29106,22 +29313,22 @@
         <v>36</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F50" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="H50" s="19" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="I50" s="18" t="s">
         <v>42</v>
@@ -29148,22 +29355,22 @@
         <v>36</v>
       </c>
       <c r="C51" s="19" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H51" s="19" t="s">
         <v>1268</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>1271</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>1265</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>1270</v>
-      </c>
-      <c r="H51" s="19" t="s">
-        <v>1269</v>
       </c>
       <c r="I51" s="18" t="s">
         <v>294</v>
@@ -29190,22 +29397,22 @@
         <v>36</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H52" s="19" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I52" s="18" t="s">
         <v>294</v>
@@ -30230,8 +30437,8 @@
   </sheetPr>
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F32" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -31260,9 +31467,7 @@
       <c r="M24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N24" s="11" t="s">
-        <v>1124</v>
-      </c>
+      <c r="N24" s="11"/>
     </row>
     <row r="25" spans="1:14" ht="128.25" customHeight="1">
       <c r="A25" s="7">
@@ -31275,7 +31480,7 @@
         <v>1107</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>1122</v>
@@ -31284,7 +31489,7 @@
         <v>388</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>1117</v>
@@ -31317,16 +31522,16 @@
         <v>1107</v>
       </c>
       <c r="D26" s="13" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>1127</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>1128</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>388</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>1117</v>
@@ -31346,9 +31551,7 @@
       <c r="M26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N26" s="11" t="s">
-        <v>1089</v>
-      </c>
+      <c r="N26" s="11"/>
     </row>
     <row r="27" spans="1:14" ht="92.25" customHeight="1">
       <c r="A27" s="7">
@@ -31361,19 +31564,19 @@
         <v>1107</v>
       </c>
       <c r="D27" s="13" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>1130</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>1131</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>1132</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="H27" s="6" t="s">
         <v>1133</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>1134</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>42</v>
@@ -31403,19 +31606,19 @@
         <v>1107</v>
       </c>
       <c r="D28" s="13" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>1135</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>1136</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>1137</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="H28" s="6" t="s">
         <v>1138</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>1139</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>42</v>
@@ -31445,19 +31648,19 @@
         <v>1107</v>
       </c>
       <c r="D29" s="13" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>1140</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="F29" s="6" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>1141</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>1137</v>
-      </c>
-      <c r="G29" s="6" t="s">
+      <c r="H29" s="6" t="s">
         <v>1142</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>1143</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>42</v>
@@ -31487,16 +31690,16 @@
         <v>1107</v>
       </c>
       <c r="D30" s="13" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>1144</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>1145</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>1110</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>1112</v>
@@ -31529,19 +31732,19 @@
         <v>1107</v>
       </c>
       <c r="D31" s="13" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>1147</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>1148</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="G31" s="6" t="s">
         <v>1149</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="H31" s="6" t="s">
         <v>1150</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>1151</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>294</v>
@@ -31568,22 +31771,22 @@
         <v>110</v>
       </c>
       <c r="C32" s="12" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>1152</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="E32" s="6" t="s">
         <v>1153</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>1154</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>1110</v>
       </c>
       <c r="G32" s="6" t="s">
+        <v>1154</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>1155</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>1156</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>42</v>
@@ -31610,22 +31813,22 @@
         <v>110</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D33" s="13" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>1157</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>1158</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>1110</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>42</v>
@@ -31652,22 +31855,22 @@
         <v>110</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D34" s="13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>1160</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>1161</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>1162</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>1163</v>
-      </c>
       <c r="H34" s="6" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>42</v>
@@ -31694,19 +31897,19 @@
         <v>110</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D35" s="13" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>1164</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>1165</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>1110</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>1112</v>
@@ -31823,22 +32026,22 @@
         <v>110</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>1167</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="6" t="s">
         <v>1168</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>1169</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>1170</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>1171</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>1172</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>42</v>
@@ -31850,7 +32053,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>44</v>
@@ -31865,22 +32068,22 @@
         <v>110</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>1174</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>1175</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>1176</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>1170</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>1177</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>1178</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>42</v>
@@ -31892,7 +32095,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>44</v>
@@ -31907,22 +32110,22 @@
         <v>110</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>1179</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>1180</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>1181</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="15" t="s">
+        <v>1187</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>1182</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>1183</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>42</v>
@@ -31934,7 +32137,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>44</v>
@@ -31949,22 +32152,22 @@
         <v>110</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>1184</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>1185</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>1182</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>1186</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>1183</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>42</v>
@@ -31976,7 +32179,7 @@
         <v>2</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>44</v>
@@ -31991,22 +32194,22 @@
         <v>110</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>1169</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>1170</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>1171</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>1172</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>42</v>
@@ -32018,7 +32221,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>44</v>
@@ -32069,46 +32272,46 @@
   <sheetData>
     <row r="1" spans="1:14" ht="14.25">
       <c r="A1" s="17" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>1807</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>1808</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>1809</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>1810</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>1811</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>1812</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>1813</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="17" t="s">
         <v>1814</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>1815</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>1816</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>1817</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>1818</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>1819</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>1820</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="84.75" customHeight="1">
@@ -32116,25 +32319,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>1821</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>1822</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>1823</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="19" t="s">
         <v>1824</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="19" t="s">
         <v>1825</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="H2" s="19" t="s">
         <v>1826</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>1827</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>42</v>
@@ -32146,7 +32349,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="M2" s="18" t="s">
         <v>44</v>
@@ -32158,25 +32361,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>1821</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>1822</v>
-      </c>
       <c r="D3" s="19" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>1829</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="F3" s="19" t="s">
+        <v>1824</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>1830</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>1825</v>
-      </c>
-      <c r="G3" s="19" t="s">
+      <c r="H3" s="19" t="s">
         <v>1831</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>1832</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>42</v>
@@ -32188,7 +32391,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="M3" s="18" t="s">
         <v>44</v>
@@ -32200,25 +32403,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>1821</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>1822</v>
-      </c>
       <c r="D4" s="19" t="s">
+        <v>1832</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>1833</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="F4" s="19" t="s">
+        <v>1824</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>1834</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>1825</v>
-      </c>
-      <c r="G4" s="19" t="s">
+      <c r="H4" s="19" t="s">
         <v>1835</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>1836</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>42</v>
@@ -32230,7 +32433,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="M4" s="18" t="s">
         <v>44</v>
@@ -32242,25 +32445,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>1821</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>1822</v>
-      </c>
       <c r="D5" s="19" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>1837</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="F5" s="19" t="s">
         <v>1838</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="G5" s="19" t="s">
         <v>1839</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="H5" s="19" t="s">
         <v>1840</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>1841</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>42</v>
@@ -32272,7 +32475,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="M5" s="18" t="s">
         <v>44</v>
@@ -32284,25 +32487,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="C6" s="19" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>1842</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="E6" s="19" t="s">
         <v>1843</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="F6" s="19" t="s">
         <v>1844</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="G6" s="19" t="s">
         <v>1845</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="H6" s="19" t="s">
         <v>1846</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>1847</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>42</v>
@@ -32314,7 +32517,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="M6" s="18" t="s">
         <v>44</v>
@@ -32416,22 +32619,22 @@
         <v>110</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>1189</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="6" t="s">
         <v>1190</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>1191</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>398</v>
       </c>
       <c r="G2" s="16" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>1192</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>1193</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>42</v>
@@ -32443,7 +32646,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>24</v>
@@ -32458,22 +32661,22 @@
         <v>36</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>388</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>1196</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>1197</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>42</v>
@@ -32501,19 +32704,19 @@
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="6" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>1198</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>1199</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>388</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>1200</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>1201</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>42</v>
@@ -32540,22 +32743,22 @@
         <v>36</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D5" s="19" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>1371</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="F5" s="19" t="s">
         <v>1372</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="G5" s="19" t="s">
         <v>1373</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="H5" s="19" t="s">
         <v>1374</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>1375</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>42</v>
@@ -32582,22 +32785,22 @@
         <v>36</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D6" s="19" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E6" s="34" t="s">
         <v>1377</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="F6" s="19" t="s">
         <v>1378</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="G6" s="19" t="s">
         <v>1379</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="H6" s="19" t="s">
         <v>1380</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>1381</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>42</v>
@@ -32624,20 +32827,20 @@
         <v>36</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="19" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="G7" s="19" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>1383</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>1384</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>42</v>
@@ -32664,20 +32867,20 @@
         <v>36</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="19" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="G8" s="19" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H8" s="19" t="s">
         <v>1386</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>1387</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>42</v>
@@ -32704,20 +32907,20 @@
         <v>36</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="E9" s="36"/>
       <c r="F9" s="19" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="G9" s="19" t="s">
+        <v>1388</v>
+      </c>
+      <c r="H9" s="19" t="s">
         <v>1389</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>1390</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>42</v>
@@ -32744,22 +32947,22 @@
         <v>36</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D10" s="19" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>1391</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="F10" s="19" t="s">
         <v>1392</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="G10" s="19" t="s">
         <v>1393</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="H10" s="19" t="s">
         <v>1394</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>1395</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>42</v>
@@ -32786,22 +32989,22 @@
         <v>36</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D11" s="19" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>1396</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>1397</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G11" s="19" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H11" s="19" t="s">
         <v>1398</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>1399</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>42</v>
@@ -32828,22 +33031,22 @@
         <v>110</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>1202</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="E12" s="6" t="s">
         <v>1203</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>1204</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>398</v>
       </c>
       <c r="G12" s="16" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>1205</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>1206</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>42</v>
@@ -32855,13 +33058,13 @@
         <v>2</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="48.75" customHeight="1">
@@ -32872,22 +33075,22 @@
         <v>36</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>1208</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>1209</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>1210</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>388</v>
       </c>
       <c r="G13" s="6" t="s">
+        <v>1210</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>1211</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>1212</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>42</v>
@@ -32914,16 +33117,16 @@
         <v>36</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>1213</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>1214</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>1215</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>34</v>
@@ -32956,22 +33159,22 @@
         <v>36</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>1216</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>1217</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>1218</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>388</v>
       </c>
       <c r="G15" s="6" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>1219</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>1220</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>42</v>
@@ -32998,22 +33201,22 @@
         <v>36</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>1221</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>1222</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>1223</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>1224</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>1225</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>42</v>
@@ -33040,22 +33243,22 @@
         <v>36</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>1226</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>1227</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>1228</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>1229</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>1230</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>42</v>
@@ -33073,7 +33276,7 @@
         <v>24</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="87" customHeight="1">
@@ -33084,22 +33287,22 @@
         <v>36</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>1232</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>1233</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>388</v>
       </c>
       <c r="G18" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>1234</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>1235</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>42</v>
@@ -33126,22 +33329,22 @@
         <v>36</v>
       </c>
       <c r="C19" s="12" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>1236</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>1237</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>1238</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>1239</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>1240</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>1241</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>42</v>
@@ -33168,22 +33371,22 @@
         <v>36</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>1242</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>1243</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>1244</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>1245</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>1246</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>42</v>
@@ -33210,22 +33413,22 @@
         <v>36</v>
       </c>
       <c r="C21" s="12" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>1247</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>1247</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>1248</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="G21" s="6" t="s">
         <v>1249</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="H21" s="6" t="s">
         <v>1250</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>1251</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>42</v>
@@ -33252,22 +33455,22 @@
         <v>36</v>
       </c>
       <c r="C22" s="12" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>1252</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>1253</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="6" t="s">
         <v>1254</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>1255</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="H22" s="6" t="s">
         <v>1256</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>1257</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>42</v>
@@ -33294,22 +33497,22 @@
         <v>36</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>1258</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>1259</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>1260</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="H23" s="6" t="s">
         <v>1261</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>1262</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>42</v>
@@ -33377,46 +33580,46 @@
   <sheetData>
     <row r="1" spans="1:14" ht="14.25">
       <c r="A1" s="17" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>1416</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>1417</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>1418</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>1419</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>1420</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>1421</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>1422</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="17" t="s">
         <v>1423</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>1424</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>1425</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>1426</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>1427</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>1428</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="134.25" customHeight="1">
@@ -33427,22 +33630,22 @@
         <v>36</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D2" s="19" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>1402</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="19" t="s">
         <v>1403</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="19" t="s">
         <v>1404</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="H2" s="19" t="s">
         <v>1405</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>1406</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>42</v>
@@ -33469,22 +33672,22 @@
         <v>36</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D3" s="19" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>1407</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="F3" s="19" t="s">
         <v>1408</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="G3" s="19" t="s">
         <v>1409</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="H3" s="19" t="s">
         <v>1410</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>1411</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>42</v>
@@ -33511,22 +33714,22 @@
         <v>36</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D4" s="19" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>1412</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="F4" s="19" t="s">
+        <v>1403</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>1413</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>1404</v>
-      </c>
-      <c r="G4" s="19" t="s">
+      <c r="H4" s="19" t="s">
         <v>1414</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>1415</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>42</v>

--- a/regression/testcase_ConverLab_all.xlsx
+++ b/regression/testcase_ConverLab_all.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27815"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/WilliamZhou/Documents/test/regression/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="17540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,15 @@
     <sheet name="TMS" sheetId="8" r:id="rId9"/>
     <sheet name="快捷版" sheetId="9" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1898,7 +1911,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A37" authorId="0">
+    <comment ref="A38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2006,7 +2019,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A76" authorId="0">
+    <comment ref="A77" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2052,7 +2065,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H83" authorId="0">
+    <comment ref="H84" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2095,7 +2108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A93" authorId="0">
+    <comment ref="A94" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2152,7 +2165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A98" authorId="0">
+    <comment ref="A99" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2209,7 +2222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A102" authorId="0">
+    <comment ref="A103" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3845,7 +3858,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D57" authorId="0">
+    <comment ref="D58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3933,7 +3946,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A64" authorId="0">
+    <comment ref="A65" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4062,7 +4075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A65" authorId="0">
+    <comment ref="A66" authorId="0">
       <text>
         <r>
           <rPr>
@@ -5241,7 +5254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4815" uniqueCount="2007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4839" uniqueCount="2021">
   <si>
     <t>编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -9201,7 +9214,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="DengXian"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9212,7 +9225,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -14268,22 +14281,199 @@
    （3）选择90天，点击【人次】，查看数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ConverLab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户_客户中心</t>
+  </si>
+  <si>
+    <t>客户列表高级筛选_是否在群组中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证客户列表的高级筛选条件（是否在群组中）功能可用</t>
+    <rPh sb="11" eb="12">
+      <t>tiao'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账号登录到ConvertLab系统
+2 系统客户列表中存在不同类型的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 点击“客户”-“客户”
+2 点击切换到高级筛选，选择条件“是否在群组中”-“在”-“群组XXX”，选择满足以上所有条件（或满足以上任一条件），进行遍历测试
+3 点击“查询”</t>
+    <rPh sb="26" eb="27">
+      <t>xuan'z</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>shi'fou</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>qun'z</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>zho'g</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>qun'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 系统准确筛选出符合条件的客户并出现在客户列表中
+2 不符合条件的客户在客户列表中不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周威</t>
+    <rPh sb="0" eb="1">
+      <t>zhou'w</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint 0.34
+注意检查前端代码是否发生“Time_out”报错。</t>
+    <rPh sb="13" eb="14">
+      <t>zhu'yi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jian'cha</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>qian'dua</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>dai'am</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>shi'fou</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>fa's</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>bao'cuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测自动流程中的执行动作的稳定性</t>
+    <rPh sb="12" eb="13">
+      <t>d</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wen'ding'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 创建一个自动流程，其包括执行动作：【发送微信回复】【向客户发送短信】【向客户发送邮件】【推进阶段】【修改客户属性】【创建任务】【加入静态目标组】【增减积分】【发送内部邮件、短信】以及【延迟】
+2 每个动作选择立即执行，具体信息自定义
+3 工作流成功运行后，等待15分钟，查看其运行状态是否稳定
+4 工作流成功运行后，等待若干小时，查看其运行状态是否稳定</t>
+    <rPh sb="162" eb="163">
+      <t>ruo'gan</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>xiao'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功建立与预期信息一致的自动流程，工作流中执行动作信息显示准确
+2 工作流成功运行，执行动作依据待测客户实际行正确执行
+3 工作流成功运行后，等待15分钟，查看其运行状态应该稳定
+4 工作流成功运行后，等待若干小时，查看其运行状态应该稳定</t>
+    <rPh sb="64" eb="65">
+      <t>gong'zuo'liu</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>cheng'g</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>yun'xing</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>deng'dai</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>fen'z</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>cha'kan</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>yun'x</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>zhuang't</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ying'g</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>wen'd</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>ruo'gan</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>xiao'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动流程的稳定性</t>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wen'ding'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -14292,14 +14482,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -14307,7 +14497,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -14342,7 +14532,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -14351,7 +14541,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -14460,10 +14650,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14619,7 +14809,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -14661,12 +14851,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -14696,12 +14886,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -14905,7 +15095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:N21"/>
@@ -14914,23 +15104,23 @@
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="32.25" style="10" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="32.1640625" style="10" customWidth="1"/>
     <col min="6" max="6" width="32" style="10" customWidth="1"/>
-    <col min="7" max="7" width="50.625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="38.625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="50.6640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="38.6640625" style="10" customWidth="1"/>
     <col min="9" max="12" width="9" style="4" customWidth="1"/>
-    <col min="13" max="13" width="9.625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" style="4" customWidth="1"/>
     <col min="14" max="14" width="9" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="8.875" style="4"/>
+    <col min="15" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14974,7 +15164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="132.75" customHeight="1">
+    <row r="2" spans="1:14" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -15016,7 +15206,7 @@
       </c>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" ht="82.5" customHeight="1">
+    <row r="3" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -15058,7 +15248,7 @@
       </c>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="105" customHeight="1">
+    <row r="4" spans="1:14" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -15100,7 +15290,7 @@
       </c>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:14" s="9" customFormat="1" ht="61.5" customHeight="1">
+    <row r="5" spans="1:14" s="9" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -15142,7 +15332,7 @@
       </c>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:14" s="9" customFormat="1" ht="66" customHeight="1">
+    <row r="6" spans="1:14" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -15182,7 +15372,7 @@
       </c>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:14" s="9" customFormat="1" ht="57" customHeight="1">
+    <row r="7" spans="1:14" s="9" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -15222,7 +15412,7 @@
       </c>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:14" s="9" customFormat="1" ht="49.5" customHeight="1">
+    <row r="8" spans="1:14" s="9" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -15262,7 +15452,7 @@
       </c>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:14" s="9" customFormat="1" ht="61.5" customHeight="1">
+    <row r="9" spans="1:14" s="9" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -15302,7 +15492,7 @@
       </c>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="61.5" customHeight="1">
+    <row r="10" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -15344,7 +15534,7 @@
       </c>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:14" ht="78" customHeight="1">
+    <row r="11" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -15386,7 +15576,7 @@
       </c>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14" ht="82.5" customHeight="1">
+    <row r="12" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -15428,7 +15618,7 @@
       </c>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" ht="74.25" customHeight="1">
+    <row r="13" spans="1:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -15470,7 +15660,7 @@
       </c>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:14" ht="109.5" customHeight="1">
+    <row r="14" spans="1:14" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -15512,7 +15702,7 @@
       </c>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:14" ht="67.5">
+    <row r="15" spans="1:14" ht="75" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -15554,7 +15744,7 @@
       </c>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:14" ht="116.25" customHeight="1">
+    <row r="16" spans="1:14" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -15596,7 +15786,7 @@
       </c>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:14" ht="99.75" customHeight="1">
+    <row r="17" spans="1:14" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -15638,7 +15828,7 @@
       </c>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:14" ht="117.75" customHeight="1">
+    <row r="18" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -15680,7 +15870,7 @@
       </c>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="1:14" ht="110.25" customHeight="1">
+    <row r="19" spans="1:14" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -15722,7 +15912,7 @@
       </c>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="1:14" ht="82.5" customHeight="1">
+    <row r="20" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -15764,7 +15954,7 @@
       </c>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
+    <row r="21" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -15835,7 +16025,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFCCFFFF"/>
   </sheetPr>
   <dimension ref="A1:N18"/>
@@ -15844,18 +16034,18 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="18.375" customWidth="1"/>
-    <col min="5" max="5" width="21.125" customWidth="1"/>
-    <col min="6" max="6" width="26.375" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" customWidth="1"/>
     <col min="7" max="7" width="51" customWidth="1"/>
-    <col min="8" max="8" width="37.75" customWidth="1"/>
+    <col min="8" max="8" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="29.25" customHeight="1">
+    <row r="1" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>1650</v>
       </c>
@@ -15899,7 +16089,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="192.75" customHeight="1">
+    <row r="2" spans="1:14" ht="192.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -15941,7 +16131,7 @@
       </c>
       <c r="N2" s="17"/>
     </row>
-    <row r="3" spans="1:14" ht="90.75" customHeight="1">
+    <row r="3" spans="1:14" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -15983,7 +16173,7 @@
       </c>
       <c r="N3" s="17"/>
     </row>
-    <row r="4" spans="1:14" ht="87.75" customHeight="1">
+    <row r="4" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -16025,7 +16215,7 @@
       </c>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="1:14" ht="70.5" customHeight="1">
+    <row r="5" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -16067,7 +16257,7 @@
       </c>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:14" ht="75" customHeight="1">
+    <row r="6" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -16109,7 +16299,7 @@
       </c>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="1:14" ht="83.25" customHeight="1">
+    <row r="7" spans="1:14" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -16151,7 +16341,7 @@
       </c>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:14" ht="74.25" customHeight="1">
+    <row r="8" spans="1:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -16193,7 +16383,7 @@
       </c>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:14" ht="78" customHeight="1">
+    <row r="9" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -16235,7 +16425,7 @@
       </c>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:14" ht="105.75" customHeight="1">
+    <row r="10" spans="1:14" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -16277,7 +16467,7 @@
       </c>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="1:14" ht="84.75" customHeight="1">
+    <row r="11" spans="1:14" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -16319,7 +16509,7 @@
       </c>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:14" ht="75.75" customHeight="1">
+    <row r="12" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -16361,7 +16551,7 @@
       </c>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="1:14" ht="72.75" customHeight="1">
+    <row r="13" spans="1:14" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -16403,7 +16593,7 @@
       </c>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="1:14" ht="73.5" customHeight="1">
+    <row r="14" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -16445,7 +16635,7 @@
       </c>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="1:14" ht="66.75" customHeight="1">
+    <row r="15" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -16487,7 +16677,7 @@
       </c>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="1:14" ht="63" customHeight="1">
+    <row r="16" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -16529,7 +16719,7 @@
       </c>
       <c r="N16" s="17"/>
     </row>
-    <row r="17" spans="1:14" ht="78" customHeight="1">
+    <row r="17" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -16571,7 +16761,7 @@
       </c>
       <c r="N17" s="17"/>
     </row>
-    <row r="18" spans="1:14" ht="78" customHeight="1">
+    <row r="18" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -16636,31 +16826,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:N122"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+    <sheetView topLeftCell="F23" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="26" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="26" customWidth="1"/>
     <col min="5" max="5" width="25.5" style="26" customWidth="1"/>
-    <col min="6" max="6" width="50.25" style="26" customWidth="1"/>
-    <col min="7" max="7" width="43.625" style="26" customWidth="1"/>
-    <col min="8" max="8" width="59.375" style="26" customWidth="1"/>
+    <col min="6" max="6" width="50.1640625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="43.6640625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="59.33203125" style="26" customWidth="1"/>
     <col min="9" max="12" width="9" style="26" customWidth="1"/>
-    <col min="13" max="13" width="11.625" style="26" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="26" customWidth="1"/>
     <col min="14" max="14" width="20" style="26" customWidth="1"/>
-    <col min="15" max="16384" width="8.875" style="26"/>
+    <col min="15" max="16384" width="8.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -16704,7 +16894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="135.75" customHeight="1">
+    <row r="2" spans="1:14" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -16746,7 +16936,7 @@
       </c>
       <c r="N2" s="19"/>
     </row>
-    <row r="3" spans="1:14" ht="212.25" customHeight="1">
+    <row r="3" spans="1:14" ht="212.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -16788,7 +16978,7 @@
       </c>
       <c r="N3" s="19"/>
     </row>
-    <row r="4" spans="1:14" ht="124.5" customHeight="1">
+    <row r="4" spans="1:14" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -16830,7 +17020,7 @@
       </c>
       <c r="N4" s="18"/>
     </row>
-    <row r="5" spans="1:14" s="27" customFormat="1" ht="127.5" customHeight="1">
+    <row r="5" spans="1:14" s="27" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -16872,7 +17062,7 @@
       </c>
       <c r="N5" s="19"/>
     </row>
-    <row r="6" spans="1:14" s="27" customFormat="1" ht="131.25" customHeight="1">
+    <row r="6" spans="1:14" s="27" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -16914,7 +17104,7 @@
       </c>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="1:14" s="27" customFormat="1" ht="131.25" customHeight="1">
+    <row r="7" spans="1:14" s="27" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -16956,7 +17146,7 @@
       </c>
       <c r="N7" s="18"/>
     </row>
-    <row r="8" spans="1:14" s="27" customFormat="1" ht="124.5" customHeight="1">
+    <row r="8" spans="1:14" s="27" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -17000,7 +17190,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="27" customFormat="1" ht="124.5" customHeight="1">
+    <row r="9" spans="1:14" s="27" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -17040,7 +17230,7 @@
       </c>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" spans="1:14" s="27" customFormat="1" ht="124.5" customHeight="1">
+    <row r="10" spans="1:14" s="27" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -17080,7 +17270,7 @@
       </c>
       <c r="N10" s="18"/>
     </row>
-    <row r="11" spans="1:14" s="27" customFormat="1" ht="186.75" customHeight="1">
+    <row r="11" spans="1:14" s="27" customFormat="1" ht="186.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -17120,7 +17310,7 @@
       </c>
       <c r="N11" s="18"/>
     </row>
-    <row r="12" spans="1:14" s="27" customFormat="1" ht="133.5" customHeight="1">
+    <row r="12" spans="1:14" s="27" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -17162,7 +17352,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="27" customFormat="1" ht="409.5" customHeight="1">
+    <row r="13" spans="1:14" s="27" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -17204,7 +17394,7 @@
       </c>
       <c r="N13" s="19"/>
     </row>
-    <row r="14" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1">
+    <row r="14" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>13</v>
       </c>
@@ -17246,7 +17436,7 @@
       </c>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1">
+    <row r="15" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -17288,7 +17478,7 @@
       </c>
       <c r="N15" s="18"/>
     </row>
-    <row r="16" spans="1:14" ht="120" customHeight="1">
+    <row r="16" spans="1:14" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -17330,7 +17520,7 @@
       </c>
       <c r="N16" s="19"/>
     </row>
-    <row r="17" spans="1:14" ht="76.5" customHeight="1">
+    <row r="17" spans="1:14" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -17372,7 +17562,7 @@
       </c>
       <c r="N17" s="19"/>
     </row>
-    <row r="18" spans="1:14" ht="85.5" customHeight="1">
+    <row r="18" spans="1:14" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
         <v>17</v>
       </c>
@@ -17414,7 +17604,7 @@
       </c>
       <c r="N18" s="19"/>
     </row>
-    <row r="19" spans="1:14" ht="85.5" customHeight="1">
+    <row r="19" spans="1:14" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -17454,7 +17644,7 @@
       </c>
       <c r="N19" s="19"/>
     </row>
-    <row r="20" spans="1:14" ht="75" customHeight="1">
+    <row r="20" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
         <v>19</v>
       </c>
@@ -17494,7 +17684,7 @@
       </c>
       <c r="N20" s="19"/>
     </row>
-    <row r="21" spans="1:14" ht="75" customHeight="1">
+    <row r="21" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -17534,7 +17724,7 @@
       </c>
       <c r="N21" s="19"/>
     </row>
-    <row r="22" spans="1:14" ht="84" customHeight="1">
+    <row r="22" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
         <v>21</v>
       </c>
@@ -17574,7 +17764,7 @@
       </c>
       <c r="N22" s="19"/>
     </row>
-    <row r="23" spans="1:14" ht="84" customHeight="1">
+    <row r="23" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
         <v>22</v>
       </c>
@@ -17614,7 +17804,7 @@
       </c>
       <c r="N23" s="19"/>
     </row>
-    <row r="24" spans="1:14" ht="84" customHeight="1">
+    <row r="24" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <v>23</v>
       </c>
@@ -17656,7 +17846,7 @@
       </c>
       <c r="N24" s="19"/>
     </row>
-    <row r="25" spans="1:14" ht="105.75" customHeight="1">
+    <row r="25" spans="1:14" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
         <v>24</v>
       </c>
@@ -17698,33 +17888,33 @@
       </c>
       <c r="N25" s="19"/>
     </row>
-    <row r="26" spans="1:14" ht="84.75" customHeight="1">
+    <row r="26" spans="1:14" ht="75" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
         <v>25</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>110</v>
+        <v>2007</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>111</v>
+        <v>2008</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>222</v>
+        <v>2009</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>223</v>
+        <v>2010</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>224</v>
+        <v>2011</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>225</v>
+        <v>2012</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>226</v>
+        <v>2013</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>42</v>
+        <v>2014</v>
       </c>
       <c r="J26" s="19" t="s">
         <v>30</v>
@@ -17733,14 +17923,16 @@
         <v>1</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>23</v>
+        <v>2015</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N26" s="19"/>
-    </row>
-    <row r="27" spans="1:14" ht="87" customHeight="1">
+        <v>1571</v>
+      </c>
+      <c r="N26" s="23" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19">
         <v>26</v>
       </c>
@@ -17751,19 +17943,19 @@
         <v>111</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>1687</v>
+        <v>222</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>1688</v>
+        <v>223</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>224</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>1689</v>
+        <v>225</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>1690</v>
+        <v>226</v>
       </c>
       <c r="I27" s="19" t="s">
         <v>42</v>
@@ -17782,7 +17974,7 @@
       </c>
       <c r="N27" s="19"/>
     </row>
-    <row r="28" spans="1:14" ht="66.75" customHeight="1">
+    <row r="28" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
         <v>27</v>
       </c>
@@ -17793,19 +17985,19 @@
         <v>111</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>227</v>
+        <v>1687</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>228</v>
+        <v>1688</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>229</v>
+        <v>1689</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>230</v>
+        <v>1690</v>
       </c>
       <c r="I28" s="19" t="s">
         <v>42</v>
@@ -17814,7 +18006,7 @@
         <v>30</v>
       </c>
       <c r="K28" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L28" s="19" t="s">
         <v>23</v>
@@ -17824,7 +18016,7 @@
       </c>
       <c r="N28" s="19"/>
     </row>
-    <row r="29" spans="1:14" ht="92.25" customHeight="1">
+    <row r="29" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
         <v>28</v>
       </c>
@@ -17832,22 +18024,22 @@
         <v>110</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>1691</v>
+        <v>111</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>1724</v>
+        <v>227</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>1725</v>
+        <v>228</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>1716</v>
+        <v>79</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>1726</v>
+        <v>229</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>1727</v>
+        <v>230</v>
       </c>
       <c r="I29" s="19" t="s">
         <v>42</v>
@@ -17856,7 +18048,7 @@
         <v>30</v>
       </c>
       <c r="K29" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29" s="19" t="s">
         <v>23</v>
@@ -17866,7 +18058,7 @@
       </c>
       <c r="N29" s="19"/>
     </row>
-    <row r="30" spans="1:14" ht="89.25" customHeight="1">
+    <row r="30" spans="1:14" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
         <v>29</v>
       </c>
@@ -17877,19 +18069,19 @@
         <v>1691</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>234</v>
+        <v>1716</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="I30" s="19" t="s">
         <v>42</v>
@@ -17901,14 +18093,14 @@
         <v>1</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="M30" s="19" t="s">
         <v>24</v>
       </c>
       <c r="N30" s="19"/>
     </row>
-    <row r="31" spans="1:14" ht="158.25" customHeight="1">
+    <row r="31" spans="1:14" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19">
         <v>30</v>
       </c>
@@ -17919,19 +18111,19 @@
         <v>1691</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>1790</v>
+        <v>1728</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>1789</v>
+        <v>1729</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>1692</v>
+        <v>1730</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>1693</v>
+        <v>1731</v>
       </c>
       <c r="I31" s="19" t="s">
         <v>42</v>
@@ -17950,7 +18142,7 @@
       </c>
       <c r="N31" s="19"/>
     </row>
-    <row r="32" spans="1:14" ht="119.25" customHeight="1">
+    <row r="32" spans="1:14" ht="158.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19">
         <v>31</v>
       </c>
@@ -17961,19 +18153,19 @@
         <v>1691</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>1762</v>
+        <v>1790</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>1763</v>
+        <v>1789</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>1771</v>
+        <v>79</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>1772</v>
+        <v>1692</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>1773</v>
+        <v>1693</v>
       </c>
       <c r="I32" s="19" t="s">
         <v>42</v>
@@ -17985,14 +18177,14 @@
         <v>1</v>
       </c>
       <c r="L32" s="19" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="M32" s="19" t="s">
         <v>24</v>
       </c>
       <c r="N32" s="19"/>
     </row>
-    <row r="33" spans="1:14" ht="87.75" customHeight="1">
+    <row r="33" spans="1:14" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="19">
         <v>32</v>
       </c>
@@ -18003,19 +18195,19 @@
         <v>1691</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>1776</v>
+        <v>1762</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>1720</v>
+        <v>1763</v>
       </c>
       <c r="F33" s="19" t="s">
         <v>1771</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>1781</v>
+        <v>1772</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>1722</v>
+        <v>1773</v>
       </c>
       <c r="I33" s="19" t="s">
         <v>42</v>
@@ -18034,7 +18226,7 @@
       </c>
       <c r="N33" s="19"/>
     </row>
-    <row r="34" spans="1:14" ht="70.5" customHeight="1">
+    <row r="34" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
         <v>33</v>
       </c>
@@ -18045,19 +18237,19 @@
         <v>1691</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>1769</v>
+        <v>1776</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>1770</v>
+        <v>1720</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>1719</v>
+        <v>1722</v>
       </c>
       <c r="I34" s="19" t="s">
         <v>42</v>
@@ -18076,7 +18268,7 @@
       </c>
       <c r="N34" s="19"/>
     </row>
-    <row r="35" spans="1:14" ht="81.75" customHeight="1">
+    <row r="35" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="19">
         <v>34</v>
       </c>
@@ -18087,19 +18279,19 @@
         <v>1691</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>1780</v>
+        <v>1769</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>1785</v>
+        <v>1770</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>1787</v>
+        <v>1774</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>1788</v>
+        <v>1719</v>
       </c>
       <c r="I35" s="19" t="s">
         <v>42</v>
@@ -18118,7 +18310,7 @@
       </c>
       <c r="N35" s="19"/>
     </row>
-    <row r="36" spans="1:14" ht="119.25" customHeight="1">
+    <row r="36" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="19">
         <v>35</v>
       </c>
@@ -18129,28 +18321,28 @@
         <v>1691</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>1764</v>
+        <v>1780</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>1779</v>
+        <v>1785</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>1765</v>
+        <v>1786</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>1791</v>
+        <v>1787</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>294</v>
+        <v>42</v>
       </c>
       <c r="J36" s="19" t="s">
         <v>30</v>
       </c>
       <c r="K36" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L36" s="19" t="s">
         <v>23</v>
@@ -18160,7 +18352,7 @@
       </c>
       <c r="N36" s="19"/>
     </row>
-    <row r="37" spans="1:14" ht="128.25">
+    <row r="37" spans="1:14" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="19">
         <v>36</v>
       </c>
@@ -18171,38 +18363,38 @@
         <v>1691</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>1795</v>
+        <v>1764</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>1694</v>
+        <v>1779</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>79</v>
+        <v>1765</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>1695</v>
+        <v>1791</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>1696</v>
+        <v>1792</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="J37" s="19" t="s">
         <v>30</v>
       </c>
       <c r="K37" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37" s="19" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="M37" s="19" t="s">
         <v>24</v>
       </c>
       <c r="N37" s="19"/>
     </row>
-    <row r="38" spans="1:14" ht="131.25" customHeight="1">
+    <row r="38" spans="1:14" ht="135" x14ac:dyDescent="0.2">
       <c r="A38" s="19">
         <v>37</v>
       </c>
@@ -18213,19 +18405,19 @@
         <v>1691</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>1848</v>
+        <v>1795</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="I38" s="19" t="s">
         <v>42</v>
@@ -18234,101 +18426,101 @@
         <v>30</v>
       </c>
       <c r="K38" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L38" s="19" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="M38" s="19" t="s">
         <v>24</v>
       </c>
       <c r="N38" s="19"/>
     </row>
-    <row r="39" spans="1:14" s="28" customFormat="1" ht="66.75" customHeight="1">
+    <row r="39" spans="1:14" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="19">
         <v>38</v>
       </c>
-      <c r="B39" s="18" t="s">
-        <v>36</v>
+      <c r="B39" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>1491</v>
+        <v>1691</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>1794</v>
+        <v>1848</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>1755</v>
+        <v>1697</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>1540</v>
+        <v>231</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>1756</v>
+        <v>1698</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>1757</v>
-      </c>
-      <c r="I39" s="18" t="s">
+        <v>1699</v>
+      </c>
+      <c r="I39" s="19" t="s">
         <v>42</v>
       </c>
       <c r="J39" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K39" s="18">
+      <c r="K39" s="19">
         <v>2</v>
       </c>
-      <c r="L39" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="M39" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N39" s="17"/>
-    </row>
-    <row r="40" spans="1:14" ht="148.5" customHeight="1">
+      <c r="L39" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M39" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N39" s="19"/>
+    </row>
+    <row r="40" spans="1:14" s="28" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="19">
         <v>39</v>
       </c>
-      <c r="B40" s="19" t="s">
-        <v>110</v>
+      <c r="B40" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>1691</v>
+        <v>1491</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>1847</v>
+        <v>1794</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>1700</v>
+        <v>1755</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>232</v>
+        <v>1540</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>1701</v>
+        <v>1756</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>1699</v>
-      </c>
-      <c r="I40" s="19" t="s">
+        <v>1757</v>
+      </c>
+      <c r="I40" s="18" t="s">
         <v>42</v>
       </c>
       <c r="J40" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K40" s="19">
+      <c r="K40" s="18">
         <v>2</v>
       </c>
-      <c r="L40" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M40" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N40" s="19"/>
-    </row>
-    <row r="41" spans="1:14" ht="144.75" customHeight="1">
+      <c r="L40" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M40" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N40" s="17"/>
+    </row>
+    <row r="41" spans="1:14" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="19">
         <v>40</v>
       </c>
@@ -18339,16 +18531,16 @@
         <v>1691</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>1796</v>
+        <v>1847</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="H41" s="19" t="s">
         <v>1699</v>
@@ -18370,7 +18562,7 @@
       </c>
       <c r="N41" s="19"/>
     </row>
-    <row r="42" spans="1:14" ht="139.5" customHeight="1">
+    <row r="42" spans="1:14" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="19">
         <v>41</v>
       </c>
@@ -18381,16 +18573,16 @@
         <v>1691</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="F42" s="19" t="s">
         <v>233</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="H42" s="19" t="s">
         <v>1699</v>
@@ -18412,7 +18604,7 @@
       </c>
       <c r="N42" s="19"/>
     </row>
-    <row r="43" spans="1:14" ht="144.75" customHeight="1">
+    <row r="43" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="19">
         <v>42</v>
       </c>
@@ -18423,16 +18615,16 @@
         <v>1691</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="F43" s="19" t="s">
         <v>233</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="H43" s="19" t="s">
         <v>1699</v>
@@ -18454,7 +18646,7 @@
       </c>
       <c r="N43" s="19"/>
     </row>
-    <row r="44" spans="1:14" ht="159" customHeight="1">
+    <row r="44" spans="1:14" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19">
         <v>43</v>
       </c>
@@ -18465,16 +18657,16 @@
         <v>1691</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="F44" s="19" t="s">
         <v>233</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="H44" s="19" t="s">
         <v>1699</v>
@@ -18496,7 +18688,7 @@
       </c>
       <c r="N44" s="19"/>
     </row>
-    <row r="45" spans="1:14" ht="137.25" customHeight="1">
+    <row r="45" spans="1:14" ht="159" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="19">
         <v>44</v>
       </c>
@@ -18507,16 +18699,16 @@
         <v>1691</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="F45" s="19" t="s">
         <v>233</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="H45" s="19" t="s">
         <v>1699</v>
@@ -18538,7 +18730,7 @@
       </c>
       <c r="N45" s="19"/>
     </row>
-    <row r="46" spans="1:14" ht="180" customHeight="1">
+    <row r="46" spans="1:14" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="19">
         <v>45</v>
       </c>
@@ -18549,16 +18741,16 @@
         <v>1691</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="F46" s="19" t="s">
         <v>233</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="H46" s="19" t="s">
         <v>1699</v>
@@ -18580,7 +18772,7 @@
       </c>
       <c r="N46" s="19"/>
     </row>
-    <row r="47" spans="1:14" ht="180.75" customHeight="1">
+    <row r="47" spans="1:14" ht="180" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19">
         <v>46</v>
       </c>
@@ -18591,16 +18783,16 @@
         <v>1691</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="F47" s="19" t="s">
         <v>233</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="H47" s="19" t="s">
         <v>1699</v>
@@ -18612,7 +18804,7 @@
         <v>30</v>
       </c>
       <c r="K47" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L47" s="19" t="s">
         <v>23</v>
@@ -18622,7 +18814,7 @@
       </c>
       <c r="N47" s="19"/>
     </row>
-    <row r="48" spans="1:14" ht="180.75" customHeight="1">
+    <row r="48" spans="1:14" ht="180.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19">
         <v>47</v>
       </c>
@@ -18633,24 +18825,38 @@
         <v>1691</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>1849</v>
+        <v>1802</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>1850</v>
+        <v>1714</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
+        <v>233</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>1715</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>1699</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J48" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K48" s="19">
+        <v>1</v>
+      </c>
+      <c r="L48" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M48" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="N48" s="19"/>
     </row>
-    <row r="49" spans="1:14" ht="119.25" customHeight="1">
+    <row r="49" spans="1:14" ht="180.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19">
         <v>48</v>
       </c>
@@ -18661,38 +18867,24 @@
         <v>1691</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>1760</v>
+        <v>1849</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>1761</v>
+        <v>1850</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>1716</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>1717</v>
-      </c>
-      <c r="H49" s="19" t="s">
-        <v>1718</v>
-      </c>
-      <c r="I49" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="J49" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K49" s="19">
-        <v>1</v>
-      </c>
-      <c r="L49" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M49" s="19" t="s">
-        <v>24</v>
-      </c>
+        <v>1851</v>
+      </c>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
       <c r="N49" s="19"/>
     </row>
-    <row r="50" spans="1:14" ht="107.25" customHeight="1">
+    <row r="50" spans="1:14" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19">
         <v>49</v>
       </c>
@@ -18703,19 +18895,19 @@
         <v>1691</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>1777</v>
+        <v>1760</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>1782</v>
+        <v>1761</v>
       </c>
       <c r="F50" s="19" t="s">
         <v>1716</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>1768</v>
+        <v>1717</v>
       </c>
       <c r="H50" s="19" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="I50" s="19" t="s">
         <v>42</v>
@@ -18734,7 +18926,7 @@
       </c>
       <c r="N50" s="19"/>
     </row>
-    <row r="51" spans="1:14" ht="107.25" customHeight="1">
+    <row r="51" spans="1:14" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19">
         <v>50</v>
       </c>
@@ -18745,19 +18937,19 @@
         <v>1691</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="F51" s="19" t="s">
         <v>1716</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>1721</v>
+        <v>1768</v>
       </c>
       <c r="H51" s="19" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="I51" s="19" t="s">
         <v>42</v>
@@ -18776,7 +18968,7 @@
       </c>
       <c r="N51" s="19"/>
     </row>
-    <row r="52" spans="1:14" ht="107.25" customHeight="1">
+    <row r="52" spans="1:14" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="19">
         <v>51</v>
       </c>
@@ -18787,19 +18979,19 @@
         <v>1691</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>1793</v>
+        <v>1778</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="F52" s="19" t="s">
         <v>1716</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>1766</v>
+        <v>1721</v>
       </c>
       <c r="H52" s="19" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="I52" s="19" t="s">
         <v>42</v>
@@ -18818,49 +19010,49 @@
       </c>
       <c r="N52" s="19"/>
     </row>
-    <row r="53" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1">
+    <row r="53" spans="1:14" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="19">
         <v>52</v>
       </c>
-      <c r="B53" s="18" t="s">
-        <v>36</v>
+      <c r="B53" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>1691</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>1732</v>
+        <v>1793</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>1733</v>
+        <v>1784</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>235</v>
+        <v>1716</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="H53" s="19" t="s">
-        <v>1734</v>
-      </c>
-      <c r="I53" s="18" t="s">
+        <v>1723</v>
+      </c>
+      <c r="I53" s="19" t="s">
         <v>42</v>
       </c>
       <c r="J53" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K53" s="18">
-        <v>2</v>
-      </c>
-      <c r="L53" s="18" t="s">
-        <v>43</v>
+      <c r="K53" s="19">
+        <v>1</v>
+      </c>
+      <c r="L53" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="M53" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="N53" s="18"/>
-    </row>
-    <row r="54" spans="1:14" s="28" customFormat="1" ht="124.5" customHeight="1">
+      <c r="N53" s="19"/>
+    </row>
+    <row r="54" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="19">
         <v>53</v>
       </c>
@@ -18871,19 +19063,19 @@
         <v>1691</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>1737</v>
+        <v>235</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
       <c r="I54" s="18" t="s">
         <v>42</v>
@@ -18897,12 +19089,12 @@
       <c r="L54" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="M54" s="18" t="s">
-        <v>1571</v>
-      </c>
-      <c r="N54" s="17"/>
-    </row>
-    <row r="55" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1">
+      <c r="M54" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N54" s="18"/>
+    </row>
+    <row r="55" spans="1:14" s="28" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="19">
         <v>54</v>
       </c>
@@ -18913,19 +19105,19 @@
         <v>1691</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>1805</v>
+        <v>1735</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>1572</v>
+        <v>1739</v>
       </c>
       <c r="I55" s="18" t="s">
         <v>42</v>
@@ -18944,7 +19136,7 @@
       </c>
       <c r="N55" s="17"/>
     </row>
-    <row r="56" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1">
+    <row r="56" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="19">
         <v>55</v>
       </c>
@@ -18955,19 +19147,19 @@
         <v>1691</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="I56" s="18" t="s">
         <v>42</v>
@@ -18982,11 +19174,11 @@
         <v>43</v>
       </c>
       <c r="M56" s="18" t="s">
-        <v>44</v>
+        <v>1571</v>
       </c>
       <c r="N56" s="17"/>
     </row>
-    <row r="57" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1">
+    <row r="57" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="19">
         <v>56</v>
       </c>
@@ -18997,19 +19189,19 @@
         <v>1691</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="I57" s="18" t="s">
         <v>42</v>
@@ -19021,58 +19213,56 @@
         <v>2</v>
       </c>
       <c r="L57" s="18" t="s">
-        <v>1575</v>
+        <v>43</v>
       </c>
       <c r="M57" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N57" s="17"/>
     </row>
-    <row r="58" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
+    <row r="58" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="19">
         <v>57</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>1861</v>
+        <v>36</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>1862</v>
+        <v>1691</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>1863</v>
+        <v>1803</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>1864</v>
-      </c>
-      <c r="F58" s="30" t="s">
-        <v>1865</v>
+        <v>1746</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>1747</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>1866</v>
+        <v>1748</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>1867</v>
+        <v>1574</v>
       </c>
       <c r="I58" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J58" s="18" t="s">
+      <c r="J58" s="19" t="s">
         <v>30</v>
       </c>
       <c r="K58" s="18">
         <v>2</v>
       </c>
       <c r="L58" s="18" t="s">
-        <v>1868</v>
+        <v>1575</v>
       </c>
       <c r="M58" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N58" s="17" t="s">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
+      <c r="N58" s="17"/>
+    </row>
+    <row r="59" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="19">
         <v>58</v>
       </c>
@@ -19083,16 +19273,16 @@
         <v>1862</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>1852</v>
+        <v>1863</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>1870</v>
+        <v>1864</v>
       </c>
       <c r="F59" s="30" t="s">
-        <v>1871</v>
+        <v>1865</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>1872</v>
+        <v>1866</v>
       </c>
       <c r="H59" s="19" t="s">
         <v>1867</v>
@@ -19116,7 +19306,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="60" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
+    <row r="60" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="19">
         <v>59</v>
       </c>
@@ -19127,28 +19317,28 @@
         <v>1862</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>1873</v>
+        <v>1852</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>1874</v>
+        <v>1870</v>
       </c>
       <c r="F60" s="30" t="s">
-        <v>1875</v>
+        <v>1871</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>1876</v>
+        <v>1872</v>
       </c>
       <c r="H60" s="19" t="s">
         <v>1867</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>294</v>
+        <v>42</v>
       </c>
       <c r="J60" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K60" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L60" s="18" t="s">
         <v>1868</v>
@@ -19160,7 +19350,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="61" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
+    <row r="61" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="19">
         <v>60</v>
       </c>
@@ -19171,16 +19361,16 @@
         <v>1862</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>1853</v>
+        <v>1873</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
       <c r="F61" s="30" t="s">
         <v>1875</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="H61" s="19" t="s">
         <v>1867</v>
@@ -19204,7 +19394,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="62" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
+    <row r="62" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="19">
         <v>61</v>
       </c>
@@ -19215,16 +19405,16 @@
         <v>1862</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>1879</v>
+        <v>1853</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="F62" s="30" t="s">
-        <v>1881</v>
+        <v>1875</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
       <c r="H62" s="19" t="s">
         <v>1867</v>
@@ -19248,7 +19438,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="63" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
+    <row r="63" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="19">
         <v>62</v>
       </c>
@@ -19259,16 +19449,16 @@
         <v>1862</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>1854</v>
+        <v>1879</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
       <c r="F63" s="30" t="s">
         <v>1881</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="H63" s="19" t="s">
         <v>1867</v>
@@ -19292,7 +19482,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="64" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
+    <row r="64" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="19">
         <v>63</v>
       </c>
@@ -19303,28 +19493,28 @@
         <v>1862</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>1885</v>
+        <v>1854</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
       <c r="F64" s="30" t="s">
-        <v>1865</v>
+        <v>1881</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="H64" s="19" t="s">
-        <v>1888</v>
+        <v>1867</v>
       </c>
       <c r="I64" s="18" t="s">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="J64" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K64" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L64" s="18" t="s">
         <v>1868</v>
@@ -19336,7 +19526,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="65" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
+    <row r="65" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="19">
         <v>64</v>
       </c>
@@ -19347,16 +19537,16 @@
         <v>1862</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>1889</v>
+        <v>1885</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>1886</v>
       </c>
       <c r="F65" s="30" t="s">
-        <v>1890</v>
+        <v>1865</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
       <c r="H65" s="19" t="s">
         <v>1888</v>
@@ -19380,7 +19570,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="66" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
+    <row r="66" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="19">
         <v>65</v>
       </c>
@@ -19391,28 +19581,28 @@
         <v>1862</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>1886</v>
       </c>
       <c r="F66" s="30" t="s">
-        <v>1881</v>
+        <v>1890</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="H66" s="19" t="s">
         <v>1888</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>294</v>
+        <v>42</v>
       </c>
       <c r="J66" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K66" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L66" s="18" t="s">
         <v>1868</v>
@@ -19424,7 +19614,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="67" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
+    <row r="67" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="19">
         <v>66</v>
       </c>
@@ -19435,28 +19625,28 @@
         <v>1862</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>1895</v>
-      </c>
-      <c r="F67" s="19" t="s">
-        <v>1896</v>
+        <v>1886</v>
+      </c>
+      <c r="F67" s="30" t="s">
+        <v>1881</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="H67" s="19" t="s">
-        <v>1898</v>
+        <v>1888</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="J67" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K67" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L67" s="18" t="s">
         <v>1868</v>
@@ -19468,7 +19658,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="68" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
+    <row r="68" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="19">
         <v>67</v>
       </c>
@@ -19479,19 +19669,19 @@
         <v>1862</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>1855</v>
+        <v>1894</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>1895</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
       <c r="G68" s="19" t="s">
         <v>1897</v>
       </c>
       <c r="H68" s="19" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="I68" s="18" t="s">
         <v>42</v>
@@ -19512,7 +19702,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="69" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
+    <row r="69" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="19">
         <v>68</v>
       </c>
@@ -19523,28 +19713,28 @@
         <v>1862</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E69" s="19" t="s">
         <v>1895</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="G69" s="19" t="s">
         <v>1897</v>
       </c>
       <c r="H69" s="19" t="s">
-        <v>1898</v>
+        <v>1900</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>294</v>
+        <v>42</v>
       </c>
       <c r="J69" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K69" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L69" s="18" t="s">
         <v>1868</v>
@@ -19556,7 +19746,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="70" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
+    <row r="70" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="19">
         <v>69</v>
       </c>
@@ -19567,13 +19757,13 @@
         <v>1862</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>1895</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="G70" s="19" t="s">
         <v>1897</v>
@@ -19600,7 +19790,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="71" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
+    <row r="71" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="19">
         <v>70</v>
       </c>
@@ -19611,28 +19801,28 @@
         <v>1862</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>1903</v>
+        <v>1857</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>1904</v>
+        <v>1895</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>1906</v>
+        <v>1897</v>
       </c>
       <c r="H71" s="19" t="s">
-        <v>1907</v>
+        <v>1898</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="J71" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K71" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L71" s="18" t="s">
         <v>1868</v>
@@ -19644,7 +19834,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="72" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
+    <row r="72" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="19">
         <v>71</v>
       </c>
@@ -19655,19 +19845,19 @@
         <v>1862</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>1858</v>
+        <v>1903</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>1904</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="G72" s="19" t="s">
         <v>1906</v>
       </c>
       <c r="H72" s="19" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="I72" s="18" t="s">
         <v>42</v>
@@ -19688,7 +19878,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="73" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
+    <row r="73" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="19">
         <v>72</v>
       </c>
@@ -19699,28 +19889,28 @@
         <v>1862</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="E73" s="19" t="s">
         <v>1904</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="G73" s="19" t="s">
         <v>1906</v>
       </c>
       <c r="H73" s="19" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>294</v>
+        <v>42</v>
       </c>
       <c r="J73" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K73" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L73" s="18" t="s">
         <v>1868</v>
@@ -19732,7 +19922,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="74" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
+    <row r="74" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="19">
         <v>73</v>
       </c>
@@ -19743,13 +19933,13 @@
         <v>1862</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>1904</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="G74" s="19" t="s">
         <v>1906</v>
@@ -19776,49 +19966,51 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="75" spans="1:14" s="28" customFormat="1" ht="78.75" customHeight="1">
+    <row r="75" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="19">
         <v>74</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>36</v>
+        <v>1861</v>
       </c>
       <c r="C75" s="19" t="s">
         <v>1862</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>1750</v>
+        <v>1860</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>1751</v>
+        <v>1904</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>1752</v>
+        <v>1912</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>1753</v>
+        <v>1906</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>1754</v>
+        <v>1911</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J75" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="J75" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K75" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L75" s="18" t="s">
-        <v>43</v>
+        <v>1868</v>
       </c>
       <c r="M75" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N75" s="17"/>
-    </row>
-    <row r="76" spans="1:14" s="27" customFormat="1" ht="78.75" customHeight="1">
+      <c r="N75" s="17" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" s="28" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="19">
         <v>75</v>
       </c>
@@ -19826,22 +20018,22 @@
         <v>36</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>236</v>
+        <v>1862</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>237</v>
+        <v>1750</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>238</v>
+        <v>1751</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>79</v>
+        <v>1752</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>239</v>
+        <v>1753</v>
       </c>
       <c r="H76" s="19" t="s">
-        <v>240</v>
+        <v>1754</v>
       </c>
       <c r="I76" s="18" t="s">
         <v>42</v>
@@ -19855,96 +20047,96 @@
       <c r="L76" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="M76" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N76" s="18"/>
-    </row>
-    <row r="77" spans="1:14" ht="78.75" customHeight="1">
+      <c r="M76" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N76" s="17"/>
+    </row>
+    <row r="77" spans="1:14" s="27" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="19">
         <v>76</v>
       </c>
-      <c r="B77" s="19" t="s">
-        <v>110</v>
+      <c r="B77" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>236</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="G77" s="19" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H77" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="I77" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="I77" s="18" t="s">
         <v>42</v>
       </c>
       <c r="J77" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K77" s="19">
+      <c r="K77" s="18">
         <v>2</v>
       </c>
-      <c r="L77" s="19" t="s">
-        <v>82</v>
+      <c r="L77" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="M77" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="N77" s="19"/>
-    </row>
-    <row r="78" spans="1:14" s="27" customFormat="1" ht="78.75" customHeight="1">
+      <c r="N77" s="18"/>
+    </row>
+    <row r="78" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="19">
         <v>77</v>
       </c>
-      <c r="B78" s="18" t="s">
-        <v>36</v>
+      <c r="B78" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="C78" s="19" t="s">
         <v>236</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="I78" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I78" s="19" t="s">
         <v>42</v>
       </c>
       <c r="J78" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K78" s="18">
+      <c r="K78" s="19">
         <v>2</v>
       </c>
-      <c r="L78" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="M78" s="18" t="s">
+      <c r="L78" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="M78" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="N78" s="18"/>
-    </row>
-    <row r="79" spans="1:14" s="27" customFormat="1" ht="78.75" customHeight="1">
+      <c r="N78" s="19"/>
+    </row>
+    <row r="79" spans="1:14" s="27" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="19">
         <v>78</v>
       </c>
@@ -19955,7 +20147,7 @@
         <v>236</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E79" s="19" t="s">
         <v>246</v>
@@ -19964,7 +20156,7 @@
         <v>79</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H79" s="19" t="s">
         <v>248</v>
@@ -19986,7 +20178,7 @@
       </c>
       <c r="N79" s="18"/>
     </row>
-    <row r="80" spans="1:14" s="27" customFormat="1" ht="78.75" customHeight="1">
+    <row r="80" spans="1:14" s="27" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="19">
         <v>79</v>
       </c>
@@ -19997,7 +20189,7 @@
         <v>236</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E80" s="19" t="s">
         <v>246</v>
@@ -20006,7 +20198,7 @@
         <v>79</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H80" s="19" t="s">
         <v>248</v>
@@ -20028,49 +20220,49 @@
       </c>
       <c r="N80" s="18"/>
     </row>
-    <row r="81" spans="1:14" ht="78.75" customHeight="1">
+    <row r="81" spans="1:14" s="27" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="19">
         <v>80</v>
       </c>
-      <c r="B81" s="19" t="s">
-        <v>110</v>
+      <c r="B81" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="C81" s="19" t="s">
         <v>236</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="I81" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="I81" s="18" t="s">
         <v>42</v>
       </c>
       <c r="J81" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K81" s="19">
+      <c r="K81" s="18">
         <v>2</v>
       </c>
-      <c r="L81" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="M81" s="19" t="s">
+      <c r="L81" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M81" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="N81" s="19"/>
-    </row>
-    <row r="82" spans="1:14" ht="78.75" customHeight="1">
+      <c r="N81" s="18"/>
+    </row>
+    <row r="82" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="19">
         <v>81</v>
       </c>
@@ -20081,19 +20273,19 @@
         <v>236</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G82" s="19" t="s">
         <v>256</v>
       </c>
       <c r="H82" s="19" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I82" s="19" t="s">
         <v>42</v>
@@ -20102,17 +20294,17 @@
         <v>30</v>
       </c>
       <c r="K82" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L82" s="19" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="M82" s="19" t="s">
         <v>24</v>
       </c>
       <c r="N82" s="19"/>
     </row>
-    <row r="83" spans="1:14" ht="78.75" customHeight="1">
+    <row r="83" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="19">
         <v>82</v>
       </c>
@@ -20120,22 +20312,22 @@
         <v>110</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="H83" s="19" t="s">
-        <v>1749</v>
+        <v>261</v>
       </c>
       <c r="I83" s="19" t="s">
         <v>42</v>
@@ -20154,7 +20346,7 @@
       </c>
       <c r="N83" s="19"/>
     </row>
-    <row r="84" spans="1:14" ht="78.75" customHeight="1">
+    <row r="84" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="19">
         <v>83</v>
       </c>
@@ -20165,19 +20357,19 @@
         <v>262</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H84" s="19" t="s">
-        <v>270</v>
+        <v>1749</v>
       </c>
       <c r="I84" s="19" t="s">
         <v>42</v>
@@ -20189,14 +20381,14 @@
         <v>1</v>
       </c>
       <c r="L84" s="19" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="M84" s="19" t="s">
         <v>24</v>
       </c>
       <c r="N84" s="19"/>
     </row>
-    <row r="85" spans="1:14" ht="78.75" customHeight="1">
+    <row r="85" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="19">
         <v>84</v>
       </c>
@@ -20204,22 +20396,22 @@
         <v>110</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H85" s="19" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="I85" s="19" t="s">
         <v>42</v>
@@ -20231,14 +20423,14 @@
         <v>1</v>
       </c>
       <c r="L85" s="19" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="M85" s="19" t="s">
         <v>24</v>
       </c>
       <c r="N85" s="19"/>
     </row>
-    <row r="86" spans="1:14" ht="78.75" customHeight="1">
+    <row r="86" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="19">
         <v>85</v>
       </c>
@@ -20249,19 +20441,19 @@
         <v>271</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F86" s="19" t="s">
         <v>273</v>
       </c>
       <c r="G86" s="19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H86" s="19" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I86" s="19" t="s">
         <v>42</v>
@@ -20280,7 +20472,7 @@
       </c>
       <c r="N86" s="19"/>
     </row>
-    <row r="87" spans="1:14" ht="78.75" customHeight="1">
+    <row r="87" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="19">
         <v>86</v>
       </c>
@@ -20291,19 +20483,19 @@
         <v>271</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F87" s="19" t="s">
         <v>273</v>
       </c>
       <c r="G87" s="19" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H87" s="19" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I87" s="19" t="s">
         <v>42</v>
@@ -20322,7 +20514,7 @@
       </c>
       <c r="N87" s="19"/>
     </row>
-    <row r="88" spans="1:14" ht="78.75" customHeight="1">
+    <row r="88" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="19">
         <v>87</v>
       </c>
@@ -20330,22 +20522,22 @@
         <v>110</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>79</v>
+        <v>273</v>
       </c>
       <c r="G88" s="19" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H88" s="19" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I88" s="19" t="s">
         <v>42</v>
@@ -20364,7 +20556,7 @@
       </c>
       <c r="N88" s="19"/>
     </row>
-    <row r="89" spans="1:14" ht="78.75" customHeight="1">
+    <row r="89" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="19">
         <v>88</v>
       </c>
@@ -20375,19 +20567,19 @@
         <v>282</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="G89" s="19" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H89" s="19" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I89" s="19" t="s">
         <v>42</v>
@@ -20406,7 +20598,7 @@
       </c>
       <c r="N89" s="19"/>
     </row>
-    <row r="90" spans="1:14" ht="78.75" customHeight="1">
+    <row r="90" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="19">
         <v>89</v>
       </c>
@@ -20417,28 +20609,28 @@
         <v>282</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E90" s="19" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="G90" s="19" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H90" s="19" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="I90" s="19" t="s">
-        <v>294</v>
+        <v>42</v>
       </c>
       <c r="J90" s="19" t="s">
         <v>30</v>
       </c>
       <c r="K90" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L90" s="19" t="s">
         <v>23</v>
@@ -20446,11 +20638,9 @@
       <c r="M90" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="N90" s="19" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" ht="78.75" customHeight="1">
+      <c r="N90" s="19"/>
+    </row>
+    <row r="91" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="19">
         <v>90</v>
       </c>
@@ -20458,31 +20648,31 @@
         <v>110</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F91" s="19" t="s">
         <v>79</v>
       </c>
       <c r="G91" s="19" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="H91" s="19" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="I91" s="19" t="s">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="J91" s="19" t="s">
         <v>30</v>
       </c>
       <c r="K91" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L91" s="19" t="s">
         <v>23</v>
@@ -20490,9 +20680,11 @@
       <c r="M91" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="N91" s="19"/>
-    </row>
-    <row r="92" spans="1:14" ht="90" customHeight="1">
+      <c r="N91" s="19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="19">
         <v>91</v>
       </c>
@@ -20503,7 +20695,7 @@
         <v>296</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E92" s="19" t="s">
         <v>298</v>
@@ -20512,10 +20704,10 @@
         <v>79</v>
       </c>
       <c r="G92" s="19" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H92" s="19" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I92" s="19" t="s">
         <v>42</v>
@@ -20534,49 +20726,49 @@
       </c>
       <c r="N92" s="19"/>
     </row>
-    <row r="93" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1">
+    <row r="93" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="19">
         <v>92</v>
       </c>
-      <c r="B93" s="18" t="s">
-        <v>36</v>
+      <c r="B93" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F93" s="19" t="s">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="G93" s="19" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H93" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="I93" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="I93" s="19" t="s">
         <v>42</v>
       </c>
       <c r="J93" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K93" s="18">
+      <c r="K93" s="19">
         <v>2</v>
       </c>
-      <c r="L93" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="M93" s="18" t="s">
+      <c r="L93" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M93" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="N93" s="18"/>
-    </row>
-    <row r="94" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1">
+      <c r="N93" s="19"/>
+    </row>
+    <row r="94" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="19">
         <v>93</v>
       </c>
@@ -20587,19 +20779,19 @@
         <v>304</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F94" s="19" t="s">
         <v>307</v>
       </c>
       <c r="G94" s="19" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H94" s="19" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I94" s="18" t="s">
         <v>42</v>
@@ -20618,7 +20810,7 @@
       </c>
       <c r="N94" s="18"/>
     </row>
-    <row r="95" spans="1:14" s="27" customFormat="1" ht="135.75" customHeight="1">
+    <row r="95" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="19">
         <v>94</v>
       </c>
@@ -20629,19 +20821,19 @@
         <v>304</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F95" s="19" t="s">
         <v>307</v>
       </c>
       <c r="G95" s="19" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H95" s="19" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I95" s="18" t="s">
         <v>42</v>
@@ -20650,7 +20842,7 @@
         <v>30</v>
       </c>
       <c r="K95" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L95" s="18" t="s">
         <v>43</v>
@@ -20660,7 +20852,7 @@
       </c>
       <c r="N95" s="18"/>
     </row>
-    <row r="96" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1">
+    <row r="96" spans="1:14" s="27" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="19">
         <v>95</v>
       </c>
@@ -20671,19 +20863,19 @@
         <v>304</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G96" s="19" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H96" s="19" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I96" s="18" t="s">
         <v>42</v>
@@ -20692,7 +20884,7 @@
         <v>30</v>
       </c>
       <c r="K96" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L96" s="18" t="s">
         <v>43</v>
@@ -20702,7 +20894,7 @@
       </c>
       <c r="N96" s="18"/>
     </row>
-    <row r="97" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1">
+    <row r="97" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="19">
         <v>96</v>
       </c>
@@ -20713,19 +20905,19 @@
         <v>304</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E97" s="19" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F97" s="19" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G97" s="19" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H97" s="19" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="I97" s="18" t="s">
         <v>42</v>
@@ -20744,7 +20936,7 @@
       </c>
       <c r="N97" s="18"/>
     </row>
-    <row r="98" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1">
+    <row r="98" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="19">
         <v>97</v>
       </c>
@@ -20755,19 +20947,19 @@
         <v>304</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E98" s="19" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F98" s="19" t="s">
         <v>325</v>
       </c>
       <c r="G98" s="19" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H98" s="19" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I98" s="18" t="s">
         <v>42</v>
@@ -20786,7 +20978,7 @@
       </c>
       <c r="N98" s="18"/>
     </row>
-    <row r="99" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1">
+    <row r="99" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="19">
         <v>98</v>
       </c>
@@ -20797,19 +20989,19 @@
         <v>304</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="G99" s="19" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H99" s="19" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="I99" s="18" t="s">
         <v>42</v>
@@ -20828,7 +21020,7 @@
       </c>
       <c r="N99" s="18"/>
     </row>
-    <row r="100" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1">
+    <row r="100" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="19">
         <v>99</v>
       </c>
@@ -20839,13 +21031,13 @@
         <v>304</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G100" s="19" t="s">
         <v>335</v>
@@ -20870,7 +21062,7 @@
       </c>
       <c r="N100" s="18"/>
     </row>
-    <row r="101" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1">
+    <row r="101" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="19">
         <v>100</v>
       </c>
@@ -20881,13 +21073,13 @@
         <v>304</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E101" s="19" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F101" s="19" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G101" s="19" t="s">
         <v>335</v>
@@ -20912,7 +21104,7 @@
       </c>
       <c r="N101" s="18"/>
     </row>
-    <row r="102" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1">
+    <row r="102" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="19">
         <v>101</v>
       </c>
@@ -20920,22 +21112,22 @@
         <v>36</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F102" s="19" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="G102" s="19" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="I102" s="18" t="s">
         <v>42</v>
@@ -20944,7 +21136,7 @@
         <v>30</v>
       </c>
       <c r="K102" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L102" s="18" t="s">
         <v>43</v>
@@ -20954,7 +21146,7 @@
       </c>
       <c r="N102" s="18"/>
     </row>
-    <row r="103" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1">
+    <row r="103" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="19">
         <v>102</v>
       </c>
@@ -20965,19 +21157,19 @@
         <v>343</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E103" s="19" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="G103" s="19" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="I103" s="18" t="s">
         <v>42</v>
@@ -20986,7 +21178,7 @@
         <v>30</v>
       </c>
       <c r="K103" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L103" s="18" t="s">
         <v>43</v>
@@ -20996,7 +21188,7 @@
       </c>
       <c r="N103" s="18"/>
     </row>
-    <row r="104" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1">
+    <row r="104" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="19">
         <v>103</v>
       </c>
@@ -21007,19 +21199,19 @@
         <v>343</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E104" s="19" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F104" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G104" s="19" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="I104" s="18" t="s">
         <v>42</v>
@@ -21038,30 +21230,30 @@
       </c>
       <c r="N104" s="18"/>
     </row>
-    <row r="105" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1">
+    <row r="105" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="19">
         <v>104</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>1334</v>
+        <v>36</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>1344</v>
+        <v>343</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>1349</v>
+        <v>353</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>1348</v>
+        <v>354</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>1347</v>
+        <v>355</v>
       </c>
       <c r="G105" s="19" t="s">
-        <v>1346</v>
+        <v>356</v>
       </c>
       <c r="H105" s="19" t="s">
-        <v>1345</v>
+        <v>357</v>
       </c>
       <c r="I105" s="18" t="s">
         <v>42</v>
@@ -21070,40 +21262,40 @@
         <v>30</v>
       </c>
       <c r="K105" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L105" s="18" t="s">
-        <v>1329</v>
+        <v>43</v>
       </c>
       <c r="M105" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N105" s="17"/>
-    </row>
-    <row r="106" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1">
+        <v>24</v>
+      </c>
+      <c r="N105" s="18"/>
+    </row>
+    <row r="106" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="19">
         <v>105</v>
       </c>
       <c r="B106" s="18" t="s">
         <v>1334</v>
       </c>
-      <c r="C106" s="34" t="s">
+      <c r="C106" s="19" t="s">
         <v>1344</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>1343</v>
+        <v>1349</v>
       </c>
       <c r="E106" s="19" t="s">
-        <v>1342</v>
-      </c>
-      <c r="F106" s="34" t="s">
-        <v>1341</v>
+        <v>1348</v>
+      </c>
+      <c r="F106" s="19" t="s">
+        <v>1347</v>
       </c>
       <c r="G106" s="19" t="s">
-        <v>1340</v>
+        <v>1346</v>
       </c>
       <c r="H106" s="19" t="s">
-        <v>1339</v>
+        <v>1345</v>
       </c>
       <c r="I106" s="18" t="s">
         <v>42</v>
@@ -21112,7 +21304,7 @@
         <v>30</v>
       </c>
       <c r="K106" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L106" s="18" t="s">
         <v>1329</v>
@@ -21122,26 +21314,30 @@
       </c>
       <c r="N106" s="17"/>
     </row>
-    <row r="107" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1">
+    <row r="107" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="19">
         <v>106</v>
       </c>
       <c r="B107" s="18" t="s">
         <v>1334</v>
       </c>
-      <c r="C107" s="35"/>
+      <c r="C107" s="34" t="s">
+        <v>1344</v>
+      </c>
       <c r="D107" s="19" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="E107" s="19" t="s">
-        <v>1337</v>
-      </c>
-      <c r="F107" s="35"/>
+        <v>1342</v>
+      </c>
+      <c r="F107" s="34" t="s">
+        <v>1341</v>
+      </c>
       <c r="G107" s="19" t="s">
-        <v>1336</v>
+        <v>1340</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>1335</v>
+        <v>1339</v>
       </c>
       <c r="I107" s="18" t="s">
         <v>42</v>
@@ -21160,7 +21356,7 @@
       </c>
       <c r="N107" s="17"/>
     </row>
-    <row r="108" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1">
+    <row r="108" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="19">
         <v>107</v>
       </c>
@@ -21169,17 +21365,17 @@
       </c>
       <c r="C108" s="35"/>
       <c r="D108" s="19" t="s">
-        <v>1333</v>
+        <v>1338</v>
       </c>
       <c r="E108" s="19" t="s">
-        <v>1332</v>
+        <v>1337</v>
       </c>
       <c r="F108" s="35"/>
       <c r="G108" s="19" t="s">
-        <v>1331</v>
+        <v>1336</v>
       </c>
       <c r="H108" s="19" t="s">
-        <v>1330</v>
+        <v>1335</v>
       </c>
       <c r="I108" s="18" t="s">
         <v>42</v>
@@ -21198,30 +21394,26 @@
       </c>
       <c r="N108" s="17"/>
     </row>
-    <row r="109" spans="1:14" s="28" customFormat="1" ht="55.5" customHeight="1">
+    <row r="109" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="19">
         <v>108</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C109" s="19" t="s">
-        <v>1491</v>
-      </c>
+        <v>1334</v>
+      </c>
+      <c r="C109" s="35"/>
       <c r="D109" s="19" t="s">
-        <v>1539</v>
+        <v>1333</v>
       </c>
       <c r="E109" s="19" t="s">
-        <v>1533</v>
-      </c>
-      <c r="F109" s="19" t="s">
-        <v>388</v>
-      </c>
+        <v>1332</v>
+      </c>
+      <c r="F109" s="35"/>
       <c r="G109" s="19" t="s">
-        <v>1532</v>
+        <v>1331</v>
       </c>
       <c r="H109" s="19" t="s">
-        <v>1531</v>
+        <v>1330</v>
       </c>
       <c r="I109" s="18" t="s">
         <v>42</v>
@@ -21233,14 +21425,14 @@
         <v>2</v>
       </c>
       <c r="L109" s="18" t="s">
-        <v>43</v>
+        <v>1329</v>
       </c>
       <c r="M109" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N109" s="17"/>
     </row>
-    <row r="110" spans="1:14" s="28" customFormat="1" ht="72.75" customHeight="1">
+    <row r="110" spans="1:14" s="28" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="19">
         <v>109</v>
       </c>
@@ -21251,19 +21443,19 @@
         <v>1491</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="E110" s="19" t="s">
-        <v>1530</v>
+        <v>1533</v>
       </c>
       <c r="F110" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G110" s="19" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="H110" s="19" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
       <c r="I110" s="18" t="s">
         <v>42</v>
@@ -21282,7 +21474,7 @@
       </c>
       <c r="N110" s="17"/>
     </row>
-    <row r="111" spans="1:14" s="28" customFormat="1" ht="82.5" customHeight="1">
+    <row r="111" spans="1:14" s="28" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="19">
         <v>110</v>
       </c>
@@ -21293,19 +21485,19 @@
         <v>1491</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="E111" s="19" t="s">
-        <v>1535</v>
+        <v>1530</v>
       </c>
       <c r="F111" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G111" s="19" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="H111" s="19" t="s">
-        <v>1534</v>
+        <v>1537</v>
       </c>
       <c r="I111" s="18" t="s">
         <v>42</v>
@@ -21324,7 +21516,7 @@
       </c>
       <c r="N111" s="17"/>
     </row>
-    <row r="112" spans="1:14" s="28" customFormat="1" ht="63" customHeight="1">
+    <row r="112" spans="1:14" s="28" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="19">
         <v>111</v>
       </c>
@@ -21335,19 +21527,19 @@
         <v>1491</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>1527</v>
+        <v>1536</v>
       </c>
       <c r="E112" s="19" t="s">
-        <v>1526</v>
+        <v>1535</v>
       </c>
       <c r="F112" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G112" s="19" t="s">
-        <v>1758</v>
+        <v>1528</v>
       </c>
       <c r="H112" s="19" t="s">
-        <v>1759</v>
+        <v>1534</v>
       </c>
       <c r="I112" s="18" t="s">
         <v>42</v>
@@ -21356,7 +21548,7 @@
         <v>30</v>
       </c>
       <c r="K112" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L112" s="18" t="s">
         <v>43</v>
@@ -21366,7 +21558,7 @@
       </c>
       <c r="N112" s="17"/>
     </row>
-    <row r="113" spans="1:14" s="28" customFormat="1" ht="75.75" customHeight="1">
+    <row r="113" spans="1:14" s="28" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="19">
         <v>112</v>
       </c>
@@ -21377,19 +21569,19 @@
         <v>1491</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="E113" s="19" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="F113" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G113" s="19" t="s">
-        <v>1523</v>
+        <v>1758</v>
       </c>
       <c r="H113" s="19" t="s">
-        <v>1522</v>
+        <v>1759</v>
       </c>
       <c r="I113" s="18" t="s">
         <v>42</v>
@@ -21398,7 +21590,7 @@
         <v>30</v>
       </c>
       <c r="K113" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L113" s="18" t="s">
         <v>43</v>
@@ -21408,7 +21600,7 @@
       </c>
       <c r="N113" s="17"/>
     </row>
-    <row r="114" spans="1:14" s="28" customFormat="1" ht="76.5" customHeight="1">
+    <row r="114" spans="1:14" s="28" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="19">
         <v>113</v>
       </c>
@@ -21419,19 +21611,19 @@
         <v>1491</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>1521</v>
+        <v>1525</v>
       </c>
       <c r="E114" s="19" t="s">
-        <v>1520</v>
+        <v>1524</v>
       </c>
       <c r="F114" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G114" s="19" t="s">
-        <v>1519</v>
+        <v>1523</v>
       </c>
       <c r="H114" s="19" t="s">
-        <v>1518</v>
+        <v>1522</v>
       </c>
       <c r="I114" s="18" t="s">
         <v>42</v>
@@ -21440,7 +21632,7 @@
         <v>30</v>
       </c>
       <c r="K114" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L114" s="18" t="s">
         <v>43</v>
@@ -21450,7 +21642,7 @@
       </c>
       <c r="N114" s="17"/>
     </row>
-    <row r="115" spans="1:14" s="28" customFormat="1" ht="74.25" customHeight="1">
+    <row r="115" spans="1:14" s="28" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="19">
         <v>114</v>
       </c>
@@ -21461,19 +21653,19 @@
         <v>1491</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>1517</v>
+        <v>1521</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>1516</v>
+        <v>1520</v>
       </c>
       <c r="F115" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G115" s="19" t="s">
-        <v>1515</v>
+        <v>1519</v>
       </c>
       <c r="H115" s="19" t="s">
-        <v>1514</v>
+        <v>1518</v>
       </c>
       <c r="I115" s="18" t="s">
         <v>42</v>
@@ -21492,7 +21684,7 @@
       </c>
       <c r="N115" s="17"/>
     </row>
-    <row r="116" spans="1:14" s="28" customFormat="1" ht="76.5" customHeight="1">
+    <row r="116" spans="1:14" s="28" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="19">
         <v>115</v>
       </c>
@@ -21503,19 +21695,19 @@
         <v>1491</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>1513</v>
+        <v>1517</v>
       </c>
       <c r="E116" s="19" t="s">
-        <v>1508</v>
+        <v>1516</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>1512</v>
+        <v>388</v>
       </c>
       <c r="G116" s="19" t="s">
-        <v>1511</v>
+        <v>1515</v>
       </c>
       <c r="H116" s="19" t="s">
-        <v>1510</v>
+        <v>1514</v>
       </c>
       <c r="I116" s="18" t="s">
         <v>42</v>
@@ -21534,7 +21726,7 @@
       </c>
       <c r="N116" s="17"/>
     </row>
-    <row r="117" spans="1:14" s="28" customFormat="1" ht="80.25" customHeight="1">
+    <row r="117" spans="1:14" s="28" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="19">
         <v>116</v>
       </c>
@@ -21545,19 +21737,19 @@
         <v>1491</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>1509</v>
+        <v>1513</v>
       </c>
       <c r="E117" s="19" t="s">
         <v>1508</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>1507</v>
+        <v>1512</v>
       </c>
       <c r="G117" s="19" t="s">
-        <v>1506</v>
+        <v>1511</v>
       </c>
       <c r="H117" s="19" t="s">
-        <v>1505</v>
+        <v>1510</v>
       </c>
       <c r="I117" s="18" t="s">
         <v>42</v>
@@ -21576,7 +21768,7 @@
       </c>
       <c r="N117" s="17"/>
     </row>
-    <row r="118" spans="1:14" s="28" customFormat="1" ht="48" customHeight="1">
+    <row r="118" spans="1:14" s="28" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="19">
         <v>117</v>
       </c>
@@ -21587,19 +21779,19 @@
         <v>1491</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>1504</v>
+        <v>1509</v>
       </c>
       <c r="E118" s="19" t="s">
-        <v>1503</v>
+        <v>1508</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>1502</v>
+        <v>1507</v>
       </c>
       <c r="G118" s="19" t="s">
-        <v>1501</v>
+        <v>1506</v>
       </c>
       <c r="H118" s="19" t="s">
-        <v>1500</v>
+        <v>1505</v>
       </c>
       <c r="I118" s="18" t="s">
         <v>42</v>
@@ -21618,7 +21810,7 @@
       </c>
       <c r="N118" s="17"/>
     </row>
-    <row r="119" spans="1:14" s="28" customFormat="1" ht="66" customHeight="1">
+    <row r="119" spans="1:14" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="19">
         <v>118</v>
       </c>
@@ -21629,19 +21821,19 @@
         <v>1491</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>1499</v>
+        <v>1504</v>
       </c>
       <c r="E119" s="19" t="s">
-        <v>1498</v>
+        <v>1503</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>388</v>
+        <v>1502</v>
       </c>
       <c r="G119" s="19" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="H119" s="19" t="s">
-        <v>1496</v>
+        <v>1500</v>
       </c>
       <c r="I119" s="18" t="s">
         <v>42</v>
@@ -21660,7 +21852,7 @@
       </c>
       <c r="N119" s="17"/>
     </row>
-    <row r="120" spans="1:14" s="28" customFormat="1" ht="44.25" customHeight="1">
+    <row r="120" spans="1:14" s="28" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="19">
         <v>119</v>
       </c>
@@ -21671,19 +21863,19 @@
         <v>1491</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>1495</v>
+        <v>1499</v>
       </c>
       <c r="E120" s="19" t="s">
-        <v>1494</v>
+        <v>1498</v>
       </c>
       <c r="F120" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G120" s="19" t="s">
-        <v>1493</v>
+        <v>1497</v>
       </c>
       <c r="H120" s="19" t="s">
-        <v>1492</v>
+        <v>1496</v>
       </c>
       <c r="I120" s="18" t="s">
         <v>42</v>
@@ -21702,7 +21894,7 @@
       </c>
       <c r="N120" s="17"/>
     </row>
-    <row r="121" spans="1:14" s="28" customFormat="1" ht="78" customHeight="1">
+    <row r="121" spans="1:14" s="28" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="19">
         <v>120</v>
       </c>
@@ -21713,19 +21905,19 @@
         <v>1491</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>1490</v>
+        <v>1495</v>
       </c>
       <c r="E121" s="19" t="s">
-        <v>1489</v>
+        <v>1494</v>
       </c>
       <c r="F121" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G121" s="19" t="s">
-        <v>1488</v>
+        <v>1493</v>
       </c>
       <c r="H121" s="19" t="s">
-        <v>1487</v>
+        <v>1492</v>
       </c>
       <c r="I121" s="18" t="s">
         <v>42</v>
@@ -21743,26 +21935,68 @@
         <v>44</v>
       </c>
       <c r="N121" s="17"/>
+    </row>
+    <row r="122" spans="1:14" s="28" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="19">
+        <v>121</v>
+      </c>
+      <c r="B122" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D122" s="19" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E122" s="19" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F122" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="G122" s="19" t="s">
+        <v>1488</v>
+      </c>
+      <c r="H122" s="19" t="s">
+        <v>1487</v>
+      </c>
+      <c r="I122" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J122" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K122" s="18">
+        <v>2</v>
+      </c>
+      <c r="L122" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M122" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N122" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="C18:C23"/>
-    <mergeCell ref="F106:F108"/>
-    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="F107:F109"/>
+    <mergeCell ref="C107:C109"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I121">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I122">
       <formula1>"功能,异常,性能,安全"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K121">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K122">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M121">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M122">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J121">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J122">
       <formula1>"None,Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
@@ -21774,33 +22008,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:N131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A131"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="28"/>
-    <col min="2" max="2" width="17.875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="39.125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="28"/>
+    <col min="2" max="2" width="17.83203125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="39.1640625" style="28" customWidth="1"/>
     <col min="6" max="6" width="48.5" style="28" customWidth="1"/>
-    <col min="7" max="7" width="65.625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="56.625" style="28" customWidth="1"/>
-    <col min="9" max="9" width="10.625" style="28" customWidth="1"/>
-    <col min="10" max="12" width="8.875" style="28"/>
+    <col min="7" max="7" width="65.6640625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="56.6640625" style="28" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="28" customWidth="1"/>
+    <col min="10" max="12" width="8.83203125" style="28"/>
     <col min="13" max="13" width="14" style="28" customWidth="1"/>
-    <col min="14" max="14" width="13.625" style="28" customWidth="1"/>
-    <col min="15" max="16384" width="8.875" style="28"/>
+    <col min="14" max="14" width="13.6640625" style="28" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -21844,7 +22078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="87" customHeight="1">
+    <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -21886,7 +22120,7 @@
       </c>
       <c r="N2" s="17"/>
     </row>
-    <row r="3" spans="1:14" ht="94.5" customHeight="1">
+    <row r="3" spans="1:14" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -21928,7 +22162,7 @@
       </c>
       <c r="N3" s="17"/>
     </row>
-    <row r="4" spans="1:14" ht="97.5" customHeight="1">
+    <row r="4" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -21970,7 +22204,7 @@
       </c>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="1:14" ht="97.5" customHeight="1">
+    <row r="5" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -22012,7 +22246,7 @@
       </c>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:14" ht="97.5" customHeight="1">
+    <row r="6" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -22054,7 +22288,7 @@
       </c>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="1:14" ht="97.5" customHeight="1">
+    <row r="7" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -22096,7 +22330,7 @@
       </c>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:14" ht="97.5" customHeight="1">
+    <row r="8" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -22138,7 +22372,7 @@
       </c>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:14" ht="97.5" customHeight="1">
+    <row r="9" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -22180,7 +22414,7 @@
       </c>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:14" ht="97.5" customHeight="1">
+    <row r="10" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -22222,7 +22456,7 @@
       </c>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="1:14" ht="117.75" customHeight="1">
+    <row r="11" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -22264,7 +22498,7 @@
       </c>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:14" ht="117.75" customHeight="1">
+    <row r="12" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -22306,7 +22540,7 @@
       </c>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="1:14" ht="117.75" customHeight="1">
+    <row r="13" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -22348,7 +22582,7 @@
       </c>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="1:14" ht="117.75" customHeight="1">
+    <row r="14" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -22390,7 +22624,7 @@
       </c>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="1:14" ht="117.75" customHeight="1">
+    <row r="15" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -22432,7 +22666,7 @@
       </c>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="1:14" ht="117.75" customHeight="1">
+    <row r="16" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -22474,7 +22708,7 @@
       </c>
       <c r="N16" s="17"/>
     </row>
-    <row r="17" spans="1:14" ht="87.75" customHeight="1">
+    <row r="17" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -22516,7 +22750,7 @@
       </c>
       <c r="N17" s="17"/>
     </row>
-    <row r="18" spans="1:14" ht="83.25" customHeight="1">
+    <row r="18" spans="1:14" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -22558,7 +22792,7 @@
       </c>
       <c r="N18" s="17"/>
     </row>
-    <row r="19" spans="1:14" ht="90" customHeight="1">
+    <row r="19" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -22600,7 +22834,7 @@
       </c>
       <c r="N19" s="17"/>
     </row>
-    <row r="20" spans="1:14" ht="93.75" customHeight="1">
+    <row r="20" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <v>19</v>
       </c>
@@ -22642,7 +22876,7 @@
       </c>
       <c r="N20" s="17"/>
     </row>
-    <row r="21" spans="1:14" ht="93.75" customHeight="1">
+    <row r="21" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <v>20</v>
       </c>
@@ -22684,7 +22918,7 @@
       </c>
       <c r="N21" s="18"/>
     </row>
-    <row r="22" spans="1:14" ht="91.5" customHeight="1">
+    <row r="22" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <v>21</v>
       </c>
@@ -22726,7 +22960,7 @@
       </c>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="1:14" ht="93" customHeight="1">
+    <row r="23" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <v>22</v>
       </c>
@@ -22768,7 +23002,7 @@
       </c>
       <c r="N23" s="17"/>
     </row>
-    <row r="24" spans="1:14" ht="138.75" customHeight="1">
+    <row r="24" spans="1:14" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <v>23</v>
       </c>
@@ -22810,7 +23044,7 @@
       </c>
       <c r="N24" s="18"/>
     </row>
-    <row r="25" spans="1:14" ht="171.75" customHeight="1">
+    <row r="25" spans="1:14" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <v>24</v>
       </c>
@@ -22852,7 +23086,7 @@
       </c>
       <c r="N25" s="18"/>
     </row>
-    <row r="26" spans="1:14" ht="114">
+    <row r="26" spans="1:14" ht="120" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
         <v>25</v>
       </c>
@@ -22894,7 +23128,7 @@
       </c>
       <c r="N26" s="18"/>
     </row>
-    <row r="27" spans="1:14" ht="128.25" customHeight="1">
+    <row r="27" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18">
         <v>26</v>
       </c>
@@ -22936,7 +23170,7 @@
       </c>
       <c r="N27" s="18"/>
     </row>
-    <row r="28" spans="1:14" ht="78.75" customHeight="1">
+    <row r="28" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18">
         <v>27</v>
       </c>
@@ -22978,7 +23212,7 @@
       </c>
       <c r="N28" s="18"/>
     </row>
-    <row r="29" spans="1:14" ht="78.75" customHeight="1">
+    <row r="29" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18">
         <v>28</v>
       </c>
@@ -23020,7 +23254,7 @@
       </c>
       <c r="N29" s="18"/>
     </row>
-    <row r="30" spans="1:14" ht="78.75" customHeight="1">
+    <row r="30" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
         <v>29</v>
       </c>
@@ -23058,7 +23292,7 @@
       </c>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="1:14" ht="78.75" customHeight="1">
+    <row r="31" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18">
         <v>30</v>
       </c>
@@ -23096,7 +23330,7 @@
       </c>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="1:14" ht="78.75" customHeight="1">
+    <row r="32" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18">
         <v>31</v>
       </c>
@@ -23134,7 +23368,7 @@
       </c>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="1:14" ht="78.75" customHeight="1">
+    <row r="33" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="18">
         <v>32</v>
       </c>
@@ -23172,7 +23406,7 @@
       </c>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="1:14" ht="78.75" customHeight="1">
+    <row r="34" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18">
         <v>33</v>
       </c>
@@ -23206,7 +23440,7 @@
       </c>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="1:14" ht="78.75" customHeight="1">
+    <row r="35" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18">
         <v>34</v>
       </c>
@@ -23246,7 +23480,7 @@
       </c>
       <c r="N35" s="18"/>
     </row>
-    <row r="36" spans="1:14" ht="78.75" customHeight="1">
+    <row r="36" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18">
         <v>35</v>
       </c>
@@ -23286,7 +23520,7 @@
       </c>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="1:14" ht="70.5" customHeight="1">
+    <row r="37" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="18">
         <v>36</v>
       </c>
@@ -23328,7 +23562,7 @@
       </c>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="1:14" ht="70.5" customHeight="1">
+    <row r="38" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18">
         <v>37</v>
       </c>
@@ -23370,7 +23604,7 @@
       </c>
       <c r="N38" s="18"/>
     </row>
-    <row r="39" spans="1:14" ht="70.5" customHeight="1">
+    <row r="39" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="18">
         <v>38</v>
       </c>
@@ -23412,7 +23646,7 @@
       </c>
       <c r="N39" s="18"/>
     </row>
-    <row r="40" spans="1:14" ht="120" customHeight="1">
+    <row r="40" spans="1:14" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18">
         <v>39</v>
       </c>
@@ -23454,7 +23688,7 @@
       </c>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="1:14" ht="120" customHeight="1">
+    <row r="41" spans="1:14" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18">
         <v>40</v>
       </c>
@@ -23496,7 +23730,7 @@
       </c>
       <c r="N41" s="17"/>
     </row>
-    <row r="42" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
+    <row r="42" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="18">
         <v>41</v>
       </c>
@@ -23540,7 +23774,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="43" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
+    <row r="43" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="18">
         <v>42</v>
       </c>
@@ -23584,7 +23818,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="100.5" customHeight="1">
+    <row r="44" spans="1:14" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
         <v>43</v>
       </c>
@@ -23626,7 +23860,7 @@
       </c>
       <c r="N44" s="18"/>
     </row>
-    <row r="45" spans="1:14" ht="82.5" customHeight="1">
+    <row r="45" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="18">
         <v>44</v>
       </c>
@@ -23668,7 +23902,7 @@
       </c>
       <c r="N45" s="18"/>
     </row>
-    <row r="46" spans="1:14" ht="85.5">
+    <row r="46" spans="1:14" ht="75" x14ac:dyDescent="0.2">
       <c r="A46" s="18">
         <v>45</v>
       </c>
@@ -23710,7 +23944,7 @@
       </c>
       <c r="N46" s="18"/>
     </row>
-    <row r="47" spans="1:14" ht="144.75" customHeight="1">
+    <row r="47" spans="1:14" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18">
         <v>46</v>
       </c>
@@ -23752,7 +23986,7 @@
       </c>
       <c r="N47" s="18"/>
     </row>
-    <row r="48" spans="1:14" ht="140.25" customHeight="1">
+    <row r="48" spans="1:14" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18">
         <v>47</v>
       </c>
@@ -23794,7 +24028,7 @@
       </c>
       <c r="N48" s="18"/>
     </row>
-    <row r="49" spans="1:14" ht="124.5" customHeight="1">
+    <row r="49" spans="1:14" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18">
         <v>48</v>
       </c>
@@ -23836,7 +24070,7 @@
       </c>
       <c r="N49" s="18"/>
     </row>
-    <row r="50" spans="1:14" ht="77.25" customHeight="1">
+    <row r="50" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="18">
         <v>49</v>
       </c>
@@ -23874,7 +24108,7 @@
       </c>
       <c r="N50" s="18"/>
     </row>
-    <row r="51" spans="1:14" ht="77.25" customHeight="1">
+    <row r="51" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="18">
         <v>50</v>
       </c>
@@ -23912,7 +24146,7 @@
       </c>
       <c r="N51" s="18"/>
     </row>
-    <row r="52" spans="1:14" ht="77.25" customHeight="1">
+    <row r="52" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="18">
         <v>51</v>
       </c>
@@ -23954,7 +24188,7 @@
       </c>
       <c r="N52" s="18"/>
     </row>
-    <row r="53" spans="1:14" ht="104.25" customHeight="1">
+    <row r="53" spans="1:14" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="18">
         <v>52</v>
       </c>
@@ -23996,7 +24230,7 @@
       </c>
       <c r="N53" s="18"/>
     </row>
-    <row r="54" spans="1:14" ht="106.5" customHeight="1">
+    <row r="54" spans="1:14" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="18">
         <v>53</v>
       </c>
@@ -24038,7 +24272,7 @@
       </c>
       <c r="N54" s="18"/>
     </row>
-    <row r="55" spans="1:14" ht="57">
+    <row r="55" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="A55" s="18">
         <v>54</v>
       </c>
@@ -24080,7 +24314,7 @@
       </c>
       <c r="N55" s="18"/>
     </row>
-    <row r="56" spans="1:14" ht="82.5" customHeight="1">
+    <row r="56" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="18">
         <v>55</v>
       </c>
@@ -24122,7 +24356,7 @@
       </c>
       <c r="N56" s="18"/>
     </row>
-    <row r="57" spans="1:14" ht="82.5" customHeight="1">
+    <row r="57" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="18">
         <v>56</v>
       </c>
@@ -24164,7 +24398,7 @@
       </c>
       <c r="N57" s="18"/>
     </row>
-    <row r="58" spans="1:14" ht="82.5" customHeight="1">
+    <row r="58" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="18">
         <v>57</v>
       </c>
@@ -24206,7 +24440,7 @@
       </c>
       <c r="N58" s="18"/>
     </row>
-    <row r="59" spans="1:14" ht="97.5" customHeight="1">
+    <row r="59" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="18">
         <v>58</v>
       </c>
@@ -24248,7 +24482,7 @@
       </c>
       <c r="N59" s="18"/>
     </row>
-    <row r="60" spans="1:14" ht="86.25" customHeight="1">
+    <row r="60" spans="1:14" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="18">
         <v>59</v>
       </c>
@@ -24290,7 +24524,7 @@
       </c>
       <c r="N60" s="18"/>
     </row>
-    <row r="61" spans="1:14" ht="93.75" customHeight="1">
+    <row r="61" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="18">
         <v>60</v>
       </c>
@@ -24332,7 +24566,7 @@
       </c>
       <c r="N61" s="18"/>
     </row>
-    <row r="62" spans="1:14" ht="82.5" customHeight="1">
+    <row r="62" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="18">
         <v>61</v>
       </c>
@@ -24374,7 +24608,7 @@
       </c>
       <c r="N62" s="17"/>
     </row>
-    <row r="63" spans="1:14" ht="90" customHeight="1">
+    <row r="63" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="18">
         <v>62</v>
       </c>
@@ -24416,7 +24650,7 @@
       </c>
       <c r="N63" s="17"/>
     </row>
-    <row r="64" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
+    <row r="64" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="18">
         <v>63</v>
       </c>
@@ -24460,7 +24694,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="65" spans="1:14" customFormat="1" ht="104.25" customHeight="1">
+    <row r="65" spans="1:14" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="18">
         <v>64</v>
       </c>
@@ -24504,7 +24738,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="66" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
+    <row r="66" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="18">
         <v>65</v>
       </c>
@@ -24548,7 +24782,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="67" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
+    <row r="67" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="18">
         <v>66</v>
       </c>
@@ -24592,7 +24826,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="68" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
+    <row r="68" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="18">
         <v>67</v>
       </c>
@@ -24636,7 +24870,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="69" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
+    <row r="69" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="18">
         <v>68</v>
       </c>
@@ -24680,7 +24914,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="70" spans="1:14" customFormat="1" ht="137.25" customHeight="1">
+    <row r="70" spans="1:14" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="18">
         <v>69</v>
       </c>
@@ -24724,7 +24958,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="71" spans="1:14" customFormat="1" ht="137.25" customHeight="1">
+    <row r="71" spans="1:14" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="18">
         <v>70</v>
       </c>
@@ -24768,7 +25002,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="72" spans="1:14" customFormat="1" ht="137.25" customHeight="1">
+    <row r="72" spans="1:14" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="18">
         <v>71</v>
       </c>
@@ -24812,7 +25046,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="73" spans="1:14" customFormat="1" ht="137.25" customHeight="1">
+    <row r="73" spans="1:14" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="18">
         <v>72</v>
       </c>
@@ -24856,7 +25090,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="98.25" customHeight="1">
+    <row r="74" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="18">
         <v>73</v>
       </c>
@@ -24898,7 +25132,7 @@
       </c>
       <c r="N74" s="18"/>
     </row>
-    <row r="75" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
+    <row r="75" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="18">
         <v>74</v>
       </c>
@@ -24942,7 +25176,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="104.25" customHeight="1">
+    <row r="76" spans="1:14" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="18">
         <v>75</v>
       </c>
@@ -24984,7 +25218,7 @@
       </c>
       <c r="N76" s="18"/>
     </row>
-    <row r="77" spans="1:14" ht="78.75" customHeight="1">
+    <row r="77" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="18">
         <v>76</v>
       </c>
@@ -25026,7 +25260,7 @@
       </c>
       <c r="N77" s="18"/>
     </row>
-    <row r="78" spans="1:14" ht="78.75" customHeight="1">
+    <row r="78" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="18">
         <v>77</v>
       </c>
@@ -25068,7 +25302,7 @@
       </c>
       <c r="N78" s="18"/>
     </row>
-    <row r="79" spans="1:14" ht="78.75" customHeight="1">
+    <row r="79" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="18">
         <v>78</v>
       </c>
@@ -25110,7 +25344,7 @@
       </c>
       <c r="N79" s="18"/>
     </row>
-    <row r="80" spans="1:14" ht="78.75" customHeight="1">
+    <row r="80" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="18">
         <v>79</v>
       </c>
@@ -25152,7 +25386,7 @@
       </c>
       <c r="N80" s="18"/>
     </row>
-    <row r="81" spans="1:14" ht="78.75" customHeight="1">
+    <row r="81" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="18">
         <v>80</v>
       </c>
@@ -25194,7 +25428,7 @@
       </c>
       <c r="N81" s="18"/>
     </row>
-    <row r="82" spans="1:14" ht="78.75" customHeight="1">
+    <row r="82" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="18">
         <v>81</v>
       </c>
@@ -25236,7 +25470,7 @@
       </c>
       <c r="N82" s="18"/>
     </row>
-    <row r="83" spans="1:14" ht="95.25" customHeight="1">
+    <row r="83" spans="1:14" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="18">
         <v>82</v>
       </c>
@@ -25278,7 +25512,7 @@
       </c>
       <c r="N83" s="18"/>
     </row>
-    <row r="84" spans="1:14" ht="93" customHeight="1">
+    <row r="84" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="18">
         <v>83</v>
       </c>
@@ -25320,7 +25554,7 @@
       </c>
       <c r="N84" s="18"/>
     </row>
-    <row r="85" spans="1:14" ht="90" customHeight="1">
+    <row r="85" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="18">
         <v>84</v>
       </c>
@@ -25362,7 +25596,7 @@
       </c>
       <c r="N85" s="18"/>
     </row>
-    <row r="86" spans="1:14" ht="90" customHeight="1">
+    <row r="86" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="18">
         <v>85</v>
       </c>
@@ -25404,7 +25638,7 @@
       </c>
       <c r="N86" s="18"/>
     </row>
-    <row r="87" spans="1:14" ht="90" customHeight="1">
+    <row r="87" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="18">
         <v>86</v>
       </c>
@@ -25446,7 +25680,7 @@
       </c>
       <c r="N87" s="18"/>
     </row>
-    <row r="88" spans="1:14" ht="183.75" customHeight="1">
+    <row r="88" spans="1:14" ht="183.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="18">
         <v>87</v>
       </c>
@@ -25488,7 +25722,7 @@
       </c>
       <c r="N88" s="18"/>
     </row>
-    <row r="89" spans="1:14" ht="194.25" customHeight="1">
+    <row r="89" spans="1:14" ht="194.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="18">
         <v>88</v>
       </c>
@@ -25530,7 +25764,7 @@
       </c>
       <c r="N89" s="18"/>
     </row>
-    <row r="90" spans="1:14" ht="63.75" customHeight="1">
+    <row r="90" spans="1:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="18">
         <v>89</v>
       </c>
@@ -25572,7 +25806,7 @@
       </c>
       <c r="N90" s="18"/>
     </row>
-    <row r="91" spans="1:14" ht="71.25">
+    <row r="91" spans="1:14" ht="75" x14ac:dyDescent="0.2">
       <c r="A91" s="18">
         <v>90</v>
       </c>
@@ -25614,7 +25848,7 @@
       </c>
       <c r="N91" s="18"/>
     </row>
-    <row r="92" spans="1:14" ht="87" customHeight="1">
+    <row r="92" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="18">
         <v>91</v>
       </c>
@@ -25656,7 +25890,7 @@
       </c>
       <c r="N92" s="17"/>
     </row>
-    <row r="93" spans="1:14" customFormat="1" ht="118.5" customHeight="1">
+    <row r="93" spans="1:14" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="18">
         <v>92</v>
       </c>
@@ -25700,7 +25934,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="80.25" customHeight="1">
+    <row r="94" spans="1:14" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="18">
         <v>93</v>
       </c>
@@ -25742,7 +25976,7 @@
       </c>
       <c r="N94" s="18"/>
     </row>
-    <row r="95" spans="1:14" ht="161.25" customHeight="1">
+    <row r="95" spans="1:14" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="18">
         <v>94</v>
       </c>
@@ -25784,7 +26018,7 @@
       </c>
       <c r="N95" s="19"/>
     </row>
-    <row r="96" spans="1:14" ht="192.75" customHeight="1">
+    <row r="96" spans="1:14" ht="192.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="18">
         <v>95</v>
       </c>
@@ -25826,7 +26060,7 @@
       </c>
       <c r="N96" s="18"/>
     </row>
-    <row r="97" spans="1:14" ht="57.75" customHeight="1">
+    <row r="97" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="18">
         <v>96</v>
       </c>
@@ -25868,7 +26102,7 @@
       </c>
       <c r="N97" s="18"/>
     </row>
-    <row r="98" spans="1:14" ht="57">
+    <row r="98" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="A98" s="18">
         <v>97</v>
       </c>
@@ -25910,7 +26144,7 @@
       </c>
       <c r="N98" s="18"/>
     </row>
-    <row r="99" spans="1:14" ht="54.75" customHeight="1">
+    <row r="99" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="18">
         <v>98</v>
       </c>
@@ -25952,7 +26186,7 @@
       </c>
       <c r="N99" s="18"/>
     </row>
-    <row r="100" spans="1:14" ht="42.75">
+    <row r="100" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A100" s="18">
         <v>99</v>
       </c>
@@ -25994,7 +26228,7 @@
       </c>
       <c r="N100" s="17"/>
     </row>
-    <row r="101" spans="1:14" ht="54.75" customHeight="1">
+    <row r="101" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="18">
         <v>100</v>
       </c>
@@ -26036,7 +26270,7 @@
       </c>
       <c r="N101" s="17"/>
     </row>
-    <row r="102" spans="1:14" ht="54.75" customHeight="1">
+    <row r="102" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="18">
         <v>101</v>
       </c>
@@ -26076,7 +26310,7 @@
       </c>
       <c r="N102" s="17"/>
     </row>
-    <row r="103" spans="1:14" ht="54.75" customHeight="1">
+    <row r="103" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="18">
         <v>102</v>
       </c>
@@ -26116,7 +26350,7 @@
       </c>
       <c r="N103" s="17"/>
     </row>
-    <row r="104" spans="1:14" ht="54.75" customHeight="1">
+    <row r="104" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="18">
         <v>103</v>
       </c>
@@ -26156,7 +26390,7 @@
       </c>
       <c r="N104" s="17"/>
     </row>
-    <row r="105" spans="1:14" ht="54.75" customHeight="1">
+    <row r="105" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="18">
         <v>104</v>
       </c>
@@ -26196,7 +26430,7 @@
       </c>
       <c r="N105" s="17"/>
     </row>
-    <row r="106" spans="1:14" ht="54.75" customHeight="1">
+    <row r="106" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="18">
         <v>105</v>
       </c>
@@ -26238,7 +26472,7 @@
       </c>
       <c r="N106" s="17"/>
     </row>
-    <row r="107" spans="1:14" ht="54.75" customHeight="1">
+    <row r="107" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="18">
         <v>106</v>
       </c>
@@ -26278,7 +26512,7 @@
       </c>
       <c r="N107" s="17"/>
     </row>
-    <row r="108" spans="1:14" ht="54.75" customHeight="1">
+    <row r="108" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="18">
         <v>107</v>
       </c>
@@ -26318,7 +26552,7 @@
       </c>
       <c r="N108" s="17"/>
     </row>
-    <row r="109" spans="1:14" ht="54.75" customHeight="1">
+    <row r="109" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="18">
         <v>108</v>
       </c>
@@ -26358,7 +26592,7 @@
       </c>
       <c r="N109" s="17"/>
     </row>
-    <row r="110" spans="1:14" ht="54.75" customHeight="1">
+    <row r="110" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="18">
         <v>109</v>
       </c>
@@ -26398,7 +26632,7 @@
       </c>
       <c r="N110" s="17"/>
     </row>
-    <row r="111" spans="1:14" ht="54.75" customHeight="1">
+    <row r="111" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="18">
         <v>110</v>
       </c>
@@ -26438,7 +26672,7 @@
       </c>
       <c r="N111" s="17"/>
     </row>
-    <row r="112" spans="1:14" ht="54.75" customHeight="1">
+    <row r="112" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="18">
         <v>111</v>
       </c>
@@ -26480,7 +26714,7 @@
       </c>
       <c r="N112" s="17"/>
     </row>
-    <row r="113" spans="1:14" ht="54.75" customHeight="1">
+    <row r="113" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="18">
         <v>112</v>
       </c>
@@ -26522,7 +26756,7 @@
       </c>
       <c r="N113" s="17"/>
     </row>
-    <row r="114" spans="1:14" ht="79.5" customHeight="1">
+    <row r="114" spans="1:14" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="18">
         <v>113</v>
       </c>
@@ -26564,7 +26798,7 @@
       </c>
       <c r="N114" s="18"/>
     </row>
-    <row r="115" spans="1:14" ht="77.25" customHeight="1">
+    <row r="115" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="18">
         <v>114</v>
       </c>
@@ -26606,7 +26840,7 @@
       </c>
       <c r="N115" s="18"/>
     </row>
-    <row r="116" spans="1:14" ht="77.25" customHeight="1">
+    <row r="116" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="18">
         <v>115</v>
       </c>
@@ -26648,7 +26882,7 @@
       </c>
       <c r="N116" s="18"/>
     </row>
-    <row r="117" spans="1:14" ht="179.25" customHeight="1">
+    <row r="117" spans="1:14" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="18">
         <v>116</v>
       </c>
@@ -26690,7 +26924,7 @@
       </c>
       <c r="N117" s="18"/>
     </row>
-    <row r="118" spans="1:14" ht="77.25" customHeight="1">
+    <row r="118" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="18">
         <v>117</v>
       </c>
@@ -26732,7 +26966,7 @@
       </c>
       <c r="N118" s="18"/>
     </row>
-    <row r="119" spans="1:14" ht="179.25" customHeight="1">
+    <row r="119" spans="1:14" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="18">
         <v>118</v>
       </c>
@@ -26774,7 +27008,7 @@
       </c>
       <c r="N119" s="18"/>
     </row>
-    <row r="120" spans="1:14" ht="77.25" customHeight="1">
+    <row r="120" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="18">
         <v>119</v>
       </c>
@@ -26816,7 +27050,7 @@
       </c>
       <c r="N120" s="18"/>
     </row>
-    <row r="121" spans="1:14" ht="234.75" customHeight="1">
+    <row r="121" spans="1:14" ht="234.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="18">
         <v>120</v>
       </c>
@@ -26858,7 +27092,7 @@
       </c>
       <c r="N121" s="18"/>
     </row>
-    <row r="122" spans="1:14" ht="98.25" customHeight="1">
+    <row r="122" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="18">
         <v>121</v>
       </c>
@@ -26900,7 +27134,7 @@
       </c>
       <c r="N122" s="18"/>
     </row>
-    <row r="123" spans="1:14" ht="117" customHeight="1">
+    <row r="123" spans="1:14" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="18">
         <v>122</v>
       </c>
@@ -26942,7 +27176,7 @@
       </c>
       <c r="N123" s="18"/>
     </row>
-    <row r="124" spans="1:14" ht="98.25" customHeight="1">
+    <row r="124" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="18">
         <v>123</v>
       </c>
@@ -26984,7 +27218,7 @@
       </c>
       <c r="N124" s="18"/>
     </row>
-    <row r="125" spans="1:14" ht="98.25" customHeight="1">
+    <row r="125" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="18">
         <v>124</v>
       </c>
@@ -27026,7 +27260,7 @@
       </c>
       <c r="N125" s="18"/>
     </row>
-    <row r="126" spans="1:14" ht="98.25" customHeight="1">
+    <row r="126" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="18">
         <v>125</v>
       </c>
@@ -27068,7 +27302,7 @@
       </c>
       <c r="N126" s="18"/>
     </row>
-    <row r="127" spans="1:14" ht="117.75" customHeight="1">
+    <row r="127" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="18">
         <v>126</v>
       </c>
@@ -27110,7 +27344,7 @@
       </c>
       <c r="N127" s="17"/>
     </row>
-    <row r="128" spans="1:14" ht="98.25" customHeight="1">
+    <row r="128" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="18">
         <v>127</v>
       </c>
@@ -27152,7 +27386,7 @@
       </c>
       <c r="N128" s="18"/>
     </row>
-    <row r="129" spans="1:14" ht="98.25" customHeight="1">
+    <row r="129" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="18">
         <v>128</v>
       </c>
@@ -27194,7 +27428,7 @@
       </c>
       <c r="N129" s="18"/>
     </row>
-    <row r="130" spans="1:14" ht="98.25" customHeight="1">
+    <row r="130" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="18">
         <v>129</v>
       </c>
@@ -27236,7 +27470,7 @@
       </c>
       <c r="N130" s="18"/>
     </row>
-    <row r="131" spans="1:14" ht="98.25" customHeight="1">
+    <row r="131" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="18">
         <v>130</v>
       </c>
@@ -27311,29 +27545,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
-    <col min="4" max="4" width="21.875" customWidth="1"/>
-    <col min="5" max="5" width="28.875" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" customWidth="1"/>
     <col min="6" max="6" width="58" customWidth="1"/>
-    <col min="7" max="7" width="49.625" customWidth="1"/>
-    <col min="8" max="8" width="51.875" customWidth="1"/>
+    <col min="7" max="7" width="49.6640625" customWidth="1"/>
+    <col min="8" max="8" width="51.83203125" customWidth="1"/>
     <col min="14" max="14" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -27377,7 +27611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="211.5" customHeight="1">
+    <row r="2" spans="1:14" ht="211.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -27419,7 +27653,7 @@
       </c>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" ht="128.25" customHeight="1">
+    <row r="3" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -27461,7 +27695,7 @@
       </c>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" ht="220.5" customHeight="1">
+    <row r="4" spans="1:14" ht="220.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -27503,7 +27737,7 @@
       </c>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14" ht="67.5" customHeight="1">
+    <row r="5" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -27545,7 +27779,7 @@
       </c>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:14" ht="67.5" customHeight="1">
+    <row r="6" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -27587,7 +27821,7 @@
       </c>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="1:14" ht="117.75" customHeight="1">
+    <row r="7" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -27629,7 +27863,7 @@
       </c>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:14" ht="117.75" customHeight="1">
+    <row r="8" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -27667,7 +27901,7 @@
       </c>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:14" ht="57" customHeight="1">
+    <row r="9" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -27691,7 +27925,7 @@
       <c r="M9" s="18"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:14" ht="40.5" customHeight="1">
+    <row r="10" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -27715,7 +27949,7 @@
       <c r="M10" s="18"/>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="1:14" ht="100.5" customHeight="1">
+    <row r="11" spans="1:14" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -27759,7 +27993,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="78.75" customHeight="1">
+    <row r="12" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -27801,7 +28035,7 @@
       </c>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="174.75" customHeight="1">
+    <row r="13" spans="1:14" ht="174.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -27841,7 +28075,7 @@
       </c>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="90.75" customHeight="1">
+    <row r="14" spans="1:14" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -27877,7 +28111,7 @@
       </c>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="97.5" customHeight="1">
+    <row r="15" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -27917,7 +28151,7 @@
       </c>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="86.25" customHeight="1">
+    <row r="16" spans="1:14" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -27959,7 +28193,7 @@
       </c>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:14" ht="103.5" customHeight="1">
+    <row r="17" spans="1:14" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -28001,7 +28235,7 @@
       </c>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14" ht="128.25" customHeight="1">
+    <row r="18" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -28043,7 +28277,7 @@
       </c>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14" ht="153.75" customHeight="1">
+    <row r="19" spans="1:14" ht="153.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -28083,7 +28317,7 @@
       </c>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:14" ht="97.5" customHeight="1">
+    <row r="20" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -28123,7 +28357,7 @@
       </c>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:14" ht="93.75" customHeight="1">
+    <row r="21" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -28163,7 +28397,7 @@
       </c>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:14" ht="101.25" customHeight="1">
+    <row r="22" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -28203,7 +28437,7 @@
       </c>
       <c r="N22" s="8"/>
     </row>
-    <row r="23" spans="1:14" ht="111" customHeight="1">
+    <row r="23" spans="1:14" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -28243,7 +28477,7 @@
       </c>
       <c r="N23" s="8"/>
     </row>
-    <row r="24" spans="1:14" ht="103.5" customHeight="1">
+    <row r="24" spans="1:14" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -28283,7 +28517,7 @@
       </c>
       <c r="N24" s="8"/>
     </row>
-    <row r="25" spans="1:14" ht="104.25" customHeight="1">
+    <row r="25" spans="1:14" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -28323,7 +28557,7 @@
       </c>
       <c r="N25" s="8"/>
     </row>
-    <row r="26" spans="1:14" ht="101.25" customHeight="1">
+    <row r="26" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -28363,7 +28597,7 @@
       </c>
       <c r="N26" s="8"/>
     </row>
-    <row r="27" spans="1:14" ht="101.25" customHeight="1">
+    <row r="27" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -28405,7 +28639,7 @@
       </c>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" spans="1:14" ht="101.25" customHeight="1">
+    <row r="28" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -28445,7 +28679,7 @@
       </c>
       <c r="N28" s="8"/>
     </row>
-    <row r="29" spans="1:14" ht="101.25" customHeight="1">
+    <row r="29" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -28485,7 +28719,7 @@
       </c>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" ht="101.25" customHeight="1">
+    <row r="30" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -28525,7 +28759,7 @@
       </c>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="1:14" ht="101.25" customHeight="1">
+    <row r="31" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -28565,7 +28799,7 @@
       </c>
       <c r="N31" s="8"/>
     </row>
-    <row r="32" spans="1:14" ht="101.25" customHeight="1">
+    <row r="32" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -28605,7 +28839,7 @@
       </c>
       <c r="N32" s="8"/>
     </row>
-    <row r="33" spans="1:14" ht="101.25" customHeight="1">
+    <row r="33" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -28645,7 +28879,7 @@
       </c>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="1:14" ht="101.25" customHeight="1">
+    <row r="34" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -28685,7 +28919,7 @@
       </c>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="1:14" ht="101.25" customHeight="1">
+    <row r="35" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -28727,7 +28961,7 @@
       </c>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" spans="1:14" ht="128.25" customHeight="1">
+    <row r="36" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -28769,7 +29003,7 @@
       </c>
       <c r="N36" s="8"/>
     </row>
-    <row r="37" spans="1:14" ht="128.25" customHeight="1">
+    <row r="37" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -28811,110 +29045,116 @@
       </c>
       <c r="N37" s="8"/>
     </row>
-    <row r="38" spans="1:14" ht="128.25" customHeight="1">
+    <row r="38" spans="1:14" ht="135" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>110</v>
+        <v>2007</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>821</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>910</v>
+        <v>2020</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>911</v>
+        <v>2017</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>388</v>
+        <v>876</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>912</v>
+        <v>2018</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>913</v>
+        <v>2019</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="J38" s="19" t="s">
         <v>30</v>
       </c>
       <c r="K38" s="5">
         <v>2</v>
       </c>
-      <c r="L38" s="5" t="s">
-        <v>43</v>
+      <c r="L38" s="19" t="s">
+        <v>2015</v>
       </c>
       <c r="M38" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N38" s="8"/>
-    </row>
-    <row r="39" spans="1:14" ht="128.25" customHeight="1">
+      <c r="N38" s="23" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="18" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>1310</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>1328</v>
-      </c>
-      <c r="E39" s="34" t="s">
-        <v>1327</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>1323</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>1326</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>1325</v>
-      </c>
-      <c r="I39" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J39" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K39" s="18">
+      <c r="B39" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>912</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>913</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" s="5">
         <v>2</v>
       </c>
-      <c r="L39" s="18" t="s">
-        <v>1304</v>
-      </c>
-      <c r="M39" s="18" t="s">
+      <c r="L39" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M39" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N39" s="17"/>
-    </row>
-    <row r="40" spans="1:14" ht="128.25" customHeight="1">
+      <c r="N39" s="8"/>
+    </row>
+    <row r="40" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
         <v>1311</v>
       </c>
-      <c r="C40" s="36"/>
+      <c r="C40" s="34" t="s">
+        <v>1310</v>
+      </c>
       <c r="D40" s="19" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E40" s="36"/>
+        <v>1328</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>1327</v>
+      </c>
       <c r="F40" s="19" t="s">
         <v>1323</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>1322</v>
+        <v>1326</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>1321</v>
+        <v>1325</v>
       </c>
       <c r="I40" s="18" t="s">
         <v>42</v>
@@ -28933,30 +29173,26 @@
       </c>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="1:14" ht="128.25" customHeight="1">
+    <row r="41" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
         <v>1311</v>
       </c>
-      <c r="C41" s="19" t="s">
-        <v>1310</v>
-      </c>
+      <c r="C41" s="36"/>
       <c r="D41" s="19" t="s">
-        <v>1320</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>1319</v>
-      </c>
+        <v>1324</v>
+      </c>
+      <c r="E41" s="36"/>
       <c r="F41" s="19" t="s">
-        <v>1314</v>
+        <v>1323</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>1317</v>
+        <v>1321</v>
       </c>
       <c r="I41" s="18" t="s">
         <v>42</v>
@@ -28965,7 +29201,7 @@
         <v>22</v>
       </c>
       <c r="K41" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L41" s="18" t="s">
         <v>1304</v>
@@ -28975,7 +29211,7 @@
       </c>
       <c r="N41" s="17"/>
     </row>
-    <row r="42" spans="1:14" ht="128.25" customHeight="1">
+    <row r="42" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -28986,19 +29222,19 @@
         <v>1310</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>1316</v>
+        <v>1320</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>1315</v>
+        <v>1319</v>
       </c>
       <c r="F42" s="19" t="s">
         <v>1314</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>1313</v>
+        <v>1318</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>1312</v>
+        <v>1317</v>
       </c>
       <c r="I42" s="18" t="s">
         <v>42</v>
@@ -29007,7 +29243,7 @@
         <v>22</v>
       </c>
       <c r="K42" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L42" s="18" t="s">
         <v>1304</v>
@@ -29017,7 +29253,7 @@
       </c>
       <c r="N42" s="17"/>
     </row>
-    <row r="43" spans="1:14" ht="128.25" customHeight="1">
+    <row r="43" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -29028,25 +29264,25 @@
         <v>1310</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>1309</v>
+        <v>1316</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>1308</v>
+        <v>1315</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>1307</v>
+        <v>1314</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>1306</v>
+        <v>1313</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>1305</v>
+        <v>1312</v>
       </c>
       <c r="I43" s="18" t="s">
         <v>42</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="K43" s="18">
         <v>2</v>
@@ -29059,72 +29295,76 @@
       </c>
       <c r="N43" s="17"/>
     </row>
-    <row r="44" spans="1:14" ht="128.25" customHeight="1">
+    <row r="44" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>1302</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>1301</v>
+        <v>1311</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>1309</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>1300</v>
+        <v>1308</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>1296</v>
+        <v>1307</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>1299</v>
+        <v>1306</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="I44" s="18" t="s">
         <v>42</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="K44" s="18">
         <v>2</v>
       </c>
       <c r="L44" s="18" t="s">
-        <v>43</v>
+        <v>1304</v>
       </c>
       <c r="M44" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N44" s="17"/>
     </row>
-    <row r="45" spans="1:14" ht="128.25" customHeight="1">
+    <row r="45" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>44</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" s="36"/>
+        <v>1303</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>1302</v>
+      </c>
       <c r="D45" s="20" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="F45" s="19" t="s">
         <v>1296</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>1295</v>
+        <v>1299</v>
       </c>
       <c r="H45" s="19" t="s">
         <v>1294</v>
       </c>
-      <c r="I45" s="18"/>
+      <c r="I45" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="J45" s="18" t="s">
         <v>30</v>
       </c>
@@ -29139,34 +29379,30 @@
       </c>
       <c r="N45" s="17"/>
     </row>
-    <row r="46" spans="1:14" ht="128.25" customHeight="1">
+    <row r="46" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>45</v>
       </c>
       <c r="B46" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="34" t="s">
-        <v>1267</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>1293</v>
+      <c r="C46" s="36"/>
+      <c r="D46" s="20" t="s">
+        <v>1298</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>1292</v>
+        <v>1297</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>388</v>
+        <v>1296</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>1291</v>
+        <v>1295</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>1286</v>
-      </c>
-      <c r="I46" s="18" t="s">
-        <v>42</v>
-      </c>
+        <v>1294</v>
+      </c>
+      <c r="I46" s="18"/>
       <c r="J46" s="18" t="s">
         <v>30</v>
       </c>
@@ -29181,25 +29417,27 @@
       </c>
       <c r="N46" s="17"/>
     </row>
-    <row r="47" spans="1:14" ht="128.25" customHeight="1">
+    <row r="47" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>46</v>
       </c>
       <c r="B47" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="36"/>
+      <c r="C47" s="34" t="s">
+        <v>1267</v>
+      </c>
       <c r="D47" s="19" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="F47" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>1287</v>
+        <v>1291</v>
       </c>
       <c r="H47" s="19" t="s">
         <v>1286</v>
@@ -29221,30 +29459,28 @@
       </c>
       <c r="N47" s="17"/>
     </row>
-    <row r="48" spans="1:14" ht="128.25" customHeight="1">
+    <row r="48" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>47</v>
       </c>
       <c r="B48" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="19" t="s">
-        <v>1267</v>
-      </c>
+      <c r="C48" s="36"/>
       <c r="D48" s="19" t="s">
-        <v>1285</v>
+        <v>1290</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>1284</v>
+        <v>1289</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>1283</v>
+        <v>388</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>1282</v>
+        <v>1287</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>1281</v>
+        <v>1286</v>
       </c>
       <c r="I48" s="18" t="s">
         <v>42</v>
@@ -29263,7 +29499,7 @@
       </c>
       <c r="N48" s="17"/>
     </row>
-    <row r="49" spans="1:14" ht="128.25" customHeight="1">
+    <row r="49" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -29274,19 +29510,19 @@
         <v>1267</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>1280</v>
+        <v>1285</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>1279</v>
+        <v>1284</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>1278</v>
+        <v>1283</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>1277</v>
+        <v>1282</v>
       </c>
       <c r="H49" s="19" t="s">
-        <v>1276</v>
+        <v>1281</v>
       </c>
       <c r="I49" s="18" t="s">
         <v>42</v>
@@ -29305,7 +29541,7 @@
       </c>
       <c r="N49" s="17"/>
     </row>
-    <row r="50" spans="1:14" ht="128.25" customHeight="1">
+    <row r="50" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -29316,19 +29552,19 @@
         <v>1267</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>1275</v>
+        <v>1280</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>1274</v>
+        <v>1279</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>388</v>
+        <v>1278</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>1273</v>
+        <v>1277</v>
       </c>
       <c r="H50" s="19" t="s">
-        <v>1272</v>
+        <v>1276</v>
       </c>
       <c r="I50" s="18" t="s">
         <v>42</v>
@@ -29347,7 +29583,7 @@
       </c>
       <c r="N50" s="17"/>
     </row>
-    <row r="51" spans="1:14" ht="128.25" customHeight="1">
+    <row r="51" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -29358,28 +29594,28 @@
         <v>1267</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>1271</v>
+        <v>1275</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>1270</v>
+        <v>1274</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>1264</v>
+        <v>388</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>1269</v>
+        <v>1273</v>
       </c>
       <c r="H51" s="19" t="s">
-        <v>1268</v>
+        <v>1272</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>294</v>
+        <v>42</v>
       </c>
       <c r="J51" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K51" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L51" s="18" t="s">
         <v>43</v>
@@ -29389,7 +29625,7 @@
       </c>
       <c r="N51" s="17"/>
     </row>
-    <row r="52" spans="1:14" ht="128.25" customHeight="1">
+    <row r="52" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -29400,19 +29636,19 @@
         <v>1267</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>1266</v>
+        <v>1271</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>1265</v>
+        <v>1270</v>
       </c>
       <c r="F52" s="19" t="s">
         <v>1264</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>1263</v>
+        <v>1269</v>
       </c>
       <c r="H52" s="19" t="s">
-        <v>1262</v>
+        <v>1268</v>
       </c>
       <c r="I52" s="18" t="s">
         <v>294</v>
@@ -29431,49 +29667,49 @@
       </c>
       <c r="N52" s="17"/>
     </row>
-    <row r="53" spans="1:14" ht="96" customHeight="1">
+    <row r="53" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>914</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>915</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>916</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>917</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>918</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>919</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K53" s="5">
-        <v>2</v>
-      </c>
-      <c r="L53" s="5" t="s">
+      <c r="B53" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>1262</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="J53" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K53" s="18">
+        <v>3</v>
+      </c>
+      <c r="L53" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="M53" s="5" t="s">
+      <c r="M53" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N53" s="8"/>
-    </row>
-    <row r="54" spans="1:14" ht="97.5" customHeight="1">
+      <c r="N53" s="17"/>
+    </row>
+    <row r="54" spans="1:14" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -29484,16 +29720,16 @@
         <v>914</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>916</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>919</v>
@@ -29515,7 +29751,7 @@
       </c>
       <c r="N54" s="8"/>
     </row>
-    <row r="55" spans="1:14" ht="99" customHeight="1">
+    <row r="55" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -29526,19 +29762,19 @@
         <v>914</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>42</v>
@@ -29557,7 +29793,7 @@
       </c>
       <c r="N55" s="8"/>
     </row>
-    <row r="56" spans="1:14" ht="77.25" customHeight="1">
+    <row r="56" spans="1:14" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -29568,16 +29804,16 @@
         <v>914</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>927</v>
@@ -29599,7 +29835,7 @@
       </c>
       <c r="N56" s="8"/>
     </row>
-    <row r="57" spans="1:14" ht="101.25" customHeight="1">
+    <row r="57" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -29610,16 +29846,16 @@
         <v>914</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>824</v>
+        <v>930</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>927</v>
@@ -29641,7 +29877,7 @@
       </c>
       <c r="N57" s="8"/>
     </row>
-    <row r="58" spans="1:14" ht="101.25" customHeight="1">
+    <row r="58" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -29652,19 +29888,19 @@
         <v>914</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>937</v>
+        <v>824</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>42</v>
@@ -29683,7 +29919,7 @@
       </c>
       <c r="N58" s="8"/>
     </row>
-    <row r="59" spans="1:14" ht="101.25" customHeight="1">
+    <row r="59" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -29694,25 +29930,25 @@
         <v>914</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>937</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K59" s="5">
         <v>2</v>
@@ -29725,7 +29961,7 @@
       </c>
       <c r="N59" s="8"/>
     </row>
-    <row r="60" spans="1:14" ht="101.25" customHeight="1">
+    <row r="60" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -29736,19 +29972,19 @@
         <v>914</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>42</v>
@@ -29767,7 +30003,7 @@
       </c>
       <c r="N60" s="8"/>
     </row>
-    <row r="61" spans="1:14" ht="101.25" customHeight="1">
+    <row r="61" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>60</v>
       </c>
@@ -29778,19 +30014,19 @@
         <v>914</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>946</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>42</v>
@@ -29809,7 +30045,7 @@
       </c>
       <c r="N61" s="8"/>
     </row>
-    <row r="62" spans="1:14" ht="101.25" customHeight="1">
+    <row r="62" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -29820,19 +30056,19 @@
         <v>914</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="I62" s="5" t="s">
         <v>42</v>
@@ -29851,7 +30087,7 @@
       </c>
       <c r="N62" s="8"/>
     </row>
-    <row r="63" spans="1:14" ht="101.25" customHeight="1">
+    <row r="63" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>62</v>
       </c>
@@ -29862,19 +30098,19 @@
         <v>914</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>824</v>
+        <v>955</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>42</v>
@@ -29893,7 +30129,7 @@
       </c>
       <c r="N63" s="8"/>
     </row>
-    <row r="64" spans="1:14" ht="101.25" customHeight="1">
+    <row r="64" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -29904,19 +30140,19 @@
         <v>914</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>824</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>42</v>
@@ -29935,7 +30171,7 @@
       </c>
       <c r="N64" s="8"/>
     </row>
-    <row r="65" spans="1:14" ht="101.25" customHeight="1">
+    <row r="65" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>64</v>
       </c>
@@ -29946,28 +30182,28 @@
         <v>914</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>968</v>
+        <v>824</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K65" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L65" s="5" t="s">
         <v>43</v>
@@ -29977,7 +30213,7 @@
       </c>
       <c r="N65" s="8"/>
     </row>
-    <row r="66" spans="1:14" ht="101.25" customHeight="1">
+    <row r="66" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>65</v>
       </c>
@@ -29991,16 +30227,16 @@
         <v>966</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>42</v>
@@ -30009,7 +30245,7 @@
         <v>30</v>
       </c>
       <c r="K66" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L66" s="5" t="s">
         <v>43</v>
@@ -30019,7 +30255,7 @@
       </c>
       <c r="N66" s="8"/>
     </row>
-    <row r="67" spans="1:14" ht="101.25" customHeight="1">
+    <row r="67" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>66</v>
       </c>
@@ -30033,16 +30269,16 @@
         <v>966</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="I67" s="5" t="s">
         <v>42</v>
@@ -30061,36 +30297,36 @@
       </c>
       <c r="N67" s="8"/>
     </row>
-    <row r="68" spans="1:14" ht="117.75" customHeight="1">
+    <row r="68" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>36</v>
+      <c r="B68" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>914</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>979</v>
+        <v>966</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K68" s="5">
         <v>2</v>
@@ -30103,7 +30339,7 @@
       </c>
       <c r="N68" s="8"/>
     </row>
-    <row r="69" spans="1:14" ht="117.75" customHeight="1">
+    <row r="69" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>68</v>
       </c>
@@ -30114,25 +30350,25 @@
         <v>914</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="I69" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="K69" s="5">
         <v>2</v>
@@ -30143,11 +30379,9 @@
       <c r="M69" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N69" s="8" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="117.75" customHeight="1">
+      <c r="N69" s="8"/>
+    </row>
+    <row r="70" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>69</v>
       </c>
@@ -30158,25 +30392,25 @@
         <v>914</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="I70" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="K70" s="5">
         <v>2</v>
@@ -30187,9 +30421,11 @@
       <c r="M70" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N70" s="8"/>
-    </row>
-    <row r="71" spans="1:14" ht="117.75" customHeight="1">
+      <c r="N70" s="8" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>70</v>
       </c>
@@ -30197,22 +30433,22 @@
         <v>36</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>995</v>
+        <v>914</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="I71" s="5" t="s">
         <v>42</v>
@@ -30231,36 +30467,36 @@
       </c>
       <c r="N71" s="8"/>
     </row>
-    <row r="72" spans="1:14" ht="101.25" customHeight="1">
+    <row r="72" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>110</v>
+      <c r="B72" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K72" s="5">
         <v>2</v>
@@ -30273,7 +30509,7 @@
       </c>
       <c r="N72" s="8"/>
     </row>
-    <row r="73" spans="1:14" ht="101.25" customHeight="1">
+    <row r="73" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>72</v>
       </c>
@@ -30284,19 +30520,19 @@
         <v>1001</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>1004</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="I73" s="5" t="s">
         <v>42</v>
@@ -30315,7 +30551,7 @@
       </c>
       <c r="N73" s="8"/>
     </row>
-    <row r="74" spans="1:14" ht="101.25" customHeight="1">
+    <row r="74" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>73</v>
       </c>
@@ -30326,19 +30562,19 @@
         <v>1001</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>1004</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>42</v>
@@ -30357,7 +30593,7 @@
       </c>
       <c r="N74" s="8"/>
     </row>
-    <row r="75" spans="1:14" ht="101.25" customHeight="1">
+    <row r="75" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>74</v>
       </c>
@@ -30368,19 +30604,19 @@
         <v>1001</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>42</v>
@@ -30389,7 +30625,7 @@
         <v>30</v>
       </c>
       <c r="K75" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L75" s="5" t="s">
         <v>43</v>
@@ -30399,29 +30635,71 @@
       </c>
       <c r="N75" s="8"/>
     </row>
+    <row r="76" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="7">
+        <v>75</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K76" s="5">
+        <v>1</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M76" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N76" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C47:C48"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="C18:C26"/>
     <mergeCell ref="C27:C34"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M76">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K76">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J76">
       <formula1>"None,Pass,Fail"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I76">
       <formula1>"功能,异常,性能,安全"</formula1>
     </dataValidation>
   </dataValidations>
@@ -30432,7 +30710,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:N35"/>
@@ -30441,19 +30719,19 @@
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
-    <col min="5" max="5" width="27.625" customWidth="1"/>
-    <col min="6" max="6" width="50.375" customWidth="1"/>
-    <col min="7" max="7" width="52.375" customWidth="1"/>
-    <col min="8" max="8" width="43.125" customWidth="1"/>
-    <col min="14" max="14" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+    <col min="6" max="6" width="50.33203125" customWidth="1"/>
+    <col min="7" max="7" width="52.33203125" customWidth="1"/>
+    <col min="8" max="8" width="43.1640625" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -30497,7 +30775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="124.5" customHeight="1">
+    <row r="2" spans="1:14" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -30539,7 +30817,7 @@
       </c>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" ht="113.25" customHeight="1">
+    <row r="3" spans="1:14" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -30581,7 +30859,7 @@
       </c>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" ht="68.25" customHeight="1">
+    <row r="4" spans="1:14" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -30623,7 +30901,7 @@
       </c>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14" ht="82.5" customHeight="1">
+    <row r="5" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -30665,7 +30943,7 @@
       </c>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:14" ht="78" customHeight="1">
+    <row r="6" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -30707,7 +30985,7 @@
       </c>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:14" ht="52.5" customHeight="1">
+    <row r="7" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -30749,7 +31027,7 @@
       </c>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:14" ht="105" customHeight="1">
+    <row r="8" spans="1:14" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -30793,7 +31071,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="96.75" customHeight="1">
+    <row r="9" spans="1:14" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -30835,7 +31113,7 @@
       </c>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="105" customHeight="1">
+    <row r="10" spans="1:14" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -30877,7 +31155,7 @@
       </c>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="141" customHeight="1">
+    <row r="11" spans="1:14" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -30919,7 +31197,7 @@
       </c>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="109.5" customHeight="1">
+    <row r="12" spans="1:14" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -30961,7 +31239,7 @@
       </c>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="138.75" customHeight="1">
+    <row r="13" spans="1:14" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -31005,7 +31283,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="121.5" customHeight="1">
+    <row r="14" spans="1:14" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -31047,7 +31325,7 @@
       </c>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="115.5" customHeight="1">
+    <row r="15" spans="1:14" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -31089,7 +31367,7 @@
       </c>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="116.25" customHeight="1">
+    <row r="16" spans="1:14" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -31133,7 +31411,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="124.5" customHeight="1">
+    <row r="17" spans="1:14" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -31175,7 +31453,7 @@
       </c>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14" ht="119.25" customHeight="1">
+    <row r="18" spans="1:14" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -31217,7 +31495,7 @@
       </c>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14" ht="105.75" customHeight="1">
+    <row r="19" spans="1:14" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -31259,7 +31537,7 @@
       </c>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:14" ht="58.5" customHeight="1">
+    <row r="20" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -31301,7 +31579,7 @@
       </c>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:14" ht="81.75" customHeight="1">
+    <row r="21" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -31343,7 +31621,7 @@
       </c>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:14" ht="144.75" customHeight="1">
+    <row r="22" spans="1:14" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -31385,7 +31663,7 @@
       </c>
       <c r="N22" s="11"/>
     </row>
-    <row r="23" spans="1:14" ht="151.5" customHeight="1">
+    <row r="23" spans="1:14" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -31427,7 +31705,7 @@
       </c>
       <c r="N23" s="11"/>
     </row>
-    <row r="24" spans="1:14" ht="144" customHeight="1">
+    <row r="24" spans="1:14" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -31469,7 +31747,7 @@
       </c>
       <c r="N24" s="11"/>
     </row>
-    <row r="25" spans="1:14" ht="128.25" customHeight="1">
+    <row r="25" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -31511,7 +31789,7 @@
       </c>
       <c r="N25" s="11"/>
     </row>
-    <row r="26" spans="1:14" ht="129" customHeight="1">
+    <row r="26" spans="1:14" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -31553,7 +31831,7 @@
       </c>
       <c r="N26" s="11"/>
     </row>
-    <row r="27" spans="1:14" ht="92.25" customHeight="1">
+    <row r="27" spans="1:14" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -31595,7 +31873,7 @@
       </c>
       <c r="N27" s="11"/>
     </row>
-    <row r="28" spans="1:14" ht="77.25" customHeight="1">
+    <row r="28" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -31637,7 +31915,7 @@
       </c>
       <c r="N28" s="8"/>
     </row>
-    <row r="29" spans="1:14" ht="68.25" customHeight="1">
+    <row r="29" spans="1:14" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -31679,7 +31957,7 @@
       </c>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" ht="69" customHeight="1">
+    <row r="30" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -31721,7 +31999,7 @@
       </c>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="1:14" ht="93" customHeight="1">
+    <row r="31" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -31763,7 +32041,7 @@
       </c>
       <c r="N31" s="8"/>
     </row>
-    <row r="32" spans="1:14" ht="123" customHeight="1">
+    <row r="32" spans="1:14" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -31805,7 +32083,7 @@
       </c>
       <c r="N32" s="8"/>
     </row>
-    <row r="33" spans="1:14" ht="132.75" customHeight="1">
+    <row r="33" spans="1:14" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -31847,7 +32125,7 @@
       </c>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="1:14" ht="147" customHeight="1">
+    <row r="34" spans="1:14" ht="147" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -31889,7 +32167,7 @@
       </c>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="1:14" ht="51.75" customHeight="1">
+    <row r="35" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -31954,7 +32232,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF99"/>
   </sheetPr>
   <dimension ref="A1:N6"/>
@@ -31963,18 +32241,18 @@
       <selection activeCell="J2" sqref="J2:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="26.75" customWidth="1"/>
-    <col min="6" max="6" width="28.125" customWidth="1"/>
-    <col min="7" max="7" width="39.625" customWidth="1"/>
-    <col min="8" max="8" width="37.875" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" customWidth="1"/>
+    <col min="7" max="7" width="39.6640625" customWidth="1"/>
+    <col min="8" max="8" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -32018,7 +32296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="135.75" customHeight="1">
+    <row r="2" spans="1:14" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -32060,7 +32338,7 @@
       </c>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" ht="106.5" customHeight="1">
+    <row r="3" spans="1:14" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -32102,7 +32380,7 @@
       </c>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" ht="125.25" customHeight="1">
+    <row r="4" spans="1:14" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -32144,7 +32422,7 @@
       </c>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14" ht="116.25" customHeight="1">
+    <row r="5" spans="1:14" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -32186,7 +32464,7 @@
       </c>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:14" ht="116.25" customHeight="1">
+    <row r="6" spans="1:14" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -32250,7 +32528,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:N6"/>
@@ -32259,18 +32537,18 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="23.625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
     <col min="6" max="6" width="30.5" customWidth="1"/>
-    <col min="7" max="7" width="31.625" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" customWidth="1"/>
     <col min="8" max="8" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>1806</v>
       </c>
@@ -32314,7 +32592,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="84.75" customHeight="1">
+    <row r="2" spans="1:14" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -32356,7 +32634,7 @@
       </c>
       <c r="N2" s="17"/>
     </row>
-    <row r="3" spans="1:14" ht="90" customHeight="1">
+    <row r="3" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -32398,7 +32676,7 @@
       </c>
       <c r="N3" s="17"/>
     </row>
-    <row r="4" spans="1:14" ht="96.75" customHeight="1">
+    <row r="4" spans="1:14" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -32440,7 +32718,7 @@
       </c>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="1:14" ht="81" customHeight="1">
+    <row r="5" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -32482,7 +32760,7 @@
       </c>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:14" ht="103.5" customHeight="1">
+    <row r="6" spans="1:14" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -32546,7 +32824,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:N23"/>
@@ -32555,19 +32833,19 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="34.375" customWidth="1"/>
-    <col min="7" max="7" width="42.25" customWidth="1"/>
-    <col min="8" max="8" width="37.125" customWidth="1"/>
-    <col min="14" max="14" width="28.25" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" customWidth="1"/>
+    <col min="8" max="8" width="37.1640625" customWidth="1"/>
+    <col min="14" max="14" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="29.25" customHeight="1">
+    <row r="1" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -32611,7 +32889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="57.75" customHeight="1">
+    <row r="2" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -32653,7 +32931,7 @@
       </c>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" ht="84.75" customHeight="1">
+    <row r="3" spans="1:14" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -32695,7 +32973,7 @@
       </c>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="72" customHeight="1">
+    <row r="4" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -32735,7 +33013,7 @@
       </c>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:14" ht="147" customHeight="1">
+    <row r="5" spans="1:14" ht="147" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -32777,7 +33055,7 @@
       </c>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:14" ht="72" customHeight="1">
+    <row r="6" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -32819,7 +33097,7 @@
       </c>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="1:14" ht="72" customHeight="1">
+    <row r="7" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -32859,7 +33137,7 @@
       </c>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:14" ht="72" customHeight="1">
+    <row r="8" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -32899,7 +33177,7 @@
       </c>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:14" ht="72" customHeight="1">
+    <row r="9" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -32939,7 +33217,7 @@
       </c>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:14" ht="72" customHeight="1">
+    <row r="10" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -32981,7 +33259,7 @@
       </c>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="1:14" ht="152.25" customHeight="1">
+    <row r="11" spans="1:14" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -33023,7 +33301,7 @@
       </c>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:14" ht="82.5" customHeight="1">
+    <row r="12" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -33067,7 +33345,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="48.75" customHeight="1">
+    <row r="13" spans="1:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -33109,7 +33387,7 @@
       </c>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:14" ht="111" customHeight="1">
+    <row r="14" spans="1:14" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -33151,7 +33429,7 @@
       </c>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:14" ht="88.5" customHeight="1">
+    <row r="15" spans="1:14" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -33193,7 +33471,7 @@
       </c>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:14" ht="76.5" customHeight="1">
+    <row r="16" spans="1:14" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -33235,7 +33513,7 @@
       </c>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:14" ht="88.5" customHeight="1">
+    <row r="17" spans="1:14" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -33279,7 +33557,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="87" customHeight="1">
+    <row r="18" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -33321,7 +33599,7 @@
       </c>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="1:14" ht="96.75" customHeight="1">
+    <row r="19" spans="1:14" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -33363,7 +33641,7 @@
       </c>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:14" ht="125.25" customHeight="1">
+    <row r="20" spans="1:14" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -33405,7 +33683,7 @@
       </c>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:14" ht="76.5" customHeight="1">
+    <row r="21" spans="1:14" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -33447,7 +33725,7 @@
       </c>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:14" ht="104.25" customHeight="1">
+    <row r="22" spans="1:14" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -33489,7 +33767,7 @@
       </c>
       <c r="N22" s="8"/>
     </row>
-    <row r="23" spans="1:14" ht="51" customHeight="1">
+    <row r="23" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -33558,7 +33836,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFCCFF"/>
   </sheetPr>
   <dimension ref="A1:N4"/>
@@ -33567,18 +33845,18 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
-    <col min="6" max="6" width="24.25" customWidth="1"/>
-    <col min="7" max="7" width="37.75" customWidth="1"/>
-    <col min="8" max="8" width="40.25" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" customWidth="1"/>
+    <col min="8" max="8" width="40.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>1415</v>
       </c>
@@ -33622,7 +33900,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="134.25" customHeight="1">
+    <row r="2" spans="1:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -33664,7 +33942,7 @@
       </c>
       <c r="N2" s="17"/>
     </row>
-    <row r="3" spans="1:14" ht="127.5" customHeight="1">
+    <row r="3" spans="1:14" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -33706,7 +33984,7 @@
       </c>
       <c r="N3" s="17"/>
     </row>
-    <row r="4" spans="1:14" ht="146.25" customHeight="1">
+    <row r="4" spans="1:14" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <v>3</v>
       </c>

--- a/regression/testcase_ConverLab_all.xlsx
+++ b/regression/testcase_ConverLab_all.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27815"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/WilliamZhou/Documents/test/regression/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="17540" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -23,15 +18,7 @@
     <sheet name="TMS" sheetId="8" r:id="rId9"/>
     <sheet name="快捷版" sheetId="9" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
@@ -1911,7 +1898,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A38" authorId="0">
+    <comment ref="A37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2019,7 +2006,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A77" authorId="0">
+    <comment ref="A76" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2065,7 +2052,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H84" authorId="0">
+    <comment ref="H83" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2108,7 +2095,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A94" authorId="0">
+    <comment ref="A93" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2165,7 +2152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A99" authorId="0">
+    <comment ref="A98" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2222,7 +2209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A103" authorId="0">
+    <comment ref="A102" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3858,7 +3845,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D58" authorId="0">
+    <comment ref="D57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3946,7 +3933,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A65" authorId="0">
+    <comment ref="A64" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4075,7 +4062,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A66" authorId="0">
+    <comment ref="A65" authorId="0">
       <text>
         <r>
           <rPr>
@@ -5254,7 +5241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4839" uniqueCount="2021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4815" uniqueCount="2007">
   <si>
     <t>编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -9214,7 +9201,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="DengXian"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9225,7 +9212,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -14281,199 +14268,22 @@
    （3）选择90天，点击【人次】，查看数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>ConverLab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户_客户中心</t>
-  </si>
-  <si>
-    <t>客户列表高级筛选_是否在群组中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证客户列表的高级筛选条件（是否在群组中）功能可用</t>
-    <rPh sb="11" eb="12">
-      <t>tiao'j</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用测试账号登录到ConvertLab系统
-2 系统客户列表中存在不同类型的用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 点击“客户”-“客户”
-2 点击切换到高级筛选，选择条件“是否在群组中”-“在”-“群组XXX”，选择满足以上所有条件（或满足以上任一条件），进行遍历测试
-3 点击“查询”</t>
-    <rPh sb="26" eb="27">
-      <t>xuan'z</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>shi'fou</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>qun'z</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>zho'g</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>qun'z</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 系统准确筛选出符合条件的客户并出现在客户列表中
-2 不符合条件的客户在客户列表中不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周威</t>
-    <rPh sb="0" eb="1">
-      <t>zhou'w</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprint 0.34
-注意检查前端代码是否发生“Time_out”报错。</t>
-    <rPh sb="13" eb="14">
-      <t>zhu'yi</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>jian'cha</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>qian'dua</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>dai'am</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>shi'fou</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>fa's</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>bao'cuo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检测自动流程中的执行动作的稳定性</t>
-    <rPh sb="12" eb="13">
-      <t>d</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>wen'ding'x</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 创建一个自动流程，其包括执行动作：【发送微信回复】【向客户发送短信】【向客户发送邮件】【推进阶段】【修改客户属性】【创建任务】【加入静态目标组】【增减积分】【发送内部邮件、短信】以及【延迟】
-2 每个动作选择立即执行，具体信息自定义
-3 工作流成功运行后，等待15分钟，查看其运行状态是否稳定
-4 工作流成功运行后，等待若干小时，查看其运行状态是否稳定</t>
-    <rPh sb="162" eb="163">
-      <t>ruo'gan</t>
-    </rPh>
-    <rPh sb="164" eb="165">
-      <t>xiao'shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 成功建立与预期信息一致的自动流程，工作流中执行动作信息显示准确
-2 工作流成功运行，执行动作依据待测客户实际行正确执行
-3 工作流成功运行后，等待15分钟，查看其运行状态应该稳定
-4 工作流成功运行后，等待若干小时，查看其运行状态应该稳定</t>
-    <rPh sb="64" eb="65">
-      <t>gong'zuo'liu</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>cheng'g</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>yun'xing</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>hou</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>deng'dai</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>fen'z</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>cha'kan</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>qi</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>yun'x</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>zhuang't</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>ying'g</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>wen'd</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>ruo'gan</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>xiao'shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动流程的稳定性</t>
-    <rPh sb="4" eb="5">
-      <t>d</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>wen'ding'x</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="DengXian"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -14482,14 +14292,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="DengXian"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -14497,7 +14307,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -14532,7 +14342,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="DengXian"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -14541,7 +14351,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -14650,10 +14460,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14809,7 +14619,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -14851,12 +14661,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -14886,12 +14696,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -15095,7 +14905,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:N21"/>
@@ -15104,23 +14914,23 @@
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="32.25" style="10" customWidth="1"/>
     <col min="6" max="6" width="32" style="10" customWidth="1"/>
-    <col min="7" max="7" width="50.6640625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="38.6640625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="50.625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="38.625" style="10" customWidth="1"/>
     <col min="9" max="12" width="9" style="4" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9.625" style="4" customWidth="1"/>
     <col min="14" max="14" width="9" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="4"/>
+    <col min="15" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15164,7 +14974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="132.75" customHeight="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -15206,7 +15016,7 @@
       </c>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="82.5" customHeight="1">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -15248,7 +15058,7 @@
       </c>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="105" customHeight="1">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -15290,7 +15100,7 @@
       </c>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:14" s="9" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="9" customFormat="1" ht="61.5" customHeight="1">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -15332,7 +15142,7 @@
       </c>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:14" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="9" customFormat="1" ht="66" customHeight="1">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -15372,7 +15182,7 @@
       </c>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:14" s="9" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="9" customFormat="1" ht="57" customHeight="1">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -15412,7 +15222,7 @@
       </c>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:14" s="9" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="9" customFormat="1" ht="49.5" customHeight="1">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -15452,7 +15262,7 @@
       </c>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:14" s="9" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="9" customFormat="1" ht="61.5" customHeight="1">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -15492,7 +15302,7 @@
       </c>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="61.5" customHeight="1">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -15534,7 +15344,7 @@
       </c>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="78" customHeight="1">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -15576,7 +15386,7 @@
       </c>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="82.5" customHeight="1">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -15618,7 +15428,7 @@
       </c>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="74.25" customHeight="1">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -15660,7 +15470,7 @@
       </c>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:14" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="109.5" customHeight="1">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -15702,7 +15512,7 @@
       </c>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:14" ht="75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="67.5">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -15744,7 +15554,7 @@
       </c>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:14" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="116.25" customHeight="1">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -15786,7 +15596,7 @@
       </c>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:14" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="99.75" customHeight="1">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -15828,7 +15638,7 @@
       </c>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="117.75" customHeight="1">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -15870,7 +15680,7 @@
       </c>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="1:14" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="110.25" customHeight="1">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -15912,7 +15722,7 @@
       </c>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="82.5" customHeight="1">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -15954,7 +15764,7 @@
       </c>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -16025,7 +15835,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor rgb="FFCCFFFF"/>
   </sheetPr>
   <dimension ref="A1:N18"/>
@@ -16034,18 +15844,18 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="26.375" customWidth="1"/>
     <col min="7" max="7" width="51" customWidth="1"/>
-    <col min="8" max="8" width="37.6640625" customWidth="1"/>
+    <col min="8" max="8" width="37.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="29.25" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>1650</v>
       </c>
@@ -16089,7 +15899,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="192.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="192.75" customHeight="1">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -16131,7 +15941,7 @@
       </c>
       <c r="N2" s="17"/>
     </row>
-    <row r="3" spans="1:14" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="90.75" customHeight="1">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -16173,7 +15983,7 @@
       </c>
       <c r="N3" s="17"/>
     </row>
-    <row r="4" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="87.75" customHeight="1">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -16215,7 +16025,7 @@
       </c>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="70.5" customHeight="1">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -16257,7 +16067,7 @@
       </c>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="75" customHeight="1">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -16299,7 +16109,7 @@
       </c>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="1:14" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="83.25" customHeight="1">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -16341,7 +16151,7 @@
       </c>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="74.25" customHeight="1">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -16383,7 +16193,7 @@
       </c>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="78" customHeight="1">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -16425,7 +16235,7 @@
       </c>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:14" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="105.75" customHeight="1">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -16467,7 +16277,7 @@
       </c>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="1:14" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="84.75" customHeight="1">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -16509,7 +16319,7 @@
       </c>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="75.75" customHeight="1">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -16551,7 +16361,7 @@
       </c>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="1:14" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="72.75" customHeight="1">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -16593,7 +16403,7 @@
       </c>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="73.5" customHeight="1">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -16635,7 +16445,7 @@
       </c>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="66.75" customHeight="1">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -16677,7 +16487,7 @@
       </c>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="63" customHeight="1">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -16719,7 +16529,7 @@
       </c>
       <c r="N16" s="17"/>
     </row>
-    <row r="17" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="78" customHeight="1">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -16761,7 +16571,7 @@
       </c>
       <c r="N17" s="17"/>
     </row>
-    <row r="18" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="78" customHeight="1">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -16826,31 +16636,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:N122"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView topLeftCell="F23" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.6640625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="26" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="26" customWidth="1"/>
     <col min="5" max="5" width="25.5" style="26" customWidth="1"/>
-    <col min="6" max="6" width="50.1640625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="43.6640625" style="26" customWidth="1"/>
-    <col min="8" max="8" width="59.33203125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="50.25" style="26" customWidth="1"/>
+    <col min="7" max="7" width="43.625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="59.375" style="26" customWidth="1"/>
     <col min="9" max="12" width="9" style="26" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="26" customWidth="1"/>
+    <col min="13" max="13" width="11.625" style="26" customWidth="1"/>
     <col min="14" max="14" width="20" style="26" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="26"/>
+    <col min="15" max="16384" width="8.875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -16894,7 +16704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="135.75" customHeight="1">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -16936,7 +16746,7 @@
       </c>
       <c r="N2" s="19"/>
     </row>
-    <row r="3" spans="1:14" ht="212.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="212.25" customHeight="1">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -16978,7 +16788,7 @@
       </c>
       <c r="N3" s="19"/>
     </row>
-    <row r="4" spans="1:14" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="124.5" customHeight="1">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -17020,7 +16830,7 @@
       </c>
       <c r="N4" s="18"/>
     </row>
-    <row r="5" spans="1:14" s="27" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="27" customFormat="1" ht="127.5" customHeight="1">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -17062,7 +16872,7 @@
       </c>
       <c r="N5" s="19"/>
     </row>
-    <row r="6" spans="1:14" s="27" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="27" customFormat="1" ht="131.25" customHeight="1">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -17104,7 +16914,7 @@
       </c>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="1:14" s="27" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="27" customFormat="1" ht="131.25" customHeight="1">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -17146,7 +16956,7 @@
       </c>
       <c r="N7" s="18"/>
     </row>
-    <row r="8" spans="1:14" s="27" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="27" customFormat="1" ht="124.5" customHeight="1">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -17190,7 +17000,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="27" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="27" customFormat="1" ht="124.5" customHeight="1">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -17230,7 +17040,7 @@
       </c>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" spans="1:14" s="27" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="27" customFormat="1" ht="124.5" customHeight="1">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -17270,7 +17080,7 @@
       </c>
       <c r="N10" s="18"/>
     </row>
-    <row r="11" spans="1:14" s="27" customFormat="1" ht="186.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="27" customFormat="1" ht="186.75" customHeight="1">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -17310,7 +17120,7 @@
       </c>
       <c r="N11" s="18"/>
     </row>
-    <row r="12" spans="1:14" s="27" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="27" customFormat="1" ht="133.5" customHeight="1">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -17352,7 +17162,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="27" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="27" customFormat="1" ht="409.5" customHeight="1">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -17394,7 +17204,7 @@
       </c>
       <c r="N13" s="19"/>
     </row>
-    <row r="14" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1">
       <c r="A14" s="19">
         <v>13</v>
       </c>
@@ -17436,7 +17246,7 @@
       </c>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -17478,7 +17288,7 @@
       </c>
       <c r="N15" s="18"/>
     </row>
-    <row r="16" spans="1:14" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="120" customHeight="1">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -17520,7 +17330,7 @@
       </c>
       <c r="N16" s="19"/>
     </row>
-    <row r="17" spans="1:14" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="76.5" customHeight="1">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -17562,7 +17372,7 @@
       </c>
       <c r="N17" s="19"/>
     </row>
-    <row r="18" spans="1:14" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="85.5" customHeight="1">
       <c r="A18" s="19">
         <v>17</v>
       </c>
@@ -17604,7 +17414,7 @@
       </c>
       <c r="N18" s="19"/>
     </row>
-    <row r="19" spans="1:14" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="85.5" customHeight="1">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -17644,7 +17454,7 @@
       </c>
       <c r="N19" s="19"/>
     </row>
-    <row r="20" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="75" customHeight="1">
       <c r="A20" s="19">
         <v>19</v>
       </c>
@@ -17684,7 +17494,7 @@
       </c>
       <c r="N20" s="19"/>
     </row>
-    <row r="21" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="75" customHeight="1">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -17724,7 +17534,7 @@
       </c>
       <c r="N21" s="19"/>
     </row>
-    <row r="22" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="84" customHeight="1">
       <c r="A22" s="19">
         <v>21</v>
       </c>
@@ -17764,7 +17574,7 @@
       </c>
       <c r="N22" s="19"/>
     </row>
-    <row r="23" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="84" customHeight="1">
       <c r="A23" s="19">
         <v>22</v>
       </c>
@@ -17804,7 +17614,7 @@
       </c>
       <c r="N23" s="19"/>
     </row>
-    <row r="24" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="84" customHeight="1">
       <c r="A24" s="19">
         <v>23</v>
       </c>
@@ -17846,7 +17656,7 @@
       </c>
       <c r="N24" s="19"/>
     </row>
-    <row r="25" spans="1:14" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="105.75" customHeight="1">
       <c r="A25" s="19">
         <v>24</v>
       </c>
@@ -17888,33 +17698,33 @@
       </c>
       <c r="N25" s="19"/>
     </row>
-    <row r="26" spans="1:14" ht="75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="84.75" customHeight="1">
       <c r="A26" s="19">
         <v>25</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>2007</v>
+        <v>110</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>2008</v>
+        <v>111</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>2009</v>
+        <v>222</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>2010</v>
+        <v>223</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>2011</v>
+        <v>224</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>2012</v>
+        <v>225</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>2013</v>
+        <v>226</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>2014</v>
+        <v>42</v>
       </c>
       <c r="J26" s="19" t="s">
         <v>30</v>
@@ -17923,16 +17733,14 @@
         <v>1</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>2015</v>
+        <v>23</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>1571</v>
-      </c>
-      <c r="N26" s="23" t="s">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="N26" s="19"/>
+    </row>
+    <row r="27" spans="1:14" ht="87" customHeight="1">
       <c r="A27" s="19">
         <v>26</v>
       </c>
@@ -17943,19 +17751,19 @@
         <v>111</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>222</v>
+        <v>1687</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>223</v>
+        <v>1688</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>224</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>225</v>
+        <v>1689</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>226</v>
+        <v>1690</v>
       </c>
       <c r="I27" s="19" t="s">
         <v>42</v>
@@ -17974,7 +17782,7 @@
       </c>
       <c r="N27" s="19"/>
     </row>
-    <row r="28" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="66.75" customHeight="1">
       <c r="A28" s="19">
         <v>27</v>
       </c>
@@ -17985,19 +17793,19 @@
         <v>111</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>1687</v>
+        <v>227</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>1688</v>
+        <v>228</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>1689</v>
+        <v>229</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>1690</v>
+        <v>230</v>
       </c>
       <c r="I28" s="19" t="s">
         <v>42</v>
@@ -18006,7 +17814,7 @@
         <v>30</v>
       </c>
       <c r="K28" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28" s="19" t="s">
         <v>23</v>
@@ -18016,7 +17824,7 @@
       </c>
       <c r="N28" s="19"/>
     </row>
-    <row r="29" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="92.25" customHeight="1">
       <c r="A29" s="19">
         <v>28</v>
       </c>
@@ -18024,22 +17832,22 @@
         <v>110</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>111</v>
+        <v>1691</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>227</v>
+        <v>1724</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>228</v>
+        <v>1725</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>79</v>
+        <v>1716</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>229</v>
+        <v>1726</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>230</v>
+        <v>1727</v>
       </c>
       <c r="I29" s="19" t="s">
         <v>42</v>
@@ -18048,7 +17856,7 @@
         <v>30</v>
       </c>
       <c r="K29" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29" s="19" t="s">
         <v>23</v>
@@ -18058,7 +17866,7 @@
       </c>
       <c r="N29" s="19"/>
     </row>
-    <row r="30" spans="1:14" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="89.25" customHeight="1">
       <c r="A30" s="19">
         <v>29</v>
       </c>
@@ -18069,19 +17877,19 @@
         <v>1691</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>1724</v>
+        <v>1728</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>1725</v>
+        <v>1729</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>1716</v>
+        <v>234</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>1726</v>
+        <v>1730</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>1727</v>
+        <v>1731</v>
       </c>
       <c r="I30" s="19" t="s">
         <v>42</v>
@@ -18093,14 +17901,14 @@
         <v>1</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="M30" s="19" t="s">
         <v>24</v>
       </c>
       <c r="N30" s="19"/>
     </row>
-    <row r="31" spans="1:14" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="158.25" customHeight="1">
       <c r="A31" s="19">
         <v>30</v>
       </c>
@@ -18111,19 +17919,19 @@
         <v>1691</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>1728</v>
+        <v>1790</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>1729</v>
+        <v>1789</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>1730</v>
+        <v>1692</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>1731</v>
+        <v>1693</v>
       </c>
       <c r="I31" s="19" t="s">
         <v>42</v>
@@ -18142,7 +17950,7 @@
       </c>
       <c r="N31" s="19"/>
     </row>
-    <row r="32" spans="1:14" ht="158.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="119.25" customHeight="1">
       <c r="A32" s="19">
         <v>31</v>
       </c>
@@ -18153,19 +17961,19 @@
         <v>1691</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>1790</v>
+        <v>1762</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>1789</v>
+        <v>1763</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>79</v>
+        <v>1771</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>1692</v>
+        <v>1772</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>1693</v>
+        <v>1773</v>
       </c>
       <c r="I32" s="19" t="s">
         <v>42</v>
@@ -18177,14 +17985,14 @@
         <v>1</v>
       </c>
       <c r="L32" s="19" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="M32" s="19" t="s">
         <v>24</v>
       </c>
       <c r="N32" s="19"/>
     </row>
-    <row r="33" spans="1:14" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="87.75" customHeight="1">
       <c r="A33" s="19">
         <v>32</v>
       </c>
@@ -18195,19 +18003,19 @@
         <v>1691</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>1762</v>
+        <v>1776</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>1763</v>
+        <v>1720</v>
       </c>
       <c r="F33" s="19" t="s">
         <v>1771</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>1772</v>
+        <v>1781</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>1773</v>
+        <v>1722</v>
       </c>
       <c r="I33" s="19" t="s">
         <v>42</v>
@@ -18226,7 +18034,7 @@
       </c>
       <c r="N33" s="19"/>
     </row>
-    <row r="34" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="70.5" customHeight="1">
       <c r="A34" s="19">
         <v>33</v>
       </c>
@@ -18237,19 +18045,19 @@
         <v>1691</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>1776</v>
+        <v>1769</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>1720</v>
+        <v>1770</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>1771</v>
+        <v>1775</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>1781</v>
+        <v>1774</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="I34" s="19" t="s">
         <v>42</v>
@@ -18268,7 +18076,7 @@
       </c>
       <c r="N34" s="19"/>
     </row>
-    <row r="35" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="81.75" customHeight="1">
       <c r="A35" s="19">
         <v>34</v>
       </c>
@@ -18279,19 +18087,19 @@
         <v>1691</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>1769</v>
+        <v>1780</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>1770</v>
+        <v>1785</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>1775</v>
+        <v>1786</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>1774</v>
+        <v>1787</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>1719</v>
+        <v>1788</v>
       </c>
       <c r="I35" s="19" t="s">
         <v>42</v>
@@ -18310,7 +18118,7 @@
       </c>
       <c r="N35" s="19"/>
     </row>
-    <row r="36" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="119.25" customHeight="1">
       <c r="A36" s="19">
         <v>35</v>
       </c>
@@ -18321,28 +18129,28 @@
         <v>1691</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>1780</v>
+        <v>1764</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>1785</v>
+        <v>1779</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>1786</v>
+        <v>1765</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>1787</v>
+        <v>1791</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>1788</v>
+        <v>1792</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="J36" s="19" t="s">
         <v>30</v>
       </c>
       <c r="K36" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36" s="19" t="s">
         <v>23</v>
@@ -18352,7 +18160,7 @@
       </c>
       <c r="N36" s="19"/>
     </row>
-    <row r="37" spans="1:14" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="128.25">
       <c r="A37" s="19">
         <v>36</v>
       </c>
@@ -18363,38 +18171,38 @@
         <v>1691</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>1764</v>
+        <v>1795</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>1779</v>
+        <v>1694</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>1765</v>
+        <v>79</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>1791</v>
+        <v>1695</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>1792</v>
+        <v>1696</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>294</v>
+        <v>42</v>
       </c>
       <c r="J37" s="19" t="s">
         <v>30</v>
       </c>
       <c r="K37" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37" s="19" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="M37" s="19" t="s">
         <v>24</v>
       </c>
       <c r="N37" s="19"/>
     </row>
-    <row r="38" spans="1:14" ht="135" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="131.25" customHeight="1">
       <c r="A38" s="19">
         <v>37</v>
       </c>
@@ -18405,19 +18213,19 @@
         <v>1691</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>1795</v>
+        <v>1848</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>1694</v>
+        <v>1697</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>1695</v>
+        <v>1698</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>1696</v>
+        <v>1699</v>
       </c>
       <c r="I38" s="19" t="s">
         <v>42</v>
@@ -18426,101 +18234,101 @@
         <v>30</v>
       </c>
       <c r="K38" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L38" s="19" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="M38" s="19" t="s">
         <v>24</v>
       </c>
       <c r="N38" s="19"/>
     </row>
-    <row r="39" spans="1:14" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" s="28" customFormat="1" ht="66.75" customHeight="1">
       <c r="A39" s="19">
         <v>38</v>
       </c>
-      <c r="B39" s="19" t="s">
-        <v>110</v>
+      <c r="B39" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>1691</v>
+        <v>1491</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>1848</v>
+        <v>1794</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>1697</v>
+        <v>1755</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>231</v>
+        <v>1540</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>1698</v>
+        <v>1756</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>1699</v>
-      </c>
-      <c r="I39" s="19" t="s">
+        <v>1757</v>
+      </c>
+      <c r="I39" s="18" t="s">
         <v>42</v>
       </c>
       <c r="J39" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K39" s="19">
+      <c r="K39" s="18">
         <v>2</v>
       </c>
-      <c r="L39" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M39" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N39" s="19"/>
-    </row>
-    <row r="40" spans="1:14" s="28" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L39" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M39" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N39" s="17"/>
+    </row>
+    <row r="40" spans="1:14" ht="148.5" customHeight="1">
       <c r="A40" s="19">
         <v>39</v>
       </c>
-      <c r="B40" s="18" t="s">
-        <v>36</v>
+      <c r="B40" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>1491</v>
+        <v>1691</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>1794</v>
+        <v>1847</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>1755</v>
+        <v>1700</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>1540</v>
+        <v>232</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>1756</v>
+        <v>1701</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>1757</v>
-      </c>
-      <c r="I40" s="18" t="s">
+        <v>1699</v>
+      </c>
+      <c r="I40" s="19" t="s">
         <v>42</v>
       </c>
       <c r="J40" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K40" s="18">
+      <c r="K40" s="19">
         <v>2</v>
       </c>
-      <c r="L40" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="M40" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N40" s="17"/>
-    </row>
-    <row r="41" spans="1:14" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L40" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M40" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N40" s="19"/>
+    </row>
+    <row r="41" spans="1:14" ht="144.75" customHeight="1">
       <c r="A41" s="19">
         <v>40</v>
       </c>
@@ -18531,16 +18339,16 @@
         <v>1691</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>1847</v>
+        <v>1796</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="H41" s="19" t="s">
         <v>1699</v>
@@ -18562,7 +18370,7 @@
       </c>
       <c r="N41" s="19"/>
     </row>
-    <row r="42" spans="1:14" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="139.5" customHeight="1">
       <c r="A42" s="19">
         <v>41</v>
       </c>
@@ -18573,16 +18381,16 @@
         <v>1691</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="F42" s="19" t="s">
         <v>233</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="H42" s="19" t="s">
         <v>1699</v>
@@ -18604,7 +18412,7 @@
       </c>
       <c r="N42" s="19"/>
     </row>
-    <row r="43" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="144.75" customHeight="1">
       <c r="A43" s="19">
         <v>42</v>
       </c>
@@ -18615,16 +18423,16 @@
         <v>1691</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="F43" s="19" t="s">
         <v>233</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="H43" s="19" t="s">
         <v>1699</v>
@@ -18646,7 +18454,7 @@
       </c>
       <c r="N43" s="19"/>
     </row>
-    <row r="44" spans="1:14" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="159" customHeight="1">
       <c r="A44" s="19">
         <v>43</v>
       </c>
@@ -18657,16 +18465,16 @@
         <v>1691</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="F44" s="19" t="s">
         <v>233</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="H44" s="19" t="s">
         <v>1699</v>
@@ -18688,7 +18496,7 @@
       </c>
       <c r="N44" s="19"/>
     </row>
-    <row r="45" spans="1:14" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="137.25" customHeight="1">
       <c r="A45" s="19">
         <v>44</v>
       </c>
@@ -18699,16 +18507,16 @@
         <v>1691</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="F45" s="19" t="s">
         <v>233</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="H45" s="19" t="s">
         <v>1699</v>
@@ -18730,7 +18538,7 @@
       </c>
       <c r="N45" s="19"/>
     </row>
-    <row r="46" spans="1:14" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="180" customHeight="1">
       <c r="A46" s="19">
         <v>45</v>
       </c>
@@ -18741,16 +18549,16 @@
         <v>1691</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="F46" s="19" t="s">
         <v>233</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="H46" s="19" t="s">
         <v>1699</v>
@@ -18772,7 +18580,7 @@
       </c>
       <c r="N46" s="19"/>
     </row>
-    <row r="47" spans="1:14" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="180.75" customHeight="1">
       <c r="A47" s="19">
         <v>46</v>
       </c>
@@ -18783,16 +18591,16 @@
         <v>1691</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="F47" s="19" t="s">
         <v>233</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="H47" s="19" t="s">
         <v>1699</v>
@@ -18804,7 +18612,7 @@
         <v>30</v>
       </c>
       <c r="K47" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L47" s="19" t="s">
         <v>23</v>
@@ -18814,7 +18622,7 @@
       </c>
       <c r="N47" s="19"/>
     </row>
-    <row r="48" spans="1:14" ht="180.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="180.75" customHeight="1">
       <c r="A48" s="19">
         <v>47</v>
       </c>
@@ -18825,38 +18633,24 @@
         <v>1691</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>1802</v>
+        <v>1849</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>1714</v>
+        <v>1850</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>1715</v>
-      </c>
-      <c r="H48" s="19" t="s">
-        <v>1699</v>
-      </c>
-      <c r="I48" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="J48" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K48" s="19">
-        <v>1</v>
-      </c>
-      <c r="L48" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M48" s="19" t="s">
-        <v>24</v>
-      </c>
+        <v>1851</v>
+      </c>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
       <c r="N48" s="19"/>
     </row>
-    <row r="49" spans="1:14" ht="180.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="119.25" customHeight="1">
       <c r="A49" s="19">
         <v>48</v>
       </c>
@@ -18867,24 +18661,38 @@
         <v>1691</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>1849</v>
+        <v>1760</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>1850</v>
+        <v>1761</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
+        <v>1716</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>1717</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>1718</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J49" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K49" s="19">
+        <v>1</v>
+      </c>
+      <c r="L49" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M49" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="N49" s="19"/>
     </row>
-    <row r="50" spans="1:14" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" ht="107.25" customHeight="1">
       <c r="A50" s="19">
         <v>49</v>
       </c>
@@ -18895,19 +18703,19 @@
         <v>1691</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>1760</v>
+        <v>1777</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>1761</v>
+        <v>1782</v>
       </c>
       <c r="F50" s="19" t="s">
         <v>1716</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>1717</v>
+        <v>1768</v>
       </c>
       <c r="H50" s="19" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="I50" s="19" t="s">
         <v>42</v>
@@ -18926,7 +18734,7 @@
       </c>
       <c r="N50" s="19"/>
     </row>
-    <row r="51" spans="1:14" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="107.25" customHeight="1">
       <c r="A51" s="19">
         <v>50</v>
       </c>
@@ -18937,19 +18745,19 @@
         <v>1691</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="F51" s="19" t="s">
         <v>1716</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>1768</v>
+        <v>1721</v>
       </c>
       <c r="H51" s="19" t="s">
-        <v>1719</v>
+        <v>1722</v>
       </c>
       <c r="I51" s="19" t="s">
         <v>42</v>
@@ -18968,7 +18776,7 @@
       </c>
       <c r="N51" s="19"/>
     </row>
-    <row r="52" spans="1:14" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" ht="107.25" customHeight="1">
       <c r="A52" s="19">
         <v>51</v>
       </c>
@@ -18979,19 +18787,19 @@
         <v>1691</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>1778</v>
+        <v>1793</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="F52" s="19" t="s">
         <v>1716</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>1721</v>
+        <v>1766</v>
       </c>
       <c r="H52" s="19" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="I52" s="19" t="s">
         <v>42</v>
@@ -19010,49 +18818,49 @@
       </c>
       <c r="N52" s="19"/>
     </row>
-    <row r="53" spans="1:14" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1">
       <c r="A53" s="19">
         <v>52</v>
       </c>
-      <c r="B53" s="19" t="s">
-        <v>110</v>
+      <c r="B53" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>1691</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>1793</v>
+        <v>1732</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>1784</v>
+        <v>1733</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>1716</v>
+        <v>235</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="H53" s="19" t="s">
-        <v>1723</v>
-      </c>
-      <c r="I53" s="19" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I53" s="18" t="s">
         <v>42</v>
       </c>
       <c r="J53" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K53" s="19">
-        <v>1</v>
-      </c>
-      <c r="L53" s="19" t="s">
-        <v>23</v>
+      <c r="K53" s="18">
+        <v>2</v>
+      </c>
+      <c r="L53" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="M53" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="N53" s="19"/>
-    </row>
-    <row r="54" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N53" s="18"/>
+    </row>
+    <row r="54" spans="1:14" s="28" customFormat="1" ht="124.5" customHeight="1">
       <c r="A54" s="19">
         <v>53</v>
       </c>
@@ -19063,19 +18871,19 @@
         <v>1691</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>1732</v>
+        <v>1735</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>235</v>
+        <v>1737</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>1767</v>
+        <v>1738</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>1734</v>
+        <v>1739</v>
       </c>
       <c r="I54" s="18" t="s">
         <v>42</v>
@@ -19089,12 +18897,12 @@
       <c r="L54" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="M54" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N54" s="18"/>
-    </row>
-    <row r="55" spans="1:14" s="28" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M54" s="18" t="s">
+        <v>1571</v>
+      </c>
+      <c r="N54" s="17"/>
+    </row>
+    <row r="55" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1">
       <c r="A55" s="19">
         <v>54</v>
       </c>
@@ -19105,19 +18913,19 @@
         <v>1691</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>1735</v>
+        <v>1805</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>1736</v>
+        <v>1740</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>1737</v>
+        <v>1741</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>1738</v>
+        <v>1742</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>1739</v>
+        <v>1572</v>
       </c>
       <c r="I55" s="18" t="s">
         <v>42</v>
@@ -19136,7 +18944,7 @@
       </c>
       <c r="N55" s="17"/>
     </row>
-    <row r="56" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1">
       <c r="A56" s="19">
         <v>55</v>
       </c>
@@ -19147,19 +18955,19 @@
         <v>1691</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="I56" s="18" t="s">
         <v>42</v>
@@ -19174,11 +18982,11 @@
         <v>43</v>
       </c>
       <c r="M56" s="18" t="s">
-        <v>1571</v>
+        <v>44</v>
       </c>
       <c r="N56" s="17"/>
     </row>
-    <row r="57" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1">
       <c r="A57" s="19">
         <v>56</v>
       </c>
@@ -19189,19 +18997,19 @@
         <v>1691</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="I57" s="18" t="s">
         <v>42</v>
@@ -19213,56 +19021,58 @@
         <v>2</v>
       </c>
       <c r="L57" s="18" t="s">
-        <v>43</v>
+        <v>1575</v>
       </c>
       <c r="M57" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N57" s="17"/>
     </row>
-    <row r="58" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A58" s="19">
         <v>57</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>36</v>
+        <v>1861</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>1691</v>
+        <v>1862</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>1803</v>
+        <v>1863</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>1746</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>1747</v>
+        <v>1864</v>
+      </c>
+      <c r="F58" s="30" t="s">
+        <v>1865</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>1748</v>
+        <v>1866</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>1574</v>
+        <v>1867</v>
       </c>
       <c r="I58" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J58" s="19" t="s">
+      <c r="J58" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K58" s="18">
         <v>2</v>
       </c>
       <c r="L58" s="18" t="s">
-        <v>1575</v>
+        <v>1868</v>
       </c>
       <c r="M58" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N58" s="17"/>
-    </row>
-    <row r="59" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N58" s="17" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A59" s="19">
         <v>58</v>
       </c>
@@ -19273,16 +19083,16 @@
         <v>1862</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>1863</v>
+        <v>1852</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>1864</v>
+        <v>1870</v>
       </c>
       <c r="F59" s="30" t="s">
-        <v>1865</v>
+        <v>1871</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>1866</v>
+        <v>1872</v>
       </c>
       <c r="H59" s="19" t="s">
         <v>1867</v>
@@ -19306,7 +19116,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="60" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A60" s="19">
         <v>59</v>
       </c>
@@ -19317,28 +19127,28 @@
         <v>1862</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>1852</v>
+        <v>1873</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>1870</v>
+        <v>1874</v>
       </c>
       <c r="F60" s="30" t="s">
-        <v>1871</v>
+        <v>1875</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>1872</v>
+        <v>1876</v>
       </c>
       <c r="H60" s="19" t="s">
         <v>1867</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="J60" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K60" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L60" s="18" t="s">
         <v>1868</v>
@@ -19350,7 +19160,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="61" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A61" s="19">
         <v>60</v>
       </c>
@@ -19361,16 +19171,16 @@
         <v>1862</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>1873</v>
+        <v>1853</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>1874</v>
+        <v>1877</v>
       </c>
       <c r="F61" s="30" t="s">
         <v>1875</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="H61" s="19" t="s">
         <v>1867</v>
@@ -19394,7 +19204,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="62" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A62" s="19">
         <v>61</v>
       </c>
@@ -19405,16 +19215,16 @@
         <v>1862</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>1853</v>
+        <v>1879</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>1877</v>
+        <v>1880</v>
       </c>
       <c r="F62" s="30" t="s">
-        <v>1875</v>
+        <v>1881</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>1878</v>
+        <v>1882</v>
       </c>
       <c r="H62" s="19" t="s">
         <v>1867</v>
@@ -19438,7 +19248,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="63" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A63" s="19">
         <v>62</v>
       </c>
@@ -19449,16 +19259,16 @@
         <v>1862</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>1879</v>
+        <v>1854</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>1880</v>
+        <v>1883</v>
       </c>
       <c r="F63" s="30" t="s">
         <v>1881</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="H63" s="19" t="s">
         <v>1867</v>
@@ -19482,7 +19292,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="64" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A64" s="19">
         <v>63</v>
       </c>
@@ -19493,28 +19303,28 @@
         <v>1862</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>1854</v>
+        <v>1885</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>1883</v>
+        <v>1886</v>
       </c>
       <c r="F64" s="30" t="s">
-        <v>1881</v>
+        <v>1865</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>1884</v>
+        <v>1887</v>
       </c>
       <c r="H64" s="19" t="s">
-        <v>1867</v>
+        <v>1888</v>
       </c>
       <c r="I64" s="18" t="s">
-        <v>294</v>
+        <v>42</v>
       </c>
       <c r="J64" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K64" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L64" s="18" t="s">
         <v>1868</v>
@@ -19526,7 +19336,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="65" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A65" s="19">
         <v>64</v>
       </c>
@@ -19537,16 +19347,16 @@
         <v>1862</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>1885</v>
+        <v>1889</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>1886</v>
       </c>
       <c r="F65" s="30" t="s">
-        <v>1865</v>
+        <v>1890</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>1887</v>
+        <v>1891</v>
       </c>
       <c r="H65" s="19" t="s">
         <v>1888</v>
@@ -19570,7 +19380,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="66" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A66" s="19">
         <v>65</v>
       </c>
@@ -19581,28 +19391,28 @@
         <v>1862</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>1889</v>
+        <v>1892</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>1886</v>
       </c>
       <c r="F66" s="30" t="s">
-        <v>1890</v>
+        <v>1881</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="H66" s="19" t="s">
         <v>1888</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="J66" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K66" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L66" s="18" t="s">
         <v>1868</v>
@@ -19614,7 +19424,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="67" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A67" s="19">
         <v>66</v>
       </c>
@@ -19625,28 +19435,28 @@
         <v>1862</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>1892</v>
+        <v>1894</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>1886</v>
-      </c>
-      <c r="F67" s="30" t="s">
-        <v>1881</v>
+        <v>1895</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>1896</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>1893</v>
+        <v>1897</v>
       </c>
       <c r="H67" s="19" t="s">
-        <v>1888</v>
+        <v>1898</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>294</v>
+        <v>42</v>
       </c>
       <c r="J67" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K67" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L67" s="18" t="s">
         <v>1868</v>
@@ -19658,7 +19468,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="68" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A68" s="19">
         <v>67</v>
       </c>
@@ -19669,19 +19479,19 @@
         <v>1862</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>1894</v>
+        <v>1855</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>1895</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>1896</v>
+        <v>1899</v>
       </c>
       <c r="G68" s="19" t="s">
         <v>1897</v>
       </c>
       <c r="H68" s="19" t="s">
-        <v>1898</v>
+        <v>1900</v>
       </c>
       <c r="I68" s="18" t="s">
         <v>42</v>
@@ -19702,7 +19512,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="69" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A69" s="19">
         <v>68</v>
       </c>
@@ -19713,28 +19523,28 @@
         <v>1862</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="E69" s="19" t="s">
         <v>1895</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>1899</v>
+        <v>1901</v>
       </c>
       <c r="G69" s="19" t="s">
         <v>1897</v>
       </c>
       <c r="H69" s="19" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="J69" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K69" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L69" s="18" t="s">
         <v>1868</v>
@@ -19746,7 +19556,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="70" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A70" s="19">
         <v>69</v>
       </c>
@@ -19757,13 +19567,13 @@
         <v>1862</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>1895</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="G70" s="19" t="s">
         <v>1897</v>
@@ -19790,7 +19600,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="71" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A71" s="19">
         <v>70</v>
       </c>
@@ -19801,28 +19611,28 @@
         <v>1862</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>1857</v>
+        <v>1903</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>1895</v>
+        <v>1904</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>1902</v>
+        <v>1905</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>1897</v>
+        <v>1906</v>
       </c>
       <c r="H71" s="19" t="s">
-        <v>1898</v>
+        <v>1907</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>294</v>
+        <v>42</v>
       </c>
       <c r="J71" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K71" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L71" s="18" t="s">
         <v>1868</v>
@@ -19834,7 +19644,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="72" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A72" s="19">
         <v>71</v>
       </c>
@@ -19845,19 +19655,19 @@
         <v>1862</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>1903</v>
+        <v>1858</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>1904</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>1905</v>
+        <v>1908</v>
       </c>
       <c r="G72" s="19" t="s">
         <v>1906</v>
       </c>
       <c r="H72" s="19" t="s">
-        <v>1907</v>
+        <v>1909</v>
       </c>
       <c r="I72" s="18" t="s">
         <v>42</v>
@@ -19878,7 +19688,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="73" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A73" s="19">
         <v>72</v>
       </c>
@@ -19889,28 +19699,28 @@
         <v>1862</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="E73" s="19" t="s">
         <v>1904</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
       <c r="G73" s="19" t="s">
         <v>1906</v>
       </c>
       <c r="H73" s="19" t="s">
-        <v>1909</v>
+        <v>1911</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="J73" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K73" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L73" s="18" t="s">
         <v>1868</v>
@@ -19922,7 +19732,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="74" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A74" s="19">
         <v>73</v>
       </c>
@@ -19933,13 +19743,13 @@
         <v>1862</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>1904</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="G74" s="19" t="s">
         <v>1906</v>
@@ -19966,51 +19776,49 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="75" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" s="28" customFormat="1" ht="78.75" customHeight="1">
       <c r="A75" s="19">
         <v>74</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>1861</v>
+        <v>36</v>
       </c>
       <c r="C75" s="19" t="s">
         <v>1862</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>1860</v>
+        <v>1750</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>1904</v>
+        <v>1751</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>1912</v>
+        <v>1752</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>1906</v>
+        <v>1753</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>1911</v>
+        <v>1754</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="J75" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J75" s="19" t="s">
         <v>30</v>
       </c>
       <c r="K75" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L75" s="18" t="s">
-        <v>1868</v>
+        <v>43</v>
       </c>
       <c r="M75" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N75" s="17" t="s">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" s="28" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N75" s="17"/>
+    </row>
+    <row r="76" spans="1:14" s="27" customFormat="1" ht="78.75" customHeight="1">
       <c r="A76" s="19">
         <v>75</v>
       </c>
@@ -20018,22 +19826,22 @@
         <v>36</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>1862</v>
+        <v>236</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>1750</v>
+        <v>237</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>1751</v>
+        <v>238</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>1752</v>
+        <v>79</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>1753</v>
+        <v>239</v>
       </c>
       <c r="H76" s="19" t="s">
-        <v>1754</v>
+        <v>240</v>
       </c>
       <c r="I76" s="18" t="s">
         <v>42</v>
@@ -20047,96 +19855,96 @@
       <c r="L76" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="M76" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N76" s="17"/>
-    </row>
-    <row r="77" spans="1:14" s="27" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M76" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N76" s="18"/>
+    </row>
+    <row r="77" spans="1:14" ht="78.75" customHeight="1">
       <c r="A77" s="19">
         <v>76</v>
       </c>
-      <c r="B77" s="18" t="s">
-        <v>36</v>
+      <c r="B77" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>236</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="G77" s="19" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H77" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="I77" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I77" s="19" t="s">
         <v>42</v>
       </c>
       <c r="J77" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K77" s="18">
+      <c r="K77" s="19">
         <v>2</v>
       </c>
-      <c r="L77" s="18" t="s">
-        <v>43</v>
+      <c r="L77" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="M77" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="N77" s="18"/>
-    </row>
-    <row r="78" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N77" s="19"/>
+    </row>
+    <row r="78" spans="1:14" s="27" customFormat="1" ht="78.75" customHeight="1">
       <c r="A78" s="19">
         <v>77</v>
       </c>
-      <c r="B78" s="19" t="s">
-        <v>110</v>
+      <c r="B78" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="C78" s="19" t="s">
         <v>236</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="I78" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="I78" s="18" t="s">
         <v>42</v>
       </c>
       <c r="J78" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K78" s="19">
+      <c r="K78" s="18">
         <v>2</v>
       </c>
-      <c r="L78" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="M78" s="19" t="s">
+      <c r="L78" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M78" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="N78" s="19"/>
-    </row>
-    <row r="79" spans="1:14" s="27" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N78" s="18"/>
+    </row>
+    <row r="79" spans="1:14" s="27" customFormat="1" ht="78.75" customHeight="1">
       <c r="A79" s="19">
         <v>78</v>
       </c>
@@ -20147,7 +19955,7 @@
         <v>236</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E79" s="19" t="s">
         <v>246</v>
@@ -20156,7 +19964,7 @@
         <v>79</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H79" s="19" t="s">
         <v>248</v>
@@ -20178,7 +19986,7 @@
       </c>
       <c r="N79" s="18"/>
     </row>
-    <row r="80" spans="1:14" s="27" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" s="27" customFormat="1" ht="78.75" customHeight="1">
       <c r="A80" s="19">
         <v>79</v>
       </c>
@@ -20189,7 +19997,7 @@
         <v>236</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E80" s="19" t="s">
         <v>246</v>
@@ -20198,7 +20006,7 @@
         <v>79</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H80" s="19" t="s">
         <v>248</v>
@@ -20220,49 +20028,49 @@
       </c>
       <c r="N80" s="18"/>
     </row>
-    <row r="81" spans="1:14" s="27" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" ht="78.75" customHeight="1">
       <c r="A81" s="19">
         <v>80</v>
       </c>
-      <c r="B81" s="18" t="s">
-        <v>36</v>
+      <c r="B81" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="C81" s="19" t="s">
         <v>236</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="I81" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="I81" s="19" t="s">
         <v>42</v>
       </c>
       <c r="J81" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K81" s="18">
+      <c r="K81" s="19">
         <v>2</v>
       </c>
-      <c r="L81" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="M81" s="18" t="s">
+      <c r="L81" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="M81" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="N81" s="18"/>
-    </row>
-    <row r="82" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N81" s="19"/>
+    </row>
+    <row r="82" spans="1:14" ht="78.75" customHeight="1">
       <c r="A82" s="19">
         <v>81</v>
       </c>
@@ -20273,19 +20081,19 @@
         <v>236</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G82" s="19" t="s">
         <v>256</v>
       </c>
       <c r="H82" s="19" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="I82" s="19" t="s">
         <v>42</v>
@@ -20294,17 +20102,17 @@
         <v>30</v>
       </c>
       <c r="K82" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L82" s="19" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="M82" s="19" t="s">
         <v>24</v>
       </c>
       <c r="N82" s="19"/>
     </row>
-    <row r="83" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" ht="78.75" customHeight="1">
       <c r="A83" s="19">
         <v>82</v>
       </c>
@@ -20312,22 +20120,22 @@
         <v>110</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="H83" s="19" t="s">
-        <v>261</v>
+        <v>1749</v>
       </c>
       <c r="I83" s="19" t="s">
         <v>42</v>
@@ -20346,7 +20154,7 @@
       </c>
       <c r="N83" s="19"/>
     </row>
-    <row r="84" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" ht="78.75" customHeight="1">
       <c r="A84" s="19">
         <v>83</v>
       </c>
@@ -20357,19 +20165,19 @@
         <v>262</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H84" s="19" t="s">
-        <v>1749</v>
+        <v>270</v>
       </c>
       <c r="I84" s="19" t="s">
         <v>42</v>
@@ -20381,14 +20189,14 @@
         <v>1</v>
       </c>
       <c r="L84" s="19" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="M84" s="19" t="s">
         <v>24</v>
       </c>
       <c r="N84" s="19"/>
     </row>
-    <row r="85" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" ht="78.75" customHeight="1">
       <c r="A85" s="19">
         <v>84</v>
       </c>
@@ -20396,22 +20204,22 @@
         <v>110</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H85" s="19" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="I85" s="19" t="s">
         <v>42</v>
@@ -20423,14 +20231,14 @@
         <v>1</v>
       </c>
       <c r="L85" s="19" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="M85" s="19" t="s">
         <v>24</v>
       </c>
       <c r="N85" s="19"/>
     </row>
-    <row r="86" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" ht="78.75" customHeight="1">
       <c r="A86" s="19">
         <v>85</v>
       </c>
@@ -20441,19 +20249,19 @@
         <v>271</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F86" s="19" t="s">
         <v>273</v>
       </c>
       <c r="G86" s="19" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H86" s="19" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="I86" s="19" t="s">
         <v>42</v>
@@ -20472,7 +20280,7 @@
       </c>
       <c r="N86" s="19"/>
     </row>
-    <row r="87" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" ht="78.75" customHeight="1">
       <c r="A87" s="19">
         <v>86</v>
       </c>
@@ -20483,19 +20291,19 @@
         <v>271</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F87" s="19" t="s">
         <v>273</v>
       </c>
       <c r="G87" s="19" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H87" s="19" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I87" s="19" t="s">
         <v>42</v>
@@ -20514,7 +20322,7 @@
       </c>
       <c r="N87" s="19"/>
     </row>
-    <row r="88" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" ht="78.75" customHeight="1">
       <c r="A88" s="19">
         <v>87</v>
       </c>
@@ -20522,22 +20330,22 @@
         <v>110</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>273</v>
+        <v>79</v>
       </c>
       <c r="G88" s="19" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H88" s="19" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="I88" s="19" t="s">
         <v>42</v>
@@ -20556,7 +20364,7 @@
       </c>
       <c r="N88" s="19"/>
     </row>
-    <row r="89" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" ht="78.75" customHeight="1">
       <c r="A89" s="19">
         <v>88</v>
       </c>
@@ -20567,19 +20375,19 @@
         <v>282</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="G89" s="19" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H89" s="19" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="I89" s="19" t="s">
         <v>42</v>
@@ -20598,7 +20406,7 @@
       </c>
       <c r="N89" s="19"/>
     </row>
-    <row r="90" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" ht="78.75" customHeight="1">
       <c r="A90" s="19">
         <v>89</v>
       </c>
@@ -20609,28 +20417,28 @@
         <v>282</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E90" s="19" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="G90" s="19" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H90" s="19" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="I90" s="19" t="s">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="J90" s="19" t="s">
         <v>30</v>
       </c>
       <c r="K90" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L90" s="19" t="s">
         <v>23</v>
@@ -20638,9 +20446,11 @@
       <c r="M90" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="N90" s="19"/>
-    </row>
-    <row r="91" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N90" s="19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="78.75" customHeight="1">
       <c r="A91" s="19">
         <v>90</v>
       </c>
@@ -20648,31 +20458,31 @@
         <v>110</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="F91" s="19" t="s">
         <v>79</v>
       </c>
       <c r="G91" s="19" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="H91" s="19" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="I91" s="19" t="s">
-        <v>294</v>
+        <v>42</v>
       </c>
       <c r="J91" s="19" t="s">
         <v>30</v>
       </c>
       <c r="K91" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L91" s="19" t="s">
         <v>23</v>
@@ -20680,11 +20490,9 @@
       <c r="M91" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="N91" s="19" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N91" s="19"/>
+    </row>
+    <row r="92" spans="1:14" ht="90" customHeight="1">
       <c r="A92" s="19">
         <v>91</v>
       </c>
@@ -20695,7 +20503,7 @@
         <v>296</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E92" s="19" t="s">
         <v>298</v>
@@ -20704,10 +20512,10 @@
         <v>79</v>
       </c>
       <c r="G92" s="19" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H92" s="19" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="I92" s="19" t="s">
         <v>42</v>
@@ -20726,49 +20534,49 @@
       </c>
       <c r="N92" s="19"/>
     </row>
-    <row r="93" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1">
       <c r="A93" s="19">
         <v>92</v>
       </c>
-      <c r="B93" s="19" t="s">
-        <v>110</v>
+      <c r="B93" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F93" s="19" t="s">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="G93" s="19" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H93" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="I93" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="I93" s="18" t="s">
         <v>42</v>
       </c>
       <c r="J93" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K93" s="19">
+      <c r="K93" s="18">
         <v>2</v>
       </c>
-      <c r="L93" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M93" s="19" t="s">
+      <c r="L93" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M93" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="N93" s="19"/>
-    </row>
-    <row r="94" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N93" s="18"/>
+    </row>
+    <row r="94" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1">
       <c r="A94" s="19">
         <v>93</v>
       </c>
@@ -20779,19 +20587,19 @@
         <v>304</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F94" s="19" t="s">
         <v>307</v>
       </c>
       <c r="G94" s="19" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H94" s="19" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="I94" s="18" t="s">
         <v>42</v>
@@ -20810,7 +20618,7 @@
       </c>
       <c r="N94" s="18"/>
     </row>
-    <row r="95" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" s="27" customFormat="1" ht="135.75" customHeight="1">
       <c r="A95" s="19">
         <v>94</v>
       </c>
@@ -20821,19 +20629,19 @@
         <v>304</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F95" s="19" t="s">
         <v>307</v>
       </c>
       <c r="G95" s="19" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H95" s="19" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="I95" s="18" t="s">
         <v>42</v>
@@ -20842,7 +20650,7 @@
         <v>30</v>
       </c>
       <c r="K95" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L95" s="18" t="s">
         <v>43</v>
@@ -20852,7 +20660,7 @@
       </c>
       <c r="N95" s="18"/>
     </row>
-    <row r="96" spans="1:14" s="27" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1">
       <c r="A96" s="19">
         <v>95</v>
       </c>
@@ -20863,19 +20671,19 @@
         <v>304</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="G96" s="19" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H96" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="I96" s="18" t="s">
         <v>42</v>
@@ -20884,7 +20692,7 @@
         <v>30</v>
       </c>
       <c r="K96" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L96" s="18" t="s">
         <v>43</v>
@@ -20894,7 +20702,7 @@
       </c>
       <c r="N96" s="18"/>
     </row>
-    <row r="97" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1">
       <c r="A97" s="19">
         <v>96</v>
       </c>
@@ -20905,19 +20713,19 @@
         <v>304</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="E97" s="19" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="F97" s="19" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="G97" s="19" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="H97" s="19" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="I97" s="18" t="s">
         <v>42</v>
@@ -20936,7 +20744,7 @@
       </c>
       <c r="N97" s="18"/>
     </row>
-    <row r="98" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1">
       <c r="A98" s="19">
         <v>97</v>
       </c>
@@ -20947,19 +20755,19 @@
         <v>304</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E98" s="19" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F98" s="19" t="s">
         <v>325</v>
       </c>
       <c r="G98" s="19" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="H98" s="19" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="I98" s="18" t="s">
         <v>42</v>
@@ -20978,7 +20786,7 @@
       </c>
       <c r="N98" s="18"/>
     </row>
-    <row r="99" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1">
       <c r="A99" s="19">
         <v>98</v>
       </c>
@@ -20989,19 +20797,19 @@
         <v>304</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="G99" s="19" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="H99" s="19" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="I99" s="18" t="s">
         <v>42</v>
@@ -21020,7 +20828,7 @@
       </c>
       <c r="N99" s="18"/>
     </row>
-    <row r="100" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1">
       <c r="A100" s="19">
         <v>99</v>
       </c>
@@ -21031,13 +20839,13 @@
         <v>304</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G100" s="19" t="s">
         <v>335</v>
@@ -21062,7 +20870,7 @@
       </c>
       <c r="N100" s="18"/>
     </row>
-    <row r="101" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1">
       <c r="A101" s="19">
         <v>100</v>
       </c>
@@ -21073,13 +20881,13 @@
         <v>304</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E101" s="19" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F101" s="19" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G101" s="19" t="s">
         <v>335</v>
@@ -21104,7 +20912,7 @@
       </c>
       <c r="N101" s="18"/>
     </row>
-    <row r="102" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1">
       <c r="A102" s="19">
         <v>101</v>
       </c>
@@ -21112,22 +20920,22 @@
         <v>36</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F102" s="19" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="G102" s="19" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="I102" s="18" t="s">
         <v>42</v>
@@ -21136,7 +20944,7 @@
         <v>30</v>
       </c>
       <c r="K102" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L102" s="18" t="s">
         <v>43</v>
@@ -21146,7 +20954,7 @@
       </c>
       <c r="N102" s="18"/>
     </row>
-    <row r="103" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1">
       <c r="A103" s="19">
         <v>102</v>
       </c>
@@ -21157,19 +20965,19 @@
         <v>343</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E103" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="G103" s="19" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="I103" s="18" t="s">
         <v>42</v>
@@ -21178,7 +20986,7 @@
         <v>30</v>
       </c>
       <c r="K103" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L103" s="18" t="s">
         <v>43</v>
@@ -21188,7 +20996,7 @@
       </c>
       <c r="N103" s="18"/>
     </row>
-    <row r="104" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1">
       <c r="A104" s="19">
         <v>103</v>
       </c>
@@ -21199,19 +21007,19 @@
         <v>343</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E104" s="19" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="F104" s="19" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="G104" s="19" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="I104" s="18" t="s">
         <v>42</v>
@@ -21230,30 +21038,30 @@
       </c>
       <c r="N104" s="18"/>
     </row>
-    <row r="105" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1">
       <c r="A105" s="19">
         <v>104</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>36</v>
+        <v>1334</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>343</v>
+        <v>1344</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>353</v>
+        <v>1349</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>354</v>
+        <v>1348</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>355</v>
+        <v>1347</v>
       </c>
       <c r="G105" s="19" t="s">
-        <v>356</v>
+        <v>1346</v>
       </c>
       <c r="H105" s="19" t="s">
-        <v>357</v>
+        <v>1345</v>
       </c>
       <c r="I105" s="18" t="s">
         <v>42</v>
@@ -21262,40 +21070,40 @@
         <v>30</v>
       </c>
       <c r="K105" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L105" s="18" t="s">
-        <v>43</v>
+        <v>1329</v>
       </c>
       <c r="M105" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N105" s="18"/>
-    </row>
-    <row r="106" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N105" s="17"/>
+    </row>
+    <row r="106" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1">
       <c r="A106" s="19">
         <v>105</v>
       </c>
       <c r="B106" s="18" t="s">
         <v>1334</v>
       </c>
-      <c r="C106" s="19" t="s">
+      <c r="C106" s="34" t="s">
         <v>1344</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="E106" s="19" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F106" s="19" t="s">
-        <v>1347</v>
+        <v>1342</v>
+      </c>
+      <c r="F106" s="34" t="s">
+        <v>1341</v>
       </c>
       <c r="G106" s="19" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="H106" s="19" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="I106" s="18" t="s">
         <v>42</v>
@@ -21304,7 +21112,7 @@
         <v>30</v>
       </c>
       <c r="K106" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L106" s="18" t="s">
         <v>1329</v>
@@ -21314,30 +21122,26 @@
       </c>
       <c r="N106" s="17"/>
     </row>
-    <row r="107" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1">
       <c r="A107" s="19">
         <v>106</v>
       </c>
       <c r="B107" s="18" t="s">
         <v>1334</v>
       </c>
-      <c r="C107" s="34" t="s">
-        <v>1344</v>
-      </c>
+      <c r="C107" s="35"/>
       <c r="D107" s="19" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="E107" s="19" t="s">
-        <v>1342</v>
-      </c>
-      <c r="F107" s="34" t="s">
-        <v>1341</v>
-      </c>
+        <v>1337</v>
+      </c>
+      <c r="F107" s="35"/>
       <c r="G107" s="19" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="I107" s="18" t="s">
         <v>42</v>
@@ -21356,7 +21160,7 @@
       </c>
       <c r="N107" s="17"/>
     </row>
-    <row r="108" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1">
       <c r="A108" s="19">
         <v>107</v>
       </c>
@@ -21365,17 +21169,17 @@
       </c>
       <c r="C108" s="35"/>
       <c r="D108" s="19" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="E108" s="19" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="F108" s="35"/>
       <c r="G108" s="19" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="H108" s="19" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="I108" s="18" t="s">
         <v>42</v>
@@ -21394,26 +21198,30 @@
       </c>
       <c r="N108" s="17"/>
     </row>
-    <row r="109" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" s="28" customFormat="1" ht="55.5" customHeight="1">
       <c r="A109" s="19">
         <v>108</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C109" s="35"/>
+        <v>36</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>1491</v>
+      </c>
       <c r="D109" s="19" t="s">
-        <v>1333</v>
+        <v>1539</v>
       </c>
       <c r="E109" s="19" t="s">
-        <v>1332</v>
-      </c>
-      <c r="F109" s="35"/>
+        <v>1533</v>
+      </c>
+      <c r="F109" s="19" t="s">
+        <v>388</v>
+      </c>
       <c r="G109" s="19" t="s">
-        <v>1331</v>
+        <v>1532</v>
       </c>
       <c r="H109" s="19" t="s">
-        <v>1330</v>
+        <v>1531</v>
       </c>
       <c r="I109" s="18" t="s">
         <v>42</v>
@@ -21425,14 +21233,14 @@
         <v>2</v>
       </c>
       <c r="L109" s="18" t="s">
-        <v>1329</v>
+        <v>43</v>
       </c>
       <c r="M109" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N109" s="17"/>
     </row>
-    <row r="110" spans="1:14" s="28" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" s="28" customFormat="1" ht="72.75" customHeight="1">
       <c r="A110" s="19">
         <v>109</v>
       </c>
@@ -21443,19 +21251,19 @@
         <v>1491</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="E110" s="19" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="F110" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G110" s="19" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="H110" s="19" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="I110" s="18" t="s">
         <v>42</v>
@@ -21474,7 +21282,7 @@
       </c>
       <c r="N110" s="17"/>
     </row>
-    <row r="111" spans="1:14" s="28" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" s="28" customFormat="1" ht="82.5" customHeight="1">
       <c r="A111" s="19">
         <v>110</v>
       </c>
@@ -21485,19 +21293,19 @@
         <v>1491</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="E111" s="19" t="s">
-        <v>1530</v>
+        <v>1535</v>
       </c>
       <c r="F111" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G111" s="19" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H111" s="19" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="I111" s="18" t="s">
         <v>42</v>
@@ -21516,7 +21324,7 @@
       </c>
       <c r="N111" s="17"/>
     </row>
-    <row r="112" spans="1:14" s="28" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" s="28" customFormat="1" ht="63" customHeight="1">
       <c r="A112" s="19">
         <v>111</v>
       </c>
@@ -21527,19 +21335,19 @@
         <v>1491</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>1536</v>
+        <v>1527</v>
       </c>
       <c r="E112" s="19" t="s">
-        <v>1535</v>
+        <v>1526</v>
       </c>
       <c r="F112" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G112" s="19" t="s">
-        <v>1528</v>
+        <v>1758</v>
       </c>
       <c r="H112" s="19" t="s">
-        <v>1534</v>
+        <v>1759</v>
       </c>
       <c r="I112" s="18" t="s">
         <v>42</v>
@@ -21548,7 +21356,7 @@
         <v>30</v>
       </c>
       <c r="K112" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L112" s="18" t="s">
         <v>43</v>
@@ -21558,7 +21366,7 @@
       </c>
       <c r="N112" s="17"/>
     </row>
-    <row r="113" spans="1:14" s="28" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" s="28" customFormat="1" ht="75.75" customHeight="1">
       <c r="A113" s="19">
         <v>112</v>
       </c>
@@ -21569,19 +21377,19 @@
         <v>1491</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="E113" s="19" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="F113" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G113" s="19" t="s">
-        <v>1758</v>
+        <v>1523</v>
       </c>
       <c r="H113" s="19" t="s">
-        <v>1759</v>
+        <v>1522</v>
       </c>
       <c r="I113" s="18" t="s">
         <v>42</v>
@@ -21590,7 +21398,7 @@
         <v>30</v>
       </c>
       <c r="K113" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L113" s="18" t="s">
         <v>43</v>
@@ -21600,7 +21408,7 @@
       </c>
       <c r="N113" s="17"/>
     </row>
-    <row r="114" spans="1:14" s="28" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" s="28" customFormat="1" ht="76.5" customHeight="1">
       <c r="A114" s="19">
         <v>113</v>
       </c>
@@ -21611,19 +21419,19 @@
         <v>1491</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="E114" s="19" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="F114" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G114" s="19" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="H114" s="19" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="I114" s="18" t="s">
         <v>42</v>
@@ -21632,7 +21440,7 @@
         <v>30</v>
       </c>
       <c r="K114" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L114" s="18" t="s">
         <v>43</v>
@@ -21642,7 +21450,7 @@
       </c>
       <c r="N114" s="17"/>
     </row>
-    <row r="115" spans="1:14" s="28" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" s="28" customFormat="1" ht="74.25" customHeight="1">
       <c r="A115" s="19">
         <v>114</v>
       </c>
@@ -21653,19 +21461,19 @@
         <v>1491</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="F115" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G115" s="19" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="H115" s="19" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="I115" s="18" t="s">
         <v>42</v>
@@ -21684,7 +21492,7 @@
       </c>
       <c r="N115" s="17"/>
     </row>
-    <row r="116" spans="1:14" s="28" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" s="28" customFormat="1" ht="76.5" customHeight="1">
       <c r="A116" s="19">
         <v>115</v>
       </c>
@@ -21695,19 +21503,19 @@
         <v>1491</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="E116" s="19" t="s">
-        <v>1516</v>
+        <v>1508</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>388</v>
+        <v>1512</v>
       </c>
       <c r="G116" s="19" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="H116" s="19" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="I116" s="18" t="s">
         <v>42</v>
@@ -21726,7 +21534,7 @@
       </c>
       <c r="N116" s="17"/>
     </row>
-    <row r="117" spans="1:14" s="28" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" s="28" customFormat="1" ht="80.25" customHeight="1">
       <c r="A117" s="19">
         <v>116</v>
       </c>
@@ -21737,19 +21545,19 @@
         <v>1491</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="E117" s="19" t="s">
         <v>1508</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>1512</v>
+        <v>1507</v>
       </c>
       <c r="G117" s="19" t="s">
-        <v>1511</v>
+        <v>1506</v>
       </c>
       <c r="H117" s="19" t="s">
-        <v>1510</v>
+        <v>1505</v>
       </c>
       <c r="I117" s="18" t="s">
         <v>42</v>
@@ -21768,7 +21576,7 @@
       </c>
       <c r="N117" s="17"/>
     </row>
-    <row r="118" spans="1:14" s="28" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" s="28" customFormat="1" ht="48" customHeight="1">
       <c r="A118" s="19">
         <v>117</v>
       </c>
@@ -21779,19 +21587,19 @@
         <v>1491</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="E118" s="19" t="s">
-        <v>1508</v>
+        <v>1503</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>1507</v>
+        <v>1502</v>
       </c>
       <c r="G118" s="19" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="H118" s="19" t="s">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="I118" s="18" t="s">
         <v>42</v>
@@ -21810,7 +21618,7 @@
       </c>
       <c r="N118" s="17"/>
     </row>
-    <row r="119" spans="1:14" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" s="28" customFormat="1" ht="66" customHeight="1">
       <c r="A119" s="19">
         <v>118</v>
       </c>
@@ -21821,19 +21629,19 @@
         <v>1491</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>1504</v>
+        <v>1499</v>
       </c>
       <c r="E119" s="19" t="s">
-        <v>1503</v>
+        <v>1498</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>1502</v>
+        <v>388</v>
       </c>
       <c r="G119" s="19" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="H119" s="19" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="I119" s="18" t="s">
         <v>42</v>
@@ -21852,7 +21660,7 @@
       </c>
       <c r="N119" s="17"/>
     </row>
-    <row r="120" spans="1:14" s="28" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" s="28" customFormat="1" ht="44.25" customHeight="1">
       <c r="A120" s="19">
         <v>119</v>
       </c>
@@ -21863,19 +21671,19 @@
         <v>1491</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="E120" s="19" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="F120" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G120" s="19" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="H120" s="19" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="I120" s="18" t="s">
         <v>42</v>
@@ -21894,7 +21702,7 @@
       </c>
       <c r="N120" s="17"/>
     </row>
-    <row r="121" spans="1:14" s="28" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" s="28" customFormat="1" ht="78" customHeight="1">
       <c r="A121" s="19">
         <v>120</v>
       </c>
@@ -21905,19 +21713,19 @@
         <v>1491</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>1495</v>
+        <v>1490</v>
       </c>
       <c r="E121" s="19" t="s">
-        <v>1494</v>
+        <v>1489</v>
       </c>
       <c r="F121" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G121" s="19" t="s">
-        <v>1493</v>
+        <v>1488</v>
       </c>
       <c r="H121" s="19" t="s">
-        <v>1492</v>
+        <v>1487</v>
       </c>
       <c r="I121" s="18" t="s">
         <v>42</v>
@@ -21935,68 +21743,26 @@
         <v>44</v>
       </c>
       <c r="N121" s="17"/>
-    </row>
-    <row r="122" spans="1:14" s="28" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="19">
-        <v>121</v>
-      </c>
-      <c r="B122" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C122" s="19" t="s">
-        <v>1491</v>
-      </c>
-      <c r="D122" s="19" t="s">
-        <v>1490</v>
-      </c>
-      <c r="E122" s="19" t="s">
-        <v>1489</v>
-      </c>
-      <c r="F122" s="19" t="s">
-        <v>388</v>
-      </c>
-      <c r="G122" s="19" t="s">
-        <v>1488</v>
-      </c>
-      <c r="H122" s="19" t="s">
-        <v>1487</v>
-      </c>
-      <c r="I122" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J122" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K122" s="18">
-        <v>2</v>
-      </c>
-      <c r="L122" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="M122" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N122" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="C18:C23"/>
-    <mergeCell ref="F107:F109"/>
-    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="F106:F108"/>
+    <mergeCell ref="C106:C108"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I122">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I121">
       <formula1>"功能,异常,性能,安全"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K122">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K121">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M122">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M121">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J122">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J121">
       <formula1>"None,Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
@@ -22008,33 +21774,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:N131"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="28"/>
-    <col min="2" max="2" width="17.83203125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="39.1640625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="28"/>
+    <col min="2" max="2" width="17.875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="39.125" style="28" customWidth="1"/>
     <col min="6" max="6" width="48.5" style="28" customWidth="1"/>
-    <col min="7" max="7" width="65.6640625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="56.6640625" style="28" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="28" customWidth="1"/>
-    <col min="10" max="12" width="8.83203125" style="28"/>
+    <col min="7" max="7" width="65.625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="56.625" style="28" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="28" customWidth="1"/>
+    <col min="10" max="12" width="8.875" style="28"/>
     <col min="13" max="13" width="14" style="28" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="28" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="28"/>
+    <col min="14" max="14" width="13.625" style="28" customWidth="1"/>
+    <col min="15" max="16384" width="8.875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -22078,7 +21844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="87" customHeight="1">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -22120,7 +21886,7 @@
       </c>
       <c r="N2" s="17"/>
     </row>
-    <row r="3" spans="1:14" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="94.5" customHeight="1">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -22162,7 +21928,7 @@
       </c>
       <c r="N3" s="17"/>
     </row>
-    <row r="4" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="97.5" customHeight="1">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -22204,7 +21970,7 @@
       </c>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="97.5" customHeight="1">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -22246,7 +22012,7 @@
       </c>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="97.5" customHeight="1">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -22288,7 +22054,7 @@
       </c>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="97.5" customHeight="1">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -22330,7 +22096,7 @@
       </c>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="97.5" customHeight="1">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -22372,7 +22138,7 @@
       </c>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="97.5" customHeight="1">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -22414,7 +22180,7 @@
       </c>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="97.5" customHeight="1">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -22456,7 +22222,7 @@
       </c>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="117.75" customHeight="1">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -22498,7 +22264,7 @@
       </c>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="117.75" customHeight="1">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -22540,7 +22306,7 @@
       </c>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="117.75" customHeight="1">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -22582,7 +22348,7 @@
       </c>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="117.75" customHeight="1">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -22624,7 +22390,7 @@
       </c>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="117.75" customHeight="1">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -22666,7 +22432,7 @@
       </c>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="117.75" customHeight="1">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -22708,7 +22474,7 @@
       </c>
       <c r="N16" s="17"/>
     </row>
-    <row r="17" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="87.75" customHeight="1">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -22750,7 +22516,7 @@
       </c>
       <c r="N17" s="17"/>
     </row>
-    <row r="18" spans="1:14" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="83.25" customHeight="1">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -22792,7 +22558,7 @@
       </c>
       <c r="N18" s="17"/>
     </row>
-    <row r="19" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="90" customHeight="1">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -22834,7 +22600,7 @@
       </c>
       <c r="N19" s="17"/>
     </row>
-    <row r="20" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="93.75" customHeight="1">
       <c r="A20" s="18">
         <v>19</v>
       </c>
@@ -22876,7 +22642,7 @@
       </c>
       <c r="N20" s="17"/>
     </row>
-    <row r="21" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="93.75" customHeight="1">
       <c r="A21" s="18">
         <v>20</v>
       </c>
@@ -22918,7 +22684,7 @@
       </c>
       <c r="N21" s="18"/>
     </row>
-    <row r="22" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="91.5" customHeight="1">
       <c r="A22" s="18">
         <v>21</v>
       </c>
@@ -22960,7 +22726,7 @@
       </c>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="93" customHeight="1">
       <c r="A23" s="18">
         <v>22</v>
       </c>
@@ -23002,7 +22768,7 @@
       </c>
       <c r="N23" s="17"/>
     </row>
-    <row r="24" spans="1:14" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="138.75" customHeight="1">
       <c r="A24" s="18">
         <v>23</v>
       </c>
@@ -23044,7 +22810,7 @@
       </c>
       <c r="N24" s="18"/>
     </row>
-    <row r="25" spans="1:14" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="171.75" customHeight="1">
       <c r="A25" s="18">
         <v>24</v>
       </c>
@@ -23086,7 +22852,7 @@
       </c>
       <c r="N25" s="18"/>
     </row>
-    <row r="26" spans="1:14" ht="120" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="114">
       <c r="A26" s="18">
         <v>25</v>
       </c>
@@ -23128,7 +22894,7 @@
       </c>
       <c r="N26" s="18"/>
     </row>
-    <row r="27" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="128.25" customHeight="1">
       <c r="A27" s="18">
         <v>26</v>
       </c>
@@ -23170,7 +22936,7 @@
       </c>
       <c r="N27" s="18"/>
     </row>
-    <row r="28" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="78.75" customHeight="1">
       <c r="A28" s="18">
         <v>27</v>
       </c>
@@ -23212,7 +22978,7 @@
       </c>
       <c r="N28" s="18"/>
     </row>
-    <row r="29" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="78.75" customHeight="1">
       <c r="A29" s="18">
         <v>28</v>
       </c>
@@ -23254,7 +23020,7 @@
       </c>
       <c r="N29" s="18"/>
     </row>
-    <row r="30" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="78.75" customHeight="1">
       <c r="A30" s="18">
         <v>29</v>
       </c>
@@ -23292,7 +23058,7 @@
       </c>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="78.75" customHeight="1">
       <c r="A31" s="18">
         <v>30</v>
       </c>
@@ -23330,7 +23096,7 @@
       </c>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="78.75" customHeight="1">
       <c r="A32" s="18">
         <v>31</v>
       </c>
@@ -23368,7 +23134,7 @@
       </c>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="78.75" customHeight="1">
       <c r="A33" s="18">
         <v>32</v>
       </c>
@@ -23406,7 +23172,7 @@
       </c>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="78.75" customHeight="1">
       <c r="A34" s="18">
         <v>33</v>
       </c>
@@ -23440,7 +23206,7 @@
       </c>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="78.75" customHeight="1">
       <c r="A35" s="18">
         <v>34</v>
       </c>
@@ -23480,7 +23246,7 @@
       </c>
       <c r="N35" s="18"/>
     </row>
-    <row r="36" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="78.75" customHeight="1">
       <c r="A36" s="18">
         <v>35</v>
       </c>
@@ -23520,7 +23286,7 @@
       </c>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="70.5" customHeight="1">
       <c r="A37" s="18">
         <v>36</v>
       </c>
@@ -23562,7 +23328,7 @@
       </c>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="70.5" customHeight="1">
       <c r="A38" s="18">
         <v>37</v>
       </c>
@@ -23604,7 +23370,7 @@
       </c>
       <c r="N38" s="18"/>
     </row>
-    <row r="39" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="70.5" customHeight="1">
       <c r="A39" s="18">
         <v>38</v>
       </c>
@@ -23646,7 +23412,7 @@
       </c>
       <c r="N39" s="18"/>
     </row>
-    <row r="40" spans="1:14" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="120" customHeight="1">
       <c r="A40" s="18">
         <v>39</v>
       </c>
@@ -23688,7 +23454,7 @@
       </c>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="1:14" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="120" customHeight="1">
       <c r="A41" s="18">
         <v>40</v>
       </c>
@@ -23730,7 +23496,7 @@
       </c>
       <c r="N41" s="17"/>
     </row>
-    <row r="42" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A42" s="18">
         <v>41</v>
       </c>
@@ -23774,7 +23540,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="43" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A43" s="18">
         <v>42</v>
       </c>
@@ -23818,7 +23584,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="100.5" customHeight="1">
       <c r="A44" s="18">
         <v>43</v>
       </c>
@@ -23860,7 +23626,7 @@
       </c>
       <c r="N44" s="18"/>
     </row>
-    <row r="45" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="82.5" customHeight="1">
       <c r="A45" s="18">
         <v>44</v>
       </c>
@@ -23902,7 +23668,7 @@
       </c>
       <c r="N45" s="18"/>
     </row>
-    <row r="46" spans="1:14" ht="75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="85.5">
       <c r="A46" s="18">
         <v>45</v>
       </c>
@@ -23944,7 +23710,7 @@
       </c>
       <c r="N46" s="18"/>
     </row>
-    <row r="47" spans="1:14" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="144.75" customHeight="1">
       <c r="A47" s="18">
         <v>46</v>
       </c>
@@ -23986,7 +23752,7 @@
       </c>
       <c r="N47" s="18"/>
     </row>
-    <row r="48" spans="1:14" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="140.25" customHeight="1">
       <c r="A48" s="18">
         <v>47</v>
       </c>
@@ -24028,7 +23794,7 @@
       </c>
       <c r="N48" s="18"/>
     </row>
-    <row r="49" spans="1:14" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="124.5" customHeight="1">
       <c r="A49" s="18">
         <v>48</v>
       </c>
@@ -24070,7 +23836,7 @@
       </c>
       <c r="N49" s="18"/>
     </row>
-    <row r="50" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" ht="77.25" customHeight="1">
       <c r="A50" s="18">
         <v>49</v>
       </c>
@@ -24108,7 +23874,7 @@
       </c>
       <c r="N50" s="18"/>
     </row>
-    <row r="51" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="77.25" customHeight="1">
       <c r="A51" s="18">
         <v>50</v>
       </c>
@@ -24146,7 +23912,7 @@
       </c>
       <c r="N51" s="18"/>
     </row>
-    <row r="52" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" ht="77.25" customHeight="1">
       <c r="A52" s="18">
         <v>51</v>
       </c>
@@ -24188,7 +23954,7 @@
       </c>
       <c r="N52" s="18"/>
     </row>
-    <row r="53" spans="1:14" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="104.25" customHeight="1">
       <c r="A53" s="18">
         <v>52</v>
       </c>
@@ -24230,7 +23996,7 @@
       </c>
       <c r="N53" s="18"/>
     </row>
-    <row r="54" spans="1:14" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="106.5" customHeight="1">
       <c r="A54" s="18">
         <v>53</v>
       </c>
@@ -24272,7 +24038,7 @@
       </c>
       <c r="N54" s="18"/>
     </row>
-    <row r="55" spans="1:14" ht="60" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="57">
       <c r="A55" s="18">
         <v>54</v>
       </c>
@@ -24314,7 +24080,7 @@
       </c>
       <c r="N55" s="18"/>
     </row>
-    <row r="56" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="82.5" customHeight="1">
       <c r="A56" s="18">
         <v>55</v>
       </c>
@@ -24356,7 +24122,7 @@
       </c>
       <c r="N56" s="18"/>
     </row>
-    <row r="57" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="82.5" customHeight="1">
       <c r="A57" s="18">
         <v>56</v>
       </c>
@@ -24398,7 +24164,7 @@
       </c>
       <c r="N57" s="18"/>
     </row>
-    <row r="58" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" ht="82.5" customHeight="1">
       <c r="A58" s="18">
         <v>57</v>
       </c>
@@ -24440,7 +24206,7 @@
       </c>
       <c r="N58" s="18"/>
     </row>
-    <row r="59" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" ht="97.5" customHeight="1">
       <c r="A59" s="18">
         <v>58</v>
       </c>
@@ -24482,7 +24248,7 @@
       </c>
       <c r="N59" s="18"/>
     </row>
-    <row r="60" spans="1:14" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" ht="86.25" customHeight="1">
       <c r="A60" s="18">
         <v>59</v>
       </c>
@@ -24524,7 +24290,7 @@
       </c>
       <c r="N60" s="18"/>
     </row>
-    <row r="61" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" ht="93.75" customHeight="1">
       <c r="A61" s="18">
         <v>60</v>
       </c>
@@ -24566,7 +24332,7 @@
       </c>
       <c r="N61" s="18"/>
     </row>
-    <row r="62" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" ht="82.5" customHeight="1">
       <c r="A62" s="18">
         <v>61</v>
       </c>
@@ -24608,7 +24374,7 @@
       </c>
       <c r="N62" s="17"/>
     </row>
-    <row r="63" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" ht="90" customHeight="1">
       <c r="A63" s="18">
         <v>62</v>
       </c>
@@ -24650,7 +24416,7 @@
       </c>
       <c r="N63" s="17"/>
     </row>
-    <row r="64" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A64" s="18">
         <v>63</v>
       </c>
@@ -24694,7 +24460,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="65" spans="1:14" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" customFormat="1" ht="104.25" customHeight="1">
       <c r="A65" s="18">
         <v>64</v>
       </c>
@@ -24738,7 +24504,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="66" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A66" s="18">
         <v>65</v>
       </c>
@@ -24782,7 +24548,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="67" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A67" s="18">
         <v>66</v>
       </c>
@@ -24826,7 +24592,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="68" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A68" s="18">
         <v>67</v>
       </c>
@@ -24870,7 +24636,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="69" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A69" s="18">
         <v>68</v>
       </c>
@@ -24914,7 +24680,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="70" spans="1:14" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" customFormat="1" ht="137.25" customHeight="1">
       <c r="A70" s="18">
         <v>69</v>
       </c>
@@ -24958,7 +24724,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="71" spans="1:14" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" customFormat="1" ht="137.25" customHeight="1">
       <c r="A71" s="18">
         <v>70</v>
       </c>
@@ -25002,7 +24768,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="72" spans="1:14" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" customFormat="1" ht="137.25" customHeight="1">
       <c r="A72" s="18">
         <v>71</v>
       </c>
@@ -25046,7 +24812,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="73" spans="1:14" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" customFormat="1" ht="137.25" customHeight="1">
       <c r="A73" s="18">
         <v>72</v>
       </c>
@@ -25090,7 +24856,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" ht="98.25" customHeight="1">
       <c r="A74" s="18">
         <v>73</v>
       </c>
@@ -25132,7 +24898,7 @@
       </c>
       <c r="N74" s="18"/>
     </row>
-    <row r="75" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A75" s="18">
         <v>74</v>
       </c>
@@ -25176,7 +24942,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" ht="104.25" customHeight="1">
       <c r="A76" s="18">
         <v>75</v>
       </c>
@@ -25218,7 +24984,7 @@
       </c>
       <c r="N76" s="18"/>
     </row>
-    <row r="77" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" ht="78.75" customHeight="1">
       <c r="A77" s="18">
         <v>76</v>
       </c>
@@ -25260,7 +25026,7 @@
       </c>
       <c r="N77" s="18"/>
     </row>
-    <row r="78" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" ht="78.75" customHeight="1">
       <c r="A78" s="18">
         <v>77</v>
       </c>
@@ -25302,7 +25068,7 @@
       </c>
       <c r="N78" s="18"/>
     </row>
-    <row r="79" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" ht="78.75" customHeight="1">
       <c r="A79" s="18">
         <v>78</v>
       </c>
@@ -25344,7 +25110,7 @@
       </c>
       <c r="N79" s="18"/>
     </row>
-    <row r="80" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" ht="78.75" customHeight="1">
       <c r="A80" s="18">
         <v>79</v>
       </c>
@@ -25386,7 +25152,7 @@
       </c>
       <c r="N80" s="18"/>
     </row>
-    <row r="81" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" ht="78.75" customHeight="1">
       <c r="A81" s="18">
         <v>80</v>
       </c>
@@ -25428,7 +25194,7 @@
       </c>
       <c r="N81" s="18"/>
     </row>
-    <row r="82" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" ht="78.75" customHeight="1">
       <c r="A82" s="18">
         <v>81</v>
       </c>
@@ -25470,7 +25236,7 @@
       </c>
       <c r="N82" s="18"/>
     </row>
-    <row r="83" spans="1:14" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" ht="95.25" customHeight="1">
       <c r="A83" s="18">
         <v>82</v>
       </c>
@@ -25512,7 +25278,7 @@
       </c>
       <c r="N83" s="18"/>
     </row>
-    <row r="84" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" ht="93" customHeight="1">
       <c r="A84" s="18">
         <v>83</v>
       </c>
@@ -25554,7 +25320,7 @@
       </c>
       <c r="N84" s="18"/>
     </row>
-    <row r="85" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" ht="90" customHeight="1">
       <c r="A85" s="18">
         <v>84</v>
       </c>
@@ -25596,7 +25362,7 @@
       </c>
       <c r="N85" s="18"/>
     </row>
-    <row r="86" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" ht="90" customHeight="1">
       <c r="A86" s="18">
         <v>85</v>
       </c>
@@ -25638,7 +25404,7 @@
       </c>
       <c r="N86" s="18"/>
     </row>
-    <row r="87" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" ht="90" customHeight="1">
       <c r="A87" s="18">
         <v>86</v>
       </c>
@@ -25680,7 +25446,7 @@
       </c>
       <c r="N87" s="18"/>
     </row>
-    <row r="88" spans="1:14" ht="183.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" ht="183.75" customHeight="1">
       <c r="A88" s="18">
         <v>87</v>
       </c>
@@ -25722,7 +25488,7 @@
       </c>
       <c r="N88" s="18"/>
     </row>
-    <row r="89" spans="1:14" ht="194.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" ht="194.25" customHeight="1">
       <c r="A89" s="18">
         <v>88</v>
       </c>
@@ -25764,7 +25530,7 @@
       </c>
       <c r="N89" s="18"/>
     </row>
-    <row r="90" spans="1:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" ht="63.75" customHeight="1">
       <c r="A90" s="18">
         <v>89</v>
       </c>
@@ -25806,7 +25572,7 @@
       </c>
       <c r="N90" s="18"/>
     </row>
-    <row r="91" spans="1:14" ht="75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" ht="71.25">
       <c r="A91" s="18">
         <v>90</v>
       </c>
@@ -25848,7 +25614,7 @@
       </c>
       <c r="N91" s="18"/>
     </row>
-    <row r="92" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" ht="87" customHeight="1">
       <c r="A92" s="18">
         <v>91</v>
       </c>
@@ -25890,7 +25656,7 @@
       </c>
       <c r="N92" s="17"/>
     </row>
-    <row r="93" spans="1:14" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" customFormat="1" ht="118.5" customHeight="1">
       <c r="A93" s="18">
         <v>92</v>
       </c>
@@ -25934,7 +25700,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" ht="80.25" customHeight="1">
       <c r="A94" s="18">
         <v>93</v>
       </c>
@@ -25976,7 +25742,7 @@
       </c>
       <c r="N94" s="18"/>
     </row>
-    <row r="95" spans="1:14" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" ht="161.25" customHeight="1">
       <c r="A95" s="18">
         <v>94</v>
       </c>
@@ -26018,7 +25784,7 @@
       </c>
       <c r="N95" s="19"/>
     </row>
-    <row r="96" spans="1:14" ht="192.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" ht="192.75" customHeight="1">
       <c r="A96" s="18">
         <v>95</v>
       </c>
@@ -26060,7 +25826,7 @@
       </c>
       <c r="N96" s="18"/>
     </row>
-    <row r="97" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" ht="57.75" customHeight="1">
       <c r="A97" s="18">
         <v>96</v>
       </c>
@@ -26102,7 +25868,7 @@
       </c>
       <c r="N97" s="18"/>
     </row>
-    <row r="98" spans="1:14" ht="60" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" ht="57">
       <c r="A98" s="18">
         <v>97</v>
       </c>
@@ -26144,7 +25910,7 @@
       </c>
       <c r="N98" s="18"/>
     </row>
-    <row r="99" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" ht="54.75" customHeight="1">
       <c r="A99" s="18">
         <v>98</v>
       </c>
@@ -26186,7 +25952,7 @@
       </c>
       <c r="N99" s="18"/>
     </row>
-    <row r="100" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" ht="42.75">
       <c r="A100" s="18">
         <v>99</v>
       </c>
@@ -26228,7 +25994,7 @@
       </c>
       <c r="N100" s="17"/>
     </row>
-    <row r="101" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" ht="54.75" customHeight="1">
       <c r="A101" s="18">
         <v>100</v>
       </c>
@@ -26270,7 +26036,7 @@
       </c>
       <c r="N101" s="17"/>
     </row>
-    <row r="102" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" ht="54.75" customHeight="1">
       <c r="A102" s="18">
         <v>101</v>
       </c>
@@ -26310,7 +26076,7 @@
       </c>
       <c r="N102" s="17"/>
     </row>
-    <row r="103" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" ht="54.75" customHeight="1">
       <c r="A103" s="18">
         <v>102</v>
       </c>
@@ -26350,7 +26116,7 @@
       </c>
       <c r="N103" s="17"/>
     </row>
-    <row r="104" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" ht="54.75" customHeight="1">
       <c r="A104" s="18">
         <v>103</v>
       </c>
@@ -26390,7 +26156,7 @@
       </c>
       <c r="N104" s="17"/>
     </row>
-    <row r="105" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" ht="54.75" customHeight="1">
       <c r="A105" s="18">
         <v>104</v>
       </c>
@@ -26430,7 +26196,7 @@
       </c>
       <c r="N105" s="17"/>
     </row>
-    <row r="106" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" ht="54.75" customHeight="1">
       <c r="A106" s="18">
         <v>105</v>
       </c>
@@ -26472,7 +26238,7 @@
       </c>
       <c r="N106" s="17"/>
     </row>
-    <row r="107" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" ht="54.75" customHeight="1">
       <c r="A107" s="18">
         <v>106</v>
       </c>
@@ -26512,7 +26278,7 @@
       </c>
       <c r="N107" s="17"/>
     </row>
-    <row r="108" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" ht="54.75" customHeight="1">
       <c r="A108" s="18">
         <v>107</v>
       </c>
@@ -26552,7 +26318,7 @@
       </c>
       <c r="N108" s="17"/>
     </row>
-    <row r="109" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" ht="54.75" customHeight="1">
       <c r="A109" s="18">
         <v>108</v>
       </c>
@@ -26592,7 +26358,7 @@
       </c>
       <c r="N109" s="17"/>
     </row>
-    <row r="110" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" ht="54.75" customHeight="1">
       <c r="A110" s="18">
         <v>109</v>
       </c>
@@ -26632,7 +26398,7 @@
       </c>
       <c r="N110" s="17"/>
     </row>
-    <row r="111" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" ht="54.75" customHeight="1">
       <c r="A111" s="18">
         <v>110</v>
       </c>
@@ -26672,7 +26438,7 @@
       </c>
       <c r="N111" s="17"/>
     </row>
-    <row r="112" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" ht="54.75" customHeight="1">
       <c r="A112" s="18">
         <v>111</v>
       </c>
@@ -26714,7 +26480,7 @@
       </c>
       <c r="N112" s="17"/>
     </row>
-    <row r="113" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" ht="54.75" customHeight="1">
       <c r="A113" s="18">
         <v>112</v>
       </c>
@@ -26756,7 +26522,7 @@
       </c>
       <c r="N113" s="17"/>
     </row>
-    <row r="114" spans="1:14" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" ht="79.5" customHeight="1">
       <c r="A114" s="18">
         <v>113</v>
       </c>
@@ -26798,7 +26564,7 @@
       </c>
       <c r="N114" s="18"/>
     </row>
-    <row r="115" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" ht="77.25" customHeight="1">
       <c r="A115" s="18">
         <v>114</v>
       </c>
@@ -26840,7 +26606,7 @@
       </c>
       <c r="N115" s="18"/>
     </row>
-    <row r="116" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" ht="77.25" customHeight="1">
       <c r="A116" s="18">
         <v>115</v>
       </c>
@@ -26882,7 +26648,7 @@
       </c>
       <c r="N116" s="18"/>
     </row>
-    <row r="117" spans="1:14" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" ht="179.25" customHeight="1">
       <c r="A117" s="18">
         <v>116</v>
       </c>
@@ -26924,7 +26690,7 @@
       </c>
       <c r="N117" s="18"/>
     </row>
-    <row r="118" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" ht="77.25" customHeight="1">
       <c r="A118" s="18">
         <v>117</v>
       </c>
@@ -26966,7 +26732,7 @@
       </c>
       <c r="N118" s="18"/>
     </row>
-    <row r="119" spans="1:14" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" ht="179.25" customHeight="1">
       <c r="A119" s="18">
         <v>118</v>
       </c>
@@ -27008,7 +26774,7 @@
       </c>
       <c r="N119" s="18"/>
     </row>
-    <row r="120" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" ht="77.25" customHeight="1">
       <c r="A120" s="18">
         <v>119</v>
       </c>
@@ -27050,7 +26816,7 @@
       </c>
       <c r="N120" s="18"/>
     </row>
-    <row r="121" spans="1:14" ht="234.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" ht="234.75" customHeight="1">
       <c r="A121" s="18">
         <v>120</v>
       </c>
@@ -27092,7 +26858,7 @@
       </c>
       <c r="N121" s="18"/>
     </row>
-    <row r="122" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" ht="98.25" customHeight="1">
       <c r="A122" s="18">
         <v>121</v>
       </c>
@@ -27134,7 +26900,7 @@
       </c>
       <c r="N122" s="18"/>
     </row>
-    <row r="123" spans="1:14" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" ht="117" customHeight="1">
       <c r="A123" s="18">
         <v>122</v>
       </c>
@@ -27176,7 +26942,7 @@
       </c>
       <c r="N123" s="18"/>
     </row>
-    <row r="124" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" ht="98.25" customHeight="1">
       <c r="A124" s="18">
         <v>123</v>
       </c>
@@ -27218,7 +26984,7 @@
       </c>
       <c r="N124" s="18"/>
     </row>
-    <row r="125" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" ht="98.25" customHeight="1">
       <c r="A125" s="18">
         <v>124</v>
       </c>
@@ -27260,7 +27026,7 @@
       </c>
       <c r="N125" s="18"/>
     </row>
-    <row r="126" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" ht="98.25" customHeight="1">
       <c r="A126" s="18">
         <v>125</v>
       </c>
@@ -27302,7 +27068,7 @@
       </c>
       <c r="N126" s="18"/>
     </row>
-    <row r="127" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" ht="117.75" customHeight="1">
       <c r="A127" s="18">
         <v>126</v>
       </c>
@@ -27344,7 +27110,7 @@
       </c>
       <c r="N127" s="17"/>
     </row>
-    <row r="128" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" ht="98.25" customHeight="1">
       <c r="A128" s="18">
         <v>127</v>
       </c>
@@ -27386,7 +27152,7 @@
       </c>
       <c r="N128" s="18"/>
     </row>
-    <row r="129" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" ht="98.25" customHeight="1">
       <c r="A129" s="18">
         <v>128</v>
       </c>
@@ -27428,7 +27194,7 @@
       </c>
       <c r="N129" s="18"/>
     </row>
-    <row r="130" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" ht="98.25" customHeight="1">
       <c r="A130" s="18">
         <v>129</v>
       </c>
@@ -27470,7 +27236,7 @@
       </c>
       <c r="N130" s="18"/>
     </row>
-    <row r="131" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" ht="98.25" customHeight="1">
       <c r="A131" s="18">
         <v>130</v>
       </c>
@@ -27545,29 +27311,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:A76"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" customWidth="1"/>
-    <col min="5" max="5" width="28.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="21.875" customWidth="1"/>
+    <col min="5" max="5" width="28.875" customWidth="1"/>
     <col min="6" max="6" width="58" customWidth="1"/>
-    <col min="7" max="7" width="49.6640625" customWidth="1"/>
-    <col min="8" max="8" width="51.83203125" customWidth="1"/>
+    <col min="7" max="7" width="49.625" customWidth="1"/>
+    <col min="8" max="8" width="51.875" customWidth="1"/>
     <col min="14" max="14" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -27611,7 +27377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="211.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="211.5" customHeight="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -27653,7 +27419,7 @@
       </c>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="128.25" customHeight="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -27695,7 +27461,7 @@
       </c>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" ht="220.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="220.5" customHeight="1">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -27737,7 +27503,7 @@
       </c>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="67.5" customHeight="1">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -27779,7 +27545,7 @@
       </c>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="67.5" customHeight="1">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -27821,7 +27587,7 @@
       </c>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="117.75" customHeight="1">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -27863,7 +27629,7 @@
       </c>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="117.75" customHeight="1">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -27901,7 +27667,7 @@
       </c>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="57" customHeight="1">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -27925,7 +27691,7 @@
       <c r="M9" s="18"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="40.5" customHeight="1">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -27949,7 +27715,7 @@
       <c r="M10" s="18"/>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="1:14" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="100.5" customHeight="1">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -27993,7 +27759,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="78.75" customHeight="1">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -28035,7 +27801,7 @@
       </c>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="174.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="174.75" customHeight="1">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -28075,7 +27841,7 @@
       </c>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="90.75" customHeight="1">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -28111,7 +27877,7 @@
       </c>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="97.5" customHeight="1">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -28151,7 +27917,7 @@
       </c>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="86.25" customHeight="1">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -28193,7 +27959,7 @@
       </c>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:14" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="103.5" customHeight="1">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -28235,7 +28001,7 @@
       </c>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="128.25" customHeight="1">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -28277,7 +28043,7 @@
       </c>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14" ht="153.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="153.75" customHeight="1">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -28317,7 +28083,7 @@
       </c>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="97.5" customHeight="1">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -28357,7 +28123,7 @@
       </c>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="93.75" customHeight="1">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -28397,7 +28163,7 @@
       </c>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="101.25" customHeight="1">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -28437,7 +28203,7 @@
       </c>
       <c r="N22" s="8"/>
     </row>
-    <row r="23" spans="1:14" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="111" customHeight="1">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -28477,7 +28243,7 @@
       </c>
       <c r="N23" s="8"/>
     </row>
-    <row r="24" spans="1:14" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="103.5" customHeight="1">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -28517,7 +28283,7 @@
       </c>
       <c r="N24" s="8"/>
     </row>
-    <row r="25" spans="1:14" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="104.25" customHeight="1">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -28557,7 +28323,7 @@
       </c>
       <c r="N25" s="8"/>
     </row>
-    <row r="26" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="101.25" customHeight="1">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -28597,7 +28363,7 @@
       </c>
       <c r="N26" s="8"/>
     </row>
-    <row r="27" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="101.25" customHeight="1">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -28639,7 +28405,7 @@
       </c>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="101.25" customHeight="1">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -28679,7 +28445,7 @@
       </c>
       <c r="N28" s="8"/>
     </row>
-    <row r="29" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="101.25" customHeight="1">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -28719,7 +28485,7 @@
       </c>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="101.25" customHeight="1">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -28759,7 +28525,7 @@
       </c>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="101.25" customHeight="1">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -28799,7 +28565,7 @@
       </c>
       <c r="N31" s="8"/>
     </row>
-    <row r="32" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="101.25" customHeight="1">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -28839,7 +28605,7 @@
       </c>
       <c r="N32" s="8"/>
     </row>
-    <row r="33" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="101.25" customHeight="1">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -28879,7 +28645,7 @@
       </c>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="101.25" customHeight="1">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -28919,7 +28685,7 @@
       </c>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="101.25" customHeight="1">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -28961,7 +28727,7 @@
       </c>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="128.25" customHeight="1">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -29003,7 +28769,7 @@
       </c>
       <c r="N36" s="8"/>
     </row>
-    <row r="37" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="128.25" customHeight="1">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -29045,116 +28811,110 @@
       </c>
       <c r="N37" s="8"/>
     </row>
-    <row r="38" spans="1:14" ht="135" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="128.25" customHeight="1">
       <c r="A38" s="7">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>2007</v>
+        <v>110</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>821</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>2020</v>
+        <v>910</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>2017</v>
+        <v>911</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>876</v>
+        <v>388</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>2018</v>
+        <v>912</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>2019</v>
+        <v>913</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J38" s="19" t="s">
+      <c r="J38" s="5" t="s">
         <v>30</v>
       </c>
       <c r="K38" s="5">
         <v>2</v>
       </c>
-      <c r="L38" s="19" t="s">
-        <v>2015</v>
+      <c r="L38" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="M38" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N38" s="23" t="s">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N38" s="8"/>
+    </row>
+    <row r="39" spans="1:14" ht="128.25" customHeight="1">
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>821</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>910</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>911</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>912</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>913</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K39" s="5">
+      <c r="B39" s="18" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>1326</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>1325</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J39" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" s="18">
         <v>2</v>
       </c>
-      <c r="L39" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M39" s="5" t="s">
+      <c r="L39" s="18" t="s">
+        <v>1304</v>
+      </c>
+      <c r="M39" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N39" s="8"/>
-    </row>
-    <row r="40" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N39" s="17"/>
+    </row>
+    <row r="40" spans="1:14" ht="128.25" customHeight="1">
       <c r="A40" s="7">
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
         <v>1311</v>
       </c>
-      <c r="C40" s="34" t="s">
-        <v>1310</v>
-      </c>
+      <c r="C40" s="36"/>
       <c r="D40" s="19" t="s">
-        <v>1328</v>
-      </c>
-      <c r="E40" s="34" t="s">
-        <v>1327</v>
-      </c>
+        <v>1324</v>
+      </c>
+      <c r="E40" s="36"/>
       <c r="F40" s="19" t="s">
         <v>1323</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="I40" s="18" t="s">
         <v>42</v>
@@ -29173,26 +28933,30 @@
       </c>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="128.25" customHeight="1">
       <c r="A41" s="7">
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
         <v>1311</v>
       </c>
-      <c r="C41" s="36"/>
+      <c r="C41" s="19" t="s">
+        <v>1310</v>
+      </c>
       <c r="D41" s="19" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E41" s="36"/>
+        <v>1320</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>1319</v>
+      </c>
       <c r="F41" s="19" t="s">
-        <v>1323</v>
+        <v>1314</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="I41" s="18" t="s">
         <v>42</v>
@@ -29201,7 +28965,7 @@
         <v>22</v>
       </c>
       <c r="K41" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L41" s="18" t="s">
         <v>1304</v>
@@ -29211,7 +28975,7 @@
       </c>
       <c r="N41" s="17"/>
     </row>
-    <row r="42" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="128.25" customHeight="1">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -29222,19 +28986,19 @@
         <v>1310</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="F42" s="19" t="s">
         <v>1314</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="I42" s="18" t="s">
         <v>42</v>
@@ -29243,7 +29007,7 @@
         <v>22</v>
       </c>
       <c r="K42" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L42" s="18" t="s">
         <v>1304</v>
@@ -29253,7 +29017,7 @@
       </c>
       <c r="N42" s="17"/>
     </row>
-    <row r="43" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="128.25" customHeight="1">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -29264,25 +29028,25 @@
         <v>1310</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>1316</v>
+        <v>1309</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>1315</v>
+        <v>1308</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>1314</v>
+        <v>1307</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>1313</v>
+        <v>1306</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="I43" s="18" t="s">
         <v>42</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="K43" s="18">
         <v>2</v>
@@ -29295,76 +29059,72 @@
       </c>
       <c r="N43" s="17"/>
     </row>
-    <row r="44" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="128.25" customHeight="1">
       <c r="A44" s="7">
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>1310</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>1309</v>
+        <v>1303</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>1301</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>1308</v>
+        <v>1300</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>1305</v>
+        <v>1294</v>
       </c>
       <c r="I44" s="18" t="s">
         <v>42</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="K44" s="18">
         <v>2</v>
       </c>
       <c r="L44" s="18" t="s">
-        <v>1304</v>
+        <v>43</v>
       </c>
       <c r="M44" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N44" s="17"/>
     </row>
-    <row r="45" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="128.25" customHeight="1">
       <c r="A45" s="7">
         <v>44</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>1302</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C45" s="36"/>
       <c r="D45" s="20" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="F45" s="19" t="s">
         <v>1296</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="H45" s="19" t="s">
         <v>1294</v>
       </c>
-      <c r="I45" s="18" t="s">
-        <v>42</v>
-      </c>
+      <c r="I45" s="18"/>
       <c r="J45" s="18" t="s">
         <v>30</v>
       </c>
@@ -29379,30 +29139,34 @@
       </c>
       <c r="N45" s="17"/>
     </row>
-    <row r="46" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="128.25" customHeight="1">
       <c r="A46" s="7">
         <v>45</v>
       </c>
       <c r="B46" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="36"/>
-      <c r="D46" s="20" t="s">
-        <v>1298</v>
+      <c r="C46" s="34" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>1293</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>1296</v>
+        <v>388</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>1294</v>
-      </c>
-      <c r="I46" s="18"/>
+        <v>1286</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="J46" s="18" t="s">
         <v>30</v>
       </c>
@@ -29417,27 +29181,25 @@
       </c>
       <c r="N46" s="17"/>
     </row>
-    <row r="47" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="128.25" customHeight="1">
       <c r="A47" s="7">
         <v>46</v>
       </c>
       <c r="B47" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="34" t="s">
-        <v>1267</v>
-      </c>
+      <c r="C47" s="36"/>
       <c r="D47" s="19" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="F47" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="H47" s="19" t="s">
         <v>1286</v>
@@ -29459,28 +29221,30 @@
       </c>
       <c r="N47" s="17"/>
     </row>
-    <row r="48" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="128.25" customHeight="1">
       <c r="A48" s="7">
         <v>47</v>
       </c>
       <c r="B48" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="36"/>
+      <c r="C48" s="19" t="s">
+        <v>1267</v>
+      </c>
       <c r="D48" s="19" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>388</v>
+        <v>1283</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="I48" s="18" t="s">
         <v>42</v>
@@ -29499,7 +29263,7 @@
       </c>
       <c r="N48" s="17"/>
     </row>
-    <row r="49" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="128.25" customHeight="1">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -29510,19 +29274,19 @@
         <v>1267</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="H49" s="19" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="I49" s="18" t="s">
         <v>42</v>
@@ -29541,7 +29305,7 @@
       </c>
       <c r="N49" s="17"/>
     </row>
-    <row r="50" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" ht="128.25" customHeight="1">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -29552,19 +29316,19 @@
         <v>1267</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>1278</v>
+        <v>388</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="H50" s="19" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="I50" s="18" t="s">
         <v>42</v>
@@ -29583,7 +29347,7 @@
       </c>
       <c r="N50" s="17"/>
     </row>
-    <row r="51" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="128.25" customHeight="1">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -29594,28 +29358,28 @@
         <v>1267</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>388</v>
+        <v>1264</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="H51" s="19" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="J51" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K51" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L51" s="18" t="s">
         <v>43</v>
@@ -29625,7 +29389,7 @@
       </c>
       <c r="N51" s="17"/>
     </row>
-    <row r="52" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" ht="128.25" customHeight="1">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -29636,19 +29400,19 @@
         <v>1267</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="F52" s="19" t="s">
         <v>1264</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="H52" s="19" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="I52" s="18" t="s">
         <v>294</v>
@@ -29667,49 +29431,49 @@
       </c>
       <c r="N52" s="17"/>
     </row>
-    <row r="53" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="96" customHeight="1">
       <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>1267</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>1266</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>1264</v>
-      </c>
-      <c r="G53" s="19" t="s">
-        <v>1263</v>
-      </c>
-      <c r="H53" s="19" t="s">
-        <v>1262</v>
-      </c>
-      <c r="I53" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="J53" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K53" s="18">
-        <v>3</v>
-      </c>
-      <c r="L53" s="18" t="s">
+      <c r="B53" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>914</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>915</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K53" s="5">
+        <v>2</v>
+      </c>
+      <c r="L53" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M53" s="18" t="s">
+      <c r="M53" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N53" s="17"/>
-    </row>
-    <row r="54" spans="1:14" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N53" s="8"/>
+    </row>
+    <row r="54" spans="1:14" ht="97.5" customHeight="1">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -29720,16 +29484,16 @@
         <v>914</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>916</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>919</v>
@@ -29751,7 +29515,7 @@
       </c>
       <c r="N54" s="8"/>
     </row>
-    <row r="55" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="99" customHeight="1">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -29762,19 +29526,19 @@
         <v>914</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>916</v>
+        <v>924</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>919</v>
+        <v>927</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>42</v>
@@ -29793,7 +29557,7 @@
       </c>
       <c r="N55" s="8"/>
     </row>
-    <row r="56" spans="1:14" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="77.25" customHeight="1">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -29804,16 +29568,16 @@
         <v>914</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>927</v>
@@ -29835,7 +29599,7 @@
       </c>
       <c r="N56" s="8"/>
     </row>
-    <row r="57" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="101.25" customHeight="1">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -29846,16 +29610,16 @@
         <v>914</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>930</v>
+        <v>824</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>927</v>
@@ -29877,7 +29641,7 @@
       </c>
       <c r="N57" s="8"/>
     </row>
-    <row r="58" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" ht="101.25" customHeight="1">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -29888,19 +29652,19 @@
         <v>914</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>824</v>
+        <v>937</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>42</v>
@@ -29919,7 +29683,7 @@
       </c>
       <c r="N58" s="8"/>
     </row>
-    <row r="59" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" ht="101.25" customHeight="1">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -29930,25 +29694,25 @@
         <v>914</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>937</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K59" s="5">
         <v>2</v>
@@ -29961,7 +29725,7 @@
       </c>
       <c r="N59" s="8"/>
     </row>
-    <row r="60" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" ht="101.25" customHeight="1">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -29972,19 +29736,19 @@
         <v>914</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>937</v>
+        <v>946</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>42</v>
@@ -30003,7 +29767,7 @@
       </c>
       <c r="N60" s="8"/>
     </row>
-    <row r="61" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" ht="101.25" customHeight="1">
       <c r="A61" s="7">
         <v>60</v>
       </c>
@@ -30014,19 +29778,19 @@
         <v>914</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>946</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>42</v>
@@ -30045,7 +29809,7 @@
       </c>
       <c r="N61" s="8"/>
     </row>
-    <row r="62" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" ht="101.25" customHeight="1">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -30056,19 +29820,19 @@
         <v>914</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>946</v>
+        <v>955</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>951</v>
+        <v>956</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="I62" s="5" t="s">
         <v>42</v>
@@ -30087,7 +29851,7 @@
       </c>
       <c r="N62" s="8"/>
     </row>
-    <row r="63" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" ht="101.25" customHeight="1">
       <c r="A63" s="7">
         <v>62</v>
       </c>
@@ -30098,19 +29862,19 @@
         <v>914</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>955</v>
+        <v>824</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>42</v>
@@ -30129,7 +29893,7 @@
       </c>
       <c r="N63" s="8"/>
     </row>
-    <row r="64" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" ht="101.25" customHeight="1">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -30140,19 +29904,19 @@
         <v>914</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>824</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>42</v>
@@ -30171,7 +29935,7 @@
       </c>
       <c r="N64" s="8"/>
     </row>
-    <row r="65" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" ht="101.25" customHeight="1">
       <c r="A65" s="7">
         <v>64</v>
       </c>
@@ -30182,28 +29946,28 @@
         <v>914</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>824</v>
+        <v>968</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K65" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L65" s="5" t="s">
         <v>43</v>
@@ -30213,7 +29977,7 @@
       </c>
       <c r="N65" s="8"/>
     </row>
-    <row r="66" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" ht="101.25" customHeight="1">
       <c r="A66" s="7">
         <v>65</v>
       </c>
@@ -30227,16 +29991,16 @@
         <v>966</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>42</v>
@@ -30245,7 +30009,7 @@
         <v>30</v>
       </c>
       <c r="K66" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L66" s="5" t="s">
         <v>43</v>
@@ -30255,7 +30019,7 @@
       </c>
       <c r="N66" s="8"/>
     </row>
-    <row r="67" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" ht="101.25" customHeight="1">
       <c r="A67" s="7">
         <v>66</v>
       </c>
@@ -30269,16 +30033,16 @@
         <v>966</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="I67" s="5" t="s">
         <v>42</v>
@@ -30297,36 +30061,36 @@
       </c>
       <c r="N67" s="8"/>
     </row>
-    <row r="68" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" ht="117.75" customHeight="1">
       <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>110</v>
+      <c r="B68" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>914</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>966</v>
+        <v>979</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>976</v>
+        <v>981</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>978</v>
+        <v>983</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K68" s="5">
         <v>2</v>
@@ -30339,7 +30103,7 @@
       </c>
       <c r="N68" s="8"/>
     </row>
-    <row r="69" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" ht="117.75" customHeight="1">
       <c r="A69" s="7">
         <v>68</v>
       </c>
@@ -30350,25 +30114,25 @@
         <v>914</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>980</v>
+        <v>985</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>981</v>
+        <v>986</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="I69" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="K69" s="5">
         <v>2</v>
@@ -30379,9 +30143,11 @@
       <c r="M69" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N69" s="8"/>
-    </row>
-    <row r="70" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N69" s="8" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="117.75" customHeight="1">
       <c r="A70" s="7">
         <v>69</v>
       </c>
@@ -30392,25 +30158,25 @@
         <v>914</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="I70" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="K70" s="5">
         <v>2</v>
@@ -30421,11 +30187,9 @@
       <c r="M70" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N70" s="8" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N70" s="8"/>
+    </row>
+    <row r="71" spans="1:14" ht="117.75" customHeight="1">
       <c r="A71" s="7">
         <v>70</v>
       </c>
@@ -30433,22 +30197,22 @@
         <v>36</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>914</v>
+        <v>995</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="I71" s="5" t="s">
         <v>42</v>
@@ -30467,36 +30231,36 @@
       </c>
       <c r="N71" s="8"/>
     </row>
-    <row r="72" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" ht="101.25" customHeight="1">
       <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>36</v>
+      <c r="B72" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K72" s="5">
         <v>2</v>
@@ -30509,7 +30273,7 @@
       </c>
       <c r="N72" s="8"/>
     </row>
-    <row r="73" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" ht="101.25" customHeight="1">
       <c r="A73" s="7">
         <v>72</v>
       </c>
@@ -30520,19 +30284,19 @@
         <v>1001</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>1004</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="I73" s="5" t="s">
         <v>42</v>
@@ -30551,7 +30315,7 @@
       </c>
       <c r="N73" s="8"/>
     </row>
-    <row r="74" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" ht="101.25" customHeight="1">
       <c r="A74" s="7">
         <v>73</v>
       </c>
@@ -30562,19 +30326,19 @@
         <v>1001</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>1004</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>42</v>
@@ -30593,7 +30357,7 @@
       </c>
       <c r="N74" s="8"/>
     </row>
-    <row r="75" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" ht="101.25" customHeight="1">
       <c r="A75" s="7">
         <v>74</v>
       </c>
@@ -30604,19 +30368,19 @@
         <v>1001</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>1004</v>
+        <v>1017</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>42</v>
@@ -30625,7 +30389,7 @@
         <v>30</v>
       </c>
       <c r="K75" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L75" s="5" t="s">
         <v>43</v>
@@ -30635,71 +30399,29 @@
       </c>
       <c r="N75" s="8"/>
     </row>
-    <row r="76" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="7">
-        <v>75</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>1017</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>1018</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>1019</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K76" s="5">
-        <v>1</v>
-      </c>
-      <c r="L76" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M76" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N76" s="8"/>
-    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C46:C47"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="C18:C26"/>
     <mergeCell ref="C27:C34"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C44:C45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M76">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M75">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K76">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K75">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J76">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J75">
       <formula1>"None,Pass,Fail"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I76">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I75">
       <formula1>"功能,异常,性能,安全"</formula1>
     </dataValidation>
   </dataValidations>
@@ -30710,7 +30432,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:N35"/>
@@ -30719,19 +30441,19 @@
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" customWidth="1"/>
-    <col min="6" max="6" width="50.33203125" customWidth="1"/>
-    <col min="7" max="7" width="52.33203125" customWidth="1"/>
-    <col min="8" max="8" width="43.1640625" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="27.625" customWidth="1"/>
+    <col min="6" max="6" width="50.375" customWidth="1"/>
+    <col min="7" max="7" width="52.375" customWidth="1"/>
+    <col min="8" max="8" width="43.125" customWidth="1"/>
+    <col min="14" max="14" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -30775,7 +30497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="124.5" customHeight="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -30817,7 +30539,7 @@
       </c>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="113.25" customHeight="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -30859,7 +30581,7 @@
       </c>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="68.25" customHeight="1">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -30901,7 +30623,7 @@
       </c>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="82.5" customHeight="1">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -30943,7 +30665,7 @@
       </c>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="78" customHeight="1">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -30985,7 +30707,7 @@
       </c>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="52.5" customHeight="1">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -31027,7 +30749,7 @@
       </c>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:14" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="105" customHeight="1">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -31071,7 +30793,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="96.75" customHeight="1">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -31113,7 +30835,7 @@
       </c>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="105" customHeight="1">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -31155,7 +30877,7 @@
       </c>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="141" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="141" customHeight="1">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -31197,7 +30919,7 @@
       </c>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="109.5" customHeight="1">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -31239,7 +30961,7 @@
       </c>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="138.75" customHeight="1">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -31283,7 +31005,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="121.5" customHeight="1">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -31325,7 +31047,7 @@
       </c>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="115.5" customHeight="1">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -31367,7 +31089,7 @@
       </c>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="116.25" customHeight="1">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -31411,7 +31133,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="124.5" customHeight="1">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -31453,7 +31175,7 @@
       </c>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="119.25" customHeight="1">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -31495,7 +31217,7 @@
       </c>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="105.75" customHeight="1">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -31537,7 +31259,7 @@
       </c>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="58.5" customHeight="1">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -31579,7 +31301,7 @@
       </c>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="81.75" customHeight="1">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -31621,7 +31343,7 @@
       </c>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:14" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="144.75" customHeight="1">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -31663,7 +31385,7 @@
       </c>
       <c r="N22" s="11"/>
     </row>
-    <row r="23" spans="1:14" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="151.5" customHeight="1">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -31705,7 +31427,7 @@
       </c>
       <c r="N23" s="11"/>
     </row>
-    <row r="24" spans="1:14" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="144" customHeight="1">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -31747,7 +31469,7 @@
       </c>
       <c r="N24" s="11"/>
     </row>
-    <row r="25" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="128.25" customHeight="1">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -31789,7 +31511,7 @@
       </c>
       <c r="N25" s="11"/>
     </row>
-    <row r="26" spans="1:14" ht="129" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="129" customHeight="1">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -31831,7 +31553,7 @@
       </c>
       <c r="N26" s="11"/>
     </row>
-    <row r="27" spans="1:14" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="92.25" customHeight="1">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -31873,7 +31595,7 @@
       </c>
       <c r="N27" s="11"/>
     </row>
-    <row r="28" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="77.25" customHeight="1">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -31915,7 +31637,7 @@
       </c>
       <c r="N28" s="8"/>
     </row>
-    <row r="29" spans="1:14" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="68.25" customHeight="1">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -31957,7 +31679,7 @@
       </c>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="69" customHeight="1">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -31999,7 +31721,7 @@
       </c>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="93" customHeight="1">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -32041,7 +31763,7 @@
       </c>
       <c r="N31" s="8"/>
     </row>
-    <row r="32" spans="1:14" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="123" customHeight="1">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -32083,7 +31805,7 @@
       </c>
       <c r="N32" s="8"/>
     </row>
-    <row r="33" spans="1:14" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="132.75" customHeight="1">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -32125,7 +31847,7 @@
       </c>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="1:14" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="147" customHeight="1">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -32167,7 +31889,7 @@
       </c>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="51.75" customHeight="1">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -32232,7 +31954,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor rgb="FFFFFF99"/>
   </sheetPr>
   <dimension ref="A1:N6"/>
@@ -32241,18 +31963,18 @@
       <selection activeCell="J2" sqref="J2:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
-    <col min="6" max="6" width="28.1640625" customWidth="1"/>
-    <col min="7" max="7" width="39.6640625" customWidth="1"/>
-    <col min="8" max="8" width="37.83203125" customWidth="1"/>
+    <col min="5" max="5" width="26.75" customWidth="1"/>
+    <col min="6" max="6" width="28.125" customWidth="1"/>
+    <col min="7" max="7" width="39.625" customWidth="1"/>
+    <col min="8" max="8" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -32296,7 +32018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="135.75" customHeight="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -32338,7 +32060,7 @@
       </c>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="106.5" customHeight="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -32380,7 +32102,7 @@
       </c>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="125.25" customHeight="1">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -32422,7 +32144,7 @@
       </c>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="116.25" customHeight="1">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -32464,7 +32186,7 @@
       </c>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:14" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="116.25" customHeight="1">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -32528,7 +32250,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:N6"/>
@@ -32537,18 +32259,18 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
     <col min="6" max="6" width="30.5" customWidth="1"/>
-    <col min="7" max="7" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="31.625" customWidth="1"/>
     <col min="8" max="8" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="14.25">
       <c r="A1" s="17" t="s">
         <v>1806</v>
       </c>
@@ -32592,7 +32314,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="84.75" customHeight="1">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -32634,7 +32356,7 @@
       </c>
       <c r="N2" s="17"/>
     </row>
-    <row r="3" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="90" customHeight="1">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -32676,7 +32398,7 @@
       </c>
       <c r="N3" s="17"/>
     </row>
-    <row r="4" spans="1:14" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="96.75" customHeight="1">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -32718,7 +32440,7 @@
       </c>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="81" customHeight="1">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -32760,7 +32482,7 @@
       </c>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:14" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="103.5" customHeight="1">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -32824,7 +32546,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:N23"/>
@@ -32833,19 +32555,19 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="34.33203125" customWidth="1"/>
-    <col min="7" max="7" width="42.1640625" customWidth="1"/>
-    <col min="8" max="8" width="37.1640625" customWidth="1"/>
-    <col min="14" max="14" width="28.1640625" customWidth="1"/>
+    <col min="6" max="6" width="34.375" customWidth="1"/>
+    <col min="7" max="7" width="42.25" customWidth="1"/>
+    <col min="8" max="8" width="37.125" customWidth="1"/>
+    <col min="14" max="14" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="29.25" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -32889,7 +32611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="57.75" customHeight="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -32931,7 +32653,7 @@
       </c>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="84.75" customHeight="1">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -32973,7 +32695,7 @@
       </c>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="72" customHeight="1">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -33013,7 +32735,7 @@
       </c>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:14" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="147" customHeight="1">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -33055,7 +32777,7 @@
       </c>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="72" customHeight="1">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -33097,7 +32819,7 @@
       </c>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="72" customHeight="1">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -33137,7 +32859,7 @@
       </c>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="72" customHeight="1">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -33177,7 +32899,7 @@
       </c>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="72" customHeight="1">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -33217,7 +32939,7 @@
       </c>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="72" customHeight="1">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -33259,7 +32981,7 @@
       </c>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="1:14" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="152.25" customHeight="1">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -33301,7 +33023,7 @@
       </c>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="82.5" customHeight="1">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -33345,7 +33067,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="48.75" customHeight="1">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -33387,7 +33109,7 @@
       </c>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:14" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="111" customHeight="1">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -33429,7 +33151,7 @@
       </c>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:14" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="88.5" customHeight="1">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -33471,7 +33193,7 @@
       </c>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:14" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="76.5" customHeight="1">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -33513,7 +33235,7 @@
       </c>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:14" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="88.5" customHeight="1">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -33557,7 +33279,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="87" customHeight="1">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -33599,7 +33321,7 @@
       </c>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="1:14" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="96.75" customHeight="1">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -33641,7 +33363,7 @@
       </c>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:14" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="125.25" customHeight="1">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -33683,7 +33405,7 @@
       </c>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:14" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="76.5" customHeight="1">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -33725,7 +33447,7 @@
       </c>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:14" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="104.25" customHeight="1">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -33767,7 +33489,7 @@
       </c>
       <c r="N22" s="8"/>
     </row>
-    <row r="23" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="51" customHeight="1">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -33836,7 +33558,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor rgb="FFFFCCFF"/>
   </sheetPr>
   <dimension ref="A1:N4"/>
@@ -33845,18 +33567,18 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" customWidth="1"/>
-    <col min="7" max="7" width="37.6640625" customWidth="1"/>
-    <col min="8" max="8" width="40.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="6" max="6" width="24.25" customWidth="1"/>
+    <col min="7" max="7" width="37.75" customWidth="1"/>
+    <col min="8" max="8" width="40.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="14.25">
       <c r="A1" s="17" t="s">
         <v>1415</v>
       </c>
@@ -33900,7 +33622,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="134.25" customHeight="1">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -33942,7 +33664,7 @@
       </c>
       <c r="N2" s="17"/>
     </row>
-    <row r="3" spans="1:14" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="127.5" customHeight="1">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -33984,7 +33706,7 @@
       </c>
       <c r="N3" s="17"/>
     </row>
-    <row r="4" spans="1:14" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="146.25" customHeight="1">
       <c r="A4" s="18">
         <v>3</v>
       </c>

--- a/regression/testcase_ConverLab_all.xlsx
+++ b/regression/testcase_ConverLab_all.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27815"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/WilliamZhou/Documents/test/regression/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="17540" activeTab="3"/>
+    <workbookView xWindow="960" yWindow="465" windowWidth="24240" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -24,14 +19,6 @@
     <sheet name="快捷版" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -2633,7 +2620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A56" authorId="0">
+    <comment ref="A58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2731,7 +2718,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A74" authorId="0">
+    <comment ref="A76" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2790,277 +2777,6 @@
             <family val="2"/>
           </rPr>
           <t>功能和List排序等功能
-Done</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A81" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office 用</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>户</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-          </rPr>
-          <t>:公司网站</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>两</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-          </rPr>
-          <t>个用例太</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>过</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-          </rPr>
-          <t>薄弱。需要有</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>设</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-          </rPr>
-          <t>置、</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>页</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-          </rPr>
-          <t>面流量</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>统计</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-          </rPr>
-          <t>、来源跟踪、嵌入表</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>单</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-          </rPr>
-          <t>、可追踪二</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>维码</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-          </rPr>
-          <t>和数据</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>统计</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-          </rPr>
-          <t>等功能
-Done</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A82" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office 用</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>户</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-          </rPr>
-          <t>:H5</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>页</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-          </rPr>
-          <t>面
 Done</t>
         </r>
       </text>
@@ -3075,8 +2791,7 @@
             <rFont val="ＭＳ Ｐゴシック"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">作者:
-</t>
+          <t>Microsoft Office 用</t>
         </r>
         <r>
           <rPr>
@@ -3087,7 +2802,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>邮</t>
+          <t>户</t>
         </r>
         <r>
           <rPr>
@@ -3097,7 +2812,7 @@
             <rFont val="ＭＳ Ｐゴシック"/>
             <family val="2"/>
           </rPr>
-          <t>件的埋点（文字和</t>
+          <t>:公司网站</t>
         </r>
         <r>
           <rPr>
@@ -3108,7 +2823,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>图</t>
+          <t>两</t>
         </r>
         <r>
           <rPr>
@@ -3118,7 +2833,7 @@
             <rFont val="ＭＳ Ｐゴシック"/>
             <family val="2"/>
           </rPr>
-          <t>片）和数据</t>
+          <t>个用例太</t>
         </r>
         <r>
           <rPr>
@@ -3129,7 +2844,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>统计</t>
+          <t>过</t>
         </r>
         <r>
           <rPr>
@@ -3139,7 +2854,7 @@
             <rFont val="ＭＳ Ｐゴシック"/>
             <family val="2"/>
           </rPr>
-          <t>和</t>
+          <t>薄弱。需要有</t>
         </r>
         <r>
           <rPr>
@@ -3150,7 +2865,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>邮</t>
+          <t>设</t>
         </r>
         <r>
           <rPr>
@@ -3160,7 +2875,7 @@
             <rFont val="ＭＳ Ｐゴシック"/>
             <family val="2"/>
           </rPr>
-          <t>件列表的UI</t>
+          <t>置、</t>
         </r>
         <r>
           <rPr>
@@ -3171,32 +2886,17 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>检查</t>
-        </r>
-        <r>
-          <rPr>
+          <t>页</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="11"/>
             <color indexed="81"/>
             <rFont val="ＭＳ Ｐゴシック"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-Done</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G99" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">作者:
-</t>
+          <t>面流量</t>
         </r>
         <r>
           <rPr>
@@ -3207,7 +2907,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>设</t>
+          <t>统计</t>
         </r>
         <r>
           <rPr>
@@ -3217,7 +2917,7 @@
             <rFont val="ＭＳ Ｐゴシック"/>
             <family val="2"/>
           </rPr>
-          <t>置</t>
+          <t>、来源跟踪、嵌入表</t>
         </r>
         <r>
           <rPr>
@@ -3228,7 +2928,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>验证</t>
+          <t>单</t>
         </r>
         <r>
           <rPr>
@@ -3238,7 +2938,7 @@
             <rFont val="ＭＳ Ｐゴシック"/>
             <family val="2"/>
           </rPr>
-          <t>收到的短消息</t>
+          <t>、可追踪二</t>
         </r>
         <r>
           <rPr>
@@ -3249,7 +2949,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>签</t>
+          <t>维码</t>
         </r>
         <r>
           <rPr>
@@ -3259,7 +2959,7 @@
             <rFont val="ＭＳ Ｐゴシック"/>
             <family val="2"/>
           </rPr>
-          <t>名是否和</t>
+          <t>和数据</t>
         </r>
         <r>
           <rPr>
@@ -3270,7 +2970,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>设</t>
+          <t>统计</t>
         </r>
         <r>
           <rPr>
@@ -3280,7 +2980,8 @@
             <rFont val="ＭＳ Ｐゴシック"/>
             <family val="2"/>
           </rPr>
-          <t>置的相同。</t>
+          <t>等功能
+Done</t>
         </r>
         <r>
           <rPr>
@@ -3290,11 +2991,297 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Done</t>
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="H115" authorId="0">
+    <comment ref="A85" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office 用</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>户</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>:H5</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>页</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>面
+Done</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A86" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">作者:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>邮</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>件的埋点（文字和</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>图</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>片）和数据</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>统计</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>和</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>邮</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>件列表的UI</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>检查</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Done</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G102" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">作者:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>设</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>置</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>验证</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>收到的短消息</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>签</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>名是否和</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>设</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>置的相同。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Done</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H118" authorId="0">
       <text>
         <r>
           <rPr>
@@ -5254,7 +5241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4839" uniqueCount="2021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4887" uniqueCount="2046">
   <si>
     <t>编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -14458,12 +14445,104 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ConvertLab</t>
+  </si>
+  <si>
+    <t>内容_微页面_表单</t>
+  </si>
+  <si>
+    <t>微页面表单限制重复提交</t>
+  </si>
+  <si>
+    <t>检测微页面表单限制重复提交功能可用</t>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 待测客户在客户列表中不存在</t>
+  </si>
+  <si>
+    <t>1 新建微页面，并添加表单内容字段
+2 在表单设置中，选择“每台电脑/手机限填一次”，保存并发布该微页面
+3 待测客户使用手机端访问该微页面并提交表单，再次访问该页面提交表单</t>
+  </si>
+  <si>
+    <t>1 待测客户第一次成功提交表单并成为新客户，在客户列表中存在
+2 第二次客户无法提交表单，只能访问页面，且“提交”按钮处于“disable”状态，页面显示“对不起，该表单限填一次，请勿重复填写”信息
+3 微页面的数据流量统计准确</t>
+  </si>
+  <si>
+    <t>张庆云</t>
+  </si>
+  <si>
+    <t>Sprint 0.35
+XP-3781</t>
+  </si>
+  <si>
+    <t>同一用户不同浏览器限制表单重复提交</t>
+  </si>
+  <si>
+    <t>检测同一用户不同浏览器限制微页面表单重复提交</t>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 待测客户在客户列表中存在</t>
+  </si>
+  <si>
+    <t>1 待测客户第一次成功提交微页面表单信息，信息内容补充进客户详情字段中
+2 第二次客户无法提交表单，只能访问页面，且“提交”按钮处于“disable”状态，页面显示“对不起，该表单限填一次，请勿重复填写”信息
+3 微页面的数据流量统计准确</t>
+  </si>
+  <si>
+    <t>1 新建微页面，并添加表单内容字段
+2 在表单设置中，选择“每台电脑/手机限填一次”，保存并发布该微页面
+3 待测客户使用pc端访问该微页面并提交表单，再次使用该浏览器访问该页面提交表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页_dashboard</t>
+  </si>
+  <si>
+    <t>首页柱状图分析包含每天的总计数字</t>
+  </si>
+  <si>
+    <t>检测首页中新增客户分析-柱状图分析中，显示每天的总计数据</t>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到Convert Lab系统
+2 通过excel 表格导入大量客户（来源、营销活动、当前阶段），自定义</t>
+  </si>
+  <si>
+    <t>1 查看客户新增数据分析，按“来源”、“营销活动”、“阶段”分析查看数据</t>
+  </si>
+  <si>
+    <t>1 柱状图数据分析中，显示不同“来源”（“营销活动”、“阶段”）各项分类数据，同时显示每条的总计数据，数据统计准确</t>
+  </si>
+  <si>
+    <t>Sprint 0.35
+XP-4112</t>
+  </si>
+  <si>
+    <t>内容_网站页面_嵌入式表单</t>
+  </si>
+  <si>
+    <t>嵌入式表单限制重复提交</t>
+  </si>
+  <si>
+    <t>1 新建嵌入式表单，并添加表单内容字段
+2 在表单设置中，选择“每台电脑/手机限填一次”，并将该表单嵌入外部页面
+3 待测客户使用chrome浏览器访问该外部页面并提交表单，再次访问该页面提交表单</t>
+  </si>
+  <si>
+    <t>1 待测客户第一次成功提交表单并成为新客户，在客户列表中存在
+2 第二次客户无法提交表单，只能访问页面，且“提交”按钮处于“disable”状态，页面显示“对不起，该表单限填一次，请勿重复填写”信息</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -14577,6 +14656,27 @@
       <name val="dengxian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -14661,7 +14761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -14781,6 +14881,53 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -15098,29 +15245,29 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="32.125" style="10" customWidth="1"/>
     <col min="6" max="6" width="32" style="10" customWidth="1"/>
-    <col min="7" max="7" width="50.6640625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="38.6640625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="50.625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="38.625" style="10" customWidth="1"/>
     <col min="9" max="12" width="9" style="4" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9.625" style="4" customWidth="1"/>
     <col min="14" max="14" width="9" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="4"/>
+    <col min="15" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15164,7 +15311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="132.75" customHeight="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -15206,8 +15353,8 @@
       </c>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+    <row r="3" spans="1:14" ht="82.5" customHeight="1">
+      <c r="A3" s="55">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -15248,8 +15395,8 @@
       </c>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+    <row r="4" spans="1:14" ht="105" customHeight="1">
+      <c r="A4" s="55">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -15290,8 +15437,8 @@
       </c>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:14" s="9" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+    <row r="5" spans="1:14" s="9" customFormat="1" ht="61.5" customHeight="1">
+      <c r="A5" s="55">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -15332,8 +15479,8 @@
       </c>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:14" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+    <row r="6" spans="1:14" s="9" customFormat="1" ht="66" customHeight="1">
+      <c r="A6" s="55">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -15372,8 +15519,8 @@
       </c>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:14" s="9" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+    <row r="7" spans="1:14" s="9" customFormat="1" ht="57" customHeight="1">
+      <c r="A7" s="55">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -15412,8 +15559,8 @@
       </c>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:14" s="9" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+    <row r="8" spans="1:14" s="9" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A8" s="55">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -15452,8 +15599,8 @@
       </c>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:14" s="9" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+    <row r="9" spans="1:14" s="9" customFormat="1" ht="61.5" customHeight="1">
+      <c r="A9" s="55">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -15492,8 +15639,8 @@
       </c>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+    <row r="10" spans="1:14" ht="61.5" customHeight="1">
+      <c r="A10" s="55">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -15534,8 +15681,8 @@
       </c>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+    <row r="11" spans="1:14" ht="78" customHeight="1">
+      <c r="A11" s="55">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -15576,8 +15723,8 @@
       </c>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+    <row r="12" spans="1:14" ht="82.5" customHeight="1">
+      <c r="A12" s="55">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -15618,8 +15765,8 @@
       </c>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+    <row r="13" spans="1:14" ht="74.25" customHeight="1">
+      <c r="A13" s="55">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -15660,8 +15807,8 @@
       </c>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:14" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+    <row r="14" spans="1:14" ht="109.5" customHeight="1">
+      <c r="A14" s="55">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -15702,8 +15849,8 @@
       </c>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:14" ht="75" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+    <row r="15" spans="1:14" ht="71.25">
+      <c r="A15" s="55">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -15744,8 +15891,8 @@
       </c>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:14" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+    <row r="16" spans="1:14" ht="116.25" customHeight="1">
+      <c r="A16" s="55">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -15786,8 +15933,8 @@
       </c>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:14" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+    <row r="17" spans="1:14" ht="99.75" customHeight="1">
+      <c r="A17" s="55">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -15828,8 +15975,8 @@
       </c>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+    <row r="18" spans="1:14" ht="117.75" customHeight="1">
+      <c r="A18" s="55">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -15870,8 +16017,8 @@
       </c>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="1:14" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+    <row r="19" spans="1:14" ht="110.25" customHeight="1">
+      <c r="A19" s="55">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -15912,8 +16059,8 @@
       </c>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+    <row r="20" spans="1:14" ht="82.5" customHeight="1">
+      <c r="A20" s="55">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -15954,8 +16101,8 @@
       </c>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+    <row r="21" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
+      <c r="A21" s="55">
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
@@ -15996,6 +16143,50 @@
       </c>
       <c r="N21" s="17" t="s">
         <v>1954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="92.25" customHeight="1">
+      <c r="A22" s="55">
+        <v>21</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>2036</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>2038</v>
+      </c>
+      <c r="G22" s="54" t="s">
+        <v>2039</v>
+      </c>
+      <c r="H22" s="54" t="s">
+        <v>2040</v>
+      </c>
+      <c r="I22" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="53">
+        <v>1</v>
+      </c>
+      <c r="L22" s="53" t="s">
+        <v>2028</v>
+      </c>
+      <c r="M22" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" s="52" t="s">
+        <v>2041</v>
       </c>
     </row>
   </sheetData>
@@ -16030,22 +16221,22 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="E16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="26.375" customWidth="1"/>
     <col min="7" max="7" width="51" customWidth="1"/>
-    <col min="8" max="8" width="37.6640625" customWidth="1"/>
+    <col min="8" max="8" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="29.25" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>1650</v>
       </c>
@@ -16089,7 +16280,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="192.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="192.75" customHeight="1">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -16131,7 +16322,7 @@
       </c>
       <c r="N2" s="17"/>
     </row>
-    <row r="3" spans="1:14" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="90.75" customHeight="1">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -16173,7 +16364,7 @@
       </c>
       <c r="N3" s="17"/>
     </row>
-    <row r="4" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="87.75" customHeight="1">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -16215,7 +16406,7 @@
       </c>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="70.5" customHeight="1">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -16257,7 +16448,7 @@
       </c>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="75" customHeight="1">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -16299,7 +16490,7 @@
       </c>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="1:14" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="83.25" customHeight="1">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -16341,7 +16532,7 @@
       </c>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="74.25" customHeight="1">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -16383,7 +16574,7 @@
       </c>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="78" customHeight="1">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -16425,7 +16616,7 @@
       </c>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:14" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="105.75" customHeight="1">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -16467,7 +16658,7 @@
       </c>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="1:14" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="84.75" customHeight="1">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -16509,7 +16700,7 @@
       </c>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="75.75" customHeight="1">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -16551,7 +16742,7 @@
       </c>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="1:14" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="72.75" customHeight="1">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -16593,7 +16784,7 @@
       </c>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="73.5" customHeight="1">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -16635,7 +16826,7 @@
       </c>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="66.75" customHeight="1">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -16677,7 +16868,7 @@
       </c>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="63" customHeight="1">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -16719,7 +16910,7 @@
       </c>
       <c r="N16" s="17"/>
     </row>
-    <row r="17" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="78" customHeight="1">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -16761,7 +16952,7 @@
       </c>
       <c r="N17" s="17"/>
     </row>
-    <row r="18" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="78" customHeight="1">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -16831,26 +17022,26 @@
   </sheetPr>
   <dimension ref="A1:N122"/>
   <sheetViews>
-    <sheetView topLeftCell="F23" workbookViewId="0">
+    <sheetView topLeftCell="F122" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.6640625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="26" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="26" customWidth="1"/>
     <col min="5" max="5" width="25.5" style="26" customWidth="1"/>
-    <col min="6" max="6" width="50.1640625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="43.6640625" style="26" customWidth="1"/>
-    <col min="8" max="8" width="59.33203125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="50.125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="43.625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="59.375" style="26" customWidth="1"/>
     <col min="9" max="12" width="9" style="26" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="26" customWidth="1"/>
+    <col min="13" max="13" width="11.625" style="26" customWidth="1"/>
     <col min="14" max="14" width="20" style="26" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="26"/>
+    <col min="15" max="16384" width="8.875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -16894,7 +17085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="135.75" customHeight="1">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -16936,7 +17127,7 @@
       </c>
       <c r="N2" s="19"/>
     </row>
-    <row r="3" spans="1:14" ht="212.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="212.25" customHeight="1">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -16978,7 +17169,7 @@
       </c>
       <c r="N3" s="19"/>
     </row>
-    <row r="4" spans="1:14" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="124.5" customHeight="1">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -17020,7 +17211,7 @@
       </c>
       <c r="N4" s="18"/>
     </row>
-    <row r="5" spans="1:14" s="27" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="27" customFormat="1" ht="127.5" customHeight="1">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -17062,7 +17253,7 @@
       </c>
       <c r="N5" s="19"/>
     </row>
-    <row r="6" spans="1:14" s="27" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="27" customFormat="1" ht="131.25" customHeight="1">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -17104,7 +17295,7 @@
       </c>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="1:14" s="27" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="27" customFormat="1" ht="131.25" customHeight="1">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -17146,7 +17337,7 @@
       </c>
       <c r="N7" s="18"/>
     </row>
-    <row r="8" spans="1:14" s="27" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="27" customFormat="1" ht="124.5" customHeight="1">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -17190,7 +17381,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="27" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="27" customFormat="1" ht="124.5" customHeight="1">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -17230,7 +17421,7 @@
       </c>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" spans="1:14" s="27" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="27" customFormat="1" ht="124.5" customHeight="1">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -17270,7 +17461,7 @@
       </c>
       <c r="N10" s="18"/>
     </row>
-    <row r="11" spans="1:14" s="27" customFormat="1" ht="186.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="27" customFormat="1" ht="186.75" customHeight="1">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -17310,7 +17501,7 @@
       </c>
       <c r="N11" s="18"/>
     </row>
-    <row r="12" spans="1:14" s="27" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="27" customFormat="1" ht="133.5" customHeight="1">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -17352,7 +17543,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="27" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="27" customFormat="1" ht="409.5" customHeight="1">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -17394,7 +17585,7 @@
       </c>
       <c r="N13" s="19"/>
     </row>
-    <row r="14" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1">
       <c r="A14" s="19">
         <v>13</v>
       </c>
@@ -17436,7 +17627,7 @@
       </c>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -17478,7 +17669,7 @@
       </c>
       <c r="N15" s="18"/>
     </row>
-    <row r="16" spans="1:14" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="120" customHeight="1">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -17520,7 +17711,7 @@
       </c>
       <c r="N16" s="19"/>
     </row>
-    <row r="17" spans="1:14" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="76.5" customHeight="1">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -17562,7 +17753,7 @@
       </c>
       <c r="N17" s="19"/>
     </row>
-    <row r="18" spans="1:14" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="85.5" customHeight="1">
       <c r="A18" s="19">
         <v>17</v>
       </c>
@@ -17604,7 +17795,7 @@
       </c>
       <c r="N18" s="19"/>
     </row>
-    <row r="19" spans="1:14" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="85.5" customHeight="1">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -17644,7 +17835,7 @@
       </c>
       <c r="N19" s="19"/>
     </row>
-    <row r="20" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="75" customHeight="1">
       <c r="A20" s="19">
         <v>19</v>
       </c>
@@ -17684,7 +17875,7 @@
       </c>
       <c r="N20" s="19"/>
     </row>
-    <row r="21" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="75" customHeight="1">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -17724,7 +17915,7 @@
       </c>
       <c r="N21" s="19"/>
     </row>
-    <row r="22" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="84" customHeight="1">
       <c r="A22" s="19">
         <v>21</v>
       </c>
@@ -17764,7 +17955,7 @@
       </c>
       <c r="N22" s="19"/>
     </row>
-    <row r="23" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="84" customHeight="1">
       <c r="A23" s="19">
         <v>22</v>
       </c>
@@ -17804,7 +17995,7 @@
       </c>
       <c r="N23" s="19"/>
     </row>
-    <row r="24" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="84" customHeight="1">
       <c r="A24" s="19">
         <v>23</v>
       </c>
@@ -17846,7 +18037,7 @@
       </c>
       <c r="N24" s="19"/>
     </row>
-    <row r="25" spans="1:14" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="105.75" customHeight="1">
       <c r="A25" s="19">
         <v>24</v>
       </c>
@@ -17888,7 +18079,7 @@
       </c>
       <c r="N25" s="19"/>
     </row>
-    <row r="26" spans="1:14" ht="75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="71.25">
       <c r="A26" s="19">
         <v>25</v>
       </c>
@@ -17932,7 +18123,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="84.75" customHeight="1">
       <c r="A27" s="19">
         <v>26</v>
       </c>
@@ -17974,7 +18165,7 @@
       </c>
       <c r="N27" s="19"/>
     </row>
-    <row r="28" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="87" customHeight="1">
       <c r="A28" s="19">
         <v>27</v>
       </c>
@@ -18016,7 +18207,7 @@
       </c>
       <c r="N28" s="19"/>
     </row>
-    <row r="29" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="66.75" customHeight="1">
       <c r="A29" s="19">
         <v>28</v>
       </c>
@@ -18058,7 +18249,7 @@
       </c>
       <c r="N29" s="19"/>
     </row>
-    <row r="30" spans="1:14" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="92.25" customHeight="1">
       <c r="A30" s="19">
         <v>29</v>
       </c>
@@ -18100,7 +18291,7 @@
       </c>
       <c r="N30" s="19"/>
     </row>
-    <row r="31" spans="1:14" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="89.25" customHeight="1">
       <c r="A31" s="19">
         <v>30</v>
       </c>
@@ -18142,7 +18333,7 @@
       </c>
       <c r="N31" s="19"/>
     </row>
-    <row r="32" spans="1:14" ht="158.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="158.25" customHeight="1">
       <c r="A32" s="19">
         <v>31</v>
       </c>
@@ -18184,7 +18375,7 @@
       </c>
       <c r="N32" s="19"/>
     </row>
-    <row r="33" spans="1:14" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="119.25" customHeight="1">
       <c r="A33" s="19">
         <v>32</v>
       </c>
@@ -18226,7 +18417,7 @@
       </c>
       <c r="N33" s="19"/>
     </row>
-    <row r="34" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="87.75" customHeight="1">
       <c r="A34" s="19">
         <v>33</v>
       </c>
@@ -18268,7 +18459,7 @@
       </c>
       <c r="N34" s="19"/>
     </row>
-    <row r="35" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="70.5" customHeight="1">
       <c r="A35" s="19">
         <v>34</v>
       </c>
@@ -18310,7 +18501,7 @@
       </c>
       <c r="N35" s="19"/>
     </row>
-    <row r="36" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="81.75" customHeight="1">
       <c r="A36" s="19">
         <v>35</v>
       </c>
@@ -18352,7 +18543,7 @@
       </c>
       <c r="N36" s="19"/>
     </row>
-    <row r="37" spans="1:14" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="119.25" customHeight="1">
       <c r="A37" s="19">
         <v>36</v>
       </c>
@@ -18394,7 +18585,7 @@
       </c>
       <c r="N37" s="19"/>
     </row>
-    <row r="38" spans="1:14" ht="135" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="128.25">
       <c r="A38" s="19">
         <v>37</v>
       </c>
@@ -18436,7 +18627,7 @@
       </c>
       <c r="N38" s="19"/>
     </row>
-    <row r="39" spans="1:14" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="131.25" customHeight="1">
       <c r="A39" s="19">
         <v>38</v>
       </c>
@@ -18478,7 +18669,7 @@
       </c>
       <c r="N39" s="19"/>
     </row>
-    <row r="40" spans="1:14" s="28" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" s="28" customFormat="1" ht="66.75" customHeight="1">
       <c r="A40" s="19">
         <v>39</v>
       </c>
@@ -18520,7 +18711,7 @@
       </c>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="1:14" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="148.5" customHeight="1">
       <c r="A41" s="19">
         <v>40</v>
       </c>
@@ -18562,7 +18753,7 @@
       </c>
       <c r="N41" s="19"/>
     </row>
-    <row r="42" spans="1:14" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="144.75" customHeight="1">
       <c r="A42" s="19">
         <v>41</v>
       </c>
@@ -18604,7 +18795,7 @@
       </c>
       <c r="N42" s="19"/>
     </row>
-    <row r="43" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="139.5" customHeight="1">
       <c r="A43" s="19">
         <v>42</v>
       </c>
@@ -18646,7 +18837,7 @@
       </c>
       <c r="N43" s="19"/>
     </row>
-    <row r="44" spans="1:14" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="144.75" customHeight="1">
       <c r="A44" s="19">
         <v>43</v>
       </c>
@@ -18688,7 +18879,7 @@
       </c>
       <c r="N44" s="19"/>
     </row>
-    <row r="45" spans="1:14" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="159" customHeight="1">
       <c r="A45" s="19">
         <v>44</v>
       </c>
@@ -18730,7 +18921,7 @@
       </c>
       <c r="N45" s="19"/>
     </row>
-    <row r="46" spans="1:14" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="137.25" customHeight="1">
       <c r="A46" s="19">
         <v>45</v>
       </c>
@@ -18772,7 +18963,7 @@
       </c>
       <c r="N46" s="19"/>
     </row>
-    <row r="47" spans="1:14" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="180" customHeight="1">
       <c r="A47" s="19">
         <v>46</v>
       </c>
@@ -18814,7 +19005,7 @@
       </c>
       <c r="N47" s="19"/>
     </row>
-    <row r="48" spans="1:14" ht="180.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="180.75" customHeight="1">
       <c r="A48" s="19">
         <v>47</v>
       </c>
@@ -18856,7 +19047,7 @@
       </c>
       <c r="N48" s="19"/>
     </row>
-    <row r="49" spans="1:14" ht="180.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="180.75" customHeight="1">
       <c r="A49" s="19">
         <v>48</v>
       </c>
@@ -18884,7 +19075,7 @@
       <c r="M49" s="19"/>
       <c r="N49" s="19"/>
     </row>
-    <row r="50" spans="1:14" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" ht="119.25" customHeight="1">
       <c r="A50" s="19">
         <v>49</v>
       </c>
@@ -18926,7 +19117,7 @@
       </c>
       <c r="N50" s="19"/>
     </row>
-    <row r="51" spans="1:14" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="107.25" customHeight="1">
       <c r="A51" s="19">
         <v>50</v>
       </c>
@@ -18968,7 +19159,7 @@
       </c>
       <c r="N51" s="19"/>
     </row>
-    <row r="52" spans="1:14" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" ht="107.25" customHeight="1">
       <c r="A52" s="19">
         <v>51</v>
       </c>
@@ -19010,7 +19201,7 @@
       </c>
       <c r="N52" s="19"/>
     </row>
-    <row r="53" spans="1:14" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="107.25" customHeight="1">
       <c r="A53" s="19">
         <v>52</v>
       </c>
@@ -19052,7 +19243,7 @@
       </c>
       <c r="N53" s="19"/>
     </row>
-    <row r="54" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1">
       <c r="A54" s="19">
         <v>53</v>
       </c>
@@ -19094,7 +19285,7 @@
       </c>
       <c r="N54" s="18"/>
     </row>
-    <row r="55" spans="1:14" s="28" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" s="28" customFormat="1" ht="124.5" customHeight="1">
       <c r="A55" s="19">
         <v>54</v>
       </c>
@@ -19136,7 +19327,7 @@
       </c>
       <c r="N55" s="17"/>
     </row>
-    <row r="56" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1">
       <c r="A56" s="19">
         <v>55</v>
       </c>
@@ -19178,7 +19369,7 @@
       </c>
       <c r="N56" s="17"/>
     </row>
-    <row r="57" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1">
       <c r="A57" s="19">
         <v>56</v>
       </c>
@@ -19220,7 +19411,7 @@
       </c>
       <c r="N57" s="17"/>
     </row>
-    <row r="58" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1">
       <c r="A58" s="19">
         <v>57</v>
       </c>
@@ -19262,7 +19453,7 @@
       </c>
       <c r="N58" s="17"/>
     </row>
-    <row r="59" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A59" s="19">
         <v>58</v>
       </c>
@@ -19306,7 +19497,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="60" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A60" s="19">
         <v>59</v>
       </c>
@@ -19350,7 +19541,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="61" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A61" s="19">
         <v>60</v>
       </c>
@@ -19394,7 +19585,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="62" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A62" s="19">
         <v>61</v>
       </c>
@@ -19438,7 +19629,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="63" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A63" s="19">
         <v>62</v>
       </c>
@@ -19482,7 +19673,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="64" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A64" s="19">
         <v>63</v>
       </c>
@@ -19526,7 +19717,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="65" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A65" s="19">
         <v>64</v>
       </c>
@@ -19570,7 +19761,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="66" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A66" s="19">
         <v>65</v>
       </c>
@@ -19614,7 +19805,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="67" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A67" s="19">
         <v>66</v>
       </c>
@@ -19658,7 +19849,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="68" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A68" s="19">
         <v>67</v>
       </c>
@@ -19702,7 +19893,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="69" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A69" s="19">
         <v>68</v>
       </c>
@@ -19746,7 +19937,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="70" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A70" s="19">
         <v>69</v>
       </c>
@@ -19790,7 +19981,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="71" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A71" s="19">
         <v>70</v>
       </c>
@@ -19834,7 +20025,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="72" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A72" s="19">
         <v>71</v>
       </c>
@@ -19878,7 +20069,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="73" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A73" s="19">
         <v>72</v>
       </c>
@@ -19922,7 +20113,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="74" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A74" s="19">
         <v>73</v>
       </c>
@@ -19966,7 +20157,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="75" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A75" s="19">
         <v>74</v>
       </c>
@@ -20010,7 +20201,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="76" spans="1:14" s="28" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" s="28" customFormat="1" ht="78.75" customHeight="1">
       <c r="A76" s="19">
         <v>75</v>
       </c>
@@ -20052,7 +20243,7 @@
       </c>
       <c r="N76" s="17"/>
     </row>
-    <row r="77" spans="1:14" s="27" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" s="27" customFormat="1" ht="78.75" customHeight="1">
       <c r="A77" s="19">
         <v>76</v>
       </c>
@@ -20094,7 +20285,7 @@
       </c>
       <c r="N77" s="18"/>
     </row>
-    <row r="78" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" ht="78.75" customHeight="1">
       <c r="A78" s="19">
         <v>77</v>
       </c>
@@ -20136,7 +20327,7 @@
       </c>
       <c r="N78" s="19"/>
     </row>
-    <row r="79" spans="1:14" s="27" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" s="27" customFormat="1" ht="78.75" customHeight="1">
       <c r="A79" s="19">
         <v>78</v>
       </c>
@@ -20178,7 +20369,7 @@
       </c>
       <c r="N79" s="18"/>
     </row>
-    <row r="80" spans="1:14" s="27" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" s="27" customFormat="1" ht="78.75" customHeight="1">
       <c r="A80" s="19">
         <v>79</v>
       </c>
@@ -20220,7 +20411,7 @@
       </c>
       <c r="N80" s="18"/>
     </row>
-    <row r="81" spans="1:14" s="27" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" s="27" customFormat="1" ht="78.75" customHeight="1">
       <c r="A81" s="19">
         <v>80</v>
       </c>
@@ -20262,7 +20453,7 @@
       </c>
       <c r="N81" s="18"/>
     </row>
-    <row r="82" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" ht="78.75" customHeight="1">
       <c r="A82" s="19">
         <v>81</v>
       </c>
@@ -20304,7 +20495,7 @@
       </c>
       <c r="N82" s="19"/>
     </row>
-    <row r="83" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" ht="78.75" customHeight="1">
       <c r="A83" s="19">
         <v>82</v>
       </c>
@@ -20346,7 +20537,7 @@
       </c>
       <c r="N83" s="19"/>
     </row>
-    <row r="84" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" ht="78.75" customHeight="1">
       <c r="A84" s="19">
         <v>83</v>
       </c>
@@ -20388,7 +20579,7 @@
       </c>
       <c r="N84" s="19"/>
     </row>
-    <row r="85" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" ht="78.75" customHeight="1">
       <c r="A85" s="19">
         <v>84</v>
       </c>
@@ -20430,7 +20621,7 @@
       </c>
       <c r="N85" s="19"/>
     </row>
-    <row r="86" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" ht="78.75" customHeight="1">
       <c r="A86" s="19">
         <v>85</v>
       </c>
@@ -20472,7 +20663,7 @@
       </c>
       <c r="N86" s="19"/>
     </row>
-    <row r="87" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" ht="78.75" customHeight="1">
       <c r="A87" s="19">
         <v>86</v>
       </c>
@@ -20514,7 +20705,7 @@
       </c>
       <c r="N87" s="19"/>
     </row>
-    <row r="88" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" ht="78.75" customHeight="1">
       <c r="A88" s="19">
         <v>87</v>
       </c>
@@ -20556,7 +20747,7 @@
       </c>
       <c r="N88" s="19"/>
     </row>
-    <row r="89" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" ht="78.75" customHeight="1">
       <c r="A89" s="19">
         <v>88</v>
       </c>
@@ -20598,7 +20789,7 @@
       </c>
       <c r="N89" s="19"/>
     </row>
-    <row r="90" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" ht="78.75" customHeight="1">
       <c r="A90" s="19">
         <v>89</v>
       </c>
@@ -20640,7 +20831,7 @@
       </c>
       <c r="N90" s="19"/>
     </row>
-    <row r="91" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" ht="78.75" customHeight="1">
       <c r="A91" s="19">
         <v>90</v>
       </c>
@@ -20684,7 +20875,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" ht="78.75" customHeight="1">
       <c r="A92" s="19">
         <v>91</v>
       </c>
@@ -20726,7 +20917,7 @@
       </c>
       <c r="N92" s="19"/>
     </row>
-    <row r="93" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" ht="90" customHeight="1">
       <c r="A93" s="19">
         <v>92</v>
       </c>
@@ -20768,7 +20959,7 @@
       </c>
       <c r="N93" s="19"/>
     </row>
-    <row r="94" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1">
       <c r="A94" s="19">
         <v>93</v>
       </c>
@@ -20810,7 +21001,7 @@
       </c>
       <c r="N94" s="18"/>
     </row>
-    <row r="95" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1">
       <c r="A95" s="19">
         <v>94</v>
       </c>
@@ -20852,7 +21043,7 @@
       </c>
       <c r="N95" s="18"/>
     </row>
-    <row r="96" spans="1:14" s="27" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" s="27" customFormat="1" ht="135.75" customHeight="1">
       <c r="A96" s="19">
         <v>95</v>
       </c>
@@ -20894,7 +21085,7 @@
       </c>
       <c r="N96" s="18"/>
     </row>
-    <row r="97" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1">
       <c r="A97" s="19">
         <v>96</v>
       </c>
@@ -20936,7 +21127,7 @@
       </c>
       <c r="N97" s="18"/>
     </row>
-    <row r="98" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1">
       <c r="A98" s="19">
         <v>97</v>
       </c>
@@ -20978,7 +21169,7 @@
       </c>
       <c r="N98" s="18"/>
     </row>
-    <row r="99" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1">
       <c r="A99" s="19">
         <v>98</v>
       </c>
@@ -21020,7 +21211,7 @@
       </c>
       <c r="N99" s="18"/>
     </row>
-    <row r="100" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1">
       <c r="A100" s="19">
         <v>99</v>
       </c>
@@ -21062,7 +21253,7 @@
       </c>
       <c r="N100" s="18"/>
     </row>
-    <row r="101" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1">
       <c r="A101" s="19">
         <v>100</v>
       </c>
@@ -21104,7 +21295,7 @@
       </c>
       <c r="N101" s="18"/>
     </row>
-    <row r="102" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" s="27" customFormat="1" ht="105" customHeight="1">
       <c r="A102" s="19">
         <v>101</v>
       </c>
@@ -21146,7 +21337,7 @@
       </c>
       <c r="N102" s="18"/>
     </row>
-    <row r="103" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1">
       <c r="A103" s="19">
         <v>102</v>
       </c>
@@ -21188,7 +21379,7 @@
       </c>
       <c r="N103" s="18"/>
     </row>
-    <row r="104" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1">
       <c r="A104" s="19">
         <v>103</v>
       </c>
@@ -21230,7 +21421,7 @@
       </c>
       <c r="N104" s="18"/>
     </row>
-    <row r="105" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1">
       <c r="A105" s="19">
         <v>104</v>
       </c>
@@ -21272,7 +21463,7 @@
       </c>
       <c r="N105" s="18"/>
     </row>
-    <row r="106" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1">
       <c r="A106" s="19">
         <v>105</v>
       </c>
@@ -21314,7 +21505,7 @@
       </c>
       <c r="N106" s="17"/>
     </row>
-    <row r="107" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1">
       <c r="A107" s="19">
         <v>106</v>
       </c>
@@ -21356,7 +21547,7 @@
       </c>
       <c r="N107" s="17"/>
     </row>
-    <row r="108" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1">
       <c r="A108" s="19">
         <v>107</v>
       </c>
@@ -21394,7 +21585,7 @@
       </c>
       <c r="N108" s="17"/>
     </row>
-    <row r="109" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" s="28" customFormat="1" ht="84" customHeight="1">
       <c r="A109" s="19">
         <v>108</v>
       </c>
@@ -21432,7 +21623,7 @@
       </c>
       <c r="N109" s="17"/>
     </row>
-    <row r="110" spans="1:14" s="28" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" s="28" customFormat="1" ht="55.5" customHeight="1">
       <c r="A110" s="19">
         <v>109</v>
       </c>
@@ -21474,7 +21665,7 @@
       </c>
       <c r="N110" s="17"/>
     </row>
-    <row r="111" spans="1:14" s="28" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" s="28" customFormat="1" ht="72.75" customHeight="1">
       <c r="A111" s="19">
         <v>110</v>
       </c>
@@ -21516,7 +21707,7 @@
       </c>
       <c r="N111" s="17"/>
     </row>
-    <row r="112" spans="1:14" s="28" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" s="28" customFormat="1" ht="82.5" customHeight="1">
       <c r="A112" s="19">
         <v>111</v>
       </c>
@@ -21558,7 +21749,7 @@
       </c>
       <c r="N112" s="17"/>
     </row>
-    <row r="113" spans="1:14" s="28" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" s="28" customFormat="1" ht="63" customHeight="1">
       <c r="A113" s="19">
         <v>112</v>
       </c>
@@ -21600,7 +21791,7 @@
       </c>
       <c r="N113" s="17"/>
     </row>
-    <row r="114" spans="1:14" s="28" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" s="28" customFormat="1" ht="75.75" customHeight="1">
       <c r="A114" s="19">
         <v>113</v>
       </c>
@@ -21642,7 +21833,7 @@
       </c>
       <c r="N114" s="17"/>
     </row>
-    <row r="115" spans="1:14" s="28" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" s="28" customFormat="1" ht="76.5" customHeight="1">
       <c r="A115" s="19">
         <v>114</v>
       </c>
@@ -21684,7 +21875,7 @@
       </c>
       <c r="N115" s="17"/>
     </row>
-    <row r="116" spans="1:14" s="28" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" s="28" customFormat="1" ht="74.25" customHeight="1">
       <c r="A116" s="19">
         <v>115</v>
       </c>
@@ -21726,7 +21917,7 @@
       </c>
       <c r="N116" s="17"/>
     </row>
-    <row r="117" spans="1:14" s="28" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" s="28" customFormat="1" ht="76.5" customHeight="1">
       <c r="A117" s="19">
         <v>116</v>
       </c>
@@ -21768,7 +21959,7 @@
       </c>
       <c r="N117" s="17"/>
     </row>
-    <row r="118" spans="1:14" s="28" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" s="28" customFormat="1" ht="80.25" customHeight="1">
       <c r="A118" s="19">
         <v>117</v>
       </c>
@@ -21810,7 +22001,7 @@
       </c>
       <c r="N118" s="17"/>
     </row>
-    <row r="119" spans="1:14" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" s="28" customFormat="1" ht="48" customHeight="1">
       <c r="A119" s="19">
         <v>118</v>
       </c>
@@ -21852,7 +22043,7 @@
       </c>
       <c r="N119" s="17"/>
     </row>
-    <row r="120" spans="1:14" s="28" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" s="28" customFormat="1" ht="66" customHeight="1">
       <c r="A120" s="19">
         <v>119</v>
       </c>
@@ -21894,7 +22085,7 @@
       </c>
       <c r="N120" s="17"/>
     </row>
-    <row r="121" spans="1:14" s="28" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" s="28" customFormat="1" ht="44.25" customHeight="1">
       <c r="A121" s="19">
         <v>120</v>
       </c>
@@ -21936,7 +22127,7 @@
       </c>
       <c r="N121" s="17"/>
     </row>
-    <row r="122" spans="1:14" s="28" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" s="28" customFormat="1" ht="78" customHeight="1">
       <c r="A122" s="19">
         <v>121</v>
       </c>
@@ -22011,30 +22202,30 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:N131"/>
+  <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="28"/>
-    <col min="2" max="2" width="17.83203125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="39.1640625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="28"/>
+    <col min="2" max="2" width="17.875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="39.125" style="28" customWidth="1"/>
     <col min="6" max="6" width="48.5" style="28" customWidth="1"/>
-    <col min="7" max="7" width="65.6640625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="56.6640625" style="28" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="28" customWidth="1"/>
-    <col min="10" max="12" width="8.83203125" style="28"/>
+    <col min="7" max="7" width="65.625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="56.625" style="28" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="28" customWidth="1"/>
+    <col min="10" max="12" width="8.875" style="28"/>
     <col min="13" max="13" width="14" style="28" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="28" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="28"/>
+    <col min="14" max="14" width="13.625" style="28" customWidth="1"/>
+    <col min="15" max="16384" width="8.875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -22078,7 +22269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="87" customHeight="1">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -22120,7 +22311,7 @@
       </c>
       <c r="N2" s="17"/>
     </row>
-    <row r="3" spans="1:14" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="94.5" customHeight="1">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -22162,7 +22353,7 @@
       </c>
       <c r="N3" s="17"/>
     </row>
-    <row r="4" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="97.5" customHeight="1">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -22204,7 +22395,7 @@
       </c>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="97.5" customHeight="1">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -22246,7 +22437,7 @@
       </c>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="97.5" customHeight="1">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -22288,7 +22479,7 @@
       </c>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="97.5" customHeight="1">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -22330,7 +22521,7 @@
       </c>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="97.5" customHeight="1">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -22372,7 +22563,7 @@
       </c>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="97.5" customHeight="1">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -22414,7 +22605,7 @@
       </c>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="97.5" customHeight="1">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -22456,7 +22647,7 @@
       </c>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="117.75" customHeight="1">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -22498,7 +22689,7 @@
       </c>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="117.75" customHeight="1">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -22540,7 +22731,7 @@
       </c>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="117.75" customHeight="1">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -22582,7 +22773,7 @@
       </c>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="117.75" customHeight="1">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -22624,7 +22815,7 @@
       </c>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="117.75" customHeight="1">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -22666,7 +22857,7 @@
       </c>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="117.75" customHeight="1">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -22708,7 +22899,7 @@
       </c>
       <c r="N16" s="17"/>
     </row>
-    <row r="17" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="87.75" customHeight="1">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -22750,7 +22941,7 @@
       </c>
       <c r="N17" s="17"/>
     </row>
-    <row r="18" spans="1:14" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="83.25" customHeight="1">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -22792,7 +22983,7 @@
       </c>
       <c r="N18" s="17"/>
     </row>
-    <row r="19" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="90" customHeight="1">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -22834,7 +23025,7 @@
       </c>
       <c r="N19" s="17"/>
     </row>
-    <row r="20" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="93.75" customHeight="1">
       <c r="A20" s="18">
         <v>19</v>
       </c>
@@ -22876,7 +23067,7 @@
       </c>
       <c r="N20" s="17"/>
     </row>
-    <row r="21" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="93.75" customHeight="1">
       <c r="A21" s="18">
         <v>20</v>
       </c>
@@ -22918,7 +23109,7 @@
       </c>
       <c r="N21" s="18"/>
     </row>
-    <row r="22" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="91.5" customHeight="1">
       <c r="A22" s="18">
         <v>21</v>
       </c>
@@ -22960,7 +23151,7 @@
       </c>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="93" customHeight="1">
       <c r="A23" s="18">
         <v>22</v>
       </c>
@@ -23002,7 +23193,7 @@
       </c>
       <c r="N23" s="17"/>
     </row>
-    <row r="24" spans="1:14" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="138.75" customHeight="1">
       <c r="A24" s="18">
         <v>23</v>
       </c>
@@ -23044,7 +23235,7 @@
       </c>
       <c r="N24" s="18"/>
     </row>
-    <row r="25" spans="1:14" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="171.75" customHeight="1">
       <c r="A25" s="18">
         <v>24</v>
       </c>
@@ -23086,7 +23277,7 @@
       </c>
       <c r="N25" s="18"/>
     </row>
-    <row r="26" spans="1:14" ht="120" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="114">
       <c r="A26" s="18">
         <v>25</v>
       </c>
@@ -23128,7 +23319,7 @@
       </c>
       <c r="N26" s="18"/>
     </row>
-    <row r="27" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="128.25" customHeight="1">
       <c r="A27" s="18">
         <v>26</v>
       </c>
@@ -23170,7 +23361,7 @@
       </c>
       <c r="N27" s="18"/>
     </row>
-    <row r="28" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="78.75" customHeight="1">
       <c r="A28" s="18">
         <v>27</v>
       </c>
@@ -23212,7 +23403,7 @@
       </c>
       <c r="N28" s="18"/>
     </row>
-    <row r="29" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="78.75" customHeight="1">
       <c r="A29" s="18">
         <v>28</v>
       </c>
@@ -23254,7 +23445,7 @@
       </c>
       <c r="N29" s="18"/>
     </row>
-    <row r="30" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="78.75" customHeight="1">
       <c r="A30" s="18">
         <v>29</v>
       </c>
@@ -23292,7 +23483,7 @@
       </c>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="78.75" customHeight="1">
       <c r="A31" s="18">
         <v>30</v>
       </c>
@@ -23330,7 +23521,7 @@
       </c>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="78.75" customHeight="1">
       <c r="A32" s="18">
         <v>31</v>
       </c>
@@ -23368,7 +23559,7 @@
       </c>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="78.75" customHeight="1">
       <c r="A33" s="18">
         <v>32</v>
       </c>
@@ -23406,7 +23597,7 @@
       </c>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="78.75" customHeight="1">
       <c r="A34" s="18">
         <v>33</v>
       </c>
@@ -23440,7 +23631,7 @@
       </c>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="78.75" customHeight="1">
       <c r="A35" s="18">
         <v>34</v>
       </c>
@@ -23480,7 +23671,7 @@
       </c>
       <c r="N35" s="18"/>
     </row>
-    <row r="36" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="78.75" customHeight="1">
       <c r="A36" s="18">
         <v>35</v>
       </c>
@@ -23520,7 +23711,7 @@
       </c>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="70.5" customHeight="1">
       <c r="A37" s="18">
         <v>36</v>
       </c>
@@ -23562,7 +23753,7 @@
       </c>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="70.5" customHeight="1">
       <c r="A38" s="18">
         <v>37</v>
       </c>
@@ -23604,7 +23795,7 @@
       </c>
       <c r="N38" s="18"/>
     </row>
-    <row r="39" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="70.5" customHeight="1">
       <c r="A39" s="18">
         <v>38</v>
       </c>
@@ -23646,7 +23837,7 @@
       </c>
       <c r="N39" s="18"/>
     </row>
-    <row r="40" spans="1:14" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="120" customHeight="1">
       <c r="A40" s="18">
         <v>39</v>
       </c>
@@ -23688,7 +23879,7 @@
       </c>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="1:14" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="120" customHeight="1">
       <c r="A41" s="18">
         <v>40</v>
       </c>
@@ -23730,7 +23921,7 @@
       </c>
       <c r="N41" s="17"/>
     </row>
-    <row r="42" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A42" s="18">
         <v>41</v>
       </c>
@@ -23774,7 +23965,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="43" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A43" s="18">
         <v>42</v>
       </c>
@@ -23818,91 +24009,95 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" s="43" customFormat="1" ht="112.5" customHeight="1">
       <c r="A44" s="18">
         <v>43</v>
       </c>
-      <c r="B44" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>527</v>
-      </c>
-      <c r="E44" s="29" t="s">
-        <v>528</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>529</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>530</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>531</v>
-      </c>
-      <c r="I44" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="J44" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K44" s="18">
-        <v>2</v>
-      </c>
-      <c r="L44" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="M44" s="18" t="s">
+      <c r="B44" s="46" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C44" s="48" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D44" s="47" t="s">
+        <v>2023</v>
+      </c>
+      <c r="E44" s="47" t="s">
+        <v>2024</v>
+      </c>
+      <c r="F44" s="47" t="s">
+        <v>2025</v>
+      </c>
+      <c r="G44" s="47" t="s">
+        <v>2026</v>
+      </c>
+      <c r="H44" s="47" t="s">
+        <v>2027</v>
+      </c>
+      <c r="I44" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="J44" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="K44" s="46">
+        <v>1</v>
+      </c>
+      <c r="L44" s="46" t="s">
+        <v>2028</v>
+      </c>
+      <c r="M44" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="N44" s="18"/>
-    </row>
-    <row r="45" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N44" s="45" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="44" customFormat="1" ht="112.5" customHeight="1">
       <c r="A45" s="18">
         <v>44</v>
       </c>
-      <c r="B45" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>532</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>533</v>
-      </c>
-      <c r="F45" s="26" t="s">
-        <v>534</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>535</v>
-      </c>
-      <c r="H45" s="19" t="s">
-        <v>536</v>
-      </c>
-      <c r="I45" s="18" t="s">
+      <c r="B45" s="50" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D45" s="51" t="s">
+        <v>2030</v>
+      </c>
+      <c r="E45" s="51" t="s">
+        <v>2031</v>
+      </c>
+      <c r="F45" s="51" t="s">
+        <v>2032</v>
+      </c>
+      <c r="G45" s="51" t="s">
+        <v>2034</v>
+      </c>
+      <c r="H45" s="51" t="s">
+        <v>2033</v>
+      </c>
+      <c r="I45" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="J45" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K45" s="18">
-        <v>2</v>
-      </c>
-      <c r="L45" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="M45" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N45" s="18"/>
-    </row>
-    <row r="46" spans="1:14" ht="75" x14ac:dyDescent="0.2">
+      <c r="J45" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="K45" s="50">
+        <v>1</v>
+      </c>
+      <c r="L45" s="50" t="s">
+        <v>2028</v>
+      </c>
+      <c r="M45" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="N45" s="49" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="100.5" customHeight="1">
       <c r="A46" s="18">
         <v>45</v>
       </c>
@@ -23912,23 +24107,23 @@
       <c r="C46" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="D46" s="19" t="s">
-        <v>537</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>538</v>
+      <c r="D46" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>528</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="J46" s="18" t="s">
         <v>30</v>
@@ -23940,11 +24135,11 @@
         <v>43</v>
       </c>
       <c r="M46" s="18" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="N46" s="18"/>
     </row>
-    <row r="47" spans="1:14" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="82.5" customHeight="1">
       <c r="A47" s="18">
         <v>46</v>
       </c>
@@ -23955,22 +24150,22 @@
         <v>463</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>542</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>543</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>539</v>
+        <v>532</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>533</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>534</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="J47" s="18" t="s">
         <v>30</v>
@@ -23986,7 +24181,7 @@
       </c>
       <c r="N47" s="18"/>
     </row>
-    <row r="48" spans="1:14" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="85.5">
       <c r="A48" s="18">
         <v>47</v>
       </c>
@@ -23997,19 +24192,19 @@
         <v>463</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="F48" s="19" t="s">
         <v>539</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="I48" s="18" t="s">
         <v>42</v>
@@ -24028,30 +24223,30 @@
       </c>
       <c r="N48" s="18"/>
     </row>
-    <row r="49" spans="1:14" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="144.75" customHeight="1">
       <c r="A49" s="18">
         <v>48</v>
       </c>
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="19" t="s">
         <v>463</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F49" s="19" t="s">
         <v>539</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="H49" s="19" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="I49" s="18" t="s">
         <v>42</v>
@@ -24070,26 +24265,30 @@
       </c>
       <c r="N49" s="18"/>
     </row>
-    <row r="50" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" ht="140.25" customHeight="1">
       <c r="A50" s="18">
         <v>49</v>
       </c>
-      <c r="B50" s="38"/>
-      <c r="C50" s="35"/>
+      <c r="B50" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>463</v>
+      </c>
       <c r="D50" s="19" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>388</v>
+        <v>539</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="H50" s="19" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="I50" s="18" t="s">
         <v>42</v>
@@ -24098,7 +24297,7 @@
         <v>30</v>
       </c>
       <c r="K50" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L50" s="18" t="s">
         <v>43</v>
@@ -24108,26 +24307,30 @@
       </c>
       <c r="N50" s="18"/>
     </row>
-    <row r="51" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="124.5" customHeight="1">
       <c r="A51" s="18">
         <v>50</v>
       </c>
-      <c r="B51" s="39"/>
-      <c r="C51" s="36"/>
+      <c r="B51" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>463</v>
+      </c>
       <c r="D51" s="19" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>388</v>
+        <v>539</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="H51" s="19" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="I51" s="18" t="s">
         <v>42</v>
@@ -24136,7 +24339,7 @@
         <v>30</v>
       </c>
       <c r="K51" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L51" s="18" t="s">
         <v>43</v>
@@ -24146,30 +24349,26 @@
       </c>
       <c r="N51" s="18"/>
     </row>
-    <row r="52" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" ht="77.25" customHeight="1">
       <c r="A52" s="18">
         <v>51</v>
       </c>
-      <c r="B52" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>463</v>
-      </c>
+      <c r="B52" s="38"/>
+      <c r="C52" s="35"/>
       <c r="D52" s="19" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F52" s="19" t="s">
         <v>388</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="H52" s="19" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="I52" s="18" t="s">
         <v>42</v>
@@ -24178,7 +24377,7 @@
         <v>30</v>
       </c>
       <c r="K52" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L52" s="18" t="s">
         <v>43</v>
@@ -24188,30 +24387,26 @@
       </c>
       <c r="N52" s="18"/>
     </row>
-    <row r="53" spans="1:14" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="77.25" customHeight="1">
       <c r="A53" s="18">
         <v>52</v>
       </c>
-      <c r="B53" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>463</v>
-      </c>
+      <c r="B53" s="39"/>
+      <c r="C53" s="36"/>
       <c r="D53" s="19" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>235</v>
+        <v>388</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="H53" s="19" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="I53" s="18" t="s">
         <v>42</v>
@@ -24220,7 +24415,7 @@
         <v>30</v>
       </c>
       <c r="K53" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L53" s="18" t="s">
         <v>43</v>
@@ -24230,7 +24425,7 @@
       </c>
       <c r="N53" s="18"/>
     </row>
-    <row r="54" spans="1:14" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="77.25" customHeight="1">
       <c r="A54" s="18">
         <v>53</v>
       </c>
@@ -24241,19 +24436,19 @@
         <v>463</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>572</v>
+        <v>388</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="I54" s="18" t="s">
         <v>42</v>
@@ -24272,7 +24467,7 @@
       </c>
       <c r="N54" s="18"/>
     </row>
-    <row r="55" spans="1:14" ht="60" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="104.25" customHeight="1">
       <c r="A55" s="18">
         <v>54</v>
       </c>
@@ -24283,19 +24478,19 @@
         <v>463</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>576</v>
+        <v>235</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="I55" s="18" t="s">
         <v>42</v>
@@ -24314,7 +24509,7 @@
       </c>
       <c r="N55" s="18"/>
     </row>
-    <row r="56" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="106.5" customHeight="1">
       <c r="A56" s="18">
         <v>55</v>
       </c>
@@ -24325,19 +24520,19 @@
         <v>463</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="I56" s="18" t="s">
         <v>42</v>
@@ -24346,7 +24541,7 @@
         <v>30</v>
       </c>
       <c r="K56" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L56" s="18" t="s">
         <v>43</v>
@@ -24356,7 +24551,7 @@
       </c>
       <c r="N56" s="18"/>
     </row>
-    <row r="57" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="57">
       <c r="A57" s="18">
         <v>56</v>
       </c>
@@ -24367,19 +24562,19 @@
         <v>463</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="I57" s="18" t="s">
         <v>42</v>
@@ -24388,7 +24583,7 @@
         <v>30</v>
       </c>
       <c r="K57" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L57" s="18" t="s">
         <v>43</v>
@@ -24398,7 +24593,7 @@
       </c>
       <c r="N57" s="18"/>
     </row>
-    <row r="58" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" ht="82.5" customHeight="1">
       <c r="A58" s="18">
         <v>57</v>
       </c>
@@ -24409,19 +24604,19 @@
         <v>463</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="I58" s="18" t="s">
         <v>42</v>
@@ -24430,7 +24625,7 @@
         <v>30</v>
       </c>
       <c r="K58" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L58" s="18" t="s">
         <v>43</v>
@@ -24440,7 +24635,7 @@
       </c>
       <c r="N58" s="18"/>
     </row>
-    <row r="59" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" ht="82.5" customHeight="1">
       <c r="A59" s="18">
         <v>58</v>
       </c>
@@ -24451,19 +24646,19 @@
         <v>463</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="H59" s="19" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="I59" s="18" t="s">
         <v>42</v>
@@ -24472,7 +24667,7 @@
         <v>30</v>
       </c>
       <c r="K59" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L59" s="18" t="s">
         <v>43</v>
@@ -24482,7 +24677,7 @@
       </c>
       <c r="N59" s="18"/>
     </row>
-    <row r="60" spans="1:14" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" ht="82.5" customHeight="1">
       <c r="A60" s="18">
         <v>59</v>
       </c>
@@ -24493,19 +24688,19 @@
         <v>463</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>388</v>
+        <v>591</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="I60" s="18" t="s">
         <v>42</v>
@@ -24524,7 +24719,7 @@
       </c>
       <c r="N60" s="18"/>
     </row>
-    <row r="61" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" ht="97.5" customHeight="1">
       <c r="A61" s="18">
         <v>60</v>
       </c>
@@ -24535,19 +24730,19 @@
         <v>463</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="H61" s="19" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="I61" s="18" t="s">
         <v>42</v>
@@ -24556,40 +24751,40 @@
         <v>30</v>
       </c>
       <c r="K61" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L61" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M61" s="18" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="N61" s="18"/>
     </row>
-    <row r="62" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" ht="86.25" customHeight="1">
       <c r="A62" s="18">
         <v>61</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>1551</v>
+        <v>36</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>463</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>1552</v>
+        <v>599</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>1553</v>
+        <v>600</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>1554</v>
+        <v>388</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>1555</v>
+        <v>601</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>1556</v>
+        <v>602</v>
       </c>
       <c r="I62" s="18" t="s">
         <v>42</v>
@@ -24598,40 +24793,40 @@
         <v>30</v>
       </c>
       <c r="K62" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L62" s="18" t="s">
-        <v>1557</v>
+        <v>43</v>
       </c>
       <c r="M62" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N62" s="17"/>
-    </row>
-    <row r="63" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="N62" s="18"/>
+    </row>
+    <row r="63" spans="1:14" ht="93.75" customHeight="1">
       <c r="A63" s="18">
         <v>62</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>1551</v>
+        <v>36</v>
       </c>
       <c r="C63" s="19" t="s">
         <v>463</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>1558</v>
+        <v>603</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>1559</v>
+        <v>604</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>1554</v>
+        <v>605</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>1560</v>
+        <v>606</v>
       </c>
       <c r="H63" s="19" t="s">
-        <v>1561</v>
+        <v>607</v>
       </c>
       <c r="I63" s="18" t="s">
         <v>42</v>
@@ -24643,37 +24838,37 @@
         <v>3</v>
       </c>
       <c r="L63" s="18" t="s">
-        <v>1557</v>
+        <v>43</v>
       </c>
       <c r="M63" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N63" s="17"/>
-    </row>
-    <row r="64" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N63" s="18"/>
+    </row>
+    <row r="64" spans="1:14" ht="82.5" customHeight="1">
       <c r="A64" s="18">
         <v>63</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>1913</v>
+        <v>1551</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>1914</v>
+        <v>463</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>1915</v>
+        <v>1552</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>1916</v>
+        <v>1553</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>1917</v>
+        <v>1554</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>1918</v>
+        <v>1555</v>
       </c>
       <c r="H64" s="19" t="s">
-        <v>1919</v>
+        <v>1556</v>
       </c>
       <c r="I64" s="18" t="s">
         <v>42</v>
@@ -24682,45 +24877,43 @@
         <v>30</v>
       </c>
       <c r="K64" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L64" s="18" t="s">
-        <v>1920</v>
+        <v>1557</v>
       </c>
       <c r="M64" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N64" s="17" t="s">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N64" s="17"/>
+    </row>
+    <row r="65" spans="1:14" ht="90" customHeight="1">
       <c r="A65" s="18">
         <v>64</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>1913</v>
+        <v>1551</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>1914</v>
+        <v>463</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>1922</v>
+        <v>1558</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>1923</v>
+        <v>1559</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>1924</v>
+        <v>1554</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>1918</v>
+        <v>1560</v>
       </c>
       <c r="H65" s="19" t="s">
-        <v>1925</v>
+        <v>1561</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>294</v>
+        <v>42</v>
       </c>
       <c r="J65" s="18" t="s">
         <v>30</v>
@@ -24729,16 +24922,14 @@
         <v>3</v>
       </c>
       <c r="L65" s="18" t="s">
-        <v>1920</v>
+        <v>1557</v>
       </c>
       <c r="M65" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N65" s="17" t="s">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N65" s="17"/>
+    </row>
+    <row r="66" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A66" s="18">
         <v>65</v>
       </c>
@@ -24749,19 +24940,19 @@
         <v>1914</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>1926</v>
+        <v>1915</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>1927</v>
+        <v>1916</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>1928</v>
+        <v>1917</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>1929</v>
+        <v>1918</v>
       </c>
       <c r="H66" s="19" t="s">
-        <v>1930</v>
+        <v>1919</v>
       </c>
       <c r="I66" s="18" t="s">
         <v>42</v>
@@ -24782,7 +24973,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="67" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" customFormat="1" ht="104.25" customHeight="1">
       <c r="A67" s="18">
         <v>66</v>
       </c>
@@ -24793,28 +24984,28 @@
         <v>1914</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>1931</v>
+        <v>1922</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>1932</v>
+        <v>1918</v>
       </c>
       <c r="H67" s="19" t="s">
-        <v>1930</v>
+        <v>1925</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="J67" s="18" t="s">
         <v>30</v>
       </c>
       <c r="K67" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L67" s="18" t="s">
         <v>1920</v>
@@ -24826,7 +25017,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="68" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A68" s="18">
         <v>67</v>
       </c>
@@ -24837,19 +25028,19 @@
         <v>1914</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>1933</v>
+        <v>1926</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>1934</v>
+        <v>1927</v>
       </c>
       <c r="F68" s="19" t="s">
         <v>1928</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>1935</v>
+        <v>1929</v>
       </c>
       <c r="H68" s="19" t="s">
-        <v>1936</v>
+        <v>1930</v>
       </c>
       <c r="I68" s="18" t="s">
         <v>42</v>
@@ -24858,7 +25049,7 @@
         <v>30</v>
       </c>
       <c r="K68" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L68" s="18" t="s">
         <v>1920</v>
@@ -24870,7 +25061,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="69" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A69" s="18">
         <v>68</v>
       </c>
@@ -24881,19 +25072,19 @@
         <v>1914</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>1937</v>
+        <v>1931</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>1938</v>
+        <v>1927</v>
       </c>
       <c r="F69" s="19" t="s">
         <v>1928</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>1939</v>
+        <v>1932</v>
       </c>
       <c r="H69" s="19" t="s">
-        <v>1940</v>
+        <v>1930</v>
       </c>
       <c r="I69" s="18" t="s">
         <v>42</v>
@@ -24914,30 +25105,30 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="70" spans="1:14" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A70" s="18">
         <v>69</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>1986</v>
+        <v>1913</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>1987</v>
+        <v>1914</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>1988</v>
+        <v>1933</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>1989</v>
+        <v>1934</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>1990</v>
+        <v>1928</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>1991</v>
+        <v>1935</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>1992</v>
+        <v>1936</v>
       </c>
       <c r="I70" s="18" t="s">
         <v>42</v>
@@ -24946,42 +25137,42 @@
         <v>30</v>
       </c>
       <c r="K70" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L70" s="18" t="s">
-        <v>1993</v>
+        <v>1920</v>
       </c>
       <c r="M70" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N70" s="17" t="s">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A71" s="18">
         <v>70</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>1986</v>
+        <v>1913</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>1987</v>
+        <v>1914</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>1995</v>
+        <v>1937</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>1996</v>
+        <v>1938</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>1997</v>
+        <v>1928</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>1998</v>
+        <v>1939</v>
       </c>
       <c r="H71" s="19" t="s">
-        <v>1999</v>
+        <v>1940</v>
       </c>
       <c r="I71" s="18" t="s">
         <v>42</v>
@@ -24993,16 +25184,16 @@
         <v>2</v>
       </c>
       <c r="L71" s="18" t="s">
-        <v>1993</v>
+        <v>1920</v>
       </c>
       <c r="M71" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N71" s="17" t="s">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" customFormat="1" ht="137.25" customHeight="1">
       <c r="A72" s="18">
         <v>71</v>
       </c>
@@ -25013,19 +25204,19 @@
         <v>1987</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>2000</v>
+        <v>1988</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>2001</v>
+        <v>1989</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>2002</v>
+        <v>1990</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>2003</v>
+        <v>1991</v>
       </c>
       <c r="H72" s="19" t="s">
-        <v>2004</v>
+        <v>1992</v>
       </c>
       <c r="I72" s="18" t="s">
         <v>42</v>
@@ -25034,7 +25225,7 @@
         <v>30</v>
       </c>
       <c r="K72" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L72" s="18" t="s">
         <v>1993</v>
@@ -25046,7 +25237,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="73" spans="1:14" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" customFormat="1" ht="137.25" customHeight="1">
       <c r="A73" s="18">
         <v>72</v>
       </c>
@@ -25057,19 +25248,19 @@
         <v>1987</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>2006</v>
+        <v>1998</v>
       </c>
       <c r="H73" s="19" t="s">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="I73" s="18" t="s">
         <v>42</v>
@@ -25090,30 +25281,30 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" customFormat="1" ht="137.25" customHeight="1">
       <c r="A74" s="18">
         <v>73</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>110</v>
+        <v>1986</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>608</v>
+        <v>1987</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>609</v>
+        <v>2000</v>
       </c>
       <c r="E74" s="19" t="s">
-        <v>610</v>
+        <v>2001</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>611</v>
+        <v>2002</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>612</v>
+        <v>2003</v>
       </c>
       <c r="H74" s="19" t="s">
-        <v>613</v>
+        <v>2004</v>
       </c>
       <c r="I74" s="18" t="s">
         <v>42</v>
@@ -25122,40 +25313,42 @@
         <v>30</v>
       </c>
       <c r="K74" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L74" s="18" t="s">
-        <v>43</v>
+        <v>1993</v>
       </c>
       <c r="M74" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N74" s="18"/>
-    </row>
-    <row r="75" spans="1:14" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N74" s="17" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" customFormat="1" ht="137.25" customHeight="1">
       <c r="A75" s="18">
         <v>74</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>1913</v>
+        <v>1986</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>608</v>
+        <v>1987</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>1945</v>
+        <v>2000</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>1941</v>
+        <v>2005</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>1942</v>
+        <v>2002</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>1943</v>
+        <v>2006</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>1944</v>
+        <v>2004</v>
       </c>
       <c r="I75" s="18" t="s">
         <v>42</v>
@@ -25167,16 +25360,16 @@
         <v>2</v>
       </c>
       <c r="L75" s="18" t="s">
-        <v>1920</v>
+        <v>1993</v>
       </c>
       <c r="M75" s="18" t="s">
         <v>44</v>
       </c>
       <c r="N75" s="17" t="s">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="98.25" customHeight="1">
       <c r="A76" s="18">
         <v>75</v>
       </c>
@@ -25184,22 +25377,22 @@
         <v>110</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="H76" s="19" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="I76" s="18" t="s">
         <v>42</v>
@@ -25208,7 +25401,7 @@
         <v>30</v>
       </c>
       <c r="K76" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L76" s="18" t="s">
         <v>43</v>
@@ -25218,30 +25411,30 @@
       </c>
       <c r="N76" s="18"/>
     </row>
-    <row r="77" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" customFormat="1" ht="78.75" customHeight="1">
       <c r="A77" s="18">
         <v>76</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>110</v>
+        <v>1913</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>620</v>
+        <v>1945</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>621</v>
+        <v>1941</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>388</v>
+        <v>1942</v>
       </c>
       <c r="G77" s="19" t="s">
-        <v>622</v>
+        <v>1943</v>
       </c>
       <c r="H77" s="19" t="s">
-        <v>623</v>
+        <v>1944</v>
       </c>
       <c r="I77" s="18" t="s">
         <v>42</v>
@@ -25253,14 +25446,16 @@
         <v>2</v>
       </c>
       <c r="L77" s="18" t="s">
-        <v>43</v>
+        <v>1920</v>
       </c>
       <c r="M77" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N77" s="18"/>
-    </row>
-    <row r="78" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N77" s="17" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="104.25" customHeight="1">
       <c r="A78" s="18">
         <v>77</v>
       </c>
@@ -25268,22 +25463,22 @@
         <v>110</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>388</v>
+        <v>617</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="I78" s="18" t="s">
         <v>42</v>
@@ -25302,7 +25497,7 @@
       </c>
       <c r="N78" s="18"/>
     </row>
-    <row r="79" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" ht="78.75" customHeight="1">
       <c r="A79" s="18">
         <v>78</v>
       </c>
@@ -25310,22 +25505,22 @@
         <v>110</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>632</v>
+        <v>388</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="H79" s="19" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="I79" s="18" t="s">
         <v>42</v>
@@ -25334,7 +25529,7 @@
         <v>30</v>
       </c>
       <c r="K79" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L79" s="18" t="s">
         <v>43</v>
@@ -25344,7 +25539,7 @@
       </c>
       <c r="N79" s="18"/>
     </row>
-    <row r="80" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" ht="78.75" customHeight="1">
       <c r="A80" s="18">
         <v>79</v>
       </c>
@@ -25352,22 +25547,22 @@
         <v>110</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>632</v>
+        <v>388</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="H80" s="19" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="I80" s="18" t="s">
         <v>42</v>
@@ -25376,7 +25571,7 @@
         <v>30</v>
       </c>
       <c r="K80" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L80" s="18" t="s">
         <v>43</v>
@@ -25386,7 +25581,7 @@
       </c>
       <c r="N80" s="18"/>
     </row>
-    <row r="81" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" ht="78.75" customHeight="1">
       <c r="A81" s="18">
         <v>80</v>
       </c>
@@ -25394,22 +25589,22 @@
         <v>110</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>638</v>
-      </c>
-      <c r="D81" s="29" t="s">
-        <v>639</v>
+        <v>629</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>630</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="I81" s="18" t="s">
         <v>42</v>
@@ -25428,7 +25623,7 @@
       </c>
       <c r="N81" s="18"/>
     </row>
-    <row r="82" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" ht="78.75" customHeight="1">
       <c r="A82" s="18">
         <v>81</v>
       </c>
@@ -25436,22 +25631,22 @@
         <v>110</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>388</v>
+        <v>632</v>
       </c>
       <c r="G82" s="19" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="H82" s="19" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="I82" s="18" t="s">
         <v>42</v>
@@ -25470,7 +25665,7 @@
       </c>
       <c r="N82" s="18"/>
     </row>
-    <row r="83" spans="1:14" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" ht="78.75" customHeight="1">
       <c r="A83" s="18">
         <v>82</v>
       </c>
@@ -25478,22 +25673,22 @@
         <v>110</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>644</v>
-      </c>
-      <c r="D83" s="19" t="s">
-        <v>649</v>
+        <v>638</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>639</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="H83" s="19" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="I83" s="18" t="s">
         <v>42</v>
@@ -25502,7 +25697,7 @@
         <v>30</v>
       </c>
       <c r="K83" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L83" s="18" t="s">
         <v>43</v>
@@ -25512,49 +25707,51 @@
       </c>
       <c r="N83" s="18"/>
     </row>
-    <row r="84" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" ht="78.75" customHeight="1">
       <c r="A84" s="18">
         <v>83</v>
       </c>
-      <c r="B84" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C84" s="19" t="s">
-        <v>644</v>
-      </c>
-      <c r="D84" s="19" t="s">
-        <v>654</v>
-      </c>
-      <c r="E84" s="19" t="s">
-        <v>655</v>
-      </c>
-      <c r="F84" s="19" t="s">
-        <v>656</v>
-      </c>
-      <c r="G84" s="19" t="s">
-        <v>657</v>
-      </c>
-      <c r="H84" s="19" t="s">
-        <v>658</v>
-      </c>
-      <c r="I84" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J84" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K84" s="18">
-        <v>2</v>
-      </c>
-      <c r="L84" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="M84" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N84" s="18"/>
-    </row>
-    <row r="85" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="57" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C84" s="59" t="s">
+        <v>2042</v>
+      </c>
+      <c r="D84" s="58" t="s">
+        <v>2043</v>
+      </c>
+      <c r="E84" s="58" t="s">
+        <v>2024</v>
+      </c>
+      <c r="F84" s="58" t="s">
+        <v>2025</v>
+      </c>
+      <c r="G84" s="58" t="s">
+        <v>2044</v>
+      </c>
+      <c r="H84" s="58" t="s">
+        <v>2045</v>
+      </c>
+      <c r="I84" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="J84" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="K84" s="57">
+        <v>1</v>
+      </c>
+      <c r="L84" s="57" t="s">
+        <v>2028</v>
+      </c>
+      <c r="M84" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="N84" s="56" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="78.75" customHeight="1">
       <c r="A85" s="18">
         <v>84</v>
       </c>
@@ -25565,19 +25762,19 @@
         <v>644</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>651</v>
+        <v>388</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="H85" s="19" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="I85" s="18" t="s">
         <v>42</v>
@@ -25586,7 +25783,7 @@
         <v>30</v>
       </c>
       <c r="K85" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L85" s="18" t="s">
         <v>43</v>
@@ -25596,7 +25793,7 @@
       </c>
       <c r="N85" s="18"/>
     </row>
-    <row r="86" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" ht="95.25" customHeight="1">
       <c r="A86" s="18">
         <v>85</v>
       </c>
@@ -25607,19 +25804,19 @@
         <v>644</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>388</v>
+        <v>651</v>
       </c>
       <c r="G86" s="19" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="H86" s="19" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="I86" s="18" t="s">
         <v>42</v>
@@ -25638,7 +25835,7 @@
       </c>
       <c r="N86" s="18"/>
     </row>
-    <row r="87" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" ht="93" customHeight="1">
       <c r="A87" s="18">
         <v>86</v>
       </c>
@@ -25649,19 +25846,19 @@
         <v>644</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="G87" s="19" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="H87" s="19" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="I87" s="18" t="s">
         <v>42</v>
@@ -25680,7 +25877,7 @@
       </c>
       <c r="N87" s="18"/>
     </row>
-    <row r="88" spans="1:14" ht="183.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" ht="90" customHeight="1">
       <c r="A88" s="18">
         <v>87</v>
       </c>
@@ -25691,19 +25888,19 @@
         <v>644</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>674</v>
+        <v>651</v>
       </c>
       <c r="G88" s="19" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="H88" s="19" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="I88" s="18" t="s">
         <v>42</v>
@@ -25712,7 +25909,7 @@
         <v>30</v>
       </c>
       <c r="K88" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L88" s="18" t="s">
         <v>43</v>
@@ -25722,7 +25919,7 @@
       </c>
       <c r="N88" s="18"/>
     </row>
-    <row r="89" spans="1:14" ht="194.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" ht="90" customHeight="1">
       <c r="A89" s="18">
         <v>88</v>
       </c>
@@ -25733,19 +25930,19 @@
         <v>644</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>674</v>
+        <v>388</v>
       </c>
       <c r="G89" s="19" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="H89" s="19" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="I89" s="18" t="s">
         <v>42</v>
@@ -25764,7 +25961,7 @@
       </c>
       <c r="N89" s="18"/>
     </row>
-    <row r="90" spans="1:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" ht="90" customHeight="1">
       <c r="A90" s="18">
         <v>89</v>
       </c>
@@ -25775,19 +25972,19 @@
         <v>644</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="E90" s="19" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>388</v>
+        <v>669</v>
       </c>
       <c r="G90" s="19" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="H90" s="19" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="I90" s="18" t="s">
         <v>42</v>
@@ -25806,7 +26003,7 @@
       </c>
       <c r="N90" s="18"/>
     </row>
-    <row r="91" spans="1:14" ht="75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" ht="183.75" customHeight="1">
       <c r="A91" s="18">
         <v>90</v>
       </c>
@@ -25817,19 +26014,19 @@
         <v>644</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="G91" s="19" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="H91" s="19" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="I91" s="18" t="s">
         <v>42</v>
@@ -25838,7 +26035,7 @@
         <v>30</v>
       </c>
       <c r="K91" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L91" s="18" t="s">
         <v>43</v>
@@ -25848,30 +26045,30 @@
       </c>
       <c r="N91" s="18"/>
     </row>
-    <row r="92" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" ht="194.25" customHeight="1">
       <c r="A92" s="18">
         <v>91</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>1350</v>
+        <v>110</v>
       </c>
       <c r="C92" s="19" t="s">
         <v>644</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>1545</v>
+        <v>677</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>1544</v>
+        <v>678</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>1543</v>
+        <v>674</v>
       </c>
       <c r="G92" s="19" t="s">
-        <v>1542</v>
+        <v>679</v>
       </c>
       <c r="H92" s="19" t="s">
-        <v>1541</v>
+        <v>680</v>
       </c>
       <c r="I92" s="18" t="s">
         <v>42</v>
@@ -25880,40 +26077,40 @@
         <v>30</v>
       </c>
       <c r="K92" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L92" s="18" t="s">
-        <v>1357</v>
+        <v>43</v>
       </c>
       <c r="M92" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N92" s="17"/>
-    </row>
-    <row r="93" spans="1:14" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="N92" s="18"/>
+    </row>
+    <row r="93" spans="1:14" ht="63.75" customHeight="1">
       <c r="A93" s="18">
         <v>92</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>1977</v>
+        <v>110</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>1978</v>
+        <v>644</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>1979</v>
+        <v>681</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>1980</v>
+        <v>682</v>
       </c>
       <c r="F93" s="19" t="s">
-        <v>1981</v>
+        <v>388</v>
       </c>
       <c r="G93" s="19" t="s">
-        <v>1982</v>
+        <v>683</v>
       </c>
       <c r="H93" s="19" t="s">
-        <v>1983</v>
+        <v>684</v>
       </c>
       <c r="I93" s="18" t="s">
         <v>42</v>
@@ -25925,16 +26122,14 @@
         <v>2</v>
       </c>
       <c r="L93" s="18" t="s">
-        <v>1984</v>
+        <v>43</v>
       </c>
       <c r="M93" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N93" s="17" t="s">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="N93" s="18"/>
+    </row>
+    <row r="94" spans="1:14" ht="71.25">
       <c r="A94" s="18">
         <v>93</v>
       </c>
@@ -25942,22 +26137,22 @@
         <v>110</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>690</v>
+        <v>644</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="G94" s="19" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="H94" s="19" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="I94" s="18" t="s">
         <v>42</v>
@@ -25976,30 +26171,30 @@
       </c>
       <c r="N94" s="18"/>
     </row>
-    <row r="95" spans="1:14" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" ht="87" customHeight="1">
       <c r="A95" s="18">
         <v>94</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>110</v>
+        <v>1350</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>690</v>
+        <v>644</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>696</v>
+        <v>1545</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>697</v>
+        <v>1544</v>
       </c>
       <c r="F95" s="19" t="s">
-        <v>698</v>
+        <v>1543</v>
       </c>
       <c r="G95" s="19" t="s">
-        <v>699</v>
+        <v>1542</v>
       </c>
       <c r="H95" s="19" t="s">
-        <v>700</v>
+        <v>1541</v>
       </c>
       <c r="I95" s="18" t="s">
         <v>42</v>
@@ -26008,40 +26203,40 @@
         <v>30</v>
       </c>
       <c r="K95" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L95" s="18" t="s">
-        <v>43</v>
+        <v>1357</v>
       </c>
       <c r="M95" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N95" s="19"/>
-    </row>
-    <row r="96" spans="1:14" ht="192.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N95" s="17"/>
+    </row>
+    <row r="96" spans="1:14" customFormat="1" ht="118.5" customHeight="1">
       <c r="A96" s="18">
         <v>95</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>110</v>
+        <v>1977</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>690</v>
+        <v>1978</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>701</v>
+        <v>1979</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>702</v>
+        <v>1980</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>698</v>
+        <v>1981</v>
       </c>
       <c r="G96" s="19" t="s">
-        <v>703</v>
+        <v>1982</v>
       </c>
       <c r="H96" s="19" t="s">
-        <v>704</v>
+        <v>1983</v>
       </c>
       <c r="I96" s="18" t="s">
         <v>42</v>
@@ -26053,14 +26248,16 @@
         <v>2</v>
       </c>
       <c r="L96" s="18" t="s">
-        <v>43</v>
+        <v>1984</v>
       </c>
       <c r="M96" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N96" s="18"/>
-    </row>
-    <row r="97" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N96" s="17" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="80.25" customHeight="1">
       <c r="A97" s="18">
         <v>96</v>
       </c>
@@ -26071,19 +26268,19 @@
         <v>690</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="E97" s="19" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="F97" s="19" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="G97" s="19" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="H97" s="19" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="I97" s="18" t="s">
         <v>42</v>
@@ -26102,7 +26299,7 @@
       </c>
       <c r="N97" s="18"/>
     </row>
-    <row r="98" spans="1:14" ht="60" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" ht="161.25" customHeight="1">
       <c r="A98" s="18">
         <v>97</v>
       </c>
@@ -26113,19 +26310,19 @@
         <v>690</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="E98" s="19" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="G98" s="19" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="H98" s="19" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="I98" s="18" t="s">
         <v>42</v>
@@ -26134,7 +26331,7 @@
         <v>30</v>
       </c>
       <c r="K98" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L98" s="18" t="s">
         <v>43</v>
@@ -26142,9 +26339,9 @@
       <c r="M98" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="N98" s="18"/>
-    </row>
-    <row r="99" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N98" s="19"/>
+    </row>
+    <row r="99" spans="1:14" ht="192.75" customHeight="1">
       <c r="A99" s="18">
         <v>98</v>
       </c>
@@ -26155,19 +26352,19 @@
         <v>690</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>388</v>
+        <v>698</v>
       </c>
       <c r="G99" s="19" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="H99" s="19" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="I99" s="18" t="s">
         <v>42</v>
@@ -26186,30 +26383,30 @@
       </c>
       <c r="N99" s="18"/>
     </row>
-    <row r="100" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" ht="57.75" customHeight="1">
       <c r="A100" s="18">
         <v>99</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>1548</v>
+        <v>690</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>1548</v>
+        <v>705</v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>1547</v>
+        <v>706</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>1546</v>
+        <v>707</v>
       </c>
       <c r="G100" s="19" t="s">
-        <v>1550</v>
+        <v>708</v>
       </c>
       <c r="H100" s="19" t="s">
-        <v>1549</v>
+        <v>709</v>
       </c>
       <c r="I100" s="18" t="s">
         <v>42</v>
@@ -26218,40 +26415,40 @@
         <v>30</v>
       </c>
       <c r="K100" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L100" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M100" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N100" s="17"/>
-    </row>
-    <row r="101" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="N100" s="18"/>
+    </row>
+    <row r="101" spans="1:14" ht="57">
       <c r="A101" s="18">
         <v>100</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C101" s="34" t="s">
-        <v>1465</v>
+        <v>110</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>690</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>1486</v>
+        <v>710</v>
       </c>
       <c r="E101" s="19" t="s">
-        <v>1485</v>
+        <v>711</v>
       </c>
       <c r="F101" s="19" t="s">
-        <v>388</v>
+        <v>712</v>
       </c>
       <c r="G101" s="19" t="s">
-        <v>1484</v>
+        <v>713</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>1483</v>
+        <v>714</v>
       </c>
       <c r="I101" s="18" t="s">
         <v>42</v>
@@ -26260,38 +26457,40 @@
         <v>30</v>
       </c>
       <c r="K101" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L101" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M101" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N101" s="17"/>
-    </row>
-    <row r="102" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="N101" s="18"/>
+    </row>
+    <row r="102" spans="1:14" ht="54.75" customHeight="1">
       <c r="A102" s="18">
         <v>101</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C102" s="35"/>
+        <v>110</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>690</v>
+      </c>
       <c r="D102" s="19" t="s">
-        <v>1482</v>
+        <v>715</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>1481</v>
+        <v>716</v>
       </c>
       <c r="F102" s="19" t="s">
-        <v>1472</v>
+        <v>388</v>
       </c>
       <c r="G102" s="19" t="s">
-        <v>1480</v>
+        <v>717</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>1479</v>
+        <v>718</v>
       </c>
       <c r="I102" s="18" t="s">
         <v>42</v>
@@ -26300,38 +26499,40 @@
         <v>30</v>
       </c>
       <c r="K102" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L102" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M102" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N102" s="17"/>
-    </row>
-    <row r="103" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="N102" s="18"/>
+    </row>
+    <row r="103" spans="1:14" ht="42.75">
       <c r="A103" s="18">
         <v>102</v>
       </c>
       <c r="B103" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C103" s="35"/>
+      <c r="C103" s="19" t="s">
+        <v>1548</v>
+      </c>
       <c r="D103" s="19" t="s">
-        <v>1478</v>
+        <v>1548</v>
       </c>
       <c r="E103" s="19" t="s">
-        <v>1477</v>
+        <v>1547</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>1472</v>
+        <v>1546</v>
       </c>
       <c r="G103" s="19" t="s">
-        <v>1476</v>
+        <v>1550</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>1475</v>
+        <v>1549</v>
       </c>
       <c r="I103" s="18" t="s">
         <v>42</v>
@@ -26340,7 +26541,7 @@
         <v>30</v>
       </c>
       <c r="K103" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L103" s="18" t="s">
         <v>43</v>
@@ -26350,28 +26551,30 @@
       </c>
       <c r="N103" s="17"/>
     </row>
-    <row r="104" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" ht="54.75" customHeight="1">
       <c r="A104" s="18">
         <v>103</v>
       </c>
       <c r="B104" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C104" s="35"/>
+      <c r="C104" s="34" t="s">
+        <v>1465</v>
+      </c>
       <c r="D104" s="19" t="s">
-        <v>1474</v>
+        <v>1486</v>
       </c>
       <c r="E104" s="19" t="s">
-        <v>1473</v>
+        <v>1485</v>
       </c>
       <c r="F104" s="19" t="s">
-        <v>1472</v>
+        <v>388</v>
       </c>
       <c r="G104" s="19" t="s">
-        <v>1471</v>
+        <v>1484</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>1470</v>
+        <v>1483</v>
       </c>
       <c r="I104" s="18" t="s">
         <v>42</v>
@@ -26380,7 +26583,7 @@
         <v>30</v>
       </c>
       <c r="K104" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L104" s="18" t="s">
         <v>43</v>
@@ -26390,28 +26593,28 @@
       </c>
       <c r="N104" s="17"/>
     </row>
-    <row r="105" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" ht="54.75" customHeight="1">
       <c r="A105" s="18">
         <v>104</v>
       </c>
       <c r="B105" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C105" s="36"/>
+      <c r="C105" s="35"/>
       <c r="D105" s="19" t="s">
-        <v>1469</v>
+        <v>1482</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>1468</v>
+        <v>1481</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>1454</v>
+        <v>1472</v>
       </c>
       <c r="G105" s="19" t="s">
-        <v>1467</v>
+        <v>1480</v>
       </c>
       <c r="H105" s="19" t="s">
-        <v>1466</v>
+        <v>1479</v>
       </c>
       <c r="I105" s="18" t="s">
         <v>42</v>
@@ -26420,7 +26623,7 @@
         <v>30</v>
       </c>
       <c r="K105" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L105" s="18" t="s">
         <v>43</v>
@@ -26430,30 +26633,28 @@
       </c>
       <c r="N105" s="17"/>
     </row>
-    <row r="106" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" ht="54.75" customHeight="1">
       <c r="A106" s="18">
         <v>105</v>
       </c>
       <c r="B106" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C106" s="34" t="s">
-        <v>1465</v>
-      </c>
+      <c r="C106" s="35"/>
       <c r="D106" s="19" t="s">
-        <v>1464</v>
+        <v>1478</v>
       </c>
       <c r="E106" s="19" t="s">
-        <v>1463</v>
+        <v>1477</v>
       </c>
       <c r="F106" s="19" t="s">
-        <v>1454</v>
+        <v>1472</v>
       </c>
       <c r="G106" s="19" t="s">
-        <v>1462</v>
+        <v>1476</v>
       </c>
       <c r="H106" s="19" t="s">
-        <v>1461</v>
+        <v>1475</v>
       </c>
       <c r="I106" s="18" t="s">
         <v>42</v>
@@ -26472,7 +26673,7 @@
       </c>
       <c r="N106" s="17"/>
     </row>
-    <row r="107" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" ht="54.75" customHeight="1">
       <c r="A107" s="18">
         <v>106</v>
       </c>
@@ -26481,19 +26682,19 @@
       </c>
       <c r="C107" s="35"/>
       <c r="D107" s="19" t="s">
-        <v>1460</v>
+        <v>1474</v>
       </c>
       <c r="E107" s="19" t="s">
-        <v>1459</v>
+        <v>1473</v>
       </c>
       <c r="F107" s="19" t="s">
-        <v>1454</v>
+        <v>1472</v>
       </c>
       <c r="G107" s="19" t="s">
-        <v>1458</v>
+        <v>1471</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>1457</v>
+        <v>1470</v>
       </c>
       <c r="I107" s="18" t="s">
         <v>42</v>
@@ -26512,28 +26713,28 @@
       </c>
       <c r="N107" s="17"/>
     </row>
-    <row r="108" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" ht="54.75" customHeight="1">
       <c r="A108" s="18">
         <v>107</v>
       </c>
       <c r="B108" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C108" s="35"/>
+      <c r="C108" s="36"/>
       <c r="D108" s="19" t="s">
-        <v>1456</v>
+        <v>1469</v>
       </c>
       <c r="E108" s="19" t="s">
-        <v>1455</v>
+        <v>1468</v>
       </c>
       <c r="F108" s="19" t="s">
         <v>1454</v>
       </c>
       <c r="G108" s="19" t="s">
-        <v>1453</v>
+        <v>1467</v>
       </c>
       <c r="H108" s="19" t="s">
-        <v>1452</v>
+        <v>1466</v>
       </c>
       <c r="I108" s="18" t="s">
         <v>42</v>
@@ -26552,28 +26753,30 @@
       </c>
       <c r="N108" s="17"/>
     </row>
-    <row r="109" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" ht="54.75" customHeight="1">
       <c r="A109" s="18">
         <v>108</v>
       </c>
       <c r="B109" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C109" s="35"/>
+      <c r="C109" s="34" t="s">
+        <v>1465</v>
+      </c>
       <c r="D109" s="19" t="s">
-        <v>1451</v>
+        <v>1464</v>
       </c>
       <c r="E109" s="19" t="s">
-        <v>1446</v>
+        <v>1463</v>
       </c>
       <c r="F109" s="19" t="s">
-        <v>1450</v>
+        <v>1454</v>
       </c>
       <c r="G109" s="19" t="s">
-        <v>1449</v>
+        <v>1462</v>
       </c>
       <c r="H109" s="19" t="s">
-        <v>1448</v>
+        <v>1461</v>
       </c>
       <c r="I109" s="18" t="s">
         <v>42</v>
@@ -26592,7 +26795,7 @@
       </c>
       <c r="N109" s="17"/>
     </row>
-    <row r="110" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" ht="54.75" customHeight="1">
       <c r="A110" s="18">
         <v>109</v>
       </c>
@@ -26601,19 +26804,19 @@
       </c>
       <c r="C110" s="35"/>
       <c r="D110" s="19" t="s">
-        <v>1447</v>
+        <v>1460</v>
       </c>
       <c r="E110" s="19" t="s">
-        <v>1446</v>
+        <v>1459</v>
       </c>
       <c r="F110" s="19" t="s">
-        <v>388</v>
+        <v>1454</v>
       </c>
       <c r="G110" s="19" t="s">
-        <v>1445</v>
+        <v>1458</v>
       </c>
       <c r="H110" s="19" t="s">
-        <v>1444</v>
+        <v>1457</v>
       </c>
       <c r="I110" s="18" t="s">
         <v>42</v>
@@ -26632,28 +26835,28 @@
       </c>
       <c r="N110" s="17"/>
     </row>
-    <row r="111" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" ht="54.75" customHeight="1">
       <c r="A111" s="18">
         <v>110</v>
       </c>
       <c r="B111" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C111" s="36"/>
+      <c r="C111" s="35"/>
       <c r="D111" s="19" t="s">
-        <v>1443</v>
+        <v>1456</v>
       </c>
       <c r="E111" s="19" t="s">
-        <v>1442</v>
+        <v>1455</v>
       </c>
       <c r="F111" s="19" t="s">
-        <v>388</v>
+        <v>1454</v>
       </c>
       <c r="G111" s="19" t="s">
-        <v>1441</v>
+        <v>1453</v>
       </c>
       <c r="H111" s="19" t="s">
-        <v>1440</v>
+        <v>1452</v>
       </c>
       <c r="I111" s="18" t="s">
         <v>42</v>
@@ -26672,30 +26875,28 @@
       </c>
       <c r="N111" s="17"/>
     </row>
-    <row r="112" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" ht="54.75" customHeight="1">
       <c r="A112" s="18">
         <v>111</v>
       </c>
       <c r="B112" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C112" s="25" t="s">
-        <v>1434</v>
-      </c>
+      <c r="C112" s="35"/>
       <c r="D112" s="19" t="s">
-        <v>1439</v>
+        <v>1451</v>
       </c>
       <c r="E112" s="19" t="s">
-        <v>1438</v>
+        <v>1446</v>
       </c>
       <c r="F112" s="19" t="s">
-        <v>1437</v>
+        <v>1450</v>
       </c>
       <c r="G112" s="19" t="s">
-        <v>1436</v>
+        <v>1449</v>
       </c>
       <c r="H112" s="19" t="s">
-        <v>1435</v>
+        <v>1448</v>
       </c>
       <c r="I112" s="18" t="s">
         <v>42</v>
@@ -26714,30 +26915,28 @@
       </c>
       <c r="N112" s="17"/>
     </row>
-    <row r="113" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" ht="54.75" customHeight="1">
       <c r="A113" s="18">
         <v>112</v>
       </c>
       <c r="B113" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C113" s="25" t="s">
-        <v>1434</v>
-      </c>
+      <c r="C113" s="35"/>
       <c r="D113" s="19" t="s">
-        <v>1433</v>
+        <v>1447</v>
       </c>
       <c r="E113" s="19" t="s">
-        <v>1432</v>
+        <v>1446</v>
       </c>
       <c r="F113" s="19" t="s">
-        <v>1431</v>
+        <v>388</v>
       </c>
       <c r="G113" s="19" t="s">
-        <v>1430</v>
+        <v>1445</v>
       </c>
       <c r="H113" s="19" t="s">
-        <v>1429</v>
+        <v>1444</v>
       </c>
       <c r="I113" s="18" t="s">
         <v>42</v>
@@ -26756,30 +26955,28 @@
       </c>
       <c r="N113" s="17"/>
     </row>
-    <row r="114" spans="1:14" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" ht="54.75" customHeight="1">
       <c r="A114" s="18">
         <v>113</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C114" s="19" t="s">
-        <v>719</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C114" s="36"/>
       <c r="D114" s="19" t="s">
-        <v>720</v>
+        <v>1443</v>
       </c>
       <c r="E114" s="19" t="s">
-        <v>721</v>
+        <v>1442</v>
       </c>
       <c r="F114" s="19" t="s">
-        <v>722</v>
+        <v>388</v>
       </c>
       <c r="G114" s="19" t="s">
-        <v>723</v>
+        <v>1441</v>
       </c>
       <c r="H114" s="19" t="s">
-        <v>724</v>
+        <v>1440</v>
       </c>
       <c r="I114" s="18" t="s">
         <v>42</v>
@@ -26788,40 +26985,40 @@
         <v>30</v>
       </c>
       <c r="K114" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L114" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M114" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N114" s="18"/>
-    </row>
-    <row r="115" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N114" s="17"/>
+    </row>
+    <row r="115" spans="1:14" ht="54.75" customHeight="1">
       <c r="A115" s="18">
         <v>114</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C115" s="19" t="s">
-        <v>719</v>
+        <v>36</v>
+      </c>
+      <c r="C115" s="25" t="s">
+        <v>1434</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>725</v>
+        <v>1439</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>726</v>
+        <v>1438</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>727</v>
+        <v>1437</v>
       </c>
       <c r="G115" s="19" t="s">
-        <v>728</v>
+        <v>1436</v>
       </c>
       <c r="H115" s="19" t="s">
-        <v>729</v>
+        <v>1435</v>
       </c>
       <c r="I115" s="18" t="s">
         <v>42</v>
@@ -26836,34 +27033,34 @@
         <v>43</v>
       </c>
       <c r="M115" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N115" s="18"/>
-    </row>
-    <row r="116" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N115" s="17"/>
+    </row>
+    <row r="116" spans="1:14" ht="54.75" customHeight="1">
       <c r="A116" s="18">
         <v>115</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C116" s="19" t="s">
-        <v>719</v>
+        <v>36</v>
+      </c>
+      <c r="C116" s="25" t="s">
+        <v>1434</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>730</v>
+        <v>1433</v>
       </c>
       <c r="E116" s="19" t="s">
-        <v>731</v>
+        <v>1432</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>732</v>
+        <v>1431</v>
       </c>
       <c r="G116" s="19" t="s">
-        <v>733</v>
+        <v>1430</v>
       </c>
       <c r="H116" s="19" t="s">
-        <v>734</v>
+        <v>1429</v>
       </c>
       <c r="I116" s="18" t="s">
         <v>42</v>
@@ -26878,11 +27075,11 @@
         <v>43</v>
       </c>
       <c r="M116" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N116" s="18"/>
-    </row>
-    <row r="117" spans="1:14" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N116" s="17"/>
+    </row>
+    <row r="117" spans="1:14" ht="79.5" customHeight="1">
       <c r="A117" s="18">
         <v>116</v>
       </c>
@@ -26890,22 +27087,22 @@
         <v>110</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="E117" s="19" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="G117" s="19" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="H117" s="19" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="I117" s="18" t="s">
         <v>42</v>
@@ -26924,7 +27121,7 @@
       </c>
       <c r="N117" s="18"/>
     </row>
-    <row r="118" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" ht="77.25" customHeight="1">
       <c r="A118" s="18">
         <v>117</v>
       </c>
@@ -26932,22 +27129,22 @@
         <v>110</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="E118" s="19" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="G118" s="19" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="H118" s="19" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="I118" s="18" t="s">
         <v>42</v>
@@ -26966,7 +27163,7 @@
       </c>
       <c r="N118" s="18"/>
     </row>
-    <row r="119" spans="1:14" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" ht="77.25" customHeight="1">
       <c r="A119" s="18">
         <v>118</v>
       </c>
@@ -26974,22 +27171,22 @@
         <v>110</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>746</v>
+        <v>719</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>747</v>
+        <v>730</v>
       </c>
       <c r="E119" s="19" t="s">
-        <v>748</v>
+        <v>731</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="G119" s="19" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="H119" s="19" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="I119" s="18" t="s">
         <v>42</v>
@@ -27008,7 +27205,7 @@
       </c>
       <c r="N119" s="18"/>
     </row>
-    <row r="120" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" ht="179.25" customHeight="1">
       <c r="A120" s="18">
         <v>119</v>
       </c>
@@ -27019,19 +27216,19 @@
         <v>735</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="E120" s="19" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="F120" s="19" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
       <c r="G120" s="19" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
       <c r="H120" s="19" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="I120" s="18" t="s">
         <v>42</v>
@@ -27050,7 +27247,7 @@
       </c>
       <c r="N120" s="18"/>
     </row>
-    <row r="121" spans="1:14" ht="234.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" ht="77.25" customHeight="1">
       <c r="A121" s="18">
         <v>120</v>
       </c>
@@ -27061,19 +27258,19 @@
         <v>735</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>756</v>
+        <v>741</v>
       </c>
       <c r="E121" s="19" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="F121" s="19" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
       <c r="G121" s="19" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
       <c r="H121" s="19" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
       <c r="I121" s="18" t="s">
         <v>42</v>
@@ -27082,7 +27279,7 @@
         <v>30</v>
       </c>
       <c r="K121" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L121" s="18" t="s">
         <v>43</v>
@@ -27092,7 +27289,7 @@
       </c>
       <c r="N121" s="18"/>
     </row>
-    <row r="122" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" ht="179.25" customHeight="1">
       <c r="A122" s="18">
         <v>121</v>
       </c>
@@ -27100,22 +27297,22 @@
         <v>110</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="F122" s="19" t="s">
-        <v>763</v>
+        <v>743</v>
       </c>
       <c r="G122" s="19" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
       <c r="H122" s="19" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="I122" s="18" t="s">
         <v>42</v>
@@ -27134,7 +27331,7 @@
       </c>
       <c r="N122" s="18"/>
     </row>
-    <row r="123" spans="1:14" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" ht="77.25" customHeight="1">
       <c r="A123" s="18">
         <v>122</v>
       </c>
@@ -27145,19 +27342,19 @@
         <v>735</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="E123" s="19" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="F123" s="19" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="G123" s="19" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="H123" s="19" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="I123" s="18" t="s">
         <v>42</v>
@@ -27166,7 +27363,7 @@
         <v>30</v>
       </c>
       <c r="K123" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L123" s="18" t="s">
         <v>43</v>
@@ -27176,7 +27373,7 @@
       </c>
       <c r="N123" s="18"/>
     </row>
-    <row r="124" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" ht="234.75" customHeight="1">
       <c r="A124" s="18">
         <v>123</v>
       </c>
@@ -27187,19 +27384,19 @@
         <v>735</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="E124" s="19" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="F124" s="19" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="G124" s="19" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="H124" s="19" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="I124" s="18" t="s">
         <v>42</v>
@@ -27218,7 +27415,7 @@
       </c>
       <c r="N124" s="18"/>
     </row>
-    <row r="125" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" ht="98.25" customHeight="1">
       <c r="A125" s="18">
         <v>124</v>
       </c>
@@ -27229,19 +27426,19 @@
         <v>735</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="E125" s="19" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="F125" s="19" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="G125" s="19" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="H125" s="19" t="s">
-        <v>778</v>
+        <v>745</v>
       </c>
       <c r="I125" s="18" t="s">
         <v>42</v>
@@ -27250,7 +27447,7 @@
         <v>30</v>
       </c>
       <c r="K125" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L125" s="18" t="s">
         <v>43</v>
@@ -27260,7 +27457,7 @@
       </c>
       <c r="N125" s="18"/>
     </row>
-    <row r="126" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" ht="117" customHeight="1">
       <c r="A126" s="18">
         <v>125</v>
       </c>
@@ -27271,19 +27468,19 @@
         <v>735</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="E126" s="19" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="F126" s="19" t="s">
         <v>763</v>
       </c>
       <c r="G126" s="19" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="H126" s="19" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="I126" s="18" t="s">
         <v>42</v>
@@ -27292,7 +27489,7 @@
         <v>30</v>
       </c>
       <c r="K126" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L126" s="18" t="s">
         <v>43</v>
@@ -27302,30 +27499,30 @@
       </c>
       <c r="N126" s="18"/>
     </row>
-    <row r="127" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" ht="98.25" customHeight="1">
       <c r="A127" s="18">
         <v>126</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="C127" s="19" t="s">
         <v>735</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="E127" s="19" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="F127" s="19" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="G127" s="19" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="H127" s="19" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="I127" s="18" t="s">
         <v>42</v>
@@ -27334,17 +27531,17 @@
         <v>30</v>
       </c>
       <c r="K127" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L127" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M127" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N127" s="17"/>
-    </row>
-    <row r="128" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="N127" s="18"/>
+    </row>
+    <row r="128" spans="1:14" ht="98.25" customHeight="1">
       <c r="A128" s="18">
         <v>127</v>
       </c>
@@ -27352,22 +27549,22 @@
         <v>110</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>358</v>
+        <v>735</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="E128" s="19" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="F128" s="19" t="s">
-        <v>388</v>
+        <v>776</v>
       </c>
       <c r="G128" s="19" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="H128" s="19" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="I128" s="18" t="s">
         <v>42</v>
@@ -27376,7 +27573,7 @@
         <v>30</v>
       </c>
       <c r="K128" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L128" s="18" t="s">
         <v>43</v>
@@ -27386,7 +27583,7 @@
       </c>
       <c r="N128" s="18"/>
     </row>
-    <row r="129" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" ht="98.25" customHeight="1">
       <c r="A129" s="18">
         <v>128</v>
       </c>
@@ -27394,22 +27591,22 @@
         <v>110</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>463</v>
+        <v>735</v>
       </c>
       <c r="D129" s="19" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="E129" s="19" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="F129" s="19" t="s">
-        <v>388</v>
+        <v>763</v>
       </c>
       <c r="G129" s="19" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="H129" s="19" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="I129" s="18" t="s">
         <v>42</v>
@@ -27418,7 +27615,7 @@
         <v>30</v>
       </c>
       <c r="K129" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L129" s="18" t="s">
         <v>43</v>
@@ -27428,30 +27625,30 @@
       </c>
       <c r="N129" s="18"/>
     </row>
-    <row r="130" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" ht="117.75" customHeight="1">
       <c r="A130" s="18">
         <v>129</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>796</v>
+        <v>735</v>
       </c>
       <c r="D130" s="19" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="E130" s="19" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="F130" s="19" t="s">
-        <v>141</v>
+        <v>785</v>
       </c>
       <c r="G130" s="19" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="H130" s="19" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="I130" s="18" t="s">
         <v>42</v>
@@ -27460,17 +27657,17 @@
         <v>30</v>
       </c>
       <c r="K130" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L130" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M130" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N130" s="18"/>
-    </row>
-    <row r="131" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N130" s="17"/>
+    </row>
+    <row r="131" spans="1:14" ht="98.25" customHeight="1">
       <c r="A131" s="18">
         <v>130</v>
       </c>
@@ -27478,22 +27675,22 @@
         <v>110</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>800</v>
+        <v>358</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>801</v>
+        <v>788</v>
       </c>
       <c r="E131" s="19" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="F131" s="19" t="s">
-        <v>480</v>
+        <v>388</v>
       </c>
       <c r="G131" s="19" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="H131" s="19" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="I131" s="18" t="s">
         <v>42</v>
@@ -27502,7 +27699,7 @@
         <v>30</v>
       </c>
       <c r="K131" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L131" s="18" t="s">
         <v>43</v>
@@ -27511,30 +27708,156 @@
         <v>24</v>
       </c>
       <c r="N131" s="18"/>
+    </row>
+    <row r="132" spans="1:14" ht="98.25" customHeight="1">
+      <c r="A132" s="18">
+        <v>131</v>
+      </c>
+      <c r="B132" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C132" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="D132" s="19" t="s">
+        <v>792</v>
+      </c>
+      <c r="E132" s="19" t="s">
+        <v>793</v>
+      </c>
+      <c r="F132" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="G132" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="H132" s="19" t="s">
+        <v>795</v>
+      </c>
+      <c r="I132" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J132" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K132" s="18">
+        <v>4</v>
+      </c>
+      <c r="L132" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M132" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N132" s="18"/>
+    </row>
+    <row r="133" spans="1:14" ht="98.25" customHeight="1">
+      <c r="A133" s="18">
+        <v>132</v>
+      </c>
+      <c r="B133" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>796</v>
+      </c>
+      <c r="D133" s="19" t="s">
+        <v>796</v>
+      </c>
+      <c r="E133" s="19" t="s">
+        <v>797</v>
+      </c>
+      <c r="F133" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G133" s="19" t="s">
+        <v>798</v>
+      </c>
+      <c r="H133" s="19" t="s">
+        <v>799</v>
+      </c>
+      <c r="I133" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J133" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K133" s="18">
+        <v>4</v>
+      </c>
+      <c r="L133" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M133" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N133" s="18"/>
+    </row>
+    <row r="134" spans="1:14" ht="98.25" customHeight="1">
+      <c r="A134" s="18">
+        <v>133</v>
+      </c>
+      <c r="B134" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C134" s="19" t="s">
+        <v>800</v>
+      </c>
+      <c r="D134" s="19" t="s">
+        <v>801</v>
+      </c>
+      <c r="E134" s="19" t="s">
+        <v>802</v>
+      </c>
+      <c r="F134" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="G134" s="19" t="s">
+        <v>803</v>
+      </c>
+      <c r="H134" s="19" t="s">
+        <v>804</v>
+      </c>
+      <c r="I134" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J134" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K134" s="18">
+        <v>4</v>
+      </c>
+      <c r="L134" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M134" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N134" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="F33:F34"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C106:C111"/>
-    <mergeCell ref="C101:C105"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C109:C114"/>
+    <mergeCell ref="C104:C108"/>
     <mergeCell ref="B29:B34"/>
     <mergeCell ref="C29:C34"/>
     <mergeCell ref="E33:E34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I131">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I134">
       <formula1>"功能,异常,性能,安全"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J131">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J134">
       <formula1>"None,Pass,Fail"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K131">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K134">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M131">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M134">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -27550,24 +27873,24 @@
   </sheetPr>
   <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:A76"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" customWidth="1"/>
-    <col min="5" max="5" width="28.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="21.875" customWidth="1"/>
+    <col min="5" max="5" width="28.875" customWidth="1"/>
     <col min="6" max="6" width="58" customWidth="1"/>
-    <col min="7" max="7" width="49.6640625" customWidth="1"/>
-    <col min="8" max="8" width="51.83203125" customWidth="1"/>
+    <col min="7" max="7" width="49.625" customWidth="1"/>
+    <col min="8" max="8" width="51.875" customWidth="1"/>
     <col min="14" max="14" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -27611,7 +27934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="211.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="211.5" customHeight="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -27653,7 +27976,7 @@
       </c>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="128.25" customHeight="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -27695,7 +28018,7 @@
       </c>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" ht="220.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="220.5" customHeight="1">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -27737,7 +28060,7 @@
       </c>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="67.5" customHeight="1">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -27779,7 +28102,7 @@
       </c>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="67.5" customHeight="1">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -27821,7 +28144,7 @@
       </c>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="117.75" customHeight="1">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -27863,7 +28186,7 @@
       </c>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="117.75" customHeight="1">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -27901,7 +28224,7 @@
       </c>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="57" customHeight="1">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -27925,7 +28248,7 @@
       <c r="M9" s="18"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="40.5" customHeight="1">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -27949,7 +28272,7 @@
       <c r="M10" s="18"/>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="1:14" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="100.5" customHeight="1">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -27993,7 +28316,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="78.75" customHeight="1">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -28035,7 +28358,7 @@
       </c>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="174.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="174.75" customHeight="1">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -28075,7 +28398,7 @@
       </c>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="90.75" customHeight="1">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -28111,7 +28434,7 @@
       </c>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="97.5" customHeight="1">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -28151,7 +28474,7 @@
       </c>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="86.25" customHeight="1">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -28193,7 +28516,7 @@
       </c>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:14" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="103.5" customHeight="1">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -28235,7 +28558,7 @@
       </c>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="128.25" customHeight="1">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -28277,7 +28600,7 @@
       </c>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14" ht="153.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="153.75" customHeight="1">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -28317,7 +28640,7 @@
       </c>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="97.5" customHeight="1">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -28357,7 +28680,7 @@
       </c>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="93.75" customHeight="1">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -28397,7 +28720,7 @@
       </c>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="101.25" customHeight="1">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -28437,7 +28760,7 @@
       </c>
       <c r="N22" s="8"/>
     </row>
-    <row r="23" spans="1:14" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="111" customHeight="1">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -28477,7 +28800,7 @@
       </c>
       <c r="N23" s="8"/>
     </row>
-    <row r="24" spans="1:14" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="103.5" customHeight="1">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -28517,7 +28840,7 @@
       </c>
       <c r="N24" s="8"/>
     </row>
-    <row r="25" spans="1:14" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="104.25" customHeight="1">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -28557,7 +28880,7 @@
       </c>
       <c r="N25" s="8"/>
     </row>
-    <row r="26" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="101.25" customHeight="1">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -28597,7 +28920,7 @@
       </c>
       <c r="N26" s="8"/>
     </row>
-    <row r="27" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="101.25" customHeight="1">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -28639,7 +28962,7 @@
       </c>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="101.25" customHeight="1">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -28679,7 +29002,7 @@
       </c>
       <c r="N28" s="8"/>
     </row>
-    <row r="29" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="101.25" customHeight="1">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -28719,7 +29042,7 @@
       </c>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="101.25" customHeight="1">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -28759,7 +29082,7 @@
       </c>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="101.25" customHeight="1">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -28799,7 +29122,7 @@
       </c>
       <c r="N31" s="8"/>
     </row>
-    <row r="32" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="101.25" customHeight="1">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -28839,7 +29162,7 @@
       </c>
       <c r="N32" s="8"/>
     </row>
-    <row r="33" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="101.25" customHeight="1">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -28879,7 +29202,7 @@
       </c>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="101.25" customHeight="1">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -28919,7 +29242,7 @@
       </c>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="101.25" customHeight="1">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -28961,7 +29284,7 @@
       </c>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="128.25" customHeight="1">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -29003,7 +29326,7 @@
       </c>
       <c r="N36" s="8"/>
     </row>
-    <row r="37" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="128.25" customHeight="1">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -29045,7 +29368,7 @@
       </c>
       <c r="N37" s="8"/>
     </row>
-    <row r="38" spans="1:14" ht="135" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="128.25">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -29089,7 +29412,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="128.25" customHeight="1">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -29131,7 +29454,7 @@
       </c>
       <c r="N39" s="8"/>
     </row>
-    <row r="40" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="128.25" customHeight="1">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -29173,7 +29496,7 @@
       </c>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="128.25" customHeight="1">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -29211,7 +29534,7 @@
       </c>
       <c r="N41" s="17"/>
     </row>
-    <row r="42" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="128.25" customHeight="1">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -29253,7 +29576,7 @@
       </c>
       <c r="N42" s="17"/>
     </row>
-    <row r="43" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="128.25" customHeight="1">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -29295,7 +29618,7 @@
       </c>
       <c r="N43" s="17"/>
     </row>
-    <row r="44" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="128.25" customHeight="1">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -29337,7 +29660,7 @@
       </c>
       <c r="N44" s="17"/>
     </row>
-    <row r="45" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="128.25" customHeight="1">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -29379,7 +29702,7 @@
       </c>
       <c r="N45" s="17"/>
     </row>
-    <row r="46" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="128.25" customHeight="1">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -29417,7 +29740,7 @@
       </c>
       <c r="N46" s="17"/>
     </row>
-    <row r="47" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="128.25" customHeight="1">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -29459,7 +29782,7 @@
       </c>
       <c r="N47" s="17"/>
     </row>
-    <row r="48" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="128.25" customHeight="1">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -29499,7 +29822,7 @@
       </c>
       <c r="N48" s="17"/>
     </row>
-    <row r="49" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="128.25" customHeight="1">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -29541,7 +29864,7 @@
       </c>
       <c r="N49" s="17"/>
     </row>
-    <row r="50" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" ht="128.25" customHeight="1">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -29583,7 +29906,7 @@
       </c>
       <c r="N50" s="17"/>
     </row>
-    <row r="51" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="128.25" customHeight="1">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -29625,7 +29948,7 @@
       </c>
       <c r="N51" s="17"/>
     </row>
-    <row r="52" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" ht="128.25" customHeight="1">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -29667,7 +29990,7 @@
       </c>
       <c r="N52" s="17"/>
     </row>
-    <row r="53" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="128.25" customHeight="1">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -29709,7 +30032,7 @@
       </c>
       <c r="N53" s="17"/>
     </row>
-    <row r="54" spans="1:14" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="96" customHeight="1">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -29751,7 +30074,7 @@
       </c>
       <c r="N54" s="8"/>
     </row>
-    <row r="55" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="97.5" customHeight="1">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -29793,7 +30116,7 @@
       </c>
       <c r="N55" s="8"/>
     </row>
-    <row r="56" spans="1:14" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="99" customHeight="1">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -29835,7 +30158,7 @@
       </c>
       <c r="N56" s="8"/>
     </row>
-    <row r="57" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="77.25" customHeight="1">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -29877,7 +30200,7 @@
       </c>
       <c r="N57" s="8"/>
     </row>
-    <row r="58" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" ht="101.25" customHeight="1">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -29919,7 +30242,7 @@
       </c>
       <c r="N58" s="8"/>
     </row>
-    <row r="59" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" ht="101.25" customHeight="1">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -29961,7 +30284,7 @@
       </c>
       <c r="N59" s="8"/>
     </row>
-    <row r="60" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" ht="101.25" customHeight="1">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -30003,7 +30326,7 @@
       </c>
       <c r="N60" s="8"/>
     </row>
-    <row r="61" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" ht="101.25" customHeight="1">
       <c r="A61" s="7">
         <v>60</v>
       </c>
@@ -30045,7 +30368,7 @@
       </c>
       <c r="N61" s="8"/>
     </row>
-    <row r="62" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" ht="101.25" customHeight="1">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -30087,7 +30410,7 @@
       </c>
       <c r="N62" s="8"/>
     </row>
-    <row r="63" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" ht="101.25" customHeight="1">
       <c r="A63" s="7">
         <v>62</v>
       </c>
@@ -30129,7 +30452,7 @@
       </c>
       <c r="N63" s="8"/>
     </row>
-    <row r="64" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" ht="101.25" customHeight="1">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -30171,7 +30494,7 @@
       </c>
       <c r="N64" s="8"/>
     </row>
-    <row r="65" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" ht="101.25" customHeight="1">
       <c r="A65" s="7">
         <v>64</v>
       </c>
@@ -30213,7 +30536,7 @@
       </c>
       <c r="N65" s="8"/>
     </row>
-    <row r="66" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" ht="101.25" customHeight="1">
       <c r="A66" s="7">
         <v>65</v>
       </c>
@@ -30255,7 +30578,7 @@
       </c>
       <c r="N66" s="8"/>
     </row>
-    <row r="67" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" ht="101.25" customHeight="1">
       <c r="A67" s="7">
         <v>66</v>
       </c>
@@ -30297,7 +30620,7 @@
       </c>
       <c r="N67" s="8"/>
     </row>
-    <row r="68" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" ht="101.25" customHeight="1">
       <c r="A68" s="7">
         <v>67</v>
       </c>
@@ -30339,7 +30662,7 @@
       </c>
       <c r="N68" s="8"/>
     </row>
-    <row r="69" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" ht="117.75" customHeight="1">
       <c r="A69" s="7">
         <v>68</v>
       </c>
@@ -30381,7 +30704,7 @@
       </c>
       <c r="N69" s="8"/>
     </row>
-    <row r="70" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" ht="117.75" customHeight="1">
       <c r="A70" s="7">
         <v>69</v>
       </c>
@@ -30425,7 +30748,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" ht="117.75" customHeight="1">
       <c r="A71" s="7">
         <v>70</v>
       </c>
@@ -30467,7 +30790,7 @@
       </c>
       <c r="N71" s="8"/>
     </row>
-    <row r="72" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" ht="117.75" customHeight="1">
       <c r="A72" s="7">
         <v>71</v>
       </c>
@@ -30509,7 +30832,7 @@
       </c>
       <c r="N72" s="8"/>
     </row>
-    <row r="73" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" ht="101.25" customHeight="1">
       <c r="A73" s="7">
         <v>72</v>
       </c>
@@ -30551,7 +30874,7 @@
       </c>
       <c r="N73" s="8"/>
     </row>
-    <row r="74" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" ht="101.25" customHeight="1">
       <c r="A74" s="7">
         <v>73</v>
       </c>
@@ -30593,7 +30916,7 @@
       </c>
       <c r="N74" s="8"/>
     </row>
-    <row r="75" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" ht="101.25" customHeight="1">
       <c r="A75" s="7">
         <v>74</v>
       </c>
@@ -30635,7 +30958,7 @@
       </c>
       <c r="N75" s="8"/>
     </row>
-    <row r="76" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" ht="101.25" customHeight="1">
       <c r="A76" s="7">
         <v>75</v>
       </c>
@@ -30719,19 +31042,19 @@
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" customWidth="1"/>
-    <col min="6" max="6" width="50.33203125" customWidth="1"/>
-    <col min="7" max="7" width="52.33203125" customWidth="1"/>
-    <col min="8" max="8" width="43.1640625" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="27.625" customWidth="1"/>
+    <col min="6" max="6" width="50.375" customWidth="1"/>
+    <col min="7" max="7" width="52.375" customWidth="1"/>
+    <col min="8" max="8" width="43.125" customWidth="1"/>
+    <col min="14" max="14" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -30775,7 +31098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="124.5" customHeight="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -30817,7 +31140,7 @@
       </c>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="113.25" customHeight="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -30859,7 +31182,7 @@
       </c>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="68.25" customHeight="1">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -30901,7 +31224,7 @@
       </c>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="82.5" customHeight="1">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -30943,7 +31266,7 @@
       </c>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="78" customHeight="1">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -30985,7 +31308,7 @@
       </c>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="52.5" customHeight="1">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -31027,7 +31350,7 @@
       </c>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:14" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="105" customHeight="1">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -31071,7 +31394,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="96.75" customHeight="1">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -31113,7 +31436,7 @@
       </c>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="105" customHeight="1">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -31155,7 +31478,7 @@
       </c>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="141" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="141" customHeight="1">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -31197,7 +31520,7 @@
       </c>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="109.5" customHeight="1">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -31239,7 +31562,7 @@
       </c>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="138.75" customHeight="1">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -31283,7 +31606,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="121.5" customHeight="1">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -31325,7 +31648,7 @@
       </c>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="115.5" customHeight="1">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -31367,7 +31690,7 @@
       </c>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="116.25" customHeight="1">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -31411,7 +31734,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="124.5" customHeight="1">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -31453,7 +31776,7 @@
       </c>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="119.25" customHeight="1">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -31495,7 +31818,7 @@
       </c>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="105.75" customHeight="1">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -31537,7 +31860,7 @@
       </c>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="58.5" customHeight="1">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -31579,7 +31902,7 @@
       </c>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="81.75" customHeight="1">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -31621,7 +31944,7 @@
       </c>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:14" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="144.75" customHeight="1">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -31663,7 +31986,7 @@
       </c>
       <c r="N22" s="11"/>
     </row>
-    <row r="23" spans="1:14" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="151.5" customHeight="1">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -31705,7 +32028,7 @@
       </c>
       <c r="N23" s="11"/>
     </row>
-    <row r="24" spans="1:14" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="144" customHeight="1">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -31747,7 +32070,7 @@
       </c>
       <c r="N24" s="11"/>
     </row>
-    <row r="25" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="128.25" customHeight="1">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -31789,7 +32112,7 @@
       </c>
       <c r="N25" s="11"/>
     </row>
-    <row r="26" spans="1:14" ht="129" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="129" customHeight="1">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -31831,7 +32154,7 @@
       </c>
       <c r="N26" s="11"/>
     </row>
-    <row r="27" spans="1:14" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="92.25" customHeight="1">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -31873,7 +32196,7 @@
       </c>
       <c r="N27" s="11"/>
     </row>
-    <row r="28" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="77.25" customHeight="1">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -31915,7 +32238,7 @@
       </c>
       <c r="N28" s="8"/>
     </row>
-    <row r="29" spans="1:14" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="68.25" customHeight="1">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -31957,7 +32280,7 @@
       </c>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="69" customHeight="1">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -31999,7 +32322,7 @@
       </c>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="93" customHeight="1">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -32041,7 +32364,7 @@
       </c>
       <c r="N31" s="8"/>
     </row>
-    <row r="32" spans="1:14" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="123" customHeight="1">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -32083,7 +32406,7 @@
       </c>
       <c r="N32" s="8"/>
     </row>
-    <row r="33" spans="1:14" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="132.75" customHeight="1">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -32125,7 +32448,7 @@
       </c>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="1:14" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="147" customHeight="1">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -32167,7 +32490,7 @@
       </c>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="51.75" customHeight="1">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -32241,18 +32564,18 @@
       <selection activeCell="J2" sqref="J2:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
-    <col min="6" max="6" width="28.1640625" customWidth="1"/>
-    <col min="7" max="7" width="39.6640625" customWidth="1"/>
-    <col min="8" max="8" width="37.83203125" customWidth="1"/>
+    <col min="5" max="5" width="26.625" customWidth="1"/>
+    <col min="6" max="6" width="28.125" customWidth="1"/>
+    <col min="7" max="7" width="39.625" customWidth="1"/>
+    <col min="8" max="8" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -32296,7 +32619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="135.75" customHeight="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -32338,7 +32661,7 @@
       </c>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="106.5" customHeight="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -32380,7 +32703,7 @@
       </c>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="125.25" customHeight="1">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -32422,7 +32745,7 @@
       </c>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="116.25" customHeight="1">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -32464,7 +32787,7 @@
       </c>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:14" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="116.25" customHeight="1">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -32537,18 +32860,18 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
     <col min="6" max="6" width="30.5" customWidth="1"/>
-    <col min="7" max="7" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="31.625" customWidth="1"/>
     <col min="8" max="8" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="17" t="s">
         <v>1806</v>
       </c>
@@ -32592,7 +32915,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="84.75" customHeight="1">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -32634,7 +32957,7 @@
       </c>
       <c r="N2" s="17"/>
     </row>
-    <row r="3" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="90" customHeight="1">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -32676,7 +32999,7 @@
       </c>
       <c r="N3" s="17"/>
     </row>
-    <row r="4" spans="1:14" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="96.75" customHeight="1">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -32718,7 +33041,7 @@
       </c>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="81" customHeight="1">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -32760,7 +33083,7 @@
       </c>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:14" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="103.5" customHeight="1">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -32833,19 +33156,19 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="34.33203125" customWidth="1"/>
-    <col min="7" max="7" width="42.1640625" customWidth="1"/>
-    <col min="8" max="8" width="37.1640625" customWidth="1"/>
-    <col min="14" max="14" width="28.1640625" customWidth="1"/>
+    <col min="6" max="6" width="34.375" customWidth="1"/>
+    <col min="7" max="7" width="42.125" customWidth="1"/>
+    <col min="8" max="8" width="37.125" customWidth="1"/>
+    <col min="14" max="14" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="29.25" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -32889,7 +33212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="57.75" customHeight="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -32931,7 +33254,7 @@
       </c>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="84.75" customHeight="1">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -32973,7 +33296,7 @@
       </c>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="72" customHeight="1">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -33013,7 +33336,7 @@
       </c>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:14" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="147" customHeight="1">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -33055,7 +33378,7 @@
       </c>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="72" customHeight="1">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -33097,7 +33420,7 @@
       </c>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="72" customHeight="1">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -33137,7 +33460,7 @@
       </c>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="72" customHeight="1">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -33177,7 +33500,7 @@
       </c>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="72" customHeight="1">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -33217,7 +33540,7 @@
       </c>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="72" customHeight="1">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -33259,7 +33582,7 @@
       </c>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="1:14" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="152.25" customHeight="1">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -33301,7 +33624,7 @@
       </c>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="82.5" customHeight="1">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -33345,7 +33668,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="48.75" customHeight="1">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -33387,7 +33710,7 @@
       </c>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:14" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="111" customHeight="1">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -33429,7 +33752,7 @@
       </c>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:14" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="88.5" customHeight="1">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -33471,7 +33794,7 @@
       </c>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:14" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="76.5" customHeight="1">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -33513,7 +33836,7 @@
       </c>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:14" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="88.5" customHeight="1">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -33557,7 +33880,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="87" customHeight="1">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -33599,7 +33922,7 @@
       </c>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="1:14" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="96.75" customHeight="1">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -33641,7 +33964,7 @@
       </c>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:14" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="125.25" customHeight="1">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -33683,7 +34006,7 @@
       </c>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:14" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="76.5" customHeight="1">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -33725,7 +34048,7 @@
       </c>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:14" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="104.25" customHeight="1">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -33767,7 +34090,7 @@
       </c>
       <c r="N22" s="8"/>
     </row>
-    <row r="23" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="51" customHeight="1">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -33845,18 +34168,18 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" customWidth="1"/>
-    <col min="7" max="7" width="37.6640625" customWidth="1"/>
-    <col min="8" max="8" width="40.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="6" max="6" width="24.125" customWidth="1"/>
+    <col min="7" max="7" width="37.625" customWidth="1"/>
+    <col min="8" max="8" width="40.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="17" t="s">
         <v>1415</v>
       </c>
@@ -33900,7 +34223,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="134.25" customHeight="1">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -33942,7 +34265,7 @@
       </c>
       <c r="N2" s="17"/>
     </row>
-    <row r="3" spans="1:14" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="127.5" customHeight="1">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -33984,7 +34307,7 @@
       </c>
       <c r="N3" s="17"/>
     </row>
-    <row r="4" spans="1:14" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="146.25" customHeight="1">
       <c r="A4" s="18">
         <v>3</v>
       </c>

--- a/regression/testcase_ConverLab_all.xlsx
+++ b/regression/testcase_ConverLab_all.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="24240" windowHeight="13740" activeTab="10"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="24240" windowHeight="13740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2795,7 +2795,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A105" authorId="0">
+    <comment ref="A117" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3009,7 +3009,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A107" authorId="0">
+    <comment ref="A130" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3066,7 +3066,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A108" authorId="0">
+    <comment ref="A131" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3186,7 +3186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G124" authorId="0">
+    <comment ref="G147" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3295,7 +3295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H140" authorId="0">
+    <comment ref="H163" authorId="0">
       <text>
         <r>
           <rPr>
@@ -5255,7 +5255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5209" uniqueCount="2196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5481" uniqueCount="2294">
   <si>
     <t>编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -15241,6 +15241,4943 @@
   </si>
   <si>
     <t>XP-5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司网站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网站访问总览</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站数据支持饼状图分析访问来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测网站数据支持饼状图的统计分析访问来源功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到Convert Lab系统
+2 存在待测域名网站，以及不同来源、不同日期的访问数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司网站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网站访问总览，选择网站域名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">“51convert.cn”
+2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按时间（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天以及自定义日期）查询，点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，查看饼状图的访问来源统计数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按时间（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天以及自定义日期）查询，点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，查看饼状图的访问来源统计数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 按时间查询，饼状图中的事件来源参数值准确
+2 饼状图的人次/人数数据统计准确，是指定时间段内的访问人次/人数
+3 饼状图统计中显示提示信息“只显示Top20来源的流量，更多流量数据请导出表格查看”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XP-5256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站访问总览中访问量按日统计支持显示每日访问的总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测网站访问总览中访问量按日统计支持显示每日访问的总数功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用测试账户登录到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Convertlab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">系统
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存在待测域名网站，以及不同日期的访问数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司网站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网站访问总览，选择网站域名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">“51convert.cn”
+2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按时间（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天以及自定义日期）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询，点击人数（或人次），鼠标悬浮至访问量按日统计的趋势图，查看来源数据，以及每日的访问总数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>访问量按日统计的每日访问总数统计准确</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站数据流量统计支持显示前20条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测网站数据流量统计支持显示前20条功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用测试账户登录到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Convert Lab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">系统
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存在待测域名网站，以及不同来源、不同日期的访问数据，且测试数据超出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按时间查询，点击人次（或人数），查看饼状图中访问来源的数据统计，点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，导出流量数据统计
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按时间查询，点击人次（或人数），查看访问量按日统计的流量数据，点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，导出流量数据统计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 超出20条的数据统计在饼状图和趋势图只显示前20条，导出的数据信息完整，数据准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出统计数据至EXCEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测导出“页面访问来源分析”和“访问量按日统计”至Excel表格功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用测试账户登录到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Convert Lab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">系统
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存在待测域名网站，以及不同来源、不同日期的访问数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1 “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页面访问来源分析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和“访问量按日分析”的数据成功导出到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EXCEL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中，导出的数据信息与实际信息一致</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司网站_网站页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站页面详情分析支持饼状图分析访问来源数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测网站页面数据支持饼状图的统计分析访问来源功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用测试账户登录到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Convert Lab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">系统
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存在待测外部网站页面“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sitepage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”，以及不同来源、不同日期的访问数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司网站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网站页面，选择网站域名“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>51convert.cn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”，查看网站页面“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sitepage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">”的数据详情
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按时间（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天以及自定义日期）查询，点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，查看饼状图的访问来源统计数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按时间（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天以及自定义日期）查询，点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，查看饼状图的访问来源统计数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司网站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网站页面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站页面分析_访问量按日统计支持显示每日访问的总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测网站页面分析中访问量按日统计支持显示每日访问的总数功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用测试账户登录到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Convertlab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">系统
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存在待的外部网站页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"sitepage"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，以及不同日期的访问数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司网站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网站页面，选择网站域名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“51convert.cn”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，查看网站页面“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sitepage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">”的数据详情
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流量分析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击“提交量”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按时间（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天以及自定义日期）查询，点击人数（或人次），鼠标悬浮至访问量按日统计的趋势图，查看来源数据，以及每日的访问总数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站页面分析_提交量按日统计支持显示每日提交的总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测网站页面分析中提交量按日统计支持显示每日提交的总数功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用测试账户登录到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Convertlab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">系统
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存在待的外部网站页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"sitepage"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，以及不同日期的提交数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司网站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网站页面，选择网站域名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“51convert.cn”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，查看网站页面“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sitepage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">”的数据详情
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流量分析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击“提交量”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按时间（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天以及自定义日期）查询，点击人数（或人次），鼠标悬浮至提交量按日统计的趋势图，查看来源数据，以及每日的提交总数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网站页面流量统计支持显示前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检测网站数据访问流量统计支持显示前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条功能可用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用测试账户登录到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Convert Lab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">系统
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存在待测的外部网站页面，包含不同来源、不同日期的访问数据，且测试数据超出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">点击流量分析的“访问量”，按时间查询
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">点击人次（或人数），查看页面访问量来源分析和访问量按日统计的数据统计，点击“导出”，导出流量数据统计
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击人次（或人数），查看页面访问量来源分析和访问量按日统计的流量数据，点击“导出”，导出流量数据统计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检测网站数据提交流量统计支持显示前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条功能可用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用测试账户登录到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Convert Lab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">系统
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存在待测的外部网站页面，包含不同来源、不同日期的提交数据，且测试数据超出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">点击流量分析的“提交量”，按时间查询
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">点击人次（或人数），查看页面提交量来源分析和提交量按日统计的数据统计，点击“导出”，导出流量数据统计
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击人次（或人数），查看页面提交量来源分析和提交量按日统计的流量数据，点击“导出”，导出流量数据统计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导出网站页面的统计数据至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EXCEL</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用测试账户登录到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Convert Lab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">系统
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存在待测的外部网站页面，包含不同来源、不同日期的访问数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检测导出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页面提交来源分析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提交量按日统计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Excel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表格功能可用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用测试账户登录到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Convert Lab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">系统
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存在待测的外部网站页面，包含不同来源、不同日期的提交数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微页面分析中访问量按日统计支持显示每日访问的总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测微页面分析中访问量按日统计支持显示每日访问的总数功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用测试账户登录到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Convertlab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">系统
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存在待测微页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A
+3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中存在测试数据，来源不同的访问量和提交量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击流量分析的“访问量”，查看微页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的按日访问数据统计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按时间（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天以及自定义日期）查询，点击人数（或人次），鼠标悬浮至访问量按日统计的趋势流量，查看来源数据，以及每日的访问总数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微页面分析中提交量按日统计支持显示每日提交的总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测微页面分析中提交量按日统计支持显示每日提交的总数功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击流量分析的“提交量”，查看微页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的按日提交数据统计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按时间（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天以及自定义日期）查询，点击人数（或人次），鼠标悬浮至访问量按日统计的趋势图，查看来源数据，以及每日的提交总数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提交量按日统计的每日访问总数统计准确</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微页面流量统计支持显示前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检测微页面访问量数据流量统计支持显示前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条功能可用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用测试账户登录到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Convert Lab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">系统
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存在待测微页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A
+3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中存在测试数据，来源不同的访问量和提交量，且测试数据超出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条的数据统计在饼状图和趋势图只显示前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条，导出的数据信息完整，数据准确</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微页面2.0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检测微页面提交量数据流量统计支持显示前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条功能可用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导出微页面的统计数据至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EXCEL</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检测导出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页面访问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来源分析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>访问量按日统计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Excel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表格功能可用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用测试账户登录到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Convert Lab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">系统
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存在待测微页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A
+3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中存在测试数据，来源不同的访问量和提交量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1 “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页面提交来源分析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和“提交量按日分析”的数据成功导出到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EXCEL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中，导出的数据信息与实际信息一致</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微页面标题和名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测微页面设置标题和名称功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用测试账户登录到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Convertlab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">点击“新建微页面”
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微页面编辑页，设置页面标题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和页面名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，其他信息自定义，保存并发布微页面
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">查看微页面列表和该微页面详情页的页面标题
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>待测客户微信端访问并提交该微页面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">成功设置微页面的标题和名称
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">微页面在页面列表和页面详情中显示的和预设值的“页面标题”保持一致
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>待测客户访问该微页面显示的页面名称和预设值的“页面名称”保持一致
+4 客户时间轴中的访问和提交表单事件的微页面名称显示的是内部名称</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XP-5262</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧数据微页面的标题和名称合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测旧数据微页面的标题和名称合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用测试账户登录到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Convertlab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">系统
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微页面列表存在自定义标题和名称功能前的待测微页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）和微页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B(2.0)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看该旧数据微页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的标题和名称
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>待测客户微信端访问该微页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的编辑页面中，页面标题和页面名称显示一致，和原先的页面名称一致
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手机端访问微页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，页面名称显示准确</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微页面模块支持客户标签为条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测微页面模块支持客户标签为条件设置显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1 使用测试账户登录到Convertlab系统
+2 客户标签存在：系统标签（白领、奢华）和自定义标签（技术宅、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>欣兆阳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）
+3 待测客户的客户标签为：白领、技术宅</t>
+    </r>
+    <rPh sb="38" eb="39">
+      <t>bai l</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ji shu zhai</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ke hu</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>de</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ke hu</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>biao qain</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>bai l</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ji shu zhai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 新建微页面，分别设置模块显示条件：客户标签属性-包含以下任一标签：（1）1个系统标签（白领）（2）2个系统标签（白领、奢华）（3）1个自定义标签（技术宅）（4）2个自定义标签（技术宅、欣兆阳）（5）1个系统标签（奢华）（6）1个自定义标签（欣兆阳），保存并发布该微页面
+2 待测客户访问该微页面</t>
+    <rPh sb="8" eb="9">
+      <t>fen bie</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>bao han</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>yi xia</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ren yi</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>biao qian</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>xi t</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>biao qain</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>bai l</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>xi t</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>biao qian</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>bai l</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>she hua</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>zi ding yi</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>biao qian</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ji shu zhai</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>zi ding yi</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>biao qian</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>xi t</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>biao qian</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>she hua</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>zi ding yi</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>biao qian</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>bao cun</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>bing fa bu</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>ye mian</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>ce</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>ke hu</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>fang wen</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>wei ye mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 满足模块显示条件的客户，该页面模块可见，不满足条件的则对应模块不显示</t>
+    <rPh sb="2" eb="3">
+      <t>man zu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mo kuai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xian shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tiao jian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ke hu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ye mian</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>mo kuai</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ke jian</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>bu man zu</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>tiao jain</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>de</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>dui y</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>mo kuai</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>bu xian shi</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>xian shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XP-5166</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微页面表单提交后跳转加密传参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测微页面表单提交后跳转加密传参</t>
+    <rPh sb="0" eb="1">
+      <t>jian ce</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到Convertlab系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 新建微页面，表单中包含手机号码字段（设置验证码），设置提交表单后的跳转链接，并在链接后加上“?encryption=true&amp;append=true”
+2 其他信息自定义，保存并发布该微页面
+3 访问并提交该微页面，查看跳转后页面的URL</t>
+    <rPh sb="2" eb="3">
+      <t>xin jian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>we</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ye mian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>biao dan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bao han</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shou j</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>hao ma</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zi duan</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>she zhi</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>yan zheng ma</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>she zhi</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ti jiao</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>biao dan</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>de</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>tiao zhaun</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>lain jie</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>lian jei</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>jia shang</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>qi t</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>xin x</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>zi ding yi</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>bao cun bing</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>fa bu</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>ye mian</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>fang wen</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>ti jiao</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ye mian</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>cha kan</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>tiao zhuan lain jie</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ye mian</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 表单提交后成功跳转到预设的URL，URL中“m”对应的手机号码值准确，“s”值显示准确</t>
+    <rPh sb="2" eb="3">
+      <t>biao dan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti jiao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>cheng g</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tiao zhaun dao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yu she</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>dui y</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>de</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>shou ji hao ma</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>zhun que</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>xian shi</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>zhun que</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XP-5598</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员领取微页面中的系统卡券001</t>
+    <rPh sb="0" eb="1">
+      <t>hui yuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ling qu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ye mian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xi t</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ka quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测会员领取微页面中的系统卡券功能可用</t>
+    <rPh sb="0" eb="1">
+      <t>iian ce</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hui yuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ling qu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ye mian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhong de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xi t</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ka quan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>gong n n</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ke yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到Convertlab系统
+2 会员卡券列表存在待测系统卡券
+3 测试客户在客户列表存在，并是会员</t>
+    <rPh sb="26" eb="27">
+      <t>hui yaun</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ka quan</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>lie biao</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>cun zai</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>dai ce</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>xi t</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ka quan</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ke hu</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ke hu</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>lie biao</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>cun zai</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>hui yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 存在微页面，页面中包含系统卡券
+2 访问该微页面并领取该卡券
+3 点击“前往会员中心按钮”</t>
+    <rPh sb="2" eb="3">
+      <t>cun zai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ye mian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ye mian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bao han</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xi t</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ka quan</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>fang wen</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ye mian</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ling qu</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ka quan</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>dian ji</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>qian wang</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>hui yaun</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>zhong xin</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>an niu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功领取卡券，并显示成功提示和进入会员中心的按钮
+2 点击“前往会员中心按钮”后，成功进入会员中心页面</t>
+    <rPh sb="2" eb="3">
+      <t>cheng g</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ling qu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ka quan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>h</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>cheng g</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>jin ru</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>hui yuan zhong xin</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ye mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XP-5416</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非会员领取微页面中的系统卡券002</t>
+    <rPh sb="0" eb="1">
+      <t>fei hui yuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ling qu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ye mian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xi t</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ka quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测非会员领取微页面中的系统卡券功能可用</t>
+    <rPh sb="0" eb="1">
+      <t>iian ce</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hui yuan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ling qu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ye mian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhong de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xi t</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ka quan</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>gong n n</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ke yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到Convertlab系统
+2 会员卡券列表存在待测系统卡券
+3 测试客户在客户列表存在，非会员</t>
+    <rPh sb="26" eb="27">
+      <t>hui yaun</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ka quan</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>lie biao</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>cun zai</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>dai ce</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>xi t</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ka quan</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ke hu</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ke hu</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>lie biao</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>cun zai</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>fei</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>hui yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 存在微页面，页面中包含系统卡券
+2 访问该微页面并点击“领取卡券”按钮
+3 填写会员信息注册会员
+4 领取卡券，点击“成功领取卡券，并显示成功提示和进入会员中心的按钮
+5 点击“前往会员中心按钮”后，成功进入会员中心页面”</t>
+    <rPh sb="2" eb="3">
+      <t>cun zai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ye mian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ye mian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bao han</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xi t</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ka quan</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>fang wen</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ye mian</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>dian ji</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ling qu</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ka quan</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>an niu</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>tian xie</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>hui yuan</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>xin xi</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>zhu ce</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>hui yaun</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ling qu</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ka quan</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>dian ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 点击“领取卡券”后成功跳转到会员注册页面
+2 成功注册成为会员，客户详情中包含会员等级信息
+3 成功领取卡券，并显示成功提示和进入会员中心的按钮
+4 点击“前往会员中心按钮”后，成功进入会员中心页面</t>
+    <rPh sb="2" eb="3">
+      <t>dian ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>king qu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ka quan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>cheng g</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>tiao zhuan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>hui yuan</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zhu ce</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ye mian</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>cheng g</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zhu ce</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>cheng wei</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>hui yuan</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ke hu</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>xiang q</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>bao han</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>hui yaun</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>deng ji</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>xix ni</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -15342,24 +20279,28 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="dengxian"/>
+      <name val="DengXian"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="dengxian"/>
+      <name val="DengXian"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="dengxian"/>
+      <name val="DengXian"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="dengxian"/>
+      <name val="DengXian"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -15473,7 +20414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -15643,6 +20584,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -17737,7 +22681,7 @@
   </sheetPr>
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -17991,7 +22935,7 @@
   </sheetPr>
   <dimension ref="A1:N122"/>
   <sheetViews>
-    <sheetView topLeftCell="F122" workbookViewId="0">
+    <sheetView topLeftCell="E120" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -23171,10 +28115,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:N156"/>
+  <dimension ref="A1:N179"/>
   <sheetViews>
-    <sheetView topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="E144" sqref="E144"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="E181" sqref="E181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -27392,30 +32336,30 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="132" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" s="32" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="18">
         <v>99</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C100" s="19" t="s">
-        <v>613</v>
-      </c>
-      <c r="D100" s="19" t="s">
-        <v>614</v>
-      </c>
-      <c r="E100" s="19" t="s">
-        <v>615</v>
+        <v>1347</v>
+      </c>
+      <c r="C100" s="61" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D100" s="61" t="s">
+        <v>2242</v>
+      </c>
+      <c r="E100" s="61" t="s">
+        <v>2243</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>616</v>
+        <v>2244</v>
       </c>
       <c r="G100" s="19" t="s">
-        <v>617</v>
+        <v>2245</v>
       </c>
       <c r="H100" s="19" t="s">
-        <v>618</v>
+        <v>2207</v>
       </c>
       <c r="I100" s="18" t="s">
         <v>42</v>
@@ -27424,40 +32368,42 @@
         <v>30</v>
       </c>
       <c r="K100" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L100" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M100" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N100" s="18"/>
-    </row>
-    <row r="101" spans="1:14" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N100" s="17" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" s="32" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="18">
         <v>100</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C101" s="19" t="s">
-        <v>613</v>
-      </c>
-      <c r="D101" s="19" t="s">
-        <v>619</v>
-      </c>
-      <c r="E101" s="19" t="s">
-        <v>620</v>
+        <v>1347</v>
+      </c>
+      <c r="C101" s="61" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D101" s="61" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E101" s="61" t="s">
+        <v>2247</v>
       </c>
       <c r="F101" s="19" t="s">
-        <v>387</v>
+        <v>2244</v>
       </c>
       <c r="G101" s="19" t="s">
-        <v>621</v>
+        <v>2248</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>622</v>
+        <v>2249</v>
       </c>
       <c r="I101" s="18" t="s">
         <v>42</v>
@@ -27466,40 +32412,42 @@
         <v>30</v>
       </c>
       <c r="K101" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L101" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M101" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N101" s="18"/>
-    </row>
-    <row r="102" spans="1:14" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N101" s="17" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" s="32" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="18">
         <v>101</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C102" s="19" t="s">
-        <v>623</v>
-      </c>
-      <c r="D102" s="19" t="s">
-        <v>624</v>
+        <v>1347</v>
+      </c>
+      <c r="C102" s="61" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D102" s="52" t="s">
+        <v>2250</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>625</v>
+        <v>2251</v>
       </c>
       <c r="F102" s="19" t="s">
-        <v>387</v>
+        <v>2252</v>
       </c>
       <c r="G102" s="19" t="s">
-        <v>626</v>
+        <v>2234</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>627</v>
+        <v>2253</v>
       </c>
       <c r="I102" s="18" t="s">
         <v>42</v>
@@ -27514,34 +32462,34 @@
         <v>43</v>
       </c>
       <c r="M102" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N102" s="18"/>
-    </row>
-    <row r="103" spans="1:14" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N102" s="17" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" s="32" customFormat="1" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="18">
         <v>102</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C103" s="19" t="s">
-        <v>628</v>
-      </c>
-      <c r="D103" s="19" t="s">
-        <v>629</v>
-      </c>
+        <v>1347</v>
+      </c>
+      <c r="C103" s="61" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D103" s="54"/>
       <c r="E103" s="19" t="s">
-        <v>630</v>
+        <v>2255</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>631</v>
+        <v>2252</v>
       </c>
       <c r="G103" s="19" t="s">
-        <v>632</v>
+        <v>2237</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>633</v>
+        <v>2253</v>
       </c>
       <c r="I103" s="18" t="s">
         <v>42</v>
@@ -27550,40 +32498,42 @@
         <v>30</v>
       </c>
       <c r="K103" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L103" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M103" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N103" s="18"/>
-    </row>
-    <row r="104" spans="1:14" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N103" s="17" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" s="32" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="18">
         <v>103</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C104" s="19" t="s">
-        <v>628</v>
-      </c>
-      <c r="D104" s="19" t="s">
-        <v>629</v>
+        <v>1347</v>
+      </c>
+      <c r="C104" s="61" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D104" s="52" t="s">
+        <v>2256</v>
       </c>
       <c r="E104" s="19" t="s">
-        <v>634</v>
+        <v>2257</v>
       </c>
       <c r="F104" s="19" t="s">
-        <v>631</v>
+        <v>2258</v>
       </c>
       <c r="G104" s="19" t="s">
-        <v>635</v>
+        <v>2234</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>636</v>
+        <v>2216</v>
       </c>
       <c r="I104" s="18" t="s">
         <v>42</v>
@@ -27592,40 +32542,40 @@
         <v>30</v>
       </c>
       <c r="K104" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L104" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M104" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N104" s="18"/>
-    </row>
-    <row r="105" spans="1:14" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N104" s="17" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" s="32" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="18">
         <v>104</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C105" s="19" t="s">
-        <v>637</v>
-      </c>
-      <c r="D105" s="29" t="s">
-        <v>638</v>
-      </c>
+        <v>1347</v>
+      </c>
+      <c r="C105" s="61" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D105" s="54"/>
       <c r="E105" s="19" t="s">
-        <v>639</v>
+        <v>2240</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>640</v>
+        <v>2258</v>
       </c>
       <c r="G105" s="19" t="s">
-        <v>641</v>
+        <v>2237</v>
       </c>
       <c r="H105" s="19" t="s">
-        <v>642</v>
+        <v>2259</v>
       </c>
       <c r="I105" s="18" t="s">
         <v>42</v>
@@ -27634,84 +32584,86 @@
         <v>30</v>
       </c>
       <c r="K105" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L105" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M105" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N105" s="18"/>
-    </row>
-    <row r="106" spans="1:14" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N105" s="17" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" s="32" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="18">
         <v>105</v>
       </c>
-      <c r="B106" s="45" t="s">
-        <v>2018</v>
-      </c>
-      <c r="C106" s="47" t="s">
-        <v>2039</v>
-      </c>
-      <c r="D106" s="46" t="s">
-        <v>2040</v>
-      </c>
-      <c r="E106" s="46" t="s">
-        <v>2021</v>
-      </c>
-      <c r="F106" s="46" t="s">
-        <v>2022</v>
-      </c>
-      <c r="G106" s="46" t="s">
-        <v>2041</v>
-      </c>
-      <c r="H106" s="46" t="s">
-        <v>2042</v>
-      </c>
-      <c r="I106" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="J106" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="K106" s="45">
+      <c r="B106" s="18" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C106" s="61" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D106" s="61" t="s">
+        <v>2260</v>
+      </c>
+      <c r="E106" s="61" t="s">
+        <v>2261</v>
+      </c>
+      <c r="F106" s="19" t="s">
+        <v>2262</v>
+      </c>
+      <c r="G106" s="19" t="s">
+        <v>2263</v>
+      </c>
+      <c r="H106" s="19" t="s">
+        <v>2264</v>
+      </c>
+      <c r="I106" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J106" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K106" s="18">
         <v>1</v>
       </c>
-      <c r="L106" s="45" t="s">
-        <v>2025</v>
-      </c>
-      <c r="M106" s="45" t="s">
+      <c r="L106" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M106" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N106" s="44" t="s">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N106" s="17" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" s="32" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="18">
         <v>106</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C107" s="19" t="s">
-        <v>643</v>
-      </c>
-      <c r="D107" s="19" t="s">
-        <v>644</v>
-      </c>
-      <c r="E107" s="19" t="s">
-        <v>645</v>
+        <v>1347</v>
+      </c>
+      <c r="C107" s="61" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D107" s="61" t="s">
+        <v>2266</v>
+      </c>
+      <c r="E107" s="61" t="s">
+        <v>2267</v>
       </c>
       <c r="F107" s="19" t="s">
-        <v>387</v>
+        <v>2268</v>
       </c>
       <c r="G107" s="19" t="s">
-        <v>646</v>
+        <v>2269</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>647</v>
+        <v>2270</v>
       </c>
       <c r="I107" s="18" t="s">
         <v>42</v>
@@ -27720,40 +32672,42 @@
         <v>30</v>
       </c>
       <c r="K107" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L107" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M107" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N107" s="18"/>
-    </row>
-    <row r="108" spans="1:14" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N107" s="17" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" s="32" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="18">
         <v>107</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C108" s="19" t="s">
-        <v>643</v>
-      </c>
-      <c r="D108" s="19" t="s">
-        <v>648</v>
-      </c>
-      <c r="E108" s="19" t="s">
-        <v>649</v>
+        <v>1347</v>
+      </c>
+      <c r="C108" s="61" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D108" s="61" t="s">
+        <v>2271</v>
+      </c>
+      <c r="E108" s="61" t="s">
+        <v>2272</v>
       </c>
       <c r="F108" s="19" t="s">
-        <v>650</v>
+        <v>2273</v>
       </c>
       <c r="G108" s="19" t="s">
-        <v>651</v>
+        <v>2274</v>
       </c>
       <c r="H108" s="19" t="s">
-        <v>652</v>
+        <v>2275</v>
       </c>
       <c r="I108" s="18" t="s">
         <v>42</v>
@@ -27762,40 +32716,42 @@
         <v>30</v>
       </c>
       <c r="K108" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L108" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M108" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N108" s="18"/>
-    </row>
-    <row r="109" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N108" s="17" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" s="32" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="18">
         <v>108</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C109" s="19" t="s">
-        <v>643</v>
-      </c>
-      <c r="D109" s="19" t="s">
-        <v>653</v>
-      </c>
-      <c r="E109" s="19" t="s">
-        <v>654</v>
+        <v>1347</v>
+      </c>
+      <c r="C109" s="61" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D109" s="61" t="s">
+        <v>2277</v>
+      </c>
+      <c r="E109" s="61" t="s">
+        <v>2278</v>
       </c>
       <c r="F109" s="19" t="s">
-        <v>655</v>
+        <v>2279</v>
       </c>
       <c r="G109" s="19" t="s">
-        <v>656</v>
+        <v>2280</v>
       </c>
       <c r="H109" s="19" t="s">
-        <v>657</v>
+        <v>2281</v>
       </c>
       <c r="I109" s="18" t="s">
         <v>42</v>
@@ -27810,34 +32766,36 @@
         <v>43</v>
       </c>
       <c r="M109" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N109" s="18"/>
-    </row>
-    <row r="110" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N109" s="17" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" s="32" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="18">
         <v>109</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C110" s="19" t="s">
-        <v>643</v>
-      </c>
-      <c r="D110" s="19" t="s">
-        <v>658</v>
-      </c>
-      <c r="E110" s="19" t="s">
-        <v>659</v>
+        <v>1347</v>
+      </c>
+      <c r="C110" s="61" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D110" s="61" t="s">
+        <v>2283</v>
+      </c>
+      <c r="E110" s="61" t="s">
+        <v>2284</v>
       </c>
       <c r="F110" s="19" t="s">
-        <v>650</v>
+        <v>2285</v>
       </c>
       <c r="G110" s="19" t="s">
-        <v>660</v>
+        <v>2286</v>
       </c>
       <c r="H110" s="19" t="s">
-        <v>661</v>
+        <v>2287</v>
       </c>
       <c r="I110" s="18" t="s">
         <v>42</v>
@@ -27846,40 +32804,42 @@
         <v>30</v>
       </c>
       <c r="K110" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L110" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M110" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N110" s="18"/>
-    </row>
-    <row r="111" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N110" s="17" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" s="32" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="18">
         <v>110</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C111" s="19" t="s">
-        <v>643</v>
-      </c>
-      <c r="D111" s="19" t="s">
-        <v>662</v>
-      </c>
-      <c r="E111" s="19" t="s">
-        <v>663</v>
+        <v>1347</v>
+      </c>
+      <c r="C111" s="61" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D111" s="61" t="s">
+        <v>2289</v>
+      </c>
+      <c r="E111" s="61" t="s">
+        <v>2290</v>
       </c>
       <c r="F111" s="19" t="s">
-        <v>387</v>
+        <v>2291</v>
       </c>
       <c r="G111" s="19" t="s">
-        <v>664</v>
+        <v>2292</v>
       </c>
       <c r="H111" s="19" t="s">
-        <v>665</v>
+        <v>2293</v>
       </c>
       <c r="I111" s="18" t="s">
         <v>42</v>
@@ -27894,11 +32854,13 @@
         <v>43</v>
       </c>
       <c r="M111" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N111" s="18"/>
-    </row>
-    <row r="112" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N111" s="17" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="132" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="18">
         <v>111</v>
       </c>
@@ -27906,22 +32868,22 @@
         <v>110</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>643</v>
+        <v>613</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>666</v>
+        <v>614</v>
       </c>
       <c r="E112" s="19" t="s">
-        <v>667</v>
+        <v>615</v>
       </c>
       <c r="F112" s="19" t="s">
-        <v>668</v>
+        <v>616</v>
       </c>
       <c r="G112" s="19" t="s">
-        <v>669</v>
+        <v>617</v>
       </c>
       <c r="H112" s="19" t="s">
-        <v>670</v>
+        <v>618</v>
       </c>
       <c r="I112" s="18" t="s">
         <v>42</v>
@@ -27940,7 +32902,7 @@
       </c>
       <c r="N112" s="18"/>
     </row>
-    <row r="113" spans="1:14" ht="183.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="18">
         <v>112</v>
       </c>
@@ -27948,22 +32910,22 @@
         <v>110</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>643</v>
+        <v>613</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>671</v>
+        <v>619</v>
       </c>
       <c r="E113" s="19" t="s">
-        <v>672</v>
+        <v>620</v>
       </c>
       <c r="F113" s="19" t="s">
-        <v>673</v>
+        <v>387</v>
       </c>
       <c r="G113" s="19" t="s">
-        <v>674</v>
+        <v>621</v>
       </c>
       <c r="H113" s="19" t="s">
-        <v>675</v>
+        <v>622</v>
       </c>
       <c r="I113" s="18" t="s">
         <v>42</v>
@@ -27972,7 +32934,7 @@
         <v>30</v>
       </c>
       <c r="K113" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L113" s="18" t="s">
         <v>43</v>
@@ -27982,7 +32944,7 @@
       </c>
       <c r="N113" s="18"/>
     </row>
-    <row r="114" spans="1:14" ht="194.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="18">
         <v>113</v>
       </c>
@@ -27990,22 +32952,22 @@
         <v>110</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>676</v>
+        <v>624</v>
       </c>
       <c r="E114" s="19" t="s">
-        <v>677</v>
+        <v>625</v>
       </c>
       <c r="F114" s="19" t="s">
-        <v>673</v>
+        <v>387</v>
       </c>
       <c r="G114" s="19" t="s">
-        <v>678</v>
+        <v>626</v>
       </c>
       <c r="H114" s="19" t="s">
-        <v>679</v>
+        <v>627</v>
       </c>
       <c r="I114" s="18" t="s">
         <v>42</v>
@@ -28024,7 +32986,7 @@
       </c>
       <c r="N114" s="18"/>
     </row>
-    <row r="115" spans="1:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="18">
         <v>114</v>
       </c>
@@ -28032,22 +32994,22 @@
         <v>110</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>680</v>
+        <v>629</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>681</v>
+        <v>630</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>387</v>
+        <v>631</v>
       </c>
       <c r="G115" s="19" t="s">
-        <v>682</v>
+        <v>632</v>
       </c>
       <c r="H115" s="19" t="s">
-        <v>683</v>
+        <v>633</v>
       </c>
       <c r="I115" s="18" t="s">
         <v>42</v>
@@ -28056,7 +33018,7 @@
         <v>30</v>
       </c>
       <c r="K115" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L115" s="18" t="s">
         <v>43</v>
@@ -28066,7 +33028,7 @@
       </c>
       <c r="N115" s="18"/>
     </row>
-    <row r="116" spans="1:14" ht="75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="18">
         <v>115</v>
       </c>
@@ -28074,22 +33036,22 @@
         <v>110</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>684</v>
+        <v>629</v>
       </c>
       <c r="E116" s="19" t="s">
-        <v>685</v>
+        <v>634</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>686</v>
+        <v>631</v>
       </c>
       <c r="G116" s="19" t="s">
-        <v>687</v>
+        <v>635</v>
       </c>
       <c r="H116" s="19" t="s">
-        <v>688</v>
+        <v>636</v>
       </c>
       <c r="I116" s="18" t="s">
         <v>42</v>
@@ -28098,7 +33060,7 @@
         <v>30</v>
       </c>
       <c r="K116" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L116" s="18" t="s">
         <v>43</v>
@@ -28108,30 +33070,30 @@
       </c>
       <c r="N116" s="18"/>
     </row>
-    <row r="117" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="18">
         <v>116</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>1347</v>
+        <v>110</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>643</v>
-      </c>
-      <c r="D117" s="19" t="s">
-        <v>1542</v>
+        <v>637</v>
+      </c>
+      <c r="D117" s="29" t="s">
+        <v>638</v>
       </c>
       <c r="E117" s="19" t="s">
-        <v>1541</v>
+        <v>639</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>1540</v>
+        <v>640</v>
       </c>
       <c r="G117" s="19" t="s">
-        <v>1539</v>
+        <v>641</v>
       </c>
       <c r="H117" s="19" t="s">
-        <v>1538</v>
+        <v>642</v>
       </c>
       <c r="I117" s="18" t="s">
         <v>42</v>
@@ -28140,84 +33102,84 @@
         <v>30</v>
       </c>
       <c r="K117" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L117" s="18" t="s">
-        <v>1354</v>
+        <v>43</v>
       </c>
       <c r="M117" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N117" s="17"/>
-    </row>
-    <row r="118" spans="1:14" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="N117" s="18"/>
+    </row>
+    <row r="118" spans="1:14" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="18">
         <v>117</v>
       </c>
-      <c r="B118" s="18" t="s">
-        <v>1974</v>
-      </c>
-      <c r="C118" s="19" t="s">
-        <v>1975</v>
-      </c>
-      <c r="D118" s="19" t="s">
-        <v>1976</v>
-      </c>
-      <c r="E118" s="19" t="s">
-        <v>1977</v>
-      </c>
-      <c r="F118" s="19" t="s">
-        <v>1978</v>
-      </c>
-      <c r="G118" s="19" t="s">
-        <v>1979</v>
-      </c>
-      <c r="H118" s="19" t="s">
-        <v>1980</v>
-      </c>
-      <c r="I118" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J118" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K118" s="18">
-        <v>2</v>
-      </c>
-      <c r="L118" s="18" t="s">
-        <v>1981</v>
-      </c>
-      <c r="M118" s="18" t="s">
+      <c r="B118" s="45" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C118" s="47" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D118" s="46" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E118" s="46" t="s">
+        <v>2021</v>
+      </c>
+      <c r="F118" s="46" t="s">
+        <v>2022</v>
+      </c>
+      <c r="G118" s="46" t="s">
+        <v>2041</v>
+      </c>
+      <c r="H118" s="46" t="s">
+        <v>2042</v>
+      </c>
+      <c r="I118" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="J118" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="K118" s="45">
+        <v>1</v>
+      </c>
+      <c r="L118" s="45" t="s">
+        <v>2025</v>
+      </c>
+      <c r="M118" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="N118" s="17" t="s">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N118" s="44" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" s="32" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="18">
         <v>118</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>110</v>
+        <v>1347</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>689</v>
+        <v>2196</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>2044</v>
+        <v>2197</v>
       </c>
       <c r="E119" s="19" t="s">
-        <v>690</v>
+        <v>2198</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>691</v>
+        <v>2199</v>
       </c>
       <c r="G119" s="19" t="s">
-        <v>692</v>
+        <v>2200</v>
       </c>
       <c r="H119" s="19" t="s">
-        <v>693</v>
+        <v>2201</v>
       </c>
       <c r="I119" s="18" t="s">
         <v>42</v>
@@ -28226,40 +33188,42 @@
         <v>30</v>
       </c>
       <c r="K119" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L119" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M119" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N119" s="18"/>
-    </row>
-    <row r="120" spans="1:14" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N119" s="17" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" s="32" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="18">
         <v>119</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>110</v>
+        <v>1347</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>689</v>
-      </c>
-      <c r="D120" s="19" t="s">
-        <v>694</v>
-      </c>
-      <c r="E120" s="19" t="s">
-        <v>695</v>
+        <v>2196</v>
+      </c>
+      <c r="D120" s="61" t="s">
+        <v>2203</v>
+      </c>
+      <c r="E120" s="61" t="s">
+        <v>2204</v>
       </c>
       <c r="F120" s="19" t="s">
-        <v>696</v>
+        <v>2205</v>
       </c>
       <c r="G120" s="19" t="s">
-        <v>697</v>
+        <v>2206</v>
       </c>
       <c r="H120" s="19" t="s">
-        <v>698</v>
+        <v>2207</v>
       </c>
       <c r="I120" s="18" t="s">
         <v>42</v>
@@ -28274,34 +33238,36 @@
         <v>43</v>
       </c>
       <c r="M120" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N120" s="19"/>
-    </row>
-    <row r="121" spans="1:14" ht="192.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N120" s="17" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" s="32" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="18">
         <v>120</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>110</v>
+        <v>1347</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>689</v>
+        <v>2196</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>699</v>
+        <v>2208</v>
       </c>
       <c r="E121" s="19" t="s">
-        <v>700</v>
+        <v>2209</v>
       </c>
       <c r="F121" s="19" t="s">
-        <v>696</v>
+        <v>2210</v>
       </c>
       <c r="G121" s="19" t="s">
-        <v>701</v>
+        <v>2211</v>
       </c>
       <c r="H121" s="19" t="s">
-        <v>702</v>
+        <v>2212</v>
       </c>
       <c r="I121" s="18" t="s">
         <v>42</v>
@@ -28316,34 +33282,36 @@
         <v>43</v>
       </c>
       <c r="M121" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N121" s="18"/>
-    </row>
-    <row r="122" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N121" s="17" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" s="32" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="18">
         <v>121</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>110</v>
+        <v>1347</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>689</v>
+        <v>2196</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>703</v>
+        <v>2213</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>704</v>
+        <v>2214</v>
       </c>
       <c r="F122" s="19" t="s">
-        <v>705</v>
+        <v>2215</v>
       </c>
       <c r="G122" s="19" t="s">
-        <v>706</v>
+        <v>2211</v>
       </c>
       <c r="H122" s="19" t="s">
-        <v>707</v>
+        <v>2216</v>
       </c>
       <c r="I122" s="18" t="s">
         <v>42</v>
@@ -28358,34 +33326,36 @@
         <v>43</v>
       </c>
       <c r="M122" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N122" s="18"/>
-    </row>
-    <row r="123" spans="1:14" ht="60" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N122" s="17" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" s="32" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="18">
         <v>122</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C123" s="19" t="s">
-        <v>689</v>
-      </c>
-      <c r="D123" s="19" t="s">
-        <v>708</v>
-      </c>
-      <c r="E123" s="19" t="s">
-        <v>709</v>
+        <v>1347</v>
+      </c>
+      <c r="C123" s="61" t="s">
+        <v>2217</v>
+      </c>
+      <c r="D123" s="61" t="s">
+        <v>2218</v>
+      </c>
+      <c r="E123" s="61" t="s">
+        <v>2219</v>
       </c>
       <c r="F123" s="19" t="s">
-        <v>710</v>
+        <v>2220</v>
       </c>
       <c r="G123" s="19" t="s">
-        <v>711</v>
+        <v>2221</v>
       </c>
       <c r="H123" s="19" t="s">
-        <v>712</v>
+        <v>2201</v>
       </c>
       <c r="I123" s="18" t="s">
         <v>42</v>
@@ -28394,40 +33364,42 @@
         <v>30</v>
       </c>
       <c r="K123" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L123" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M123" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N123" s="18"/>
-    </row>
-    <row r="124" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N123" s="17" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" s="32" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="18">
         <v>123</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>110</v>
+        <v>1347</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>689</v>
-      </c>
-      <c r="D124" s="19" t="s">
-        <v>713</v>
-      </c>
-      <c r="E124" s="19" t="s">
-        <v>714</v>
+        <v>2222</v>
+      </c>
+      <c r="D124" s="61" t="s">
+        <v>2223</v>
+      </c>
+      <c r="E124" s="61" t="s">
+        <v>2224</v>
       </c>
       <c r="F124" s="19" t="s">
-        <v>387</v>
+        <v>2225</v>
       </c>
       <c r="G124" s="19" t="s">
-        <v>715</v>
+        <v>2226</v>
       </c>
       <c r="H124" s="19" t="s">
-        <v>716</v>
+        <v>2207</v>
       </c>
       <c r="I124" s="18" t="s">
         <v>42</v>
@@ -28436,40 +33408,42 @@
         <v>30</v>
       </c>
       <c r="K124" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L124" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M124" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N124" s="18"/>
-    </row>
-    <row r="125" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N124" s="17" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" s="32" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="18">
         <v>124</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>36</v>
+        <v>1347</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>1545</v>
-      </c>
-      <c r="D125" s="19" t="s">
-        <v>1545</v>
-      </c>
-      <c r="E125" s="19" t="s">
-        <v>1544</v>
+        <v>2222</v>
+      </c>
+      <c r="D125" s="61" t="s">
+        <v>2227</v>
+      </c>
+      <c r="E125" s="61" t="s">
+        <v>2228</v>
       </c>
       <c r="F125" s="19" t="s">
-        <v>1543</v>
+        <v>2229</v>
       </c>
       <c r="G125" s="19" t="s">
-        <v>1547</v>
+        <v>2230</v>
       </c>
       <c r="H125" s="19" t="s">
-        <v>1546</v>
+        <v>2207</v>
       </c>
       <c r="I125" s="18" t="s">
         <v>42</v>
@@ -28478,7 +33452,7 @@
         <v>30</v>
       </c>
       <c r="K125" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L125" s="18" t="s">
         <v>43</v>
@@ -28486,32 +33460,34 @@
       <c r="M125" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N125" s="17"/>
-    </row>
-    <row r="126" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N125" s="17" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" s="32" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="18">
         <v>125</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C126" s="52" t="s">
-        <v>1462</v>
-      </c>
-      <c r="D126" s="19" t="s">
-        <v>1483</v>
+        <v>1347</v>
+      </c>
+      <c r="C126" s="61" t="s">
+        <v>2217</v>
+      </c>
+      <c r="D126" s="52" t="s">
+        <v>2231</v>
       </c>
       <c r="E126" s="19" t="s">
-        <v>1482</v>
+        <v>2232</v>
       </c>
       <c r="F126" s="19" t="s">
-        <v>387</v>
+        <v>2233</v>
       </c>
       <c r="G126" s="19" t="s">
-        <v>1481</v>
+        <v>2234</v>
       </c>
       <c r="H126" s="19" t="s">
-        <v>1480</v>
+        <v>2212</v>
       </c>
       <c r="I126" s="18" t="s">
         <v>42</v>
@@ -28520,7 +33496,7 @@
         <v>30</v>
       </c>
       <c r="K126" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L126" s="18" t="s">
         <v>43</v>
@@ -28528,30 +33504,32 @@
       <c r="M126" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N126" s="17"/>
-    </row>
-    <row r="127" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N126" s="17" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" s="32" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="18">
         <v>126</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C127" s="53"/>
-      <c r="D127" s="19" t="s">
-        <v>1479</v>
-      </c>
+        <v>1347</v>
+      </c>
+      <c r="C127" s="61" t="s">
+        <v>2217</v>
+      </c>
+      <c r="D127" s="54"/>
       <c r="E127" s="19" t="s">
-        <v>1478</v>
+        <v>2235</v>
       </c>
       <c r="F127" s="19" t="s">
-        <v>1469</v>
+        <v>2236</v>
       </c>
       <c r="G127" s="19" t="s">
-        <v>1477</v>
+        <v>2237</v>
       </c>
       <c r="H127" s="19" t="s">
-        <v>1476</v>
+        <v>2212</v>
       </c>
       <c r="I127" s="18" t="s">
         <v>42</v>
@@ -28560,7 +33538,7 @@
         <v>30</v>
       </c>
       <c r="K127" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L127" s="18" t="s">
         <v>43</v>
@@ -28568,30 +33546,34 @@
       <c r="M127" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N127" s="17"/>
-    </row>
-    <row r="128" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N127" s="17" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" s="32" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="18">
         <v>127</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C128" s="53"/>
-      <c r="D128" s="19" t="s">
-        <v>1475</v>
+        <v>1347</v>
+      </c>
+      <c r="C128" s="61" t="s">
+        <v>2217</v>
+      </c>
+      <c r="D128" s="52" t="s">
+        <v>2238</v>
       </c>
       <c r="E128" s="19" t="s">
-        <v>1474</v>
+        <v>2214</v>
       </c>
       <c r="F128" s="19" t="s">
-        <v>1469</v>
+        <v>2239</v>
       </c>
       <c r="G128" s="19" t="s">
-        <v>1473</v>
+        <v>2234</v>
       </c>
       <c r="H128" s="19" t="s">
-        <v>1472</v>
+        <v>2216</v>
       </c>
       <c r="I128" s="18" t="s">
         <v>42</v>
@@ -28608,30 +33590,32 @@
       <c r="M128" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N128" s="17"/>
-    </row>
-    <row r="129" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N128" s="17" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" s="32" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="18">
         <v>128</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C129" s="53"/>
-      <c r="D129" s="19" t="s">
-        <v>1471</v>
-      </c>
+        <v>1347</v>
+      </c>
+      <c r="C129" s="61" t="s">
+        <v>2217</v>
+      </c>
+      <c r="D129" s="54"/>
       <c r="E129" s="19" t="s">
-        <v>1470</v>
+        <v>2240</v>
       </c>
       <c r="F129" s="19" t="s">
-        <v>1469</v>
+        <v>2241</v>
       </c>
       <c r="G129" s="19" t="s">
-        <v>1468</v>
+        <v>2237</v>
       </c>
       <c r="H129" s="19" t="s">
-        <v>1467</v>
+        <v>2216</v>
       </c>
       <c r="I129" s="18" t="s">
         <v>42</v>
@@ -28648,30 +33632,34 @@
       <c r="M129" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N129" s="17"/>
-    </row>
-    <row r="130" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N129" s="17" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="18">
         <v>129</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C130" s="54"/>
+        <v>110</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>643</v>
+      </c>
       <c r="D130" s="19" t="s">
-        <v>1466</v>
+        <v>644</v>
       </c>
       <c r="E130" s="19" t="s">
-        <v>1465</v>
+        <v>645</v>
       </c>
       <c r="F130" s="19" t="s">
-        <v>1451</v>
+        <v>387</v>
       </c>
       <c r="G130" s="19" t="s">
-        <v>1464</v>
+        <v>646</v>
       </c>
       <c r="H130" s="19" t="s">
-        <v>1463</v>
+        <v>647</v>
       </c>
       <c r="I130" s="18" t="s">
         <v>42</v>
@@ -28680,40 +33668,40 @@
         <v>30</v>
       </c>
       <c r="K130" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L130" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M130" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N130" s="17"/>
-    </row>
-    <row r="131" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="N130" s="18"/>
+    </row>
+    <row r="131" spans="1:14" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="18">
         <v>130</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C131" s="52" t="s">
-        <v>1462</v>
+        <v>110</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>643</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>1461</v>
+        <v>648</v>
       </c>
       <c r="E131" s="19" t="s">
-        <v>1460</v>
+        <v>649</v>
       </c>
       <c r="F131" s="19" t="s">
-        <v>1451</v>
+        <v>650</v>
       </c>
       <c r="G131" s="19" t="s">
-        <v>1459</v>
+        <v>651</v>
       </c>
       <c r="H131" s="19" t="s">
-        <v>1458</v>
+        <v>652</v>
       </c>
       <c r="I131" s="18" t="s">
         <v>42</v>
@@ -28728,32 +33716,34 @@
         <v>43</v>
       </c>
       <c r="M131" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N131" s="17"/>
-    </row>
-    <row r="132" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="N131" s="18"/>
+    </row>
+    <row r="132" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="18">
         <v>131</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C132" s="53"/>
+        <v>110</v>
+      </c>
+      <c r="C132" s="19" t="s">
+        <v>643</v>
+      </c>
       <c r="D132" s="19" t="s">
-        <v>1457</v>
+        <v>653</v>
       </c>
       <c r="E132" s="19" t="s">
-        <v>1456</v>
+        <v>654</v>
       </c>
       <c r="F132" s="19" t="s">
-        <v>1451</v>
+        <v>655</v>
       </c>
       <c r="G132" s="19" t="s">
-        <v>1455</v>
+        <v>656</v>
       </c>
       <c r="H132" s="19" t="s">
-        <v>1454</v>
+        <v>657</v>
       </c>
       <c r="I132" s="18" t="s">
         <v>42</v>
@@ -28768,32 +33758,34 @@
         <v>43</v>
       </c>
       <c r="M132" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N132" s="17"/>
-    </row>
-    <row r="133" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="N132" s="18"/>
+    </row>
+    <row r="133" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="18">
         <v>132</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C133" s="53"/>
+        <v>110</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>643</v>
+      </c>
       <c r="D133" s="19" t="s">
-        <v>1453</v>
+        <v>658</v>
       </c>
       <c r="E133" s="19" t="s">
-        <v>1452</v>
+        <v>659</v>
       </c>
       <c r="F133" s="19" t="s">
-        <v>1451</v>
+        <v>650</v>
       </c>
       <c r="G133" s="19" t="s">
-        <v>1450</v>
+        <v>660</v>
       </c>
       <c r="H133" s="19" t="s">
-        <v>1449</v>
+        <v>661</v>
       </c>
       <c r="I133" s="18" t="s">
         <v>42</v>
@@ -28808,32 +33800,34 @@
         <v>43</v>
       </c>
       <c r="M133" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N133" s="17"/>
-    </row>
-    <row r="134" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="N133" s="18"/>
+    </row>
+    <row r="134" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="18">
         <v>133</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C134" s="53"/>
+        <v>110</v>
+      </c>
+      <c r="C134" s="19" t="s">
+        <v>643</v>
+      </c>
       <c r="D134" s="19" t="s">
-        <v>1448</v>
+        <v>662</v>
       </c>
       <c r="E134" s="19" t="s">
-        <v>1443</v>
+        <v>663</v>
       </c>
       <c r="F134" s="19" t="s">
-        <v>1447</v>
+        <v>387</v>
       </c>
       <c r="G134" s="19" t="s">
-        <v>1446</v>
+        <v>664</v>
       </c>
       <c r="H134" s="19" t="s">
-        <v>1445</v>
+        <v>665</v>
       </c>
       <c r="I134" s="18" t="s">
         <v>42</v>
@@ -28848,32 +33842,34 @@
         <v>43</v>
       </c>
       <c r="M134" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N134" s="17"/>
-    </row>
-    <row r="135" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="N134" s="18"/>
+    </row>
+    <row r="135" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="18">
         <v>134</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C135" s="53"/>
+        <v>110</v>
+      </c>
+      <c r="C135" s="19" t="s">
+        <v>643</v>
+      </c>
       <c r="D135" s="19" t="s">
-        <v>1444</v>
+        <v>666</v>
       </c>
       <c r="E135" s="19" t="s">
-        <v>1443</v>
+        <v>667</v>
       </c>
       <c r="F135" s="19" t="s">
-        <v>387</v>
+        <v>668</v>
       </c>
       <c r="G135" s="19" t="s">
-        <v>1442</v>
+        <v>669</v>
       </c>
       <c r="H135" s="19" t="s">
-        <v>1441</v>
+        <v>670</v>
       </c>
       <c r="I135" s="18" t="s">
         <v>42</v>
@@ -28888,32 +33884,34 @@
         <v>43</v>
       </c>
       <c r="M135" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N135" s="17"/>
-    </row>
-    <row r="136" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="N135" s="18"/>
+    </row>
+    <row r="136" spans="1:14" ht="183.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="18">
         <v>135</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C136" s="54"/>
+        <v>110</v>
+      </c>
+      <c r="C136" s="19" t="s">
+        <v>643</v>
+      </c>
       <c r="D136" s="19" t="s">
-        <v>1440</v>
+        <v>671</v>
       </c>
       <c r="E136" s="19" t="s">
-        <v>1439</v>
+        <v>672</v>
       </c>
       <c r="F136" s="19" t="s">
-        <v>387</v>
+        <v>673</v>
       </c>
       <c r="G136" s="19" t="s">
-        <v>1438</v>
+        <v>674</v>
       </c>
       <c r="H136" s="19" t="s">
-        <v>1437</v>
+        <v>675</v>
       </c>
       <c r="I136" s="18" t="s">
         <v>42</v>
@@ -28922,40 +33920,40 @@
         <v>30</v>
       </c>
       <c r="K136" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L136" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M136" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N136" s="17"/>
-    </row>
-    <row r="137" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="N136" s="18"/>
+    </row>
+    <row r="137" spans="1:14" ht="194.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="18">
         <v>136</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C137" s="25" t="s">
-        <v>1431</v>
+        <v>110</v>
+      </c>
+      <c r="C137" s="19" t="s">
+        <v>643</v>
       </c>
       <c r="D137" s="19" t="s">
-        <v>1436</v>
+        <v>676</v>
       </c>
       <c r="E137" s="19" t="s">
-        <v>1435</v>
+        <v>677</v>
       </c>
       <c r="F137" s="19" t="s">
-        <v>1434</v>
+        <v>673</v>
       </c>
       <c r="G137" s="19" t="s">
-        <v>1433</v>
+        <v>678</v>
       </c>
       <c r="H137" s="19" t="s">
-        <v>1432</v>
+        <v>679</v>
       </c>
       <c r="I137" s="18" t="s">
         <v>42</v>
@@ -28970,34 +33968,34 @@
         <v>43</v>
       </c>
       <c r="M137" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N137" s="17"/>
-    </row>
-    <row r="138" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="N137" s="18"/>
+    </row>
+    <row r="138" spans="1:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="18">
         <v>137</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C138" s="25" t="s">
-        <v>1431</v>
+        <v>110</v>
+      </c>
+      <c r="C138" s="19" t="s">
+        <v>643</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>1430</v>
+        <v>680</v>
       </c>
       <c r="E138" s="19" t="s">
-        <v>1429</v>
+        <v>681</v>
       </c>
       <c r="F138" s="19" t="s">
-        <v>1428</v>
+        <v>387</v>
       </c>
       <c r="G138" s="19" t="s">
-        <v>1427</v>
+        <v>682</v>
       </c>
       <c r="H138" s="19" t="s">
-        <v>1426</v>
+        <v>683</v>
       </c>
       <c r="I138" s="18" t="s">
         <v>42</v>
@@ -29012,11 +34010,11 @@
         <v>43</v>
       </c>
       <c r="M138" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N138" s="17"/>
-    </row>
-    <row r="139" spans="1:14" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="N138" s="18"/>
+    </row>
+    <row r="139" spans="1:14" ht="75" x14ac:dyDescent="0.2">
       <c r="A139" s="18">
         <v>138</v>
       </c>
@@ -29024,22 +34022,22 @@
         <v>110</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>717</v>
+        <v>643</v>
       </c>
       <c r="D139" s="19" t="s">
-        <v>718</v>
+        <v>684</v>
       </c>
       <c r="E139" s="19" t="s">
-        <v>719</v>
+        <v>685</v>
       </c>
       <c r="F139" s="19" t="s">
-        <v>720</v>
+        <v>686</v>
       </c>
       <c r="G139" s="19" t="s">
-        <v>721</v>
+        <v>687</v>
       </c>
       <c r="H139" s="19" t="s">
-        <v>722</v>
+        <v>688</v>
       </c>
       <c r="I139" s="18" t="s">
         <v>42</v>
@@ -29048,7 +34046,7 @@
         <v>30</v>
       </c>
       <c r="K139" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L139" s="18" t="s">
         <v>43</v>
@@ -29058,30 +34056,30 @@
       </c>
       <c r="N139" s="18"/>
     </row>
-    <row r="140" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="18">
         <v>139</v>
       </c>
       <c r="B140" s="18" t="s">
-        <v>110</v>
+        <v>1347</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>717</v>
+        <v>643</v>
       </c>
       <c r="D140" s="19" t="s">
-        <v>723</v>
+        <v>1542</v>
       </c>
       <c r="E140" s="19" t="s">
-        <v>724</v>
+        <v>1541</v>
       </c>
       <c r="F140" s="19" t="s">
-        <v>725</v>
+        <v>1540</v>
       </c>
       <c r="G140" s="19" t="s">
-        <v>726</v>
+        <v>1539</v>
       </c>
       <c r="H140" s="19" t="s">
-        <v>727</v>
+        <v>1538</v>
       </c>
       <c r="I140" s="18" t="s">
         <v>42</v>
@@ -29090,40 +34088,40 @@
         <v>30</v>
       </c>
       <c r="K140" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L140" s="18" t="s">
-        <v>43</v>
+        <v>1354</v>
       </c>
       <c r="M140" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N140" s="18"/>
-    </row>
-    <row r="141" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N140" s="17"/>
+    </row>
+    <row r="141" spans="1:14" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="18">
         <v>140</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>110</v>
+        <v>1974</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>717</v>
+        <v>1975</v>
       </c>
       <c r="D141" s="19" t="s">
-        <v>728</v>
+        <v>1976</v>
       </c>
       <c r="E141" s="19" t="s">
-        <v>729</v>
+        <v>1977</v>
       </c>
       <c r="F141" s="19" t="s">
-        <v>730</v>
+        <v>1978</v>
       </c>
       <c r="G141" s="19" t="s">
-        <v>731</v>
+        <v>1979</v>
       </c>
       <c r="H141" s="19" t="s">
-        <v>732</v>
+        <v>1980</v>
       </c>
       <c r="I141" s="18" t="s">
         <v>42</v>
@@ -29135,14 +34133,16 @@
         <v>2</v>
       </c>
       <c r="L141" s="18" t="s">
-        <v>43</v>
+        <v>1981</v>
       </c>
       <c r="M141" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N141" s="18"/>
-    </row>
-    <row r="142" spans="1:14" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N141" s="17" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="18">
         <v>141</v>
       </c>
@@ -29150,22 +34150,22 @@
         <v>110</v>
       </c>
       <c r="C142" s="19" t="s">
-        <v>733</v>
+        <v>689</v>
       </c>
       <c r="D142" s="19" t="s">
-        <v>734</v>
+        <v>2044</v>
       </c>
       <c r="E142" s="19" t="s">
-        <v>735</v>
+        <v>690</v>
       </c>
       <c r="F142" s="19" t="s">
-        <v>736</v>
+        <v>691</v>
       </c>
       <c r="G142" s="19" t="s">
-        <v>737</v>
+        <v>692</v>
       </c>
       <c r="H142" s="19" t="s">
-        <v>738</v>
+        <v>693</v>
       </c>
       <c r="I142" s="18" t="s">
         <v>42</v>
@@ -29174,7 +34174,7 @@
         <v>30</v>
       </c>
       <c r="K142" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L142" s="18" t="s">
         <v>43</v>
@@ -29184,7 +34184,7 @@
       </c>
       <c r="N142" s="18"/>
     </row>
-    <row r="143" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="18">
         <v>142</v>
       </c>
@@ -29192,22 +34192,22 @@
         <v>110</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>733</v>
+        <v>689</v>
       </c>
       <c r="D143" s="19" t="s">
-        <v>739</v>
+        <v>694</v>
       </c>
       <c r="E143" s="19" t="s">
-        <v>740</v>
+        <v>695</v>
       </c>
       <c r="F143" s="19" t="s">
-        <v>741</v>
+        <v>696</v>
       </c>
       <c r="G143" s="19" t="s">
-        <v>742</v>
+        <v>697</v>
       </c>
       <c r="H143" s="19" t="s">
-        <v>743</v>
+        <v>698</v>
       </c>
       <c r="I143" s="18" t="s">
         <v>42</v>
@@ -29216,7 +34216,7 @@
         <v>30</v>
       </c>
       <c r="K143" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L143" s="18" t="s">
         <v>43</v>
@@ -29224,9 +34224,9 @@
       <c r="M143" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="N143" s="18"/>
-    </row>
-    <row r="144" spans="1:14" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N143" s="19"/>
+    </row>
+    <row r="144" spans="1:14" ht="192.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="18">
         <v>143</v>
       </c>
@@ -29234,22 +34234,22 @@
         <v>110</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>733</v>
+        <v>689</v>
       </c>
       <c r="D144" s="19" t="s">
-        <v>744</v>
+        <v>699</v>
       </c>
       <c r="E144" s="19" t="s">
-        <v>745</v>
+        <v>700</v>
       </c>
       <c r="F144" s="19" t="s">
-        <v>741</v>
+        <v>696</v>
       </c>
       <c r="G144" s="19" t="s">
-        <v>746</v>
+        <v>701</v>
       </c>
       <c r="H144" s="19" t="s">
-        <v>747</v>
+        <v>702</v>
       </c>
       <c r="I144" s="18" t="s">
         <v>42</v>
@@ -29268,7 +34268,7 @@
       </c>
       <c r="N144" s="18"/>
     </row>
-    <row r="145" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="18">
         <v>144</v>
       </c>
@@ -29276,22 +34276,22 @@
         <v>110</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>733</v>
+        <v>689</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>748</v>
+        <v>703</v>
       </c>
       <c r="E145" s="19" t="s">
-        <v>749</v>
+        <v>704</v>
       </c>
       <c r="F145" s="19" t="s">
-        <v>750</v>
+        <v>705</v>
       </c>
       <c r="G145" s="19" t="s">
-        <v>751</v>
+        <v>706</v>
       </c>
       <c r="H145" s="19" t="s">
-        <v>752</v>
+        <v>707</v>
       </c>
       <c r="I145" s="18" t="s">
         <v>42</v>
@@ -29300,7 +34300,7 @@
         <v>30</v>
       </c>
       <c r="K145" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L145" s="18" t="s">
         <v>43</v>
@@ -29310,7 +34310,7 @@
       </c>
       <c r="N145" s="18"/>
     </row>
-    <row r="146" spans="1:14" ht="234.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="A146" s="18">
         <v>145</v>
       </c>
@@ -29318,22 +34318,22 @@
         <v>110</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>733</v>
+        <v>689</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>753</v>
+        <v>708</v>
       </c>
       <c r="E146" s="19" t="s">
-        <v>754</v>
+        <v>709</v>
       </c>
       <c r="F146" s="19" t="s">
-        <v>755</v>
+        <v>710</v>
       </c>
       <c r="G146" s="19" t="s">
-        <v>756</v>
+        <v>711</v>
       </c>
       <c r="H146" s="19" t="s">
-        <v>757</v>
+        <v>712</v>
       </c>
       <c r="I146" s="18" t="s">
         <v>42</v>
@@ -29342,7 +34342,7 @@
         <v>30</v>
       </c>
       <c r="K146" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L146" s="18" t="s">
         <v>43</v>
@@ -29352,7 +34352,7 @@
       </c>
       <c r="N146" s="18"/>
     </row>
-    <row r="147" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="18">
         <v>146</v>
       </c>
@@ -29360,22 +34360,22 @@
         <v>110</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>733</v>
+        <v>689</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>758</v>
+        <v>713</v>
       </c>
       <c r="E147" s="19" t="s">
-        <v>759</v>
+        <v>714</v>
       </c>
       <c r="F147" s="19" t="s">
-        <v>760</v>
+        <v>387</v>
       </c>
       <c r="G147" s="19" t="s">
-        <v>761</v>
+        <v>715</v>
       </c>
       <c r="H147" s="19" t="s">
-        <v>743</v>
+        <v>716</v>
       </c>
       <c r="I147" s="18" t="s">
         <v>42</v>
@@ -29394,30 +34394,30 @@
       </c>
       <c r="N147" s="18"/>
     </row>
-    <row r="148" spans="1:14" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A148" s="18">
         <v>147</v>
       </c>
       <c r="B148" s="18" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>733</v>
+        <v>1545</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>762</v>
+        <v>1545</v>
       </c>
       <c r="E148" s="19" t="s">
-        <v>763</v>
+        <v>1544</v>
       </c>
       <c r="F148" s="19" t="s">
-        <v>760</v>
+        <v>1543</v>
       </c>
       <c r="G148" s="19" t="s">
-        <v>764</v>
+        <v>1547</v>
       </c>
       <c r="H148" s="19" t="s">
-        <v>765</v>
+        <v>1546</v>
       </c>
       <c r="I148" s="18" t="s">
         <v>42</v>
@@ -29426,40 +34426,40 @@
         <v>30</v>
       </c>
       <c r="K148" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L148" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M148" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N148" s="18"/>
-    </row>
-    <row r="149" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N148" s="17"/>
+    </row>
+    <row r="149" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="18">
         <v>148</v>
       </c>
       <c r="B149" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C149" s="19" t="s">
-        <v>733</v>
+        <v>36</v>
+      </c>
+      <c r="C149" s="52" t="s">
+        <v>1462</v>
       </c>
       <c r="D149" s="19" t="s">
-        <v>766</v>
+        <v>1483</v>
       </c>
       <c r="E149" s="19" t="s">
-        <v>767</v>
+        <v>1482</v>
       </c>
       <c r="F149" s="19" t="s">
-        <v>768</v>
+        <v>387</v>
       </c>
       <c r="G149" s="19" t="s">
-        <v>769</v>
+        <v>1481</v>
       </c>
       <c r="H149" s="19" t="s">
-        <v>770</v>
+        <v>1480</v>
       </c>
       <c r="I149" s="18" t="s">
         <v>42</v>
@@ -29474,34 +34474,32 @@
         <v>43</v>
       </c>
       <c r="M149" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N149" s="18"/>
-    </row>
-    <row r="150" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N149" s="17"/>
+    </row>
+    <row r="150" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="18">
         <v>149</v>
       </c>
       <c r="B150" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C150" s="19" t="s">
-        <v>733</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C150" s="53"/>
       <c r="D150" s="19" t="s">
-        <v>771</v>
+        <v>1479</v>
       </c>
       <c r="E150" s="19" t="s">
-        <v>772</v>
+        <v>1478</v>
       </c>
       <c r="F150" s="19" t="s">
-        <v>773</v>
+        <v>1469</v>
       </c>
       <c r="G150" s="19" t="s">
-        <v>774</v>
+        <v>1477</v>
       </c>
       <c r="H150" s="19" t="s">
-        <v>775</v>
+        <v>1476</v>
       </c>
       <c r="I150" s="18" t="s">
         <v>42</v>
@@ -29516,34 +34514,32 @@
         <v>43</v>
       </c>
       <c r="M150" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N150" s="18"/>
-    </row>
-    <row r="151" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N150" s="17"/>
+    </row>
+    <row r="151" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="18">
         <v>150</v>
       </c>
       <c r="B151" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C151" s="19" t="s">
-        <v>733</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C151" s="53"/>
       <c r="D151" s="19" t="s">
-        <v>776</v>
+        <v>1475</v>
       </c>
       <c r="E151" s="19" t="s">
-        <v>777</v>
+        <v>1474</v>
       </c>
       <c r="F151" s="19" t="s">
-        <v>760</v>
+        <v>1469</v>
       </c>
       <c r="G151" s="19" t="s">
-        <v>778</v>
+        <v>1473</v>
       </c>
       <c r="H151" s="19" t="s">
-        <v>779</v>
+        <v>1472</v>
       </c>
       <c r="I151" s="18" t="s">
         <v>42</v>
@@ -29552,40 +34548,38 @@
         <v>30</v>
       </c>
       <c r="K151" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L151" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M151" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N151" s="18"/>
-    </row>
-    <row r="152" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N151" s="17"/>
+    </row>
+    <row r="152" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="18">
         <v>151</v>
       </c>
       <c r="B152" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C152" s="19" t="s">
-        <v>733</v>
-      </c>
+      <c r="C152" s="53"/>
       <c r="D152" s="19" t="s">
-        <v>780</v>
+        <v>1471</v>
       </c>
       <c r="E152" s="19" t="s">
-        <v>781</v>
+        <v>1470</v>
       </c>
       <c r="F152" s="19" t="s">
-        <v>782</v>
+        <v>1469</v>
       </c>
       <c r="G152" s="19" t="s">
-        <v>783</v>
+        <v>1468</v>
       </c>
       <c r="H152" s="19" t="s">
-        <v>784</v>
+        <v>1467</v>
       </c>
       <c r="I152" s="18" t="s">
         <v>42</v>
@@ -29604,30 +34598,28 @@
       </c>
       <c r="N152" s="17"/>
     </row>
-    <row r="153" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="18">
         <v>152</v>
       </c>
       <c r="B153" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C153" s="19" t="s">
-        <v>358</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C153" s="54"/>
       <c r="D153" s="19" t="s">
-        <v>785</v>
+        <v>1466</v>
       </c>
       <c r="E153" s="19" t="s">
-        <v>786</v>
+        <v>1465</v>
       </c>
       <c r="F153" s="19" t="s">
-        <v>387</v>
+        <v>1451</v>
       </c>
       <c r="G153" s="19" t="s">
-        <v>787</v>
+        <v>1464</v>
       </c>
       <c r="H153" s="19" t="s">
-        <v>788</v>
+        <v>1463</v>
       </c>
       <c r="I153" s="18" t="s">
         <v>42</v>
@@ -29636,40 +34628,40 @@
         <v>30</v>
       </c>
       <c r="K153" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L153" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M153" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N153" s="18"/>
-    </row>
-    <row r="154" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N153" s="17"/>
+    </row>
+    <row r="154" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="18">
         <v>153</v>
       </c>
       <c r="B154" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C154" s="19" t="s">
-        <v>462</v>
+        <v>36</v>
+      </c>
+      <c r="C154" s="52" t="s">
+        <v>1462</v>
       </c>
       <c r="D154" s="19" t="s">
-        <v>789</v>
+        <v>1461</v>
       </c>
       <c r="E154" s="19" t="s">
-        <v>790</v>
+        <v>1460</v>
       </c>
       <c r="F154" s="19" t="s">
-        <v>387</v>
+        <v>1451</v>
       </c>
       <c r="G154" s="19" t="s">
-        <v>791</v>
+        <v>1459</v>
       </c>
       <c r="H154" s="19" t="s">
-        <v>792</v>
+        <v>1458</v>
       </c>
       <c r="I154" s="18" t="s">
         <v>42</v>
@@ -29678,40 +34670,38 @@
         <v>30</v>
       </c>
       <c r="K154" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L154" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M154" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N154" s="18"/>
-    </row>
-    <row r="155" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N154" s="17"/>
+    </row>
+    <row r="155" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="18">
         <v>154</v>
       </c>
       <c r="B155" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C155" s="19" t="s">
-        <v>793</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C155" s="53"/>
       <c r="D155" s="19" t="s">
-        <v>793</v>
+        <v>1457</v>
       </c>
       <c r="E155" s="19" t="s">
-        <v>794</v>
+        <v>1456</v>
       </c>
       <c r="F155" s="19" t="s">
-        <v>141</v>
+        <v>1451</v>
       </c>
       <c r="G155" s="19" t="s">
-        <v>795</v>
+        <v>1455</v>
       </c>
       <c r="H155" s="19" t="s">
-        <v>796</v>
+        <v>1454</v>
       </c>
       <c r="I155" s="18" t="s">
         <v>42</v>
@@ -29720,40 +34710,38 @@
         <v>30</v>
       </c>
       <c r="K155" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L155" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M155" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N155" s="18"/>
-    </row>
-    <row r="156" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N155" s="17"/>
+    </row>
+    <row r="156" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="18">
         <v>155</v>
       </c>
       <c r="B156" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C156" s="19" t="s">
-        <v>797</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C156" s="53"/>
       <c r="D156" s="19" t="s">
-        <v>798</v>
+        <v>1453</v>
       </c>
       <c r="E156" s="19" t="s">
-        <v>799</v>
+        <v>1452</v>
       </c>
       <c r="F156" s="19" t="s">
-        <v>479</v>
+        <v>1451</v>
       </c>
       <c r="G156" s="19" t="s">
-        <v>800</v>
+        <v>1450</v>
       </c>
       <c r="H156" s="19" t="s">
-        <v>801</v>
+        <v>1449</v>
       </c>
       <c r="I156" s="18" t="s">
         <v>42</v>
@@ -29762,39 +34750,1003 @@
         <v>30</v>
       </c>
       <c r="K156" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L156" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M156" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N156" s="17"/>
+    </row>
+    <row r="157" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="18">
+        <v>156</v>
+      </c>
+      <c r="B157" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C157" s="53"/>
+      <c r="D157" s="19" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E157" s="19" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F157" s="19" t="s">
+        <v>1447</v>
+      </c>
+      <c r="G157" s="19" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H157" s="19" t="s">
+        <v>1445</v>
+      </c>
+      <c r="I157" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J157" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K157" s="18">
+        <v>2</v>
+      </c>
+      <c r="L157" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M157" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N157" s="17"/>
+    </row>
+    <row r="158" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="18">
+        <v>157</v>
+      </c>
+      <c r="B158" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C158" s="53"/>
+      <c r="D158" s="19" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E158" s="19" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F158" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="G158" s="19" t="s">
+        <v>1442</v>
+      </c>
+      <c r="H158" s="19" t="s">
+        <v>1441</v>
+      </c>
+      <c r="I158" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J158" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K158" s="18">
+        <v>2</v>
+      </c>
+      <c r="L158" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M158" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N158" s="17"/>
+    </row>
+    <row r="159" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="18">
+        <v>158</v>
+      </c>
+      <c r="B159" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C159" s="54"/>
+      <c r="D159" s="19" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E159" s="19" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F159" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="G159" s="19" t="s">
+        <v>1438</v>
+      </c>
+      <c r="H159" s="19" t="s">
+        <v>1437</v>
+      </c>
+      <c r="I159" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J159" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K159" s="18">
+        <v>2</v>
+      </c>
+      <c r="L159" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M159" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N159" s="17"/>
+    </row>
+    <row r="160" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="18">
+        <v>159</v>
+      </c>
+      <c r="B160" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C160" s="25" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D160" s="19" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E160" s="19" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F160" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G160" s="19" t="s">
+        <v>1433</v>
+      </c>
+      <c r="H160" s="19" t="s">
+        <v>1432</v>
+      </c>
+      <c r="I160" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J160" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K160" s="18">
+        <v>2</v>
+      </c>
+      <c r="L160" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M160" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N160" s="17"/>
+    </row>
+    <row r="161" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="18">
+        <v>160</v>
+      </c>
+      <c r="B161" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C161" s="25" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D161" s="19" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E161" s="19" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F161" s="19" t="s">
+        <v>1428</v>
+      </c>
+      <c r="G161" s="19" t="s">
+        <v>1427</v>
+      </c>
+      <c r="H161" s="19" t="s">
+        <v>1426</v>
+      </c>
+      <c r="I161" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J161" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K161" s="18">
+        <v>2</v>
+      </c>
+      <c r="L161" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M161" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N161" s="17"/>
+    </row>
+    <row r="162" spans="1:14" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="18">
+        <v>161</v>
+      </c>
+      <c r="B162" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C162" s="19" t="s">
+        <v>717</v>
+      </c>
+      <c r="D162" s="19" t="s">
+        <v>718</v>
+      </c>
+      <c r="E162" s="19" t="s">
+        <v>719</v>
+      </c>
+      <c r="F162" s="19" t="s">
+        <v>720</v>
+      </c>
+      <c r="G162" s="19" t="s">
+        <v>721</v>
+      </c>
+      <c r="H162" s="19" t="s">
+        <v>722</v>
+      </c>
+      <c r="I162" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J162" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K162" s="18">
+        <v>1</v>
+      </c>
+      <c r="L162" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M162" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="N156" s="18"/>
+      <c r="N162" s="18"/>
+    </row>
+    <row r="163" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="18">
+        <v>162</v>
+      </c>
+      <c r="B163" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C163" s="19" t="s">
+        <v>717</v>
+      </c>
+      <c r="D163" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="E163" s="19" t="s">
+        <v>724</v>
+      </c>
+      <c r="F163" s="19" t="s">
+        <v>725</v>
+      </c>
+      <c r="G163" s="19" t="s">
+        <v>726</v>
+      </c>
+      <c r="H163" s="19" t="s">
+        <v>727</v>
+      </c>
+      <c r="I163" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J163" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K163" s="18">
+        <v>2</v>
+      </c>
+      <c r="L163" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M163" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N163" s="18"/>
+    </row>
+    <row r="164" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="18">
+        <v>163</v>
+      </c>
+      <c r="B164" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C164" s="19" t="s">
+        <v>717</v>
+      </c>
+      <c r="D164" s="19" t="s">
+        <v>728</v>
+      </c>
+      <c r="E164" s="19" t="s">
+        <v>729</v>
+      </c>
+      <c r="F164" s="19" t="s">
+        <v>730</v>
+      </c>
+      <c r="G164" s="19" t="s">
+        <v>731</v>
+      </c>
+      <c r="H164" s="19" t="s">
+        <v>732</v>
+      </c>
+      <c r="I164" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J164" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K164" s="18">
+        <v>2</v>
+      </c>
+      <c r="L164" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M164" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N164" s="18"/>
+    </row>
+    <row r="165" spans="1:14" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="18">
+        <v>164</v>
+      </c>
+      <c r="B165" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C165" s="19" t="s">
+        <v>733</v>
+      </c>
+      <c r="D165" s="19" t="s">
+        <v>734</v>
+      </c>
+      <c r="E165" s="19" t="s">
+        <v>735</v>
+      </c>
+      <c r="F165" s="19" t="s">
+        <v>736</v>
+      </c>
+      <c r="G165" s="19" t="s">
+        <v>737</v>
+      </c>
+      <c r="H165" s="19" t="s">
+        <v>738</v>
+      </c>
+      <c r="I165" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J165" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K165" s="18">
+        <v>1</v>
+      </c>
+      <c r="L165" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M165" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N165" s="18"/>
+    </row>
+    <row r="166" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="18">
+        <v>165</v>
+      </c>
+      <c r="B166" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C166" s="19" t="s">
+        <v>733</v>
+      </c>
+      <c r="D166" s="19" t="s">
+        <v>739</v>
+      </c>
+      <c r="E166" s="19" t="s">
+        <v>740</v>
+      </c>
+      <c r="F166" s="19" t="s">
+        <v>741</v>
+      </c>
+      <c r="G166" s="19" t="s">
+        <v>742</v>
+      </c>
+      <c r="H166" s="19" t="s">
+        <v>743</v>
+      </c>
+      <c r="I166" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J166" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K166" s="18">
+        <v>2</v>
+      </c>
+      <c r="L166" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M166" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N166" s="18"/>
+    </row>
+    <row r="167" spans="1:14" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="18">
+        <v>166</v>
+      </c>
+      <c r="B167" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C167" s="19" t="s">
+        <v>733</v>
+      </c>
+      <c r="D167" s="19" t="s">
+        <v>744</v>
+      </c>
+      <c r="E167" s="19" t="s">
+        <v>745</v>
+      </c>
+      <c r="F167" s="19" t="s">
+        <v>741</v>
+      </c>
+      <c r="G167" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="H167" s="19" t="s">
+        <v>747</v>
+      </c>
+      <c r="I167" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J167" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K167" s="18">
+        <v>2</v>
+      </c>
+      <c r="L167" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M167" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N167" s="18"/>
+    </row>
+    <row r="168" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="18">
+        <v>167</v>
+      </c>
+      <c r="B168" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C168" s="19" t="s">
+        <v>733</v>
+      </c>
+      <c r="D168" s="19" t="s">
+        <v>748</v>
+      </c>
+      <c r="E168" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="F168" s="19" t="s">
+        <v>750</v>
+      </c>
+      <c r="G168" s="19" t="s">
+        <v>751</v>
+      </c>
+      <c r="H168" s="19" t="s">
+        <v>752</v>
+      </c>
+      <c r="I168" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J168" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K168" s="18">
+        <v>1</v>
+      </c>
+      <c r="L168" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M168" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N168" s="18"/>
+    </row>
+    <row r="169" spans="1:14" ht="234.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="18">
+        <v>168</v>
+      </c>
+      <c r="B169" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C169" s="19" t="s">
+        <v>733</v>
+      </c>
+      <c r="D169" s="19" t="s">
+        <v>753</v>
+      </c>
+      <c r="E169" s="19" t="s">
+        <v>754</v>
+      </c>
+      <c r="F169" s="19" t="s">
+        <v>755</v>
+      </c>
+      <c r="G169" s="19" t="s">
+        <v>756</v>
+      </c>
+      <c r="H169" s="19" t="s">
+        <v>757</v>
+      </c>
+      <c r="I169" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J169" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K169" s="18">
+        <v>1</v>
+      </c>
+      <c r="L169" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M169" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N169" s="18"/>
+    </row>
+    <row r="170" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="18">
+        <v>169</v>
+      </c>
+      <c r="B170" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C170" s="19" t="s">
+        <v>733</v>
+      </c>
+      <c r="D170" s="19" t="s">
+        <v>758</v>
+      </c>
+      <c r="E170" s="19" t="s">
+        <v>759</v>
+      </c>
+      <c r="F170" s="19" t="s">
+        <v>760</v>
+      </c>
+      <c r="G170" s="19" t="s">
+        <v>761</v>
+      </c>
+      <c r="H170" s="19" t="s">
+        <v>743</v>
+      </c>
+      <c r="I170" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J170" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K170" s="18">
+        <v>2</v>
+      </c>
+      <c r="L170" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M170" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N170" s="18"/>
+    </row>
+    <row r="171" spans="1:14" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="18">
+        <v>170</v>
+      </c>
+      <c r="B171" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C171" s="19" t="s">
+        <v>733</v>
+      </c>
+      <c r="D171" s="19" t="s">
+        <v>762</v>
+      </c>
+      <c r="E171" s="19" t="s">
+        <v>763</v>
+      </c>
+      <c r="F171" s="19" t="s">
+        <v>760</v>
+      </c>
+      <c r="G171" s="19" t="s">
+        <v>764</v>
+      </c>
+      <c r="H171" s="19" t="s">
+        <v>765</v>
+      </c>
+      <c r="I171" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J171" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K171" s="18">
+        <v>2</v>
+      </c>
+      <c r="L171" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M171" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N171" s="18"/>
+    </row>
+    <row r="172" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="18">
+        <v>171</v>
+      </c>
+      <c r="B172" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C172" s="19" t="s">
+        <v>733</v>
+      </c>
+      <c r="D172" s="19" t="s">
+        <v>766</v>
+      </c>
+      <c r="E172" s="19" t="s">
+        <v>767</v>
+      </c>
+      <c r="F172" s="19" t="s">
+        <v>768</v>
+      </c>
+      <c r="G172" s="19" t="s">
+        <v>769</v>
+      </c>
+      <c r="H172" s="19" t="s">
+        <v>770</v>
+      </c>
+      <c r="I172" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J172" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K172" s="18">
+        <v>1</v>
+      </c>
+      <c r="L172" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M172" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N172" s="18"/>
+    </row>
+    <row r="173" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="18">
+        <v>172</v>
+      </c>
+      <c r="B173" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C173" s="19" t="s">
+        <v>733</v>
+      </c>
+      <c r="D173" s="19" t="s">
+        <v>771</v>
+      </c>
+      <c r="E173" s="19" t="s">
+        <v>772</v>
+      </c>
+      <c r="F173" s="19" t="s">
+        <v>773</v>
+      </c>
+      <c r="G173" s="19" t="s">
+        <v>774</v>
+      </c>
+      <c r="H173" s="19" t="s">
+        <v>775</v>
+      </c>
+      <c r="I173" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J173" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K173" s="18">
+        <v>1</v>
+      </c>
+      <c r="L173" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M173" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N173" s="18"/>
+    </row>
+    <row r="174" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="18">
+        <v>173</v>
+      </c>
+      <c r="B174" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C174" s="19" t="s">
+        <v>733</v>
+      </c>
+      <c r="D174" s="19" t="s">
+        <v>776</v>
+      </c>
+      <c r="E174" s="19" t="s">
+        <v>777</v>
+      </c>
+      <c r="F174" s="19" t="s">
+        <v>760</v>
+      </c>
+      <c r="G174" s="19" t="s">
+        <v>778</v>
+      </c>
+      <c r="H174" s="19" t="s">
+        <v>779</v>
+      </c>
+      <c r="I174" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J174" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K174" s="18">
+        <v>3</v>
+      </c>
+      <c r="L174" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M174" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N174" s="18"/>
+    </row>
+    <row r="175" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="18">
+        <v>174</v>
+      </c>
+      <c r="B175" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C175" s="19" t="s">
+        <v>733</v>
+      </c>
+      <c r="D175" s="19" t="s">
+        <v>780</v>
+      </c>
+      <c r="E175" s="19" t="s">
+        <v>781</v>
+      </c>
+      <c r="F175" s="19" t="s">
+        <v>782</v>
+      </c>
+      <c r="G175" s="19" t="s">
+        <v>783</v>
+      </c>
+      <c r="H175" s="19" t="s">
+        <v>784</v>
+      </c>
+      <c r="I175" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J175" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K175" s="18">
+        <v>2</v>
+      </c>
+      <c r="L175" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M175" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N175" s="17"/>
+    </row>
+    <row r="176" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="18">
+        <v>175</v>
+      </c>
+      <c r="B176" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C176" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="D176" s="19" t="s">
+        <v>785</v>
+      </c>
+      <c r="E176" s="19" t="s">
+        <v>786</v>
+      </c>
+      <c r="F176" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="G176" s="19" t="s">
+        <v>787</v>
+      </c>
+      <c r="H176" s="19" t="s">
+        <v>788</v>
+      </c>
+      <c r="I176" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J176" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K176" s="18">
+        <v>3</v>
+      </c>
+      <c r="L176" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M176" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N176" s="18"/>
+    </row>
+    <row r="177" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="18">
+        <v>176</v>
+      </c>
+      <c r="B177" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C177" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="D177" s="19" t="s">
+        <v>789</v>
+      </c>
+      <c r="E177" s="19" t="s">
+        <v>790</v>
+      </c>
+      <c r="F177" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="G177" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H177" s="19" t="s">
+        <v>792</v>
+      </c>
+      <c r="I177" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J177" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K177" s="18">
+        <v>4</v>
+      </c>
+      <c r="L177" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M177" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N177" s="18"/>
+    </row>
+    <row r="178" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="18">
+        <v>177</v>
+      </c>
+      <c r="B178" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C178" s="19" t="s">
+        <v>793</v>
+      </c>
+      <c r="D178" s="19" t="s">
+        <v>793</v>
+      </c>
+      <c r="E178" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="F178" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G178" s="19" t="s">
+        <v>795</v>
+      </c>
+      <c r="H178" s="19" t="s">
+        <v>796</v>
+      </c>
+      <c r="I178" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J178" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K178" s="18">
+        <v>4</v>
+      </c>
+      <c r="L178" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M178" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N178" s="18"/>
+    </row>
+    <row r="179" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="18">
+        <v>178</v>
+      </c>
+      <c r="B179" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C179" s="19" t="s">
+        <v>797</v>
+      </c>
+      <c r="D179" s="19" t="s">
+        <v>798</v>
+      </c>
+      <c r="E179" s="19" t="s">
+        <v>799</v>
+      </c>
+      <c r="F179" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="G179" s="19" t="s">
+        <v>800</v>
+      </c>
+      <c r="H179" s="19" t="s">
+        <v>801</v>
+      </c>
+      <c r="I179" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J179" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K179" s="18">
+        <v>4</v>
+      </c>
+      <c r="L179" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M179" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N179" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
     <mergeCell ref="F48:F49"/>
     <mergeCell ref="B66:B68"/>
     <mergeCell ref="C66:C68"/>
-    <mergeCell ref="C131:C136"/>
-    <mergeCell ref="C126:C130"/>
+    <mergeCell ref="C154:C159"/>
+    <mergeCell ref="C149:C153"/>
     <mergeCell ref="B44:B49"/>
     <mergeCell ref="C44:C49"/>
     <mergeCell ref="E48:E49"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="D104:D105"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I156">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I179">
       <formula1>"功能,异常,性能,安全"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J156">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J179">
       <formula1>"None,Pass,Fail"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K156">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K179">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M156">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M179">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
